--- a/QuantLibXL/Data2/XLS/USD_YCONBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YCONBootstrapping.xlsx
@@ -10,9 +10,9 @@
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
     <sheet name="RateHelpers" sheetId="4" r:id="rId2"/>
     <sheet name="Selected" sheetId="5" r:id="rId3"/>
-    <sheet name="ON" sheetId="9" r:id="rId4"/>
-    <sheet name="ON (2)" sheetId="17" r:id="rId5"/>
-    <sheet name="ON (3)" sheetId="30" r:id="rId6"/>
+    <sheet name="ON_Deposits" sheetId="9" r:id="rId4"/>
+    <sheet name="ON_FRAs" sheetId="17" r:id="rId5"/>
+    <sheet name="ON_Swaps" sheetId="30" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Accuracy">'General Settings'!$D$23</definedName>
@@ -24,7 +24,7 @@
     <definedName name="DepoInclusionCriteria">Selected!$B$5</definedName>
     <definedName name="Discounting">'General Settings'!$M$13</definedName>
     <definedName name="Discounting2">'General Settings'!$M$14</definedName>
-    <definedName name="DiscountingCurve" localSheetId="5">'ON (3)'!$L$2</definedName>
+    <definedName name="DiscountingCurve" localSheetId="5">ON_Swaps!$L$2</definedName>
     <definedName name="FamilyName">'General Settings'!$M$11</definedName>
     <definedName name="FileOverwrite">'General Settings'!$M$6</definedName>
     <definedName name="FrontFuturesRollingDays">Selected!$B$4</definedName>
@@ -1971,21 +1971,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2003,6 +1988,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2322,39 +2322,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="187" customWidth="1"/>
-    <col min="3" max="3" width="18" style="187" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="187" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="187" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.7109375" style="187" customWidth="1"/>
-    <col min="8" max="9" width="8" style="187"/>
-    <col min="10" max="11" width="2.7109375" style="187" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="187" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="187" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="187" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="187"/>
+    <col min="1" max="2" width="2.7109375" style="182" customWidth="1"/>
+    <col min="3" max="3" width="18" style="182" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="182" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="182" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="182" customWidth="1"/>
+    <col min="8" max="9" width="8" style="182"/>
+    <col min="10" max="11" width="2.7109375" style="182" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="182" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="182" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="182" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="182"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="187" t="str">
+      <c r="B1" s="182" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="190" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="197"/>
-      <c r="K2" s="195" t="s">
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="192"/>
+      <c r="K2" s="190" t="s">
         <v>152</v>
       </c>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="198"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="193"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="61"/>
@@ -2377,10 +2377,10 @@
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="57"/>
-      <c r="H4" s="190" t="s">
+      <c r="H4" s="185" t="s">
         <v>137</v>
       </c>
-      <c r="I4" s="191"/>
+      <c r="I4" s="186"/>
       <c r="K4" s="135"/>
       <c r="L4" s="134" t="s">
         <v>151</v>
@@ -2398,10 +2398,10 @@
       <c r="D5" s="62"/>
       <c r="E5" s="58"/>
       <c r="F5" s="57"/>
-      <c r="H5" s="188" t="s">
+      <c r="H5" s="183" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="189" t="s">
+      <c r="I5" s="184" t="s">
         <v>134</v>
       </c>
       <c r="K5" s="135"/>
@@ -2424,10 +2424,10 @@
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="57"/>
-      <c r="H6" s="188" t="s">
+      <c r="H6" s="183" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="189"/>
+      <c r="I6" s="184"/>
       <c r="K6" s="135"/>
       <c r="L6" s="134" t="s">
         <v>149</v>
@@ -2447,10 +2447,10 @@
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
-      <c r="H7" s="188" t="s">
+      <c r="H7" s="183" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="189"/>
+      <c r="I7" s="184"/>
       <c r="K7" s="132"/>
       <c r="L7" s="131"/>
       <c r="M7" s="131"/>
@@ -2466,16 +2466,16 @@
       </c>
       <c r="E8" s="58"/>
       <c r="F8" s="57"/>
-      <c r="H8" s="192" t="s">
+      <c r="H8" s="187" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="193" t="s">
+      <c r="I8" s="188" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="194"/>
-      <c r="N8" s="194"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="189"/>
+      <c r="M8" s="189"/>
+      <c r="N8" s="189"/>
     </row>
     <row r="9" spans="2:14" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="61"/>
@@ -2488,12 +2488,12 @@
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="57"/>
-      <c r="K9" s="195" t="s">
+      <c r="K9" s="190" t="s">
         <v>148</v>
       </c>
-      <c r="L9" s="196"/>
-      <c r="M9" s="196"/>
-      <c r="N9" s="198"/>
+      <c r="L9" s="191"/>
+      <c r="M9" s="191"/>
+      <c r="N9" s="193"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="61"/>
@@ -2516,7 +2516,7 @@
         <v>122</v>
       </c>
       <c r="D11" s="86">
-        <v>41627.761770833335</v>
+        <v>41653.299837962964</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="D14" s="83" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYCON#0006</v>
+        <v>_USDYCON#0000</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="57"/>
@@ -2660,11 +2660,11 @@
       </c>
       <c r="D21" s="75">
         <f>DATE(YEAR(_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),NDays&amp;"D")),12,31)</f>
-        <v>41639</v>
+        <v>42004</v>
       </c>
       <c r="E21" s="74">
         <f>DATE(YEAR(D21+1),12,31)</f>
-        <v>42004</v>
+        <v>42369</v>
       </c>
       <c r="F21" s="57"/>
     </row>
@@ -2725,7 +2725,7 @@
       <c r="B27" s="61"/>
       <c r="C27" s="65">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41627</v>
+        <v>41653</v>
       </c>
       <c r="D27" s="64">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2738,11 +2738,11 @@
       <c r="B28" s="61"/>
       <c r="C28" s="63">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>59894</v>
+        <v>59917</v>
       </c>
       <c r="D28" s="62">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.18593203137578257</v>
+        <v>0.18595467193896159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="57"/>
@@ -2827,11 +2827,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="194" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="196"/>
       <c r="E1" s="32" t="s">
         <v>96</v>
       </c>
@@ -2864,8 +2864,8 @@
         <v>88</v>
       </c>
       <c r="E2" s="14" t="str">
-        <f>ON!F3</f>
-        <v>USD_YCONRH_OND#0006</v>
+        <f>ON_Deposits!F3</f>
+        <v>USD_YCONRH_OND#0000</v>
       </c>
       <c r="F2" s="13">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
@@ -2883,11 +2883,11 @@
       </c>
       <c r="K2" s="12">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41627</v>
+        <v>41653</v>
       </c>
       <c r="L2" s="11">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41628</v>
+        <v>41654</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2897,8 +2897,8 @@
         <v>87</v>
       </c>
       <c r="E3" s="14" t="str">
-        <f>'ON (2)'!H3</f>
-        <v>USD_YCONRH_TND#0005</v>
+        <f>ON_FRAs!H3</f>
+        <v>USD_YCONRH_TND#0000</v>
       </c>
       <c r="F3" s="13">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
@@ -2916,11 +2916,11 @@
       </c>
       <c r="K3" s="12">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41628</v>
+        <v>41654</v>
       </c>
       <c r="L3" s="11">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2930,8 +2930,8 @@
         <v>86</v>
       </c>
       <c r="E4" s="14" t="str">
-        <f>'ON (2)'!H4</f>
-        <v>USD_YCONRH_SND#0005</v>
+        <f>ON_FRAs!H4</f>
+        <v>USD_YCONRH_SND#0000</v>
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
@@ -2949,11 +2949,11 @@
       </c>
       <c r="K4" s="12">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L4" s="11">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41632</v>
+        <v>41656</v>
       </c>
     </row>
     <row r="5" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4148,8 +4148,8 @@
         <v>68</v>
       </c>
       <c r="E35" s="21" t="str">
-        <f>'ON (3)'!L6</f>
-        <v>USD_YCONRH_OISSW#0006</v>
+        <f>ON_Swaps!L6</f>
+        <v>USD_YCONRH_OISSW#0000</v>
       </c>
       <c r="F35" s="20">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
@@ -4171,11 +4171,11 @@
       </c>
       <c r="K35" s="18">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L35" s="17">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>41638</v>
+        <v>41662</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
@@ -4188,8 +4188,8 @@
         <v>67</v>
       </c>
       <c r="E36" s="14" t="str">
-        <f>'ON (3)'!L7</f>
-        <v>USD_YCONRH_OIS2W#0006</v>
+        <f>ON_Swaps!L7</f>
+        <v>USD_YCONRH_OIS2W#0000</v>
       </c>
       <c r="F36" s="13">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -4211,11 +4211,11 @@
       </c>
       <c r="K36" s="12">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L36" s="11">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>41645</v>
+        <v>41669</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
@@ -4228,8 +4228,8 @@
         <v>66</v>
       </c>
       <c r="E37" s="14" t="str">
-        <f>'ON (3)'!L8</f>
-        <v>USD_YCONRH_OIS3W#0006</v>
+        <f>ON_Swaps!L8</f>
+        <v>USD_YCONRH_OIS3W#0000</v>
       </c>
       <c r="F37" s="13">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -4251,11 +4251,11 @@
       </c>
       <c r="K37" s="12">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L37" s="11">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>41652</v>
+        <v>41676</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
@@ -4268,8 +4268,8 @@
         <v>65</v>
       </c>
       <c r="E38" s="14" t="str">
-        <f>'ON (3)'!L9</f>
-        <v>USD_YCONRH_OIS1M#0006</v>
+        <f>ON_Swaps!L9</f>
+        <v>USD_YCONRH_OIS1M#0000</v>
       </c>
       <c r="F38" s="13">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4291,11 +4291,11 @@
       </c>
       <c r="K38" s="12">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L38" s="11">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>41662</v>
+        <v>41687</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
@@ -4308,8 +4308,8 @@
         <v>64</v>
       </c>
       <c r="E39" s="14" t="str">
-        <f>'ON (3)'!L10</f>
-        <v>USD_YCONRH_OIS2M#0006</v>
+        <f>ON_Swaps!L10</f>
+        <v>USD_YCONRH_OIS2M#0000</v>
       </c>
       <c r="F39" s="13">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4331,11 +4331,11 @@
       </c>
       <c r="K39" s="12">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L39" s="11">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>41694</v>
+        <v>41715</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
@@ -4348,8 +4348,8 @@
         <v>63</v>
       </c>
       <c r="E40" s="14" t="str">
-        <f>'ON (3)'!L11</f>
-        <v>USD_YCONRH_OIS3M#0006</v>
+        <f>ON_Swaps!L11</f>
+        <v>USD_YCONRH_OIS3M#0000</v>
       </c>
       <c r="F40" s="13">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4371,11 +4371,11 @@
       </c>
       <c r="K40" s="12">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L40" s="11">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
-        <v>41722</v>
+        <v>41745</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
@@ -4388,8 +4388,8 @@
         <v>62</v>
       </c>
       <c r="E41" s="14" t="str">
-        <f>'ON (3)'!L12</f>
-        <v>USD_YCONRH_OIS4M#0006</v>
+        <f>ON_Swaps!L12</f>
+        <v>USD_YCONRH_OIS4M#0000</v>
       </c>
       <c r="F41" s="13">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4411,11 +4411,11 @@
       </c>
       <c r="K41" s="12">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L41" s="11">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
-        <v>41752</v>
+        <v>41775</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
@@ -4428,8 +4428,8 @@
         <v>61</v>
       </c>
       <c r="E42" s="14" t="str">
-        <f>'ON (3)'!L13</f>
-        <v>USD_YCONRH_OIS5M#0006</v>
+        <f>ON_Swaps!L13</f>
+        <v>USD_YCONRH_OIS5M#0000</v>
       </c>
       <c r="F42" s="13">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4451,11 +4451,11 @@
       </c>
       <c r="K42" s="12">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L42" s="11">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
-        <v>41782</v>
+        <v>41806</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
@@ -4468,8 +4468,8 @@
         <v>60</v>
       </c>
       <c r="E43" s="14" t="str">
-        <f>'ON (3)'!L14</f>
-        <v>USD_YCONRH_OIS6M#0006</v>
+        <f>ON_Swaps!L14</f>
+        <v>USD_YCONRH_OIS6M#0000</v>
       </c>
       <c r="F43" s="13">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4491,11 +4491,11 @@
       </c>
       <c r="K43" s="12">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L43" s="11">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
-        <v>41813</v>
+        <v>41836</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
@@ -4508,8 +4508,8 @@
         <v>59</v>
       </c>
       <c r="E44" s="14" t="str">
-        <f>'ON (3)'!L15</f>
-        <v>USD_YCONRH_OIS7M#0006</v>
+        <f>ON_Swaps!L15</f>
+        <v>USD_YCONRH_OIS7M#0000</v>
       </c>
       <c r="F44" s="13">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4531,11 +4531,11 @@
       </c>
       <c r="K44" s="12">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L44" s="11">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
-        <v>41843</v>
+        <v>41869</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
@@ -4548,8 +4548,8 @@
         <v>58</v>
       </c>
       <c r="E45" s="14" t="str">
-        <f>'ON (3)'!L16</f>
-        <v>USD_YCONRH_OIS8M#0006</v>
+        <f>ON_Swaps!L16</f>
+        <v>USD_YCONRH_OIS8M#0000</v>
       </c>
       <c r="F45" s="13">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4571,11 +4571,11 @@
       </c>
       <c r="K45" s="12">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L45" s="11">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
-        <v>41876</v>
+        <v>41898</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
@@ -4588,8 +4588,8 @@
         <v>57</v>
       </c>
       <c r="E46" s="14" t="str">
-        <f>'ON (3)'!L17</f>
-        <v>USD_YCONRH_OIS9M#0006</v>
+        <f>ON_Swaps!L17</f>
+        <v>USD_YCONRH_OIS9M#0000</v>
       </c>
       <c r="F46" s="13">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4611,11 +4611,11 @@
       </c>
       <c r="K46" s="12">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L46" s="11">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
-        <v>41905</v>
+        <v>41928</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
@@ -4628,8 +4628,8 @@
         <v>56</v>
       </c>
       <c r="E47" s="14" t="str">
-        <f>'ON (3)'!L18</f>
-        <v>USD_YCONRH_OIS10M#0006</v>
+        <f>ON_Swaps!L18</f>
+        <v>USD_YCONRH_OIS10M#0000</v>
       </c>
       <c r="F47" s="13">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -4651,11 +4651,11 @@
       </c>
       <c r="K47" s="12">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L47" s="11">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
-        <v>41935</v>
+        <v>41960</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
@@ -4668,8 +4668,8 @@
         <v>55</v>
       </c>
       <c r="E48" s="14" t="str">
-        <f>'ON (3)'!L19</f>
-        <v>USD_YCONRH_OIS11M#0006</v>
+        <f>ON_Swaps!L19</f>
+        <v>USD_YCONRH_OIS11M#0000</v>
       </c>
       <c r="F48" s="13">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
@@ -4691,11 +4691,11 @@
       </c>
       <c r="K48" s="12">
         <f>_xll.qlRateHelperEarliestDate($E48,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L48" s="11">
         <f>_xll.qlRateHelperLatestDate($E48,Trigger)</f>
-        <v>41967</v>
+        <v>41989</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
@@ -4708,8 +4708,8 @@
         <v>36</v>
       </c>
       <c r="E49" s="14" t="str">
-        <f>'ON (3)'!L20</f>
-        <v>USD_YCONRH_OIS1Y#0006</v>
+        <f>ON_Swaps!L20</f>
+        <v>USD_YCONRH_OIS1Y#0000</v>
       </c>
       <c r="F49" s="13">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -4731,11 +4731,11 @@
       </c>
       <c r="K49" s="12">
         <f>_xll.qlRateHelperEarliestDate($E49,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L49" s="11">
         <f>_xll.qlRateHelperLatestDate($E49,Trigger)</f>
-        <v>41996</v>
+        <v>42020</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
@@ -4751,8 +4751,8 @@
         <v>54</v>
       </c>
       <c r="E50" s="14" t="str">
-        <f>'ON (3)'!L21</f>
-        <v>USD_YCONRH_OIS13M#0006</v>
+        <f>ON_Swaps!L21</f>
+        <v>USD_YCONRH_OIS13M#0000</v>
       </c>
       <c r="F50" s="13">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
@@ -4774,11 +4774,11 @@
       </c>
       <c r="K50" s="12">
         <f>_xll.qlRateHelperEarliestDate($E50,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L50" s="11">
         <f>_xll.qlRateHelperLatestDate($E50,Trigger)</f>
-        <v>42027</v>
+        <v>42051</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
@@ -4794,8 +4794,8 @@
         <v>53</v>
       </c>
       <c r="E51" s="14" t="str">
-        <f>'ON (3)'!L22</f>
-        <v>USD_YCONRH_OIS14M#0006</v>
+        <f>ON_Swaps!L22</f>
+        <v>USD_YCONRH_OIS14M#0000</v>
       </c>
       <c r="F51" s="13">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
@@ -4817,11 +4817,11 @@
       </c>
       <c r="K51" s="12">
         <f>_xll.qlRateHelperEarliestDate($E51,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L51" s="11">
         <f>_xll.qlRateHelperLatestDate($E51,Trigger)</f>
-        <v>42058</v>
+        <v>42079</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
@@ -4837,8 +4837,8 @@
         <v>35</v>
       </c>
       <c r="E52" s="14" t="str">
-        <f>'ON (3)'!L23</f>
-        <v>USD_YCONRH_OIS15M#0006</v>
+        <f>ON_Swaps!L23</f>
+        <v>USD_YCONRH_OIS15M#0000</v>
       </c>
       <c r="F52" s="13">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
@@ -4860,11 +4860,11 @@
       </c>
       <c r="K52" s="12">
         <f>_xll.qlRateHelperEarliestDate($E52,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L52" s="11">
         <f>_xll.qlRateHelperLatestDate($E52,Trigger)</f>
-        <v>42086</v>
+        <v>42110</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
@@ -4880,8 +4880,8 @@
         <v>52</v>
       </c>
       <c r="E53" s="14" t="str">
-        <f>'ON (3)'!L24</f>
-        <v>USD_YCONRH_OIS16M#0006</v>
+        <f>ON_Swaps!L24</f>
+        <v>USD_YCONRH_OIS16M#0000</v>
       </c>
       <c r="F53" s="13">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
@@ -4903,11 +4903,11 @@
       </c>
       <c r="K53" s="12">
         <f>_xll.qlRateHelperEarliestDate($E53,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L53" s="11">
         <f>_xll.qlRateHelperLatestDate($E53,Trigger)</f>
-        <v>42117</v>
+        <v>42142</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
@@ -4923,8 +4923,8 @@
         <v>51</v>
       </c>
       <c r="E54" s="14" t="str">
-        <f>'ON (3)'!L25</f>
-        <v>USD_YCONRH_OIS17M#0006</v>
+        <f>ON_Swaps!L25</f>
+        <v>USD_YCONRH_OIS17M#0000</v>
       </c>
       <c r="F54" s="13">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
@@ -4946,11 +4946,11 @@
       </c>
       <c r="K54" s="12">
         <f>_xll.qlRateHelperEarliestDate($E54,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L54" s="11">
         <f>_xll.qlRateHelperLatestDate($E54,Trigger)</f>
-        <v>42149</v>
+        <v>42171</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
@@ -4966,8 +4966,8 @@
         <v>34</v>
       </c>
       <c r="E55" s="14" t="str">
-        <f>'ON (3)'!L26</f>
-        <v>USD_YCONRH_OIS18M#0006</v>
+        <f>ON_Swaps!L26</f>
+        <v>USD_YCONRH_OIS18M#0000</v>
       </c>
       <c r="F55" s="13">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
@@ -4989,11 +4989,11 @@
       </c>
       <c r="K55" s="12">
         <f>_xll.qlRateHelperEarliestDate($E55,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L55" s="11">
         <f>_xll.qlRateHelperLatestDate($E55,Trigger)</f>
-        <v>42178</v>
+        <v>42201</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
@@ -5009,8 +5009,8 @@
         <v>50</v>
       </c>
       <c r="E56" s="14" t="str">
-        <f>'ON (3)'!L27</f>
-        <v>USD_YCONRH_OIS19M#0006</v>
+        <f>ON_Swaps!L27</f>
+        <v>USD_YCONRH_OIS19M#0000</v>
       </c>
       <c r="F56" s="13">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
@@ -5032,11 +5032,11 @@
       </c>
       <c r="K56" s="12">
         <f>_xll.qlRateHelperEarliestDate($E56,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L56" s="11">
         <f>_xll.qlRateHelperLatestDate($E56,Trigger)</f>
-        <v>42208</v>
+        <v>42233</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
@@ -5052,8 +5052,8 @@
         <v>49</v>
       </c>
       <c r="E57" s="14" t="str">
-        <f>'ON (3)'!L28</f>
-        <v>USD_YCONRH_OIS20M#0006</v>
+        <f>ON_Swaps!L28</f>
+        <v>USD_YCONRH_OIS20M#0000</v>
       </c>
       <c r="F57" s="13">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
@@ -5075,11 +5075,11 @@
       </c>
       <c r="K57" s="12">
         <f>_xll.qlRateHelperEarliestDate($E57,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L57" s="11">
         <f>_xll.qlRateHelperLatestDate($E57,Trigger)</f>
-        <v>42240</v>
+        <v>42263</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
@@ -5095,8 +5095,8 @@
         <v>33</v>
       </c>
       <c r="E58" s="14" t="str">
-        <f>'ON (3)'!L29</f>
-        <v>USD_YCONRH_OIS21M#0006</v>
+        <f>ON_Swaps!L29</f>
+        <v>USD_YCONRH_OIS21M#0000</v>
       </c>
       <c r="F58" s="13">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
@@ -5118,11 +5118,11 @@
       </c>
       <c r="K58" s="12">
         <f>_xll.qlRateHelperEarliestDate($E58,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L58" s="11">
         <f>_xll.qlRateHelperLatestDate($E58,Trigger)</f>
-        <v>42270</v>
+        <v>42293</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
@@ -5138,8 +5138,8 @@
         <v>48</v>
       </c>
       <c r="E59" s="14" t="str">
-        <f>'ON (3)'!L30</f>
-        <v>USD_YCONRH_OIS22M#0006</v>
+        <f>ON_Swaps!L30</f>
+        <v>USD_YCONRH_OIS22M#0000</v>
       </c>
       <c r="F59" s="13">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
@@ -5161,11 +5161,11 @@
       </c>
       <c r="K59" s="12">
         <f>_xll.qlRateHelperEarliestDate($E59,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L59" s="11">
         <f>_xll.qlRateHelperLatestDate($E59,Trigger)</f>
-        <v>42300</v>
+        <v>42324</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
@@ -5181,8 +5181,8 @@
         <v>47</v>
       </c>
       <c r="E60" s="14" t="str">
-        <f>'ON (3)'!L31</f>
-        <v>USD_YCONRH_OIS23M#0006</v>
+        <f>ON_Swaps!L31</f>
+        <v>USD_YCONRH_OIS23M#0000</v>
       </c>
       <c r="F60" s="13">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
@@ -5204,11 +5204,11 @@
       </c>
       <c r="K60" s="12">
         <f>_xll.qlRateHelperEarliestDate($E60,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L60" s="11">
         <f>_xll.qlRateHelperLatestDate($E60,Trigger)</f>
-        <v>42331</v>
+        <v>42354</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
@@ -5224,8 +5224,8 @@
         <v>32</v>
       </c>
       <c r="E61" s="14" t="str">
-        <f>'ON (3)'!L32</f>
-        <v>USD_YCONRH_OIS2Y#0006</v>
+        <f>ON_Swaps!L32</f>
+        <v>USD_YCONRH_OIS2Y#0000</v>
       </c>
       <c r="F61" s="13">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
@@ -5247,11 +5247,11 @@
       </c>
       <c r="K61" s="12">
         <f>_xll.qlRateHelperEarliestDate($E61,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L61" s="11">
         <f>_xll.qlRateHelperLatestDate($E61,Trigger)</f>
-        <v>42361</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.2">
@@ -5267,8 +5267,8 @@
         <v>46</v>
       </c>
       <c r="E62" s="14" t="str">
-        <f>'ON (3)'!L33</f>
-        <v>USD_YCONRH_OIS27M#0006</v>
+        <f>ON_Swaps!L33</f>
+        <v>USD_YCONRH_OIS27M#0000</v>
       </c>
       <c r="F62" s="13">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
@@ -5290,11 +5290,11 @@
       </c>
       <c r="K62" s="12">
         <f>_xll.qlRateHelperEarliestDate($E62,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L62" s="11">
         <f>_xll.qlRateHelperLatestDate($E62,Trigger)</f>
-        <v>42452</v>
+        <v>42478</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
@@ -5310,8 +5310,8 @@
         <v>45</v>
       </c>
       <c r="E63" s="14" t="str">
-        <f>'ON (3)'!L34</f>
-        <v>USD_YCONRH_OIS30M#0006</v>
+        <f>ON_Swaps!L34</f>
+        <v>USD_YCONRH_OIS30M#0000</v>
       </c>
       <c r="F63" s="13">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
@@ -5333,11 +5333,11 @@
       </c>
       <c r="K63" s="12">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L63" s="11">
         <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>42544</v>
+        <v>42569</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
@@ -5353,8 +5353,8 @@
         <v>44</v>
       </c>
       <c r="E64" s="14" t="str">
-        <f>'ON (3)'!L35</f>
-        <v>USD_YCONRH_OIS33M#0006</v>
+        <f>ON_Swaps!L35</f>
+        <v>USD_YCONRH_OIS33M#0000</v>
       </c>
       <c r="F64" s="13">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
@@ -5376,11 +5376,11 @@
       </c>
       <c r="K64" s="12">
         <f>_xll.qlRateHelperEarliestDate($E64,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L64" s="11">
         <f>_xll.qlRateHelperLatestDate($E64,Trigger)</f>
-        <v>42636</v>
+        <v>42660</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
@@ -5396,8 +5396,8 @@
         <v>31</v>
       </c>
       <c r="E65" s="14" t="str">
-        <f>'ON (3)'!L36</f>
-        <v>USD_YCONRH_OIS3Y#0006</v>
+        <f>ON_Swaps!L36</f>
+        <v>USD_YCONRH_OIS3Y#0000</v>
       </c>
       <c r="F65" s="13">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
@@ -5418,11 +5418,11 @@
       </c>
       <c r="K65" s="12">
         <f>_xll.qlRateHelperEarliestDate($E65,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L65" s="11">
         <f>_xll.qlRateHelperLatestDate($E65,Trigger)</f>
-        <v>42727</v>
+        <v>42751</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
@@ -5438,8 +5438,8 @@
         <v>43</v>
       </c>
       <c r="E66" s="14" t="str">
-        <f>'ON (3)'!L37</f>
-        <v>USD_YCONRH_OIS39M#0006</v>
+        <f>ON_Swaps!L37</f>
+        <v>USD_YCONRH_OIS39M#0000</v>
       </c>
       <c r="F66" s="13">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
@@ -5460,11 +5460,11 @@
       </c>
       <c r="K66" s="12">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L66" s="11">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>42817</v>
+        <v>42843</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
@@ -5480,8 +5480,8 @@
         <v>42</v>
       </c>
       <c r="E67" s="14" t="str">
-        <f>'ON (3)'!L38</f>
-        <v>USD_YCONRH_OIS42M#0006</v>
+        <f>ON_Swaps!L38</f>
+        <v>USD_YCONRH_OIS42M#0000</v>
       </c>
       <c r="F67" s="13">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
@@ -5502,11 +5502,11 @@
       </c>
       <c r="K67" s="12">
         <f>_xll.qlRateHelperEarliestDate($E67,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L67" s="11">
         <f>_xll.qlRateHelperLatestDate($E67,Trigger)</f>
-        <v>42909</v>
+        <v>42933</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
@@ -5522,8 +5522,8 @@
         <v>41</v>
       </c>
       <c r="E68" s="14" t="str">
-        <f>'ON (3)'!L39</f>
-        <v>USD_YCONRH_OIS45M#0006</v>
+        <f>ON_Swaps!L39</f>
+        <v>USD_YCONRH_OIS45M#0000</v>
       </c>
       <c r="F68" s="13">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
@@ -5544,11 +5544,11 @@
       </c>
       <c r="K68" s="12">
         <f>_xll.qlRateHelperEarliestDate($E68,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L68" s="11">
         <f>_xll.qlRateHelperLatestDate($E68,Trigger)</f>
-        <v>43003</v>
+        <v>43024</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
@@ -5564,8 +5564,8 @@
         <v>30</v>
       </c>
       <c r="E69" s="14" t="str">
-        <f>'ON (3)'!L40</f>
-        <v>USD_YCONRH_OIS4Y#0006</v>
+        <f>ON_Swaps!L40</f>
+        <v>USD_YCONRH_OIS4Y#0000</v>
       </c>
       <c r="F69" s="13">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
@@ -5586,11 +5586,11 @@
       </c>
       <c r="K69" s="12">
         <f>_xll.qlRateHelperEarliestDate($E69,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L69" s="11">
         <f>_xll.qlRateHelperLatestDate($E69,Trigger)</f>
-        <v>43096</v>
+        <v>43116</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
@@ -5606,8 +5606,8 @@
         <v>40</v>
       </c>
       <c r="E70" s="14" t="str">
-        <f>'ON (3)'!L41</f>
-        <v>USD_YCONRH_OIS51M#0006</v>
+        <f>ON_Swaps!L41</f>
+        <v>USD_YCONRH_OIS51M#0000</v>
       </c>
       <c r="F70" s="13">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
@@ -5628,11 +5628,11 @@
       </c>
       <c r="K70" s="12">
         <f>_xll.qlRateHelperEarliestDate($E70,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L70" s="11">
         <f>_xll.qlRateHelperLatestDate($E70,Trigger)</f>
-        <v>43182</v>
+        <v>43206</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
@@ -5648,8 +5648,8 @@
         <v>39</v>
       </c>
       <c r="E71" s="14" t="str">
-        <f>'ON (3)'!L42</f>
-        <v>USD_YCONRH_OIS54M#0006</v>
+        <f>ON_Swaps!L42</f>
+        <v>USD_YCONRH_OIS54M#0000</v>
       </c>
       <c r="F71" s="13">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
@@ -5670,11 +5670,11 @@
       </c>
       <c r="K71" s="12">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L71" s="11">
         <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>43276</v>
+        <v>43297</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
@@ -5690,8 +5690,8 @@
         <v>38</v>
       </c>
       <c r="E72" s="14" t="str">
-        <f>'ON (3)'!L43</f>
-        <v>USD_YCONRH_OIS57M#0006</v>
+        <f>ON_Swaps!L43</f>
+        <v>USD_YCONRH_OIS57M#0000</v>
       </c>
       <c r="F72" s="13">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
@@ -5712,11 +5712,11 @@
       </c>
       <c r="K72" s="12">
         <f>_xll.qlRateHelperEarliestDate($E72,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L72" s="11">
         <f>_xll.qlRateHelperLatestDate($E72,Trigger)</f>
-        <v>43367</v>
+        <v>43389</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
@@ -5732,8 +5732,8 @@
         <v>29</v>
       </c>
       <c r="E73" s="14" t="str">
-        <f>'ON (3)'!L44</f>
-        <v>USD_YCONRH_OIS5Y#0006</v>
+        <f>ON_Swaps!L44</f>
+        <v>USD_YCONRH_OIS5Y#0000</v>
       </c>
       <c r="F73" s="13">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
@@ -5755,11 +5755,11 @@
       </c>
       <c r="K73" s="12">
         <f>_xll.qlRateHelperEarliestDate($E73,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L73" s="11">
         <f>_xll.qlRateHelperLatestDate($E73,Trigger)</f>
-        <v>43458</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
@@ -5775,8 +5775,8 @@
         <v>28</v>
       </c>
       <c r="E74" s="14" t="str">
-        <f>'ON (3)'!L45</f>
-        <v>USD_YCONRH_OIS6Y#0006</v>
+        <f>ON_Swaps!L45</f>
+        <v>USD_YCONRH_OIS6Y#0000</v>
       </c>
       <c r="F74" s="13">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
@@ -5798,11 +5798,11 @@
       </c>
       <c r="K74" s="12">
         <f>_xll.qlRateHelperEarliestDate($E74,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L74" s="11">
         <f>_xll.qlRateHelperLatestDate($E74,Trigger)</f>
-        <v>43822</v>
+        <v>43846</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
@@ -5818,8 +5818,8 @@
         <v>27</v>
       </c>
       <c r="E75" s="14" t="str">
-        <f>'ON (3)'!L46</f>
-        <v>USD_YCONRH_OIS7Y#0006</v>
+        <f>ON_Swaps!L46</f>
+        <v>USD_YCONRH_OIS7Y#0000</v>
       </c>
       <c r="F75" s="13">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
@@ -5841,11 +5841,11 @@
       </c>
       <c r="K75" s="12">
         <f>_xll.qlRateHelperEarliestDate($E75,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L75" s="11">
         <f>_xll.qlRateHelperLatestDate($E75,Trigger)</f>
-        <v>44188</v>
+        <v>44214</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
@@ -5861,8 +5861,8 @@
         <v>26</v>
       </c>
       <c r="E76" s="14" t="str">
-        <f>'ON (3)'!L47</f>
-        <v>USD_YCONRH_OIS8Y#0006</v>
+        <f>ON_Swaps!L47</f>
+        <v>USD_YCONRH_OIS8Y#0000</v>
       </c>
       <c r="F76" s="13">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
@@ -5884,11 +5884,11 @@
       </c>
       <c r="K76" s="12">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L76" s="11">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>44553</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
@@ -5904,8 +5904,8 @@
         <v>25</v>
       </c>
       <c r="E77" s="14" t="str">
-        <f>'ON (3)'!L48</f>
-        <v>USD_YCONRH_OIS9Y#0006</v>
+        <f>ON_Swaps!L48</f>
+        <v>USD_YCONRH_OIS9Y#0000</v>
       </c>
       <c r="F77" s="13">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
@@ -5927,11 +5927,11 @@
       </c>
       <c r="K77" s="12">
         <f>_xll.qlRateHelperEarliestDate($E77,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L77" s="11">
         <f>_xll.qlRateHelperLatestDate($E77,Trigger)</f>
-        <v>44918</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
@@ -5947,8 +5947,8 @@
         <v>24</v>
       </c>
       <c r="E78" s="14" t="str">
-        <f>'ON (3)'!L49</f>
-        <v>USD_YCONRH_OIS10Y#0006</v>
+        <f>ON_Swaps!L49</f>
+        <v>USD_YCONRH_OIS10Y#0000</v>
       </c>
       <c r="F78" s="13">
         <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
@@ -5970,11 +5970,11 @@
       </c>
       <c r="K78" s="12">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L78" s="11">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>45287</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
@@ -5990,8 +5990,8 @@
         <v>22</v>
       </c>
       <c r="E79" s="14" t="str">
-        <f>'ON (3)'!L50</f>
-        <v>USD_YCONRH_OIS12Y#0006</v>
+        <f>ON_Swaps!L50</f>
+        <v>USD_YCONRH_OIS12Y#0000</v>
       </c>
       <c r="F79" s="13">
         <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
@@ -6013,11 +6013,11 @@
       </c>
       <c r="K79" s="12">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L79" s="11">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>46014</v>
+        <v>46038</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
@@ -6033,8 +6033,8 @@
         <v>19</v>
       </c>
       <c r="E80" s="14" t="str">
-        <f>'ON (3)'!L51</f>
-        <v>USD_YCONRH_OIS15Y#0006</v>
+        <f>ON_Swaps!L51</f>
+        <v>USD_YCONRH_OIS15Y#0000</v>
       </c>
       <c r="F80" s="13">
         <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
@@ -6056,11 +6056,11 @@
       </c>
       <c r="K80" s="12">
         <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L80" s="11">
         <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
-        <v>47114</v>
+        <v>47134</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
@@ -6073,8 +6073,8 @@
         <v>14</v>
       </c>
       <c r="E81" s="14" t="str">
-        <f>'ON (3)'!L52</f>
-        <v>USD_YCONRH_OIS20Y#0006</v>
+        <f>ON_Swaps!L52</f>
+        <v>USD_YCONRH_OIS20Y#0000</v>
       </c>
       <c r="F81" s="13">
         <f>_xll.qlRateHelperQuoteValue($E81,Trigger)</f>
@@ -6096,11 +6096,11 @@
       </c>
       <c r="K81" s="12">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L81" s="11">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>48936</v>
+        <v>48960</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
@@ -6113,8 +6113,8 @@
         <v>9</v>
       </c>
       <c r="E82" s="14" t="str">
-        <f>'ON (3)'!L53</f>
-        <v>USD_YCONRH_OIS25Y#0006</v>
+        <f>ON_Swaps!L53</f>
+        <v>USD_YCONRH_OIS25Y#0000</v>
       </c>
       <c r="F82" s="13">
         <f>_xll.qlRateHelperQuoteValue($E82,Trigger)</f>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="K82" s="12">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L82" s="11">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>50762</v>
+        <v>50787</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
@@ -6152,8 +6152,8 @@
         <v>7</v>
       </c>
       <c r="E83" s="14" t="str">
-        <f>'ON (3)'!L54</f>
-        <v>USD_YCONRH_OIS27Y#0006</v>
+        <f>ON_Swaps!L54</f>
+        <v>USD_YCONRH_OIS27Y#0000</v>
       </c>
       <c r="F83" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
@@ -6175,11 +6175,11 @@
       </c>
       <c r="K83" s="12">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L83" s="11">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>51494</v>
+        <v>51517</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
@@ -6195,8 +6195,8 @@
         <v>4</v>
       </c>
       <c r="E84" s="14" t="str">
-        <f>'ON (3)'!L55</f>
-        <v>USD_YCONRH_OIS30Y#0006</v>
+        <f>ON_Swaps!L55</f>
+        <v>USD_YCONRH_OIS30Y#0000</v>
       </c>
       <c r="F84" s="13">
         <f>_xll.qlRateHelperQuoteValue($E84,Trigger)</f>
@@ -6218,11 +6218,11 @@
       </c>
       <c r="K84" s="12">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L84" s="11">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>52588</v>
+        <v>52614</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
@@ -6238,8 +6238,8 @@
         <v>3</v>
       </c>
       <c r="E85" s="14" t="str">
-        <f>'ON (3)'!L56</f>
-        <v>USD_YCONRH_OIS35Y#0006</v>
+        <f>ON_Swaps!L56</f>
+        <v>USD_YCONRH_OIS35Y#0000</v>
       </c>
       <c r="F85" s="13">
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
@@ -6261,11 +6261,11 @@
       </c>
       <c r="K85" s="12">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L85" s="11">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>54415</v>
+        <v>54441</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
@@ -6281,8 +6281,8 @@
         <v>2</v>
       </c>
       <c r="E86" s="14" t="str">
-        <f>'ON (3)'!L57</f>
-        <v>USD_YCONRH_OIS40Y#0006</v>
+        <f>ON_Swaps!L57</f>
+        <v>USD_YCONRH_OIS40Y#0000</v>
       </c>
       <c r="F86" s="13">
         <f>_xll.qlRateHelperQuoteValue($E86,Trigger)</f>
@@ -6304,11 +6304,11 @@
       </c>
       <c r="K86" s="12">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L86" s="11">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>56241</v>
+        <v>56265</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
@@ -6324,8 +6324,8 @@
         <v>37</v>
       </c>
       <c r="E87" s="14" t="str">
-        <f>'ON (3)'!L58</f>
-        <v>USD_YCONRH_OIS45Y#0006</v>
+        <f>ON_Swaps!L58</f>
+        <v>USD_YCONRH_OIS45Y#0000</v>
       </c>
       <c r="F87" s="13">
         <f>_xll.qlRateHelperQuoteValue($E87,Trigger)</f>
@@ -6347,11 +6347,11 @@
       </c>
       <c r="K87" s="12">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L87" s="11">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>58067</v>
+        <v>58091</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
@@ -6367,8 +6367,8 @@
         <v>1</v>
       </c>
       <c r="E88" s="8" t="str">
-        <f>'ON (3)'!L59</f>
-        <v>USD_YCONRH_OIS50Y#0006</v>
+        <f>ON_Swaps!L59</f>
+        <v>USD_YCONRH_OIS50Y#0000</v>
       </c>
       <c r="F88" s="7">
         <f>_xll.qlRateHelperQuoteValue($E88,Trigger)</f>
@@ -6390,11 +6390,11 @@
       </c>
       <c r="K88" s="4">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="L88" s="3">
         <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>59894</v>
+        <v>59917</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
@@ -8026,10 +8026,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="197" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="186"/>
+      <c r="B1" s="198"/>
       <c r="D1" s="52" t="s">
         <v>105</v>
       </c>
@@ -8069,11 +8069,11 @@
       </c>
       <c r="G2" s="39">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41627</v>
+        <v>41653</v>
       </c>
       <c r="H2" s="38">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41628</v>
+        <v>41654</v>
       </c>
       <c r="I2" s="33">
         <v>0.9999955555753085</v>
@@ -8105,18 +8105,18 @@
       </c>
       <c r="G3" s="39">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41628</v>
+        <v>41654</v>
       </c>
       <c r="H3" s="38">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="I3" s="33">
-        <v>0.99998222247899815</v>
+        <v>0.99999111117036987</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J37" si="0">H3-H2</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3" s="179" t="s">
         <v>174</v>
@@ -8145,14 +8145,14 @@
       </c>
       <c r="G4" s="39">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H4" s="38">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41638</v>
+        <v>41662</v>
       </c>
       <c r="I4" s="33">
-        <v>0.9999647230963441</v>
+        <v>0.99997361163216636</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
@@ -8185,14 +8185,14 @@
       </c>
       <c r="G5" s="39">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H5" s="38">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41645</v>
+        <v>41669</v>
       </c>
       <c r="I5" s="33">
-        <v>0.99994877974758656</v>
+        <v>0.99995766814159714</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
@@ -8226,14 +8226,14 @@
       </c>
       <c r="G6" s="39">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H6" s="38">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41652</v>
+        <v>41676</v>
       </c>
       <c r="I6" s="33">
-        <v>0.9999326424852516</v>
+        <v>0.99994153073624759</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
@@ -8249,7 +8249,7 @@
     <row r="7" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_RateHelpersSelected#0006</v>
+        <v>USD_YCONRH_RateHelpersSelected#0000</v>
       </c>
       <c r="B7" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -8268,18 +8268,18 @@
       </c>
       <c r="G7" s="39">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H7" s="38">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41662</v>
+        <v>41687</v>
       </c>
       <c r="I7" s="33">
-        <v>0.99990989566320054</v>
+        <v>0.9999164507418018</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L7" s="179" t="s">
         <v>178</v>
@@ -8302,18 +8302,18 @@
       </c>
       <c r="G8" s="39">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H8" s="38">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41694</v>
+        <v>41715</v>
       </c>
       <c r="I8" s="33">
-        <v>0.9998352466977336</v>
+        <v>0.99985113201188813</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L8" s="179" t="s">
         <v>179</v>
@@ -8336,18 +8336,18 @@
       </c>
       <c r="G9" s="39">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H9" s="38">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41722</v>
+        <v>41745</v>
       </c>
       <c r="I9" s="33">
-        <v>0.99976993799549718</v>
+        <v>0.99978115712723314</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="179" t="s">
         <v>180</v>
@@ -8370,14 +8370,14 @@
       </c>
       <c r="G10" s="39">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H10" s="38">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41752</v>
+        <v>41775</v>
       </c>
       <c r="I10" s="33">
-        <v>0.99968653741648683</v>
+        <v>0.99969786646287406</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
@@ -8404,18 +8404,18 @@
       </c>
       <c r="G11" s="39">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H11" s="38">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41782</v>
+        <v>41806</v>
       </c>
       <c r="I11" s="33">
-        <v>0.99960487164019596</v>
+        <v>0.99961375697725363</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L11" s="179" t="s">
         <v>182</v>
@@ -8438,18 +8438,18 @@
       </c>
       <c r="G12" s="39">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H12" s="38">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41813</v>
+        <v>41836</v>
       </c>
       <c r="I12" s="33">
-        <v>0.9995122851196111</v>
+        <v>0.99952375052335429</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12" s="179" t="s">
         <v>183</v>
@@ -8472,18 +8472,18 @@
       </c>
       <c r="G13" s="39">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H13" s="38">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>41843</v>
+        <v>41869</v>
       </c>
       <c r="I13" s="33">
-        <v>0.99941133651444025</v>
+        <v>0.9994148374704751</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L13" s="179" t="s">
         <v>184</v>
@@ -8506,18 +8506,18 @@
       </c>
       <c r="G14" s="39">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H14" s="38">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>41876</v>
+        <v>41898</v>
       </c>
       <c r="I14" s="33">
-        <v>0.99930214185468036</v>
+        <v>0.99931657248394312</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L14" s="179" t="s">
         <v>185</v>
@@ -8540,18 +8540,18 @@
       </c>
       <c r="G15" s="39">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H15" s="38">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>41905</v>
+        <v>41928</v>
       </c>
       <c r="I15" s="33">
-        <v>0.9991837081655558</v>
+        <v>0.9991955017520997</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L15" s="179" t="s">
         <v>186</v>
@@ -8574,18 +8574,18 @@
       </c>
       <c r="G16" s="39">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H16" s="38">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>41935</v>
+        <v>41960</v>
       </c>
       <c r="I16" s="33">
-        <v>0.9990626408216019</v>
+        <v>0.99906849916329532</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L16" s="179" t="s">
         <v>187</v>
@@ -8608,18 +8608,18 @@
       </c>
       <c r="G17" s="39">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H17" s="38">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>41967</v>
+        <v>41989</v>
       </c>
       <c r="I17" s="33">
-        <v>0.9989193722669063</v>
+        <v>0.99893457137204866</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L17" s="179" t="s">
         <v>188</v>
@@ -8642,18 +8642,18 @@
       </c>
       <c r="G18" s="39">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H18" s="38">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>41996</v>
+        <v>42020</v>
       </c>
       <c r="I18" s="33">
-        <v>0.99877717007948696</v>
+        <v>0.99878604805932936</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L18" s="179" t="s">
         <v>189</v>
@@ -8676,14 +8676,14 @@
       </c>
       <c r="G19" s="39">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H19" s="38">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42027</v>
+        <v>42051</v>
       </c>
       <c r="I19" s="33">
-        <v>0.99861990721117977</v>
+        <v>0.99862878379313613</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
@@ -8710,18 +8710,18 @@
       </c>
       <c r="G20" s="39">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H20" s="38">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>42058</v>
+        <v>42079</v>
       </c>
       <c r="I20" s="33">
-        <v>0.99845408195668661</v>
+        <v>0.99847368827269933</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L20" s="179" t="s">
         <v>191</v>
@@ -8744,18 +8744,18 @@
       </c>
       <c r="G21" s="39">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H21" s="38">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>42086</v>
+        <v>42110</v>
       </c>
       <c r="I21" s="33">
-        <v>0.99826560942966769</v>
+        <v>0.99827448286225307</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L21" s="179" t="s">
         <v>192</v>
@@ -8778,18 +8778,18 @@
       </c>
       <c r="G22" s="39">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H22" s="38">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>42117</v>
+        <v>42142</v>
       </c>
       <c r="I22" s="33">
-        <v>0.9980544305288942</v>
+        <v>0.99805933947551029</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L22" s="179" t="s">
         <v>193</v>
@@ -8812,18 +8812,18 @@
       </c>
       <c r="G23" s="39">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H23" s="38">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>42149</v>
+        <v>42171</v>
       </c>
       <c r="I23" s="33">
-        <v>0.99782713406820045</v>
+        <v>0.99784431367492565</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L23" s="179" t="s">
         <v>194</v>
@@ -8846,18 +8846,18 @@
       </c>
       <c r="G24" s="39">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H24" s="38">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>42178</v>
+        <v>42201</v>
       </c>
       <c r="I24" s="33">
-        <v>0.99758538790086038</v>
+        <v>0.9975986301421369</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L24" s="179" t="s">
         <v>195</v>
@@ -8880,18 +8880,18 @@
       </c>
       <c r="G25" s="39">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H25" s="38">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>42208</v>
+        <v>42233</v>
       </c>
       <c r="I25" s="33">
-        <v>0.99731029925019687</v>
+        <v>0.99731454230526428</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L25" s="179" t="s">
         <v>196</v>
@@ -8914,18 +8914,18 @@
       </c>
       <c r="G26" s="39">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H26" s="38">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>42240</v>
+        <v>42263</v>
       </c>
       <c r="I26" s="33">
-        <v>0.99699377341901463</v>
+        <v>0.99700753162654587</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L26" s="179" t="s">
         <v>197</v>
@@ -8948,14 +8948,14 @@
       </c>
       <c r="G27" s="39">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H27" s="38">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>42270</v>
+        <v>42293</v>
       </c>
       <c r="I27" s="33">
-        <v>0.99667003040228908</v>
+        <v>0.9966840595139107</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="0"/>
@@ -8982,18 +8982,18 @@
       </c>
       <c r="G28" s="39">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H28" s="38">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>42300</v>
+        <v>42324</v>
       </c>
       <c r="I28" s="33">
-        <v>0.99631134474165561</v>
+        <v>0.99632020080314798</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L28" s="179" t="s">
         <v>199</v>
@@ -9016,18 +9016,18 @@
       </c>
       <c r="G29" s="39">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H29" s="38">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>42331</v>
+        <v>42354</v>
       </c>
       <c r="I29" s="33">
-        <v>0.99590948629989307</v>
+        <v>0.99592413701609062</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L29" s="179" t="s">
         <v>200</v>
@@ -9050,18 +9050,18 @@
       </c>
       <c r="G30" s="39">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H30" s="38">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>42361</v>
+        <v>42387</v>
       </c>
       <c r="I30" s="33">
-        <v>0.99547327761261239</v>
+        <v>0.99546982128078054</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L30" s="179" t="s">
         <v>201</v>
@@ -9084,14 +9084,14 @@
       </c>
       <c r="G31" s="39">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H31" s="38">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>42452</v>
+        <v>42478</v>
       </c>
       <c r="I31" s="33">
-        <v>0.99393552860755652</v>
+        <v>0.99392969576717849</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="0"/>
@@ -9118,18 +9118,18 @@
       </c>
       <c r="G32" s="39">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H32" s="38">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>42544</v>
+        <v>42569</v>
       </c>
       <c r="I32" s="33">
-        <v>0.99192372020424557</v>
+        <v>0.99192373893904673</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L32" s="179" t="s">
         <v>203</v>
@@ -9152,18 +9152,18 @@
       </c>
       <c r="G33" s="39">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H33" s="38">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>42636</v>
+        <v>42660</v>
       </c>
       <c r="I33" s="33">
-        <v>0.98939903574357235</v>
+        <v>0.98940774981613588</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L33" s="179" t="s">
         <v>204</v>
@@ -9186,14 +9186,14 @@
       </c>
       <c r="G34" s="39">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H34" s="38">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>42727</v>
+        <v>42751</v>
       </c>
       <c r="I34" s="33">
-        <v>0.98634069883332964</v>
+        <v>0.98634929479965516</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="0"/>
@@ -9220,18 +9220,18 @@
       </c>
       <c r="G35" s="39">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H35" s="38">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>43096</v>
+        <v>43116</v>
       </c>
       <c r="I35" s="33">
-        <v>0.96868488409925069</v>
+        <v>0.96877638950546374</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="0"/>
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L35" s="179" t="s">
         <v>206</v>
@@ -9254,18 +9254,18 @@
       </c>
       <c r="G36" s="39">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H36" s="38">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>43458</v>
+        <v>43481</v>
       </c>
       <c r="I36" s="33">
-        <v>0.94410371076925725</v>
+        <v>0.94414295380885427</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="0"/>
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L36" s="179" t="s">
         <v>207</v>
@@ -9288,18 +9288,18 @@
       </c>
       <c r="G37" s="39">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H37" s="38">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>43822</v>
+        <v>43846</v>
       </c>
       <c r="I37" s="33">
-        <v>0.91513338539911859</v>
+        <v>0.91514436206153138</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L37" s="179" t="s">
         <v>208</v>
@@ -9322,14 +9322,14 @@
       </c>
       <c r="G38" s="39">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H38" s="38">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>44188</v>
+        <v>44214</v>
       </c>
       <c r="I38" s="33">
-        <v>0.88365811218332935</v>
+        <v>0.88358664139440379</v>
       </c>
       <c r="L38" s="179" t="s">
         <v>209</v>
@@ -9352,14 +9352,14 @@
       </c>
       <c r="G39" s="39">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H39" s="38">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>44553</v>
+        <v>44578</v>
       </c>
       <c r="I39" s="33">
-        <v>0.85126968557896621</v>
+        <v>0.85123406975534666</v>
       </c>
       <c r="L39" s="179" t="s">
         <v>210</v>
@@ -9382,14 +9382,14 @@
       </c>
       <c r="G40" s="39">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H40" s="38">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>44918</v>
+        <v>44942</v>
       </c>
       <c r="I40" s="33">
-        <v>0.81876618442168947</v>
+        <v>0.81877454743137246</v>
       </c>
       <c r="L40" s="179" t="s">
         <v>211</v>
@@ -9412,14 +9412,14 @@
       </c>
       <c r="G41" s="39">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H41" s="38">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>45287</v>
+        <v>45307</v>
       </c>
       <c r="I41" s="33">
-        <v>0.78613369787816501</v>
+        <v>0.78633831974700852</v>
       </c>
       <c r="L41" s="179" t="s">
         <v>212</v>
@@ -9442,14 +9442,14 @@
       </c>
       <c r="G42" s="39">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H42" s="38">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>46014</v>
+        <v>46038</v>
       </c>
       <c r="I42" s="33">
-        <v>0.72218920785326379</v>
+        <v>0.72220291732629871</v>
       </c>
       <c r="L42" s="179" t="s">
         <v>213</v>
@@ -9472,14 +9472,14 @@
       </c>
       <c r="G43" s="39">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H43" s="38">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>47114</v>
+        <v>47134</v>
       </c>
       <c r="I43" s="33">
-        <v>0.63633326708315707</v>
+        <v>0.63654437091187077</v>
       </c>
       <c r="L43" s="179" t="s">
         <v>214</v>
@@ -9502,14 +9502,14 @@
       </c>
       <c r="G44" s="39">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H44" s="38">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>48936</v>
+        <v>48960</v>
       </c>
       <c r="I44" s="33">
-        <v>0.51981190212580974</v>
+        <v>0.51983295988516209</v>
       </c>
       <c r="L44" s="179" t="s">
         <v>215</v>
@@ -9532,14 +9532,14 @@
       </c>
       <c r="G45" s="39">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H45" s="38">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>50762</v>
+        <v>50787</v>
       </c>
       <c r="I45" s="33">
-        <v>0.42715385408353196</v>
+        <v>0.42713494873619162</v>
       </c>
       <c r="L45" s="179" t="s">
         <v>216</v>
@@ -9562,14 +9562,14 @@
       </c>
       <c r="G46" s="39">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H46" s="38">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>52588</v>
+        <v>52614</v>
       </c>
       <c r="I46" s="33">
-        <v>0.35268078633895616</v>
+        <v>0.35263290293667265</v>
       </c>
       <c r="L46" s="179" t="s">
         <v>217</v>
@@ -9592,14 +9592,14 @@
       </c>
       <c r="G47" s="39">
         <f>_xll.qlRateHelperEarliestDate($D47)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H47" s="38">
         <f>_xll.qlRateHelperLatestDate($D47)</f>
-        <v>54415</v>
+        <v>54441</v>
       </c>
       <c r="I47" s="33">
-        <v>0.29640805123074765</v>
+        <v>0.29636685104324823</v>
       </c>
       <c r="L47" s="179" t="s">
         <v>218</v>
@@ -9622,14 +9622,14 @@
       </c>
       <c r="G48" s="39">
         <f>_xll.qlRateHelperEarliestDate($D48)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H48" s="38">
         <f>_xll.qlRateHelperLatestDate($D48)</f>
-        <v>56241</v>
+        <v>56265</v>
       </c>
       <c r="I48" s="33">
-        <v>0.25166175637453525</v>
+        <v>0.25167081466775604</v>
       </c>
       <c r="L48" s="179" t="s">
         <v>219</v>
@@ -9652,14 +9652,14 @@
       </c>
       <c r="G49" s="39">
         <f>_xll.qlRateHelperEarliestDate($D49)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H49" s="38">
         <f>_xll.qlRateHelperLatestDate($D49)</f>
-        <v>58067</v>
+        <v>58091</v>
       </c>
       <c r="I49" s="33">
-        <v>0.21580083775898115</v>
+        <v>0.21580849836211913</v>
       </c>
       <c r="L49" s="179" t="s">
         <v>220</v>
@@ -9682,14 +9682,14 @@
       </c>
       <c r="G50" s="39">
         <f>_xll.qlRateHelperEarliestDate($D50)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="H50" s="38">
         <f>_xll.qlRateHelperLatestDate($D50)</f>
-        <v>59894</v>
+        <v>59917</v>
       </c>
       <c r="I50" s="33">
-        <v>0.18593203137578257</v>
+        <v>0.18595467193896159</v>
       </c>
       <c r="L50" s="179" t="s">
         <v>221</v>
@@ -11616,7 +11616,7 @@
       </c>
       <c r="F3" s="105" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OND#0006</v>
+        <v>USD_YCONRH_OND#0000</v>
       </c>
       <c r="G3" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -11730,7 +11730,7 @@
       </c>
       <c r="H3" s="146" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_TND#0005</v>
+        <v>USD_YCONRH_TND#0000</v>
       </c>
       <c r="I3" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -11762,7 +11762,7 @@
       </c>
       <c r="H4" s="143" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_SND#0005</v>
+        <v>USD_YCONRH_SND#0000</v>
       </c>
       <c r="I4" s="142" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -11918,7 +11918,7 @@
       </c>
       <c r="L4" s="172" t="str">
         <f>_xll.qlEonia(K4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS_LiborON#0006</v>
+        <v>USD_YCONRH_OIS_LiborON#0000</v>
       </c>
       <c r="M4" s="171" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="L6" s="164" t="str">
         <f>_xll.qlOISRateHelper(K6,2,C6,J6,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OISSW#0006</v>
+        <v>USD_YCONRH_OISSW#0000</v>
       </c>
       <c r="M6" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -11986,11 +11986,11 @@
       <c r="N6" s="161"/>
       <c r="P6" s="163">
         <f>_xll.qlRateHelperEarliestDate($L6)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q6" s="163">
         <f>_xll.qlRateHelperLatestDate($L6)</f>
-        <v>41638</v>
+        <v>41662</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -12029,7 +12029,7 @@
       </c>
       <c r="L7" s="164" t="str">
         <f>_xll.qlOISRateHelper(K7,2,C7,J7,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2W#0006</v>
+        <v>USD_YCONRH_OIS2W#0000</v>
       </c>
       <c r="M7" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -12038,11 +12038,11 @@
       <c r="N7" s="161"/>
       <c r="P7" s="163">
         <f>_xll.qlRateHelperEarliestDate(L7)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q7" s="163">
         <f>_xll.qlRateHelperLatestDate($L7)</f>
-        <v>41645</v>
+        <v>41669</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -12081,7 +12081,7 @@
       </c>
       <c r="L8" s="164" t="str">
         <f>_xll.qlOISRateHelper(K8,2,C8,J8,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3W#0006</v>
+        <v>USD_YCONRH_OIS3W#0000</v>
       </c>
       <c r="M8" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -12090,11 +12090,11 @@
       <c r="N8" s="161"/>
       <c r="P8" s="163">
         <f>_xll.qlRateHelperEarliestDate(L8)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q8" s="163">
         <f>_xll.qlRateHelperLatestDate($L8)</f>
-        <v>41652</v>
+        <v>41676</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -12133,7 +12133,7 @@
       </c>
       <c r="L9" s="164" t="str">
         <f>_xll.qlOISRateHelper(K9,2,C9,J9,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS1M#0006</v>
+        <v>USD_YCONRH_OIS1M#0000</v>
       </c>
       <c r="M9" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -12142,11 +12142,11 @@
       <c r="N9" s="161"/>
       <c r="P9" s="163">
         <f>_xll.qlRateHelperEarliestDate(L9)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q9" s="163">
         <f>_xll.qlRateHelperLatestDate($L9)</f>
-        <v>41662</v>
+        <v>41687</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -12185,7 +12185,7 @@
       </c>
       <c r="L10" s="164" t="str">
         <f>_xll.qlOISRateHelper(K10,2,C10,J10,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2M#0006</v>
+        <v>USD_YCONRH_OIS2M#0000</v>
       </c>
       <c r="M10" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -12194,11 +12194,11 @@
       <c r="N10" s="161"/>
       <c r="P10" s="163">
         <f>_xll.qlRateHelperEarliestDate(L10)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q10" s="163">
         <f>_xll.qlRateHelperLatestDate($L10)</f>
-        <v>41694</v>
+        <v>41715</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -12237,7 +12237,7 @@
       </c>
       <c r="L11" s="164" t="str">
         <f>_xll.qlOISRateHelper(K11,2,C11,J11,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3M#0006</v>
+        <v>USD_YCONRH_OIS3M#0000</v>
       </c>
       <c r="M11" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -12246,11 +12246,11 @@
       <c r="N11" s="161"/>
       <c r="P11" s="163">
         <f>_xll.qlRateHelperEarliestDate(L11)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q11" s="163">
         <f>_xll.qlRateHelperLatestDate($L11)</f>
-        <v>41722</v>
+        <v>41745</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -12289,7 +12289,7 @@
       </c>
       <c r="L12" s="164" t="str">
         <f>_xll.qlOISRateHelper(K12,2,C12,J12,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS4M#0006</v>
+        <v>USD_YCONRH_OIS4M#0000</v>
       </c>
       <c r="M12" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -12298,11 +12298,11 @@
       <c r="N12" s="161"/>
       <c r="P12" s="163">
         <f>_xll.qlRateHelperEarliestDate(L12)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q12" s="163">
         <f>_xll.qlRateHelperLatestDate($L12)</f>
-        <v>41752</v>
+        <v>41775</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -12341,7 +12341,7 @@
       </c>
       <c r="L13" s="164" t="str">
         <f>_xll.qlOISRateHelper(K13,2,C13,J13,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS5M#0006</v>
+        <v>USD_YCONRH_OIS5M#0000</v>
       </c>
       <c r="M13" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -12350,11 +12350,11 @@
       <c r="N13" s="161"/>
       <c r="P13" s="163">
         <f>_xll.qlRateHelperEarliestDate(L13)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q13" s="163">
         <f>_xll.qlRateHelperLatestDate($L13)</f>
-        <v>41782</v>
+        <v>41806</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -12393,7 +12393,7 @@
       </c>
       <c r="L14" s="164" t="str">
         <f>_xll.qlOISRateHelper(K14,2,C14,J14,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS6M#0006</v>
+        <v>USD_YCONRH_OIS6M#0000</v>
       </c>
       <c r="M14" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -12402,11 +12402,11 @@
       <c r="N14" s="161"/>
       <c r="P14" s="163">
         <f>_xll.qlRateHelperEarliestDate(L14)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q14" s="163">
         <f>_xll.qlRateHelperLatestDate($L14)</f>
-        <v>41813</v>
+        <v>41836</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -12445,7 +12445,7 @@
       </c>
       <c r="L15" s="164" t="str">
         <f>_xll.qlOISRateHelper(K15,2,C15,J15,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS7M#0006</v>
+        <v>USD_YCONRH_OIS7M#0000</v>
       </c>
       <c r="M15" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -12454,11 +12454,11 @@
       <c r="N15" s="161"/>
       <c r="P15" s="163">
         <f>_xll.qlRateHelperEarliestDate(L15)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q15" s="163">
         <f>_xll.qlRateHelperLatestDate($L15)</f>
-        <v>41843</v>
+        <v>41869</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -12497,7 +12497,7 @@
       </c>
       <c r="L16" s="164" t="str">
         <f>_xll.qlOISRateHelper(K16,2,C16,J16,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS8M#0006</v>
+        <v>USD_YCONRH_OIS8M#0000</v>
       </c>
       <c r="M16" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -12506,11 +12506,11 @@
       <c r="N16" s="161"/>
       <c r="P16" s="163">
         <f>_xll.qlRateHelperEarliestDate(L16)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q16" s="163">
         <f>_xll.qlRateHelperLatestDate($L16)</f>
-        <v>41876</v>
+        <v>41898</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -12549,7 +12549,7 @@
       </c>
       <c r="L17" s="164" t="str">
         <f>_xll.qlOISRateHelper(K17,2,C17,J17,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS9M#0006</v>
+        <v>USD_YCONRH_OIS9M#0000</v>
       </c>
       <c r="M17" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -12558,11 +12558,11 @@
       <c r="N17" s="161"/>
       <c r="P17" s="163">
         <f>_xll.qlRateHelperEarliestDate(L17)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q17" s="163">
         <f>_xll.qlRateHelperLatestDate($L17)</f>
-        <v>41905</v>
+        <v>41928</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -12601,7 +12601,7 @@
       </c>
       <c r="L18" s="164" t="str">
         <f>_xll.qlOISRateHelper(K18,2,C18,J18,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS10M#0006</v>
+        <v>USD_YCONRH_OIS10M#0000</v>
       </c>
       <c r="M18" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -12610,11 +12610,11 @@
       <c r="N18" s="161"/>
       <c r="P18" s="163">
         <f>_xll.qlRateHelperEarliestDate(L18)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q18" s="163">
         <f>_xll.qlRateHelperLatestDate($L18)</f>
-        <v>41935</v>
+        <v>41960</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="L19" s="164" t="str">
         <f>_xll.qlOISRateHelper(K19,2,C19,J19,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS11M#0006</v>
+        <v>USD_YCONRH_OIS11M#0000</v>
       </c>
       <c r="M19" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -12662,11 +12662,11 @@
       <c r="N19" s="161"/>
       <c r="P19" s="163">
         <f>_xll.qlRateHelperEarliestDate(L19)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q19" s="163">
         <f>_xll.qlRateHelperLatestDate($L19)</f>
-        <v>41967</v>
+        <v>41989</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -12705,7 +12705,7 @@
       </c>
       <c r="L20" s="164" t="str">
         <f>_xll.qlOISRateHelper(K20,2,C20,J20,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS1Y#0006</v>
+        <v>USD_YCONRH_OIS1Y#0000</v>
       </c>
       <c r="M20" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -12714,11 +12714,11 @@
       <c r="N20" s="161"/>
       <c r="P20" s="163">
         <f>_xll.qlRateHelperEarliestDate(L20)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q20" s="163">
         <f>_xll.qlRateHelperLatestDate($L20)</f>
-        <v>41996</v>
+        <v>42020</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -12757,7 +12757,7 @@
       </c>
       <c r="L21" s="164" t="str">
         <f>_xll.qlOISRateHelper(K21,2,C21,J21,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS13M#0006</v>
+        <v>USD_YCONRH_OIS13M#0000</v>
       </c>
       <c r="M21" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -12766,11 +12766,11 @@
       <c r="N21" s="161"/>
       <c r="P21" s="163">
         <f>_xll.qlRateHelperEarliestDate(L21)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q21" s="163">
         <f>_xll.qlRateHelperLatestDate($L21)</f>
-        <v>42027</v>
+        <v>42051</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -12809,7 +12809,7 @@
       </c>
       <c r="L22" s="164" t="str">
         <f>_xll.qlOISRateHelper(K22,2,C22,J22,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS14M#0006</v>
+        <v>USD_YCONRH_OIS14M#0000</v>
       </c>
       <c r="M22" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -12818,11 +12818,11 @@
       <c r="N22" s="161"/>
       <c r="P22" s="163">
         <f>_xll.qlRateHelperEarliestDate(L22)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q22" s="163">
         <f>_xll.qlRateHelperLatestDate($L22)</f>
-        <v>42058</v>
+        <v>42079</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -12861,7 +12861,7 @@
       </c>
       <c r="L23" s="164" t="str">
         <f>_xll.qlOISRateHelper(K23,2,C23,J23,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS15M#0006</v>
+        <v>USD_YCONRH_OIS15M#0000</v>
       </c>
       <c r="M23" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -12870,11 +12870,11 @@
       <c r="N23" s="161"/>
       <c r="P23" s="163">
         <f>_xll.qlRateHelperEarliestDate(L23)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q23" s="163">
         <f>_xll.qlRateHelperLatestDate($L23)</f>
-        <v>42086</v>
+        <v>42110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -12913,7 +12913,7 @@
       </c>
       <c r="L24" s="164" t="str">
         <f>_xll.qlOISRateHelper(K24,2,C24,J24,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS16M#0006</v>
+        <v>USD_YCONRH_OIS16M#0000</v>
       </c>
       <c r="M24" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -12922,11 +12922,11 @@
       <c r="N24" s="161"/>
       <c r="P24" s="163">
         <f>_xll.qlRateHelperEarliestDate(L24)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q24" s="163">
         <f>_xll.qlRateHelperLatestDate($L24)</f>
-        <v>42117</v>
+        <v>42142</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -12965,7 +12965,7 @@
       </c>
       <c r="L25" s="164" t="str">
         <f>_xll.qlOISRateHelper(K25,2,C25,J25,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS17M#0006</v>
+        <v>USD_YCONRH_OIS17M#0000</v>
       </c>
       <c r="M25" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -12974,11 +12974,11 @@
       <c r="N25" s="161"/>
       <c r="P25" s="163">
         <f>_xll.qlRateHelperEarliestDate(L25)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q25" s="163">
         <f>_xll.qlRateHelperLatestDate($L25)</f>
-        <v>42149</v>
+        <v>42171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -13017,7 +13017,7 @@
       </c>
       <c r="L26" s="164" t="str">
         <f>_xll.qlOISRateHelper(K26,2,C26,J26,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS18M#0006</v>
+        <v>USD_YCONRH_OIS18M#0000</v>
       </c>
       <c r="M26" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -13026,11 +13026,11 @@
       <c r="N26" s="161"/>
       <c r="P26" s="163">
         <f>_xll.qlRateHelperEarliestDate(L26)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q26" s="163">
         <f>_xll.qlRateHelperLatestDate($L26)</f>
-        <v>42178</v>
+        <v>42201</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -13069,7 +13069,7 @@
       </c>
       <c r="L27" s="164" t="str">
         <f>_xll.qlOISRateHelper(K27,2,C27,J27,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS19M#0006</v>
+        <v>USD_YCONRH_OIS19M#0000</v>
       </c>
       <c r="M27" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -13078,11 +13078,11 @@
       <c r="N27" s="161"/>
       <c r="P27" s="163">
         <f>_xll.qlRateHelperEarliestDate(L27)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q27" s="163">
         <f>_xll.qlRateHelperLatestDate($L27)</f>
-        <v>42208</v>
+        <v>42233</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -13121,7 +13121,7 @@
       </c>
       <c r="L28" s="164" t="str">
         <f>_xll.qlOISRateHelper(K28,2,C28,J28,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS20M#0006</v>
+        <v>USD_YCONRH_OIS20M#0000</v>
       </c>
       <c r="M28" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -13130,11 +13130,11 @@
       <c r="N28" s="161"/>
       <c r="P28" s="163">
         <f>_xll.qlRateHelperEarliestDate(L28)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q28" s="163">
         <f>_xll.qlRateHelperLatestDate($L28)</f>
-        <v>42240</v>
+        <v>42263</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="L29" s="164" t="str">
         <f>_xll.qlOISRateHelper(K29,2,C29,J29,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS21M#0006</v>
+        <v>USD_YCONRH_OIS21M#0000</v>
       </c>
       <c r="M29" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -13182,11 +13182,11 @@
       <c r="N29" s="161"/>
       <c r="P29" s="163">
         <f>_xll.qlRateHelperEarliestDate(L29)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q29" s="163">
         <f>_xll.qlRateHelperLatestDate($L29)</f>
-        <v>42270</v>
+        <v>42293</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="L30" s="164" t="str">
         <f>_xll.qlOISRateHelper(K30,2,C30,J30,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS22M#0006</v>
+        <v>USD_YCONRH_OIS22M#0000</v>
       </c>
       <c r="M30" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -13234,11 +13234,11 @@
       <c r="N30" s="161"/>
       <c r="P30" s="163">
         <f>_xll.qlRateHelperEarliestDate(L30)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q30" s="163">
         <f>_xll.qlRateHelperLatestDate($L30)</f>
-        <v>42300</v>
+        <v>42324</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -13277,7 +13277,7 @@
       </c>
       <c r="L31" s="164" t="str">
         <f>_xll.qlOISRateHelper(K31,2,C31,J31,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS23M#0006</v>
+        <v>USD_YCONRH_OIS23M#0000</v>
       </c>
       <c r="M31" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -13286,11 +13286,11 @@
       <c r="N31" s="161"/>
       <c r="P31" s="163">
         <f>_xll.qlRateHelperEarliestDate(L31)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q31" s="163">
         <f>_xll.qlRateHelperLatestDate($L31)</f>
-        <v>42331</v>
+        <v>42354</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -13329,7 +13329,7 @@
       </c>
       <c r="L32" s="164" t="str">
         <f>_xll.qlOISRateHelper(K32,2,C32,J32,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2Y#0006</v>
+        <v>USD_YCONRH_OIS2Y#0000</v>
       </c>
       <c r="M32" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -13338,11 +13338,11 @@
       <c r="N32" s="161"/>
       <c r="P32" s="163">
         <f>_xll.qlRateHelperEarliestDate(L32)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q32" s="163">
         <f>_xll.qlRateHelperLatestDate($L32)</f>
-        <v>42361</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -13381,7 +13381,7 @@
       </c>
       <c r="L33" s="164" t="str">
         <f>_xll.qlOISRateHelper(K33,2,C33,J33,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS27M#0006</v>
+        <v>USD_YCONRH_OIS27M#0000</v>
       </c>
       <c r="M33" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -13390,11 +13390,11 @@
       <c r="N33" s="161"/>
       <c r="P33" s="163">
         <f>_xll.qlRateHelperEarliestDate(L33)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q33" s="163">
         <f>_xll.qlRateHelperLatestDate($L33)</f>
-        <v>42452</v>
+        <v>42478</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -13433,7 +13433,7 @@
       </c>
       <c r="L34" s="164" t="str">
         <f>_xll.qlOISRateHelper(K34,2,C34,J34,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS30M#0006</v>
+        <v>USD_YCONRH_OIS30M#0000</v>
       </c>
       <c r="M34" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -13442,11 +13442,11 @@
       <c r="N34" s="161"/>
       <c r="P34" s="163">
         <f>_xll.qlRateHelperEarliestDate(L34)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q34" s="163">
         <f>_xll.qlRateHelperLatestDate($L34)</f>
-        <v>42544</v>
+        <v>42569</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -13485,7 +13485,7 @@
       </c>
       <c r="L35" s="164" t="str">
         <f>_xll.qlOISRateHelper(K35,2,C35,J35,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS33M#0006</v>
+        <v>USD_YCONRH_OIS33M#0000</v>
       </c>
       <c r="M35" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -13494,11 +13494,11 @@
       <c r="N35" s="161"/>
       <c r="P35" s="163">
         <f>_xll.qlRateHelperEarliestDate(L35)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q35" s="163">
         <f>_xll.qlRateHelperLatestDate($L35)</f>
-        <v>42636</v>
+        <v>42660</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -13537,7 +13537,7 @@
       </c>
       <c r="L36" s="164" t="str">
         <f>_xll.qlOISRateHelper(K36,2,C36,J36,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3Y#0006</v>
+        <v>USD_YCONRH_OIS3Y#0000</v>
       </c>
       <c r="M36" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -13546,11 +13546,11 @@
       <c r="N36" s="161"/>
       <c r="P36" s="163">
         <f>_xll.qlRateHelperEarliestDate(L36)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q36" s="163">
         <f>_xll.qlRateHelperLatestDate($L36)</f>
-        <v>42727</v>
+        <v>42751</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -13589,7 +13589,7 @@
       </c>
       <c r="L37" s="164" t="str">
         <f>_xll.qlOISRateHelper(K37,2,C37,J37,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS39M#0006</v>
+        <v>USD_YCONRH_OIS39M#0000</v>
       </c>
       <c r="M37" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -13598,11 +13598,11 @@
       <c r="N37" s="161"/>
       <c r="P37" s="163">
         <f>_xll.qlRateHelperEarliestDate(L37)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q37" s="163">
         <f>_xll.qlRateHelperLatestDate($L37)</f>
-        <v>42817</v>
+        <v>42843</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -13641,7 +13641,7 @@
       </c>
       <c r="L38" s="164" t="str">
         <f>_xll.qlOISRateHelper(K38,2,C38,J38,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS42M#0006</v>
+        <v>USD_YCONRH_OIS42M#0000</v>
       </c>
       <c r="M38" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -13687,7 +13687,7 @@
       </c>
       <c r="L39" s="164" t="str">
         <f>_xll.qlOISRateHelper(K39,2,C39,J39,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS45M#0006</v>
+        <v>USD_YCONRH_OIS45M#0000</v>
       </c>
       <c r="M39" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="L40" s="164" t="str">
         <f>_xll.qlOISRateHelper(K40,2,C40,J40,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS4Y#0006</v>
+        <v>USD_YCONRH_OIS4Y#0000</v>
       </c>
       <c r="M40" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -13779,7 +13779,7 @@
       </c>
       <c r="L41" s="164" t="str">
         <f>_xll.qlOISRateHelper(K41,2,C41,J41,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS51M#0006</v>
+        <v>USD_YCONRH_OIS51M#0000</v>
       </c>
       <c r="M41" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -13825,7 +13825,7 @@
       </c>
       <c r="L42" s="164" t="str">
         <f>_xll.qlOISRateHelper(K42,2,C42,J42,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS54M#0006</v>
+        <v>USD_YCONRH_OIS54M#0000</v>
       </c>
       <c r="M42" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -13871,7 +13871,7 @@
       </c>
       <c r="L43" s="164" t="str">
         <f>_xll.qlOISRateHelper(K43,2,C43,J43,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS57M#0006</v>
+        <v>USD_YCONRH_OIS57M#0000</v>
       </c>
       <c r="M43" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L43)</f>
@@ -13917,7 +13917,7 @@
       </c>
       <c r="L44" s="164" t="str">
         <f>_xll.qlOISRateHelper(K44,2,C44,J44,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS5Y#0006</v>
+        <v>USD_YCONRH_OIS5Y#0000</v>
       </c>
       <c r="M44" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -13963,7 +13963,7 @@
       </c>
       <c r="L45" s="164" t="str">
         <f>_xll.qlOISRateHelper(K45,2,C45,J45,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS6Y#0006</v>
+        <v>USD_YCONRH_OIS6Y#0000</v>
       </c>
       <c r="M45" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -14009,7 +14009,7 @@
       </c>
       <c r="L46" s="164" t="str">
         <f>_xll.qlOISRateHelper(K46,2,C46,J46,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS7Y#0006</v>
+        <v>USD_YCONRH_OIS7Y#0000</v>
       </c>
       <c r="M46" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -14055,7 +14055,7 @@
       </c>
       <c r="L47" s="164" t="str">
         <f>_xll.qlOISRateHelper(K47,2,C47,J47,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS8Y#0006</v>
+        <v>USD_YCONRH_OIS8Y#0000</v>
       </c>
       <c r="M47" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="L48" s="164" t="str">
         <f>_xll.qlOISRateHelper(K48,2,C48,J48,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS9Y#0006</v>
+        <v>USD_YCONRH_OIS9Y#0000</v>
       </c>
       <c r="M48" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -14147,7 +14147,7 @@
       </c>
       <c r="L49" s="164" t="str">
         <f>_xll.qlOISRateHelper(K49,2,C49,J49,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS10Y#0006</v>
+        <v>USD_YCONRH_OIS10Y#0000</v>
       </c>
       <c r="M49" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -14193,7 +14193,7 @@
       </c>
       <c r="L50" s="164" t="str">
         <f>_xll.qlOISRateHelper(K50,2,C50,J50,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS12Y#0006</v>
+        <v>USD_YCONRH_OIS12Y#0000</v>
       </c>
       <c r="M50" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -14239,7 +14239,7 @@
       </c>
       <c r="L51" s="164" t="str">
         <f>_xll.qlOISRateHelper(K51,2,C51,J51,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS15Y#0006</v>
+        <v>USD_YCONRH_OIS15Y#0000</v>
       </c>
       <c r="M51" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L51)</f>
@@ -14285,7 +14285,7 @@
       </c>
       <c r="L52" s="164" t="str">
         <f>_xll.qlOISRateHelper(K52,2,C52,J52,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS20Y#0006</v>
+        <v>USD_YCONRH_OIS20Y#0000</v>
       </c>
       <c r="M52" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L52)</f>
@@ -14331,7 +14331,7 @@
       </c>
       <c r="L53" s="164" t="str">
         <f>_xll.qlOISRateHelper(K53,2,C53,J53,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS25Y#0006</v>
+        <v>USD_YCONRH_OIS25Y#0000</v>
       </c>
       <c r="M53" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L53)</f>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="L54" s="164" t="str">
         <f>_xll.qlOISRateHelper(K54,2,C54,J54,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS27Y#0006</v>
+        <v>USD_YCONRH_OIS27Y#0000</v>
       </c>
       <c r="M54" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L54)</f>
@@ -14423,7 +14423,7 @@
       </c>
       <c r="L55" s="164" t="str">
         <f>_xll.qlOISRateHelper(K55,2,C55,J55,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS30Y#0006</v>
+        <v>USD_YCONRH_OIS30Y#0000</v>
       </c>
       <c r="M55" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L55)</f>
@@ -14469,7 +14469,7 @@
       </c>
       <c r="L56" s="164" t="str">
         <f>_xll.qlOISRateHelper(K56,2,C56,J56,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS35Y#0006</v>
+        <v>USD_YCONRH_OIS35Y#0000</v>
       </c>
       <c r="M56" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L56)</f>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="L57" s="164" t="str">
         <f>_xll.qlOISRateHelper(K57,2,C57,J57,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS40Y#0006</v>
+        <v>USD_YCONRH_OIS40Y#0000</v>
       </c>
       <c r="M57" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L57)</f>
@@ -14561,7 +14561,7 @@
       </c>
       <c r="L58" s="164" t="str">
         <f>_xll.qlOISRateHelper(K58,2,C58,J58,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS45Y#0006</v>
+        <v>USD_YCONRH_OIS45Y#0000</v>
       </c>
       <c r="M58" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L58)</f>
@@ -14607,7 +14607,7 @@
       </c>
       <c r="L59" s="164" t="str">
         <f>_xll.qlOISRateHelper(K59,2,C59,J59,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS50Y#0006</v>
+        <v>USD_YCONRH_OIS50Y#0000</v>
       </c>
       <c r="M59" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L59)</f>
@@ -14616,11 +14616,11 @@
       <c r="N59" s="161"/>
       <c r="P59" s="163">
         <f>_xll.qlRateHelperEarliestDate(L59)</f>
-        <v>41631</v>
+        <v>41655</v>
       </c>
       <c r="Q59" s="163">
         <f>_xll.qlRateHelperLatestDate($L59)</f>
-        <v>59894</v>
+        <v>59917</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -14680,9 +14680,9 @@
         <f>_xll.qlDatedOISRateHelper(K61,B61,B62,J61,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M61" s="95" t="e">
+      <c r="M61" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L61)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N61" s="161"/>
       <c r="P61" s="163" t="e">
@@ -14733,9 +14733,9 @@
         <f>_xll.qlDatedOISRateHelper(K62,B62,B63,J62,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M62" s="95" t="e">
+      <c r="M62" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L62)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N62" s="161"/>
       <c r="P62" s="163" t="e">
@@ -14786,9 +14786,9 @@
         <f>_xll.qlDatedOISRateHelper(K63,B63,B64,J63,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M63" s="95" t="e">
+      <c r="M63" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N63" s="161"/>
       <c r="P63" s="163" t="e">
@@ -14839,9 +14839,9 @@
         <f>_xll.qlDatedOISRateHelper(K64,B64,B65,J64,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M64" s="95" t="e">
+      <c r="M64" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N64" s="161"/>
       <c r="P64" s="163" t="e">
@@ -14892,9 +14892,9 @@
         <f>_xll.qlDatedOISRateHelper(K65,B65,B66,J65,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M65" s="95" t="e">
+      <c r="M65" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L65)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N65" s="161"/>
       <c r="P65" s="163" t="e">
@@ -14945,9 +14945,9 @@
         <f>_xll.qlDatedOISRateHelper(K66,B66,B67,J66,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M66" s="95" t="e">
+      <c r="M66" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L66)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N66" s="161"/>
       <c r="P66" s="163" t="e">
@@ -14998,9 +14998,9 @@
         <f>_xll.qlDatedOISRateHelper(K67,B67,B68,J67,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M67" s="95" t="e">
+      <c r="M67" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L67)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N67" s="161"/>
       <c r="P67" s="163" t="e">
@@ -15051,9 +15051,9 @@
         <f>_xll.qlDatedOISRateHelper(K68,B68,B69,J68,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M68" s="95" t="e">
+      <c r="M68" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L68)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N68" s="161"/>
       <c r="P68" s="163" t="e">
@@ -15104,9 +15104,9 @@
         <f>_xll.qlDatedOISRateHelper(K69,B69,B70,J69,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M69" s="95" t="e">
+      <c r="M69" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L69)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N69" s="161"/>
       <c r="P69" s="163" t="e">
@@ -15157,9 +15157,9 @@
         <f>_xll.qlDatedOISRateHelper(K70,B70,B71,J70,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M70" s="95" t="e">
+      <c r="M70" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L70)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N70" s="161"/>
       <c r="P70" s="163" t="e">
@@ -15210,9 +15210,9 @@
         <f>_xll.qlDatedOISRateHelper(K71,B71,B72,J71,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M71" s="95" t="e">
+      <c r="M71" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L71)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N71" s="161"/>
       <c r="P71" s="163" t="e">
@@ -15263,9 +15263,9 @@
         <f>_xll.qlDatedOISRateHelper(K72,B72,B73,J72,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M72" s="95" t="e">
+      <c r="M72" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L72)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N72" s="161"/>
       <c r="P72" s="163" t="e">
@@ -15316,9 +15316,9 @@
         <f>_xll.qlDatedOISRateHelper(K73,B73,B74,J73,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M73" s="95" t="e">
+      <c r="M73" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L73)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N73" s="161"/>
       <c r="P73" s="163" t="e">
@@ -15369,9 +15369,9 @@
         <f>_xll.qlDatedOISRateHelper(K74,B74,B75,J74,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M74" s="95" t="e">
+      <c r="M74" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L74)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N74" s="161"/>
       <c r="P74" s="163" t="e">
@@ -15422,9 +15422,9 @@
         <f>_xll.qlDatedOISRateHelper(K75,B75,B76,J75,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M75" s="95" t="e">
+      <c r="M75" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L75)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N75" s="161"/>
       <c r="P75" s="163" t="e">
@@ -15475,9 +15475,9 @@
         <f>_xll.qlDatedOISRateHelper(K76,B76,B77,J76,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M76" s="95" t="e">
+      <c r="M76" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L76)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N76" s="161"/>
       <c r="P76" s="163" t="e">
@@ -15528,9 +15528,9 @@
         <f>_xll.qlDatedOISRateHelper(K77,B77,B78,J77,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M77" s="95" t="e">
+      <c r="M77" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L77)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N77" s="161"/>
       <c r="P77" s="163" t="e">
@@ -15581,9 +15581,9 @@
         <f>_xll.qlDatedOISRateHelper(K78,B78,B79,J78,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M78" s="95" t="e">
+      <c r="M78" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L78)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N78" s="161"/>
       <c r="P78" s="163" t="e">
@@ -15634,9 +15634,9 @@
         <f>_xll.qlDatedOISRateHelper(K79,B79,B80,J79,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M79" s="95" t="e">
+      <c r="M79" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L79)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N79" s="161"/>
       <c r="P79" s="163" t="e">
@@ -15687,9 +15687,9 @@
         <f>_xll.qlDatedOISRateHelper(K80,B80,B81,J80,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M80" s="95" t="e">
+      <c r="M80" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L80)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N80" s="161"/>
       <c r="P80" s="163" t="e">
@@ -15740,9 +15740,9 @@
         <f>_xll.qlDatedOISRateHelper(K81,B81,B82,J81,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M81" s="95" t="e">
+      <c r="M81" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L81)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N81" s="161"/>
       <c r="P81" s="163" t="e">
@@ -15793,9 +15793,9 @@
         <f>_xll.qlDatedOISRateHelper(K82,B82,B83,J82,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M82" s="95" t="e">
+      <c r="M82" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L82)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N82" s="161"/>
       <c r="P82" s="163" t="e">
@@ -15846,9 +15846,9 @@
         <f>_xll.qlDatedOISRateHelper(K83,B83,B84,J83,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M83" s="95" t="e">
+      <c r="M83" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L83)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N83" s="161"/>
       <c r="P83" s="163" t="e">
@@ -15899,9 +15899,9 @@
         <f>_xll.qlDatedOISRateHelper(K84,B84,B85,J84,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M84" s="95" t="e">
+      <c r="M84" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L84)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N84" s="161"/>
       <c r="P84" s="163" t="e">
@@ -15952,9 +15952,9 @@
         <f>_xll.qlDatedOISRateHelper(K85,B85,B86,J85,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M85" s="95" t="e">
+      <c r="M85" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L85)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N85" s="161"/>
       <c r="P85" s="163" t="e">
@@ -16005,9 +16005,9 @@
         <f>_xll.qlDatedOISRateHelper(K86,B86,B87,J86,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M86" s="95" t="e">
+      <c r="M86" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L86)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N86" s="161"/>
       <c r="P86" s="163" t="e">
@@ -16058,9 +16058,9 @@
         <f>_xll.qlDatedOISRateHelper(K87,B87,B88,J87,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M87" s="95" t="e">
+      <c r="M87" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L87)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N87" s="161"/>
       <c r="P87" s="163" t="e">
@@ -16111,9 +16111,9 @@
         <f>_xll.qlDatedOISRateHelper(K88,B88,B89,J88,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M88" s="95" t="e">
+      <c r="M88" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L88)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N88" s="161"/>
       <c r="P88" s="163" t="e">
@@ -16164,9 +16164,9 @@
         <f>_xll.qlDatedOISRateHelper(K89,B89,B90,J89,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M89" s="95" t="e">
+      <c r="M89" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L89)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N89" s="161"/>
       <c r="P89" s="163" t="e">
@@ -16217,9 +16217,9 @@
         <f>_xll.qlDatedOISRateHelper(K90,B90,B91,J90,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M90" s="95" t="e">
+      <c r="M90" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L90)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N90" s="161"/>
       <c r="P90" s="163" t="e">
@@ -16270,9 +16270,9 @@
         <f>_xll.qlDatedOISRateHelper(K91,B91,B92,J91,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M91" s="95" t="e">
+      <c r="M91" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L91)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N91" s="161"/>
       <c r="P91" s="163" t="e">
@@ -16323,9 +16323,9 @@
         <f>_xll.qlDatedOISRateHelper(K92,B92,B93,J92,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M92" s="95" t="e">
+      <c r="M92" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L92)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N92" s="161"/>
       <c r="P92" s="163" t="e">
@@ -16376,9 +16376,9 @@
         <f>_xll.qlDatedOISRateHelper(K93,B93,B94,J93,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M93" s="95" t="e">
+      <c r="M93" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L93)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N93" s="161"/>
       <c r="P93" s="163" t="e">
@@ -16429,9 +16429,9 @@
         <f>_xll.qlDatedOISRateHelper(K94,B94,B95,J94,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M94" s="95" t="e">
+      <c r="M94" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L94)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N94" s="161"/>
       <c r="P94" s="163" t="e">
@@ -16482,9 +16482,9 @@
         <f>_xll.qlDatedOISRateHelper(K95,B95,#REF!,J95,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M95" s="95" t="e">
+      <c r="M95" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L95)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N95" s="161"/>
       <c r="P95" s="163" t="e">

--- a/QuantLibXL/Data2/XLS/USD_YCONBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YCONBootstrapping.xlsx
@@ -1092,12 +1092,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1504,15 +1504,11 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1521,31 +1517,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1564,7 +1538,7 @@
     <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1910,17 +1884,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1962,31 +1936,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="10" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2004,6 +1960,21 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="10" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2322,39 +2293,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="182" customWidth="1"/>
-    <col min="3" max="3" width="18" style="182" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="182" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="182" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.7109375" style="182" customWidth="1"/>
-    <col min="8" max="9" width="8" style="182"/>
-    <col min="10" max="11" width="2.7109375" style="182" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="182" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="182" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="182" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="182"/>
+    <col min="1" max="2" width="2.7109375" style="187" customWidth="1"/>
+    <col min="3" max="3" width="18" style="187" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="187" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="187" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="187" customWidth="1"/>
+    <col min="8" max="9" width="8" style="187"/>
+    <col min="10" max="11" width="2.7109375" style="187" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="187" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="187" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="187" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="187"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="182" t="str">
+      <c r="B1" s="187" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="190" t="s">
+    <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="195" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="192"/>
-      <c r="K2" s="190" t="s">
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="197"/>
+      <c r="K2" s="195" t="s">
         <v>152</v>
       </c>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="193"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="61"/>
@@ -2377,10 +2348,10 @@
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="57"/>
-      <c r="H4" s="185" t="s">
+      <c r="H4" s="190" t="s">
         <v>137</v>
       </c>
-      <c r="I4" s="186"/>
+      <c r="I4" s="191"/>
       <c r="K4" s="135"/>
       <c r="L4" s="134" t="s">
         <v>151</v>
@@ -2398,10 +2369,10 @@
       <c r="D5" s="62"/>
       <c r="E5" s="58"/>
       <c r="F5" s="57"/>
-      <c r="H5" s="183" t="s">
+      <c r="H5" s="188" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="184" t="s">
+      <c r="I5" s="189" t="s">
         <v>134</v>
       </c>
       <c r="K5" s="135"/>
@@ -2424,10 +2395,10 @@
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="57"/>
-      <c r="H6" s="183" t="s">
+      <c r="H6" s="188" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="184"/>
+      <c r="I6" s="189"/>
       <c r="K6" s="135"/>
       <c r="L6" s="134" t="s">
         <v>149</v>
@@ -2447,10 +2418,10 @@
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
-      <c r="H7" s="183" t="s">
+      <c r="H7" s="188" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="184"/>
+      <c r="I7" s="189"/>
       <c r="K7" s="132"/>
       <c r="L7" s="131"/>
       <c r="M7" s="131"/>
@@ -2466,18 +2437,18 @@
       </c>
       <c r="E8" s="58"/>
       <c r="F8" s="57"/>
-      <c r="H8" s="187" t="s">
+      <c r="H8" s="192" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="188" t="s">
+      <c r="I8" s="193" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="189"/>
-      <c r="L8" s="189"/>
-      <c r="M8" s="189"/>
-      <c r="N8" s="189"/>
-    </row>
-    <row r="9" spans="2:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="194"/>
+    </row>
+    <row r="9" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="61"/>
       <c r="C9" s="88" t="s">
         <v>124</v>
@@ -2488,12 +2459,12 @@
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="57"/>
-      <c r="K9" s="190" t="s">
+      <c r="K9" s="195" t="s">
         <v>148</v>
       </c>
-      <c r="L9" s="191"/>
-      <c r="M9" s="191"/>
-      <c r="N9" s="193"/>
+      <c r="L9" s="196"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="196"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="61"/>
@@ -2516,7 +2487,7 @@
         <v>122</v>
       </c>
       <c r="D11" s="86">
-        <v>41653.299837962964</v>
+        <v>41654.207465277781</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
@@ -2571,7 +2542,7 @@
       </c>
       <c r="D14" s="83" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYCON#0000</v>
+        <v>_USDYCON#0002</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="57"/>
@@ -2725,7 +2696,7 @@
       <c r="B27" s="61"/>
       <c r="C27" s="65">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="D27" s="64">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2738,11 +2709,11 @@
       <c r="B28" s="61"/>
       <c r="C28" s="63">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>59917</v>
+        <v>59918</v>
       </c>
       <c r="D28" s="62">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.18595467193896159</v>
+        <v>0.18595513265821129</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="57"/>
@@ -2827,11 +2798,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="196"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="184"/>
       <c r="E1" s="32" t="s">
         <v>96</v>
       </c>
@@ -2865,7 +2836,7 @@
       </c>
       <c r="E2" s="14" t="str">
         <f>ON_Deposits!F3</f>
-        <v>USD_YCONRH_OND#0000</v>
+        <v>USD_YCONRH_OND#0002</v>
       </c>
       <c r="F2" s="13">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
@@ -2883,11 +2854,11 @@
       </c>
       <c r="K2" s="12">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L2" s="11">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41654</v>
+        <v>41655</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2898,7 +2869,7 @@
       </c>
       <c r="E3" s="14" t="str">
         <f>ON_FRAs!H3</f>
-        <v>USD_YCONRH_TND#0000</v>
+        <v>USD_YCONRH_TND#0001</v>
       </c>
       <c r="F3" s="13">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
@@ -2916,11 +2887,11 @@
       </c>
       <c r="K3" s="12">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="L3" s="11">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2931,7 +2902,7 @@
       </c>
       <c r="E4" s="14" t="str">
         <f>ON_FRAs!H4</f>
-        <v>USD_YCONRH_SND#0000</v>
+        <v>USD_YCONRH_SND#0001</v>
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
@@ -2949,11 +2920,11 @@
       </c>
       <c r="K4" s="12">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L4" s="11">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41656</v>
+        <v>41659</v>
       </c>
     </row>
     <row r="5" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4149,7 +4120,7 @@
       </c>
       <c r="E35" s="21" t="str">
         <f>ON_Swaps!L6</f>
-        <v>USD_YCONRH_OISSW#0000</v>
+        <v>USD_YCONRH_OISSW#0002</v>
       </c>
       <c r="F35" s="20">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
@@ -4171,11 +4142,11 @@
       </c>
       <c r="K35" s="18">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L35" s="17">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>41662</v>
+        <v>41663</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
@@ -4189,7 +4160,7 @@
       </c>
       <c r="E36" s="14" t="str">
         <f>ON_Swaps!L7</f>
-        <v>USD_YCONRH_OIS2W#0000</v>
+        <v>USD_YCONRH_OIS2W#0002</v>
       </c>
       <c r="F36" s="13">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -4211,11 +4182,11 @@
       </c>
       <c r="K36" s="12">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L36" s="11">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>41669</v>
+        <v>41670</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
@@ -4229,7 +4200,7 @@
       </c>
       <c r="E37" s="14" t="str">
         <f>ON_Swaps!L8</f>
-        <v>USD_YCONRH_OIS3W#0000</v>
+        <v>USD_YCONRH_OIS3W#0002</v>
       </c>
       <c r="F37" s="13">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -4251,11 +4222,11 @@
       </c>
       <c r="K37" s="12">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L37" s="11">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>41676</v>
+        <v>41677</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
@@ -4269,7 +4240,7 @@
       </c>
       <c r="E38" s="14" t="str">
         <f>ON_Swaps!L9</f>
-        <v>USD_YCONRH_OIS1M#0000</v>
+        <v>USD_YCONRH_OIS1M#0002</v>
       </c>
       <c r="F38" s="13">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4291,7 +4262,7 @@
       </c>
       <c r="K38" s="12">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L38" s="11">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
@@ -4309,7 +4280,7 @@
       </c>
       <c r="E39" s="14" t="str">
         <f>ON_Swaps!L10</f>
-        <v>USD_YCONRH_OIS2M#0000</v>
+        <v>USD_YCONRH_OIS2M#0002</v>
       </c>
       <c r="F39" s="13">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4331,7 +4302,7 @@
       </c>
       <c r="K39" s="12">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L39" s="11">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
@@ -4349,7 +4320,7 @@
       </c>
       <c r="E40" s="14" t="str">
         <f>ON_Swaps!L11</f>
-        <v>USD_YCONRH_OIS3M#0000</v>
+        <v>USD_YCONRH_OIS3M#0002</v>
       </c>
       <c r="F40" s="13">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4371,11 +4342,11 @@
       </c>
       <c r="K40" s="12">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L40" s="11">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
-        <v>41745</v>
+        <v>41746</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
@@ -4389,7 +4360,7 @@
       </c>
       <c r="E41" s="14" t="str">
         <f>ON_Swaps!L12</f>
-        <v>USD_YCONRH_OIS4M#0000</v>
+        <v>USD_YCONRH_OIS4M#0002</v>
       </c>
       <c r="F41" s="13">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4411,11 +4382,11 @@
       </c>
       <c r="K41" s="12">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L41" s="11">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
-        <v>41775</v>
+        <v>41778</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
@@ -4429,7 +4400,7 @@
       </c>
       <c r="E42" s="14" t="str">
         <f>ON_Swaps!L13</f>
-        <v>USD_YCONRH_OIS5M#0000</v>
+        <v>USD_YCONRH_OIS5M#0002</v>
       </c>
       <c r="F42" s="13">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4451,11 +4422,11 @@
       </c>
       <c r="K42" s="12">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L42" s="11">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
-        <v>41806</v>
+        <v>41807</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
@@ -4469,7 +4440,7 @@
       </c>
       <c r="E43" s="14" t="str">
         <f>ON_Swaps!L14</f>
-        <v>USD_YCONRH_OIS6M#0000</v>
+        <v>USD_YCONRH_OIS6M#0002</v>
       </c>
       <c r="F43" s="13">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4491,11 +4462,11 @@
       </c>
       <c r="K43" s="12">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L43" s="11">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
-        <v>41836</v>
+        <v>41837</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
@@ -4509,7 +4480,7 @@
       </c>
       <c r="E44" s="14" t="str">
         <f>ON_Swaps!L15</f>
-        <v>USD_YCONRH_OIS7M#0000</v>
+        <v>USD_YCONRH_OIS7M#0002</v>
       </c>
       <c r="F44" s="13">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4531,7 +4502,7 @@
       </c>
       <c r="K44" s="12">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L44" s="11">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
@@ -4549,7 +4520,7 @@
       </c>
       <c r="E45" s="14" t="str">
         <f>ON_Swaps!L16</f>
-        <v>USD_YCONRH_OIS8M#0000</v>
+        <v>USD_YCONRH_OIS8M#0002</v>
       </c>
       <c r="F45" s="13">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4571,11 +4542,11 @@
       </c>
       <c r="K45" s="12">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L45" s="11">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
-        <v>41898</v>
+        <v>41899</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
@@ -4589,7 +4560,7 @@
       </c>
       <c r="E46" s="14" t="str">
         <f>ON_Swaps!L17</f>
-        <v>USD_YCONRH_OIS9M#0000</v>
+        <v>USD_YCONRH_OIS9M#0002</v>
       </c>
       <c r="F46" s="13">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4611,11 +4582,11 @@
       </c>
       <c r="K46" s="12">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L46" s="11">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
-        <v>41928</v>
+        <v>41929</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
@@ -4629,7 +4600,7 @@
       </c>
       <c r="E47" s="14" t="str">
         <f>ON_Swaps!L18</f>
-        <v>USD_YCONRH_OIS10M#0000</v>
+        <v>USD_YCONRH_OIS10M#0002</v>
       </c>
       <c r="F47" s="13">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -4651,7 +4622,7 @@
       </c>
       <c r="K47" s="12">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L47" s="11">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
@@ -4669,7 +4640,7 @@
       </c>
       <c r="E48" s="14" t="str">
         <f>ON_Swaps!L19</f>
-        <v>USD_YCONRH_OIS11M#0000</v>
+        <v>USD_YCONRH_OIS11M#0002</v>
       </c>
       <c r="F48" s="13">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
@@ -4691,11 +4662,11 @@
       </c>
       <c r="K48" s="12">
         <f>_xll.qlRateHelperEarliestDate($E48,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L48" s="11">
         <f>_xll.qlRateHelperLatestDate($E48,Trigger)</f>
-        <v>41989</v>
+        <v>41990</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
@@ -4709,7 +4680,7 @@
       </c>
       <c r="E49" s="14" t="str">
         <f>ON_Swaps!L20</f>
-        <v>USD_YCONRH_OIS1Y#0000</v>
+        <v>USD_YCONRH_OIS1Y#0002</v>
       </c>
       <c r="F49" s="13">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -4731,11 +4702,11 @@
       </c>
       <c r="K49" s="12">
         <f>_xll.qlRateHelperEarliestDate($E49,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L49" s="11">
         <f>_xll.qlRateHelperLatestDate($E49,Trigger)</f>
-        <v>42020</v>
+        <v>42023</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
@@ -4752,7 +4723,7 @@
       </c>
       <c r="E50" s="14" t="str">
         <f>ON_Swaps!L21</f>
-        <v>USD_YCONRH_OIS13M#0000</v>
+        <v>USD_YCONRH_OIS13M#0002</v>
       </c>
       <c r="F50" s="13">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
@@ -4774,11 +4745,11 @@
       </c>
       <c r="K50" s="12">
         <f>_xll.qlRateHelperEarliestDate($E50,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L50" s="11">
         <f>_xll.qlRateHelperLatestDate($E50,Trigger)</f>
-        <v>42051</v>
+        <v>42052</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
@@ -4795,7 +4766,7 @@
       </c>
       <c r="E51" s="14" t="str">
         <f>ON_Swaps!L22</f>
-        <v>USD_YCONRH_OIS14M#0000</v>
+        <v>USD_YCONRH_OIS14M#0002</v>
       </c>
       <c r="F51" s="13">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
@@ -4817,11 +4788,11 @@
       </c>
       <c r="K51" s="12">
         <f>_xll.qlRateHelperEarliestDate($E51,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L51" s="11">
         <f>_xll.qlRateHelperLatestDate($E51,Trigger)</f>
-        <v>42079</v>
+        <v>42080</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
@@ -4838,7 +4809,7 @@
       </c>
       <c r="E52" s="14" t="str">
         <f>ON_Swaps!L23</f>
-        <v>USD_YCONRH_OIS15M#0000</v>
+        <v>USD_YCONRH_OIS15M#0002</v>
       </c>
       <c r="F52" s="13">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
@@ -4860,11 +4831,11 @@
       </c>
       <c r="K52" s="12">
         <f>_xll.qlRateHelperEarliestDate($E52,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L52" s="11">
         <f>_xll.qlRateHelperLatestDate($E52,Trigger)</f>
-        <v>42110</v>
+        <v>42111</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
@@ -4881,7 +4852,7 @@
       </c>
       <c r="E53" s="14" t="str">
         <f>ON_Swaps!L24</f>
-        <v>USD_YCONRH_OIS16M#0000</v>
+        <v>USD_YCONRH_OIS16M#0002</v>
       </c>
       <c r="F53" s="13">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
@@ -4903,7 +4874,7 @@
       </c>
       <c r="K53" s="12">
         <f>_xll.qlRateHelperEarliestDate($E53,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L53" s="11">
         <f>_xll.qlRateHelperLatestDate($E53,Trigger)</f>
@@ -4924,7 +4895,7 @@
       </c>
       <c r="E54" s="14" t="str">
         <f>ON_Swaps!L25</f>
-        <v>USD_YCONRH_OIS17M#0000</v>
+        <v>USD_YCONRH_OIS17M#0002</v>
       </c>
       <c r="F54" s="13">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
@@ -4946,11 +4917,11 @@
       </c>
       <c r="K54" s="12">
         <f>_xll.qlRateHelperEarliestDate($E54,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L54" s="11">
         <f>_xll.qlRateHelperLatestDate($E54,Trigger)</f>
-        <v>42171</v>
+        <v>42172</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
@@ -4967,7 +4938,7 @@
       </c>
       <c r="E55" s="14" t="str">
         <f>ON_Swaps!L26</f>
-        <v>USD_YCONRH_OIS18M#0000</v>
+        <v>USD_YCONRH_OIS18M#0002</v>
       </c>
       <c r="F55" s="13">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
@@ -4989,11 +4960,11 @@
       </c>
       <c r="K55" s="12">
         <f>_xll.qlRateHelperEarliestDate($E55,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L55" s="11">
         <f>_xll.qlRateHelperLatestDate($E55,Trigger)</f>
-        <v>42201</v>
+        <v>42202</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
@@ -5010,7 +4981,7 @@
       </c>
       <c r="E56" s="14" t="str">
         <f>ON_Swaps!L27</f>
-        <v>USD_YCONRH_OIS19M#0000</v>
+        <v>USD_YCONRH_OIS19M#0002</v>
       </c>
       <c r="F56" s="13">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
@@ -5032,7 +5003,7 @@
       </c>
       <c r="K56" s="12">
         <f>_xll.qlRateHelperEarliestDate($E56,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L56" s="11">
         <f>_xll.qlRateHelperLatestDate($E56,Trigger)</f>
@@ -5053,7 +5024,7 @@
       </c>
       <c r="E57" s="14" t="str">
         <f>ON_Swaps!L28</f>
-        <v>USD_YCONRH_OIS20M#0000</v>
+        <v>USD_YCONRH_OIS20M#0002</v>
       </c>
       <c r="F57" s="13">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
@@ -5075,11 +5046,11 @@
       </c>
       <c r="K57" s="12">
         <f>_xll.qlRateHelperEarliestDate($E57,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L57" s="11">
         <f>_xll.qlRateHelperLatestDate($E57,Trigger)</f>
-        <v>42263</v>
+        <v>42264</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
@@ -5096,7 +5067,7 @@
       </c>
       <c r="E58" s="14" t="str">
         <f>ON_Swaps!L29</f>
-        <v>USD_YCONRH_OIS21M#0000</v>
+        <v>USD_YCONRH_OIS21M#0002</v>
       </c>
       <c r="F58" s="13">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
@@ -5118,11 +5089,11 @@
       </c>
       <c r="K58" s="12">
         <f>_xll.qlRateHelperEarliestDate($E58,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L58" s="11">
         <f>_xll.qlRateHelperLatestDate($E58,Trigger)</f>
-        <v>42293</v>
+        <v>42296</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
@@ -5139,7 +5110,7 @@
       </c>
       <c r="E59" s="14" t="str">
         <f>ON_Swaps!L30</f>
-        <v>USD_YCONRH_OIS22M#0000</v>
+        <v>USD_YCONRH_OIS22M#0002</v>
       </c>
       <c r="F59" s="13">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
@@ -5161,11 +5132,11 @@
       </c>
       <c r="K59" s="12">
         <f>_xll.qlRateHelperEarliestDate($E59,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L59" s="11">
         <f>_xll.qlRateHelperLatestDate($E59,Trigger)</f>
-        <v>42324</v>
+        <v>42325</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
@@ -5182,7 +5153,7 @@
       </c>
       <c r="E60" s="14" t="str">
         <f>ON_Swaps!L31</f>
-        <v>USD_YCONRH_OIS23M#0000</v>
+        <v>USD_YCONRH_OIS23M#0002</v>
       </c>
       <c r="F60" s="13">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
@@ -5204,11 +5175,11 @@
       </c>
       <c r="K60" s="12">
         <f>_xll.qlRateHelperEarliestDate($E60,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L60" s="11">
         <f>_xll.qlRateHelperLatestDate($E60,Trigger)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
@@ -5225,7 +5196,7 @@
       </c>
       <c r="E61" s="14" t="str">
         <f>ON_Swaps!L32</f>
-        <v>USD_YCONRH_OIS2Y#0000</v>
+        <v>USD_YCONRH_OIS2Y#0002</v>
       </c>
       <c r="F61" s="13">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
@@ -5247,7 +5218,7 @@
       </c>
       <c r="K61" s="12">
         <f>_xll.qlRateHelperEarliestDate($E61,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L61" s="11">
         <f>_xll.qlRateHelperLatestDate($E61,Trigger)</f>
@@ -5268,7 +5239,7 @@
       </c>
       <c r="E62" s="14" t="str">
         <f>ON_Swaps!L33</f>
-        <v>USD_YCONRH_OIS27M#0000</v>
+        <v>USD_YCONRH_OIS27M#0002</v>
       </c>
       <c r="F62" s="13">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
@@ -5290,7 +5261,7 @@
       </c>
       <c r="K62" s="12">
         <f>_xll.qlRateHelperEarliestDate($E62,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L62" s="11">
         <f>_xll.qlRateHelperLatestDate($E62,Trigger)</f>
@@ -5311,7 +5282,7 @@
       </c>
       <c r="E63" s="14" t="str">
         <f>ON_Swaps!L34</f>
-        <v>USD_YCONRH_OIS30M#0000</v>
+        <v>USD_YCONRH_OIS30M#0002</v>
       </c>
       <c r="F63" s="13">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
@@ -5333,7 +5304,7 @@
       </c>
       <c r="K63" s="12">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L63" s="11">
         <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
@@ -5354,7 +5325,7 @@
       </c>
       <c r="E64" s="14" t="str">
         <f>ON_Swaps!L35</f>
-        <v>USD_YCONRH_OIS33M#0000</v>
+        <v>USD_YCONRH_OIS33M#0002</v>
       </c>
       <c r="F64" s="13">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
@@ -5376,7 +5347,7 @@
       </c>
       <c r="K64" s="12">
         <f>_xll.qlRateHelperEarliestDate($E64,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L64" s="11">
         <f>_xll.qlRateHelperLatestDate($E64,Trigger)</f>
@@ -5397,7 +5368,7 @@
       </c>
       <c r="E65" s="14" t="str">
         <f>ON_Swaps!L36</f>
-        <v>USD_YCONRH_OIS3Y#0000</v>
+        <v>USD_YCONRH_OIS3Y#0002</v>
       </c>
       <c r="F65" s="13">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
@@ -5418,11 +5389,11 @@
       </c>
       <c r="K65" s="12">
         <f>_xll.qlRateHelperEarliestDate($E65,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L65" s="11">
         <f>_xll.qlRateHelperLatestDate($E65,Trigger)</f>
-        <v>42751</v>
+        <v>42752</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
@@ -5439,7 +5410,7 @@
       </c>
       <c r="E66" s="14" t="str">
         <f>ON_Swaps!L37</f>
-        <v>USD_YCONRH_OIS39M#0000</v>
+        <v>USD_YCONRH_OIS39M#0002</v>
       </c>
       <c r="F66" s="13">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
@@ -5460,7 +5431,7 @@
       </c>
       <c r="K66" s="12">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L66" s="11">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
@@ -5481,7 +5452,7 @@
       </c>
       <c r="E67" s="14" t="str">
         <f>ON_Swaps!L38</f>
-        <v>USD_YCONRH_OIS42M#0000</v>
+        <v>USD_YCONRH_OIS42M#0002</v>
       </c>
       <c r="F67" s="13">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
@@ -5502,7 +5473,7 @@
       </c>
       <c r="K67" s="12">
         <f>_xll.qlRateHelperEarliestDate($E67,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L67" s="11">
         <f>_xll.qlRateHelperLatestDate($E67,Trigger)</f>
@@ -5523,7 +5494,7 @@
       </c>
       <c r="E68" s="14" t="str">
         <f>ON_Swaps!L39</f>
-        <v>USD_YCONRH_OIS45M#0000</v>
+        <v>USD_YCONRH_OIS45M#0002</v>
       </c>
       <c r="F68" s="13">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
@@ -5544,11 +5515,11 @@
       </c>
       <c r="K68" s="12">
         <f>_xll.qlRateHelperEarliestDate($E68,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L68" s="11">
         <f>_xll.qlRateHelperLatestDate($E68,Trigger)</f>
-        <v>43024</v>
+        <v>43025</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
@@ -5565,7 +5536,7 @@
       </c>
       <c r="E69" s="14" t="str">
         <f>ON_Swaps!L40</f>
-        <v>USD_YCONRH_OIS4Y#0000</v>
+        <v>USD_YCONRH_OIS4Y#0002</v>
       </c>
       <c r="F69" s="13">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
@@ -5586,11 +5557,11 @@
       </c>
       <c r="K69" s="12">
         <f>_xll.qlRateHelperEarliestDate($E69,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L69" s="11">
         <f>_xll.qlRateHelperLatestDate($E69,Trigger)</f>
-        <v>43116</v>
+        <v>43117</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
@@ -5607,7 +5578,7 @@
       </c>
       <c r="E70" s="14" t="str">
         <f>ON_Swaps!L41</f>
-        <v>USD_YCONRH_OIS51M#0000</v>
+        <v>USD_YCONRH_OIS51M#0002</v>
       </c>
       <c r="F70" s="13">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
@@ -5628,11 +5599,11 @@
       </c>
       <c r="K70" s="12">
         <f>_xll.qlRateHelperEarliestDate($E70,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L70" s="11">
         <f>_xll.qlRateHelperLatestDate($E70,Trigger)</f>
-        <v>43206</v>
+        <v>43207</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
@@ -5649,7 +5620,7 @@
       </c>
       <c r="E71" s="14" t="str">
         <f>ON_Swaps!L42</f>
-        <v>USD_YCONRH_OIS54M#0000</v>
+        <v>USD_YCONRH_OIS54M#0002</v>
       </c>
       <c r="F71" s="13">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
@@ -5670,11 +5641,11 @@
       </c>
       <c r="K71" s="12">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L71" s="11">
         <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>43297</v>
+        <v>43298</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
@@ -5691,7 +5662,7 @@
       </c>
       <c r="E72" s="14" t="str">
         <f>ON_Swaps!L43</f>
-        <v>USD_YCONRH_OIS57M#0000</v>
+        <v>USD_YCONRH_OIS57M#0002</v>
       </c>
       <c r="F72" s="13">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
@@ -5712,11 +5683,11 @@
       </c>
       <c r="K72" s="12">
         <f>_xll.qlRateHelperEarliestDate($E72,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L72" s="11">
         <f>_xll.qlRateHelperLatestDate($E72,Trigger)</f>
-        <v>43389</v>
+        <v>43390</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
@@ -5733,7 +5704,7 @@
       </c>
       <c r="E73" s="14" t="str">
         <f>ON_Swaps!L44</f>
-        <v>USD_YCONRH_OIS5Y#0000</v>
+        <v>USD_YCONRH_OIS5Y#0002</v>
       </c>
       <c r="F73" s="13">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
@@ -5755,11 +5726,11 @@
       </c>
       <c r="K73" s="12">
         <f>_xll.qlRateHelperEarliestDate($E73,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L73" s="11">
         <f>_xll.qlRateHelperLatestDate($E73,Trigger)</f>
-        <v>43481</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
@@ -5776,7 +5747,7 @@
       </c>
       <c r="E74" s="14" t="str">
         <f>ON_Swaps!L45</f>
-        <v>USD_YCONRH_OIS6Y#0000</v>
+        <v>USD_YCONRH_OIS6Y#0002</v>
       </c>
       <c r="F74" s="13">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
@@ -5798,11 +5769,11 @@
       </c>
       <c r="K74" s="12">
         <f>_xll.qlRateHelperEarliestDate($E74,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L74" s="11">
         <f>_xll.qlRateHelperLatestDate($E74,Trigger)</f>
-        <v>43846</v>
+        <v>43847</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
@@ -5819,7 +5790,7 @@
       </c>
       <c r="E75" s="14" t="str">
         <f>ON_Swaps!L46</f>
-        <v>USD_YCONRH_OIS7Y#0000</v>
+        <v>USD_YCONRH_OIS7Y#0002</v>
       </c>
       <c r="F75" s="13">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
@@ -5841,7 +5812,7 @@
       </c>
       <c r="K75" s="12">
         <f>_xll.qlRateHelperEarliestDate($E75,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L75" s="11">
         <f>_xll.qlRateHelperLatestDate($E75,Trigger)</f>
@@ -5862,7 +5833,7 @@
       </c>
       <c r="E76" s="14" t="str">
         <f>ON_Swaps!L47</f>
-        <v>USD_YCONRH_OIS8Y#0000</v>
+        <v>USD_YCONRH_OIS8Y#0002</v>
       </c>
       <c r="F76" s="13">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
@@ -5884,7 +5855,7 @@
       </c>
       <c r="K76" s="12">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L76" s="11">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
@@ -5905,7 +5876,7 @@
       </c>
       <c r="E77" s="14" t="str">
         <f>ON_Swaps!L48</f>
-        <v>USD_YCONRH_OIS9Y#0000</v>
+        <v>USD_YCONRH_OIS9Y#0002</v>
       </c>
       <c r="F77" s="13">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
@@ -5927,11 +5898,11 @@
       </c>
       <c r="K77" s="12">
         <f>_xll.qlRateHelperEarliestDate($E77,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L77" s="11">
         <f>_xll.qlRateHelperLatestDate($E77,Trigger)</f>
-        <v>44942</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
@@ -5948,7 +5919,7 @@
       </c>
       <c r="E78" s="14" t="str">
         <f>ON_Swaps!L49</f>
-        <v>USD_YCONRH_OIS10Y#0000</v>
+        <v>USD_YCONRH_OIS10Y#0002</v>
       </c>
       <c r="F78" s="13">
         <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
@@ -5970,11 +5941,11 @@
       </c>
       <c r="K78" s="12">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L78" s="11">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>45307</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
@@ -5991,7 +5962,7 @@
       </c>
       <c r="E79" s="14" t="str">
         <f>ON_Swaps!L50</f>
-        <v>USD_YCONRH_OIS12Y#0000</v>
+        <v>USD_YCONRH_OIS12Y#0002</v>
       </c>
       <c r="F79" s="13">
         <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
@@ -6013,11 +5984,11 @@
       </c>
       <c r="K79" s="12">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L79" s="11">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>46038</v>
+        <v>46041</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
@@ -6034,7 +6005,7 @@
       </c>
       <c r="E80" s="14" t="str">
         <f>ON_Swaps!L51</f>
-        <v>USD_YCONRH_OIS15Y#0000</v>
+        <v>USD_YCONRH_OIS15Y#0002</v>
       </c>
       <c r="F80" s="13">
         <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
@@ -6056,11 +6027,11 @@
       </c>
       <c r="K80" s="12">
         <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L80" s="11">
         <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
-        <v>47134</v>
+        <v>47135</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
@@ -6074,7 +6045,7 @@
       </c>
       <c r="E81" s="14" t="str">
         <f>ON_Swaps!L52</f>
-        <v>USD_YCONRH_OIS20Y#0000</v>
+        <v>USD_YCONRH_OIS20Y#0002</v>
       </c>
       <c r="F81" s="13">
         <f>_xll.qlRateHelperQuoteValue($E81,Trigger)</f>
@@ -6096,11 +6067,11 @@
       </c>
       <c r="K81" s="12">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L81" s="11">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>48960</v>
+        <v>48961</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
@@ -6114,7 +6085,7 @@
       </c>
       <c r="E82" s="14" t="str">
         <f>ON_Swaps!L53</f>
-        <v>USD_YCONRH_OIS25Y#0000</v>
+        <v>USD_YCONRH_OIS25Y#0002</v>
       </c>
       <c r="F82" s="13">
         <f>_xll.qlRateHelperQuoteValue($E82,Trigger)</f>
@@ -6135,7 +6106,7 @@
       </c>
       <c r="K82" s="12">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L82" s="11">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
@@ -6153,7 +6124,7 @@
       </c>
       <c r="E83" s="14" t="str">
         <f>ON_Swaps!L54</f>
-        <v>USD_YCONRH_OIS27Y#0000</v>
+        <v>USD_YCONRH_OIS27Y#0002</v>
       </c>
       <c r="F83" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
@@ -6175,11 +6146,11 @@
       </c>
       <c r="K83" s="12">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L83" s="11">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>51517</v>
+        <v>51518</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
@@ -6196,7 +6167,7 @@
       </c>
       <c r="E84" s="14" t="str">
         <f>ON_Swaps!L55</f>
-        <v>USD_YCONRH_OIS30Y#0000</v>
+        <v>USD_YCONRH_OIS30Y#0002</v>
       </c>
       <c r="F84" s="13">
         <f>_xll.qlRateHelperQuoteValue($E84,Trigger)</f>
@@ -6218,7 +6189,7 @@
       </c>
       <c r="K84" s="12">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L84" s="11">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
@@ -6239,7 +6210,7 @@
       </c>
       <c r="E85" s="14" t="str">
         <f>ON_Swaps!L56</f>
-        <v>USD_YCONRH_OIS35Y#0000</v>
+        <v>USD_YCONRH_OIS35Y#0002</v>
       </c>
       <c r="F85" s="13">
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
@@ -6261,7 +6232,7 @@
       </c>
       <c r="K85" s="12">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L85" s="11">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
@@ -6282,7 +6253,7 @@
       </c>
       <c r="E86" s="14" t="str">
         <f>ON_Swaps!L57</f>
-        <v>USD_YCONRH_OIS40Y#0000</v>
+        <v>USD_YCONRH_OIS40Y#0002</v>
       </c>
       <c r="F86" s="13">
         <f>_xll.qlRateHelperQuoteValue($E86,Trigger)</f>
@@ -6304,11 +6275,11 @@
       </c>
       <c r="K86" s="12">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L86" s="11">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>56265</v>
+        <v>56268</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
@@ -6325,7 +6296,7 @@
       </c>
       <c r="E87" s="14" t="str">
         <f>ON_Swaps!L58</f>
-        <v>USD_YCONRH_OIS45Y#0000</v>
+        <v>USD_YCONRH_OIS45Y#0002</v>
       </c>
       <c r="F87" s="13">
         <f>_xll.qlRateHelperQuoteValue($E87,Trigger)</f>
@@ -6347,11 +6318,11 @@
       </c>
       <c r="K87" s="12">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L87" s="11">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>58091</v>
+        <v>58092</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
@@ -6368,7 +6339,7 @@
       </c>
       <c r="E88" s="8" t="str">
         <f>ON_Swaps!L59</f>
-        <v>USD_YCONRH_OIS50Y#0000</v>
+        <v>USD_YCONRH_OIS50Y#0002</v>
       </c>
       <c r="F88" s="7">
         <f>_xll.qlRateHelperQuoteValue($E88,Trigger)</f>
@@ -6390,11 +6361,11 @@
       </c>
       <c r="K88" s="4">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="L88" s="3">
         <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>59917</v>
+        <v>59918</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
@@ -8026,10 +7997,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="185" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="198"/>
+      <c r="B1" s="186"/>
       <c r="D1" s="52" t="s">
         <v>105</v>
       </c>
@@ -8069,11 +8040,11 @@
       </c>
       <c r="G2" s="39">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H2" s="38">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="I2" s="33">
         <v>0.9999955555753085</v>
@@ -8105,11 +8076,11 @@
       </c>
       <c r="G3" s="39">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="H3" s="38">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="I3" s="33">
         <v>0.99999111117036987</v>
@@ -8145,11 +8116,11 @@
       </c>
       <c r="G4" s="39">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H4" s="38">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41662</v>
+        <v>41663</v>
       </c>
       <c r="I4" s="33">
         <v>0.99997361163216636</v>
@@ -8185,11 +8156,11 @@
       </c>
       <c r="G5" s="39">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H5" s="38">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41669</v>
+        <v>41670</v>
       </c>
       <c r="I5" s="33">
         <v>0.99995766814159714</v>
@@ -8226,11 +8197,11 @@
       </c>
       <c r="G6" s="39">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H6" s="38">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="I6" s="33">
         <v>0.99994153073624759</v>
@@ -8249,7 +8220,7 @@
     <row r="7" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_RateHelpersSelected#0000</v>
+        <v>USD_YCONRH_RateHelpersSelected#0002</v>
       </c>
       <c r="B7" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -8268,18 +8239,18 @@
       </c>
       <c r="G7" s="39">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H7" s="38">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
         <v>41687</v>
       </c>
       <c r="I7" s="33">
-        <v>0.9999164507418018</v>
+        <v>0.99991878371188003</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" s="179" t="s">
         <v>178</v>
@@ -8302,14 +8273,14 @@
       </c>
       <c r="G8" s="39">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H8" s="38">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
         <v>41715</v>
       </c>
       <c r="I8" s="33">
-        <v>0.99985113201188813</v>
+        <v>0.99985346467673264</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
@@ -8336,18 +8307,18 @@
       </c>
       <c r="G9" s="39">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H9" s="38">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41745</v>
+        <v>41746</v>
       </c>
       <c r="I9" s="33">
-        <v>0.99978115712723314</v>
+        <v>0.99978115712728388</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L9" s="179" t="s">
         <v>180</v>
@@ -8370,18 +8341,18 @@
       </c>
       <c r="G10" s="39">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H10" s="38">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41775</v>
+        <v>41778</v>
       </c>
       <c r="I10" s="33">
-        <v>0.99969786646287406</v>
+        <v>0.99969298050818267</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L10" s="179" t="s">
         <v>181</v>
@@ -8404,18 +8375,18 @@
       </c>
       <c r="G11" s="39">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H11" s="38">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41806</v>
+        <v>41807</v>
       </c>
       <c r="I11" s="33">
-        <v>0.99961375697725363</v>
+        <v>0.99961375697728971</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L11" s="179" t="s">
         <v>182</v>
@@ -8438,11 +8409,11 @@
       </c>
       <c r="G12" s="39">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H12" s="38">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41836</v>
+        <v>41837</v>
       </c>
       <c r="I12" s="33">
         <v>0.99952375052335429</v>
@@ -8472,18 +8443,18 @@
       </c>
       <c r="G13" s="39">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H13" s="38">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
         <v>41869</v>
       </c>
       <c r="I13" s="33">
-        <v>0.9994148374704751</v>
+        <v>0.99941752879363643</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L13" s="179" t="s">
         <v>184</v>
@@ -8506,18 +8477,18 @@
       </c>
       <c r="G14" s="39">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H14" s="38">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>41898</v>
+        <v>41899</v>
       </c>
       <c r="I14" s="33">
         <v>0.99931657248394312</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L14" s="179" t="s">
         <v>185</v>
@@ -8540,11 +8511,11 @@
       </c>
       <c r="G15" s="39">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H15" s="38">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>41928</v>
+        <v>41929</v>
       </c>
       <c r="I15" s="33">
         <v>0.9991955017520997</v>
@@ -8574,18 +8545,18 @@
       </c>
       <c r="G16" s="39">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H16" s="38">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
         <v>41960</v>
       </c>
       <c r="I16" s="33">
-        <v>0.99906849916329532</v>
+        <v>0.99907152133895072</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L16" s="179" t="s">
         <v>187</v>
@@ -8608,18 +8579,18 @@
       </c>
       <c r="G17" s="39">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H17" s="38">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>41989</v>
+        <v>41990</v>
       </c>
       <c r="I17" s="33">
-        <v>0.99893457137204866</v>
+        <v>0.99893457137204889</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L17" s="179" t="s">
         <v>188</v>
@@ -8642,18 +8613,18 @@
       </c>
       <c r="G18" s="39">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H18" s="38">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42020</v>
+        <v>42023</v>
       </c>
       <c r="I18" s="33">
-        <v>0.99878604805932936</v>
+        <v>0.99877945297454329</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L18" s="179" t="s">
         <v>189</v>
@@ -8676,18 +8647,18 @@
       </c>
       <c r="G19" s="39">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H19" s="38">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42051</v>
+        <v>42052</v>
       </c>
       <c r="I19" s="33">
-        <v>0.99862878379313613</v>
+        <v>0.99862879104595836</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L19" s="179" t="s">
         <v>190</v>
@@ -8710,14 +8681,14 @@
       </c>
       <c r="G20" s="39">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H20" s="38">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>42079</v>
+        <v>42080</v>
       </c>
       <c r="I20" s="33">
-        <v>0.99847368827269933</v>
+        <v>0.99847369470589808</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
@@ -8744,14 +8715,14 @@
       </c>
       <c r="G21" s="39">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H21" s="38">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>42110</v>
+        <v>42111</v>
       </c>
       <c r="I21" s="33">
-        <v>0.99827448286225307</v>
+        <v>0.99827448813908437</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
@@ -8778,18 +8749,18 @@
       </c>
       <c r="G22" s="39">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H22" s="38">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
         <v>42142</v>
       </c>
       <c r="I22" s="33">
-        <v>0.99805933947551029</v>
+        <v>0.99806330595512016</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L22" s="179" t="s">
         <v>193</v>
@@ -8812,18 +8783,18 @@
       </c>
       <c r="G23" s="39">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H23" s="38">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>42171</v>
+        <v>42172</v>
       </c>
       <c r="I23" s="33">
-        <v>0.99784431367492565</v>
+        <v>0.99784431591073508</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L23" s="179" t="s">
         <v>194</v>
@@ -8846,14 +8817,14 @@
       </c>
       <c r="G24" s="39">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H24" s="38">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>42201</v>
+        <v>42202</v>
       </c>
       <c r="I24" s="33">
-        <v>0.9975986301421369</v>
+        <v>0.99759863034193896</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
@@ -8880,18 +8851,18 @@
       </c>
       <c r="G25" s="39">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H25" s="38">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
         <v>42233</v>
       </c>
       <c r="I25" s="33">
-        <v>0.99731454230526428</v>
+        <v>0.99731916181208913</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L25" s="179" t="s">
         <v>196</v>
@@ -8914,18 +8885,18 @@
       </c>
       <c r="G26" s="39">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H26" s="38">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>42263</v>
+        <v>42264</v>
       </c>
       <c r="I26" s="33">
-        <v>0.99700753162654587</v>
+        <v>0.99700752604469611</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L26" s="179" t="s">
         <v>197</v>
@@ -8948,18 +8919,18 @@
       </c>
       <c r="G27" s="39">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H27" s="38">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>42293</v>
+        <v>42296</v>
       </c>
       <c r="I27" s="33">
-        <v>0.9966840595139107</v>
+        <v>0.99667371048503217</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L27" s="179" t="s">
         <v>198</v>
@@ -8982,18 +8953,18 @@
       </c>
       <c r="G28" s="39">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H28" s="38">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>42324</v>
+        <v>42325</v>
       </c>
       <c r="I28" s="33">
-        <v>0.99632020080314798</v>
+        <v>0.99632018701391079</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L28" s="179" t="s">
         <v>199</v>
@@ -9016,14 +8987,14 @@
       </c>
       <c r="G29" s="39">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H29" s="38">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="I29" s="33">
-        <v>0.99592413701609062</v>
+        <v>0.99592411778335344</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="0"/>
@@ -9050,18 +9021,18 @@
       </c>
       <c r="G30" s="39">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H30" s="38">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
         <v>42387</v>
       </c>
       <c r="I30" s="33">
-        <v>0.99546982128078054</v>
+        <v>0.9954759477580839</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L30" s="179" t="s">
         <v>201</v>
@@ -9084,14 +9055,14 @@
       </c>
       <c r="G31" s="39">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H31" s="38">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
         <v>42478</v>
       </c>
       <c r="I31" s="33">
-        <v>0.99392969576717849</v>
+        <v>0.9939369986727622</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="0"/>
@@ -9118,14 +9089,14 @@
       </c>
       <c r="G32" s="39">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H32" s="38">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
         <v>42569</v>
       </c>
       <c r="I32" s="33">
-        <v>0.99192373893904673</v>
+        <v>0.99193248871266537</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="0"/>
@@ -9152,14 +9123,14 @@
       </c>
       <c r="G33" s="39">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H33" s="38">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
         <v>42660</v>
       </c>
       <c r="I33" s="33">
-        <v>0.98940774981613588</v>
+        <v>0.98941818687097693</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="0"/>
@@ -9186,18 +9157,18 @@
       </c>
       <c r="G34" s="39">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H34" s="38">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>42751</v>
+        <v>42752</v>
       </c>
       <c r="I34" s="33">
-        <v>0.98634929479965516</v>
+        <v>0.98634932820172894</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L34" s="179" t="s">
         <v>205</v>
@@ -9220,14 +9191,14 @@
       </c>
       <c r="G35" s="39">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H35" s="38">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>43116</v>
+        <v>43117</v>
       </c>
       <c r="I35" s="33">
-        <v>0.96877638950546374</v>
+        <v>0.96877644674781405</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="0"/>
@@ -9254,14 +9225,14 @@
       </c>
       <c r="G36" s="39">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H36" s="38">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>43481</v>
+        <v>43482</v>
       </c>
       <c r="I36" s="33">
-        <v>0.94414295380885427</v>
+        <v>0.94414303554363244</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="0"/>
@@ -9288,14 +9259,14 @@
       </c>
       <c r="G37" s="39">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H37" s="38">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="I37" s="33">
-        <v>0.91514436206153138</v>
+        <v>0.91514446517656789</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="0"/>
@@ -9322,14 +9293,14 @@
       </c>
       <c r="G38" s="39">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H38" s="38">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
         <v>44214</v>
       </c>
       <c r="I38" s="33">
-        <v>0.88358664139440379</v>
+        <v>0.88362808433450235</v>
       </c>
       <c r="L38" s="179" t="s">
         <v>209</v>
@@ -9352,14 +9323,14 @@
       </c>
       <c r="G39" s="39">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H39" s="38">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
         <v>44578</v>
       </c>
       <c r="I39" s="33">
-        <v>0.85123406975534666</v>
+        <v>0.85128017142168666</v>
       </c>
       <c r="L39" s="179" t="s">
         <v>210</v>
@@ -9382,14 +9353,14 @@
       </c>
       <c r="G40" s="39">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H40" s="38">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="I40" s="33">
-        <v>0.81877454743137246</v>
+        <v>0.81877660327334401</v>
       </c>
       <c r="L40" s="179" t="s">
         <v>211</v>
@@ -9412,14 +9383,14 @@
       </c>
       <c r="G41" s="39">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H41" s="38">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>45307</v>
+        <v>45308</v>
       </c>
       <c r="I41" s="33">
-        <v>0.78633831974700852</v>
+        <v>0.78634048482710239</v>
       </c>
       <c r="L41" s="179" t="s">
         <v>212</v>
@@ -9442,14 +9413,14 @@
       </c>
       <c r="G42" s="39">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H42" s="38">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>46038</v>
+        <v>46041</v>
       </c>
       <c r="I42" s="33">
-        <v>0.72220291732629871</v>
+        <v>0.72210358907889161</v>
       </c>
       <c r="L42" s="179" t="s">
         <v>213</v>
@@ -9472,14 +9443,14 @@
       </c>
       <c r="G43" s="39">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H43" s="38">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>47134</v>
+        <v>47135</v>
       </c>
       <c r="I43" s="33">
-        <v>0.63654437091187077</v>
+        <v>0.63654234568676926</v>
       </c>
       <c r="L43" s="179" t="s">
         <v>214</v>
@@ -9502,14 +9473,14 @@
       </c>
       <c r="G44" s="39">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H44" s="38">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>48960</v>
+        <v>48961</v>
       </c>
       <c r="I44" s="33">
-        <v>0.51983295988516209</v>
+        <v>0.51983111265149418</v>
       </c>
       <c r="L44" s="179" t="s">
         <v>215</v>
@@ -9532,14 +9503,14 @@
       </c>
       <c r="G45" s="39">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H45" s="38">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
         <v>50787</v>
       </c>
       <c r="I45" s="33">
-        <v>0.42713494873619162</v>
+        <v>0.42717049670673313</v>
       </c>
       <c r="L45" s="179" t="s">
         <v>216</v>
@@ -9562,14 +9533,14 @@
       </c>
       <c r="G46" s="39">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H46" s="38">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
         <v>52614</v>
       </c>
       <c r="I46" s="33">
-        <v>0.35263290293667265</v>
+        <v>0.35266392637230037</v>
       </c>
       <c r="L46" s="179" t="s">
         <v>217</v>
@@ -9592,14 +9563,14 @@
       </c>
       <c r="G47" s="39">
         <f>_xll.qlRateHelperEarliestDate($D47)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H47" s="38">
         <f>_xll.qlRateHelperLatestDate($D47)</f>
         <v>54441</v>
       </c>
       <c r="I47" s="33">
-        <v>0.29636685104324823</v>
+        <v>0.29639342256542828</v>
       </c>
       <c r="L47" s="179" t="s">
         <v>218</v>
@@ -9622,14 +9593,14 @@
       </c>
       <c r="G48" s="39">
         <f>_xll.qlRateHelperEarliestDate($D48)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H48" s="38">
         <f>_xll.qlRateHelperLatestDate($D48)</f>
-        <v>56265</v>
+        <v>56268</v>
       </c>
       <c r="I48" s="33">
-        <v>0.25167081466775604</v>
+        <v>0.25162709259328819</v>
       </c>
       <c r="L48" s="179" t="s">
         <v>219</v>
@@ -9652,14 +9623,14 @@
       </c>
       <c r="G49" s="39">
         <f>_xll.qlRateHelperEarliestDate($D49)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H49" s="38">
         <f>_xll.qlRateHelperLatestDate($D49)</f>
-        <v>58091</v>
+        <v>58092</v>
       </c>
       <c r="I49" s="33">
-        <v>0.21580849836211913</v>
+        <v>0.21580903276940397</v>
       </c>
       <c r="L49" s="179" t="s">
         <v>220</v>
@@ -9682,14 +9653,14 @@
       </c>
       <c r="G50" s="39">
         <f>_xll.qlRateHelperEarliestDate($D50)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="H50" s="38">
         <f>_xll.qlRateHelperLatestDate($D50)</f>
-        <v>59917</v>
+        <v>59918</v>
       </c>
       <c r="I50" s="33">
-        <v>0.18595467193896159</v>
+        <v>0.18595513265821129</v>
       </c>
       <c r="L50" s="179" t="s">
         <v>221</v>
@@ -11616,7 +11587,7 @@
       </c>
       <c r="F3" s="105" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OND#0000</v>
+        <v>USD_YCONRH_OND#0002</v>
       </c>
       <c r="G3" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -11730,7 +11701,7 @@
       </c>
       <c r="H3" s="146" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_TND#0000</v>
+        <v>USD_YCONRH_TND#0001</v>
       </c>
       <c r="I3" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -11762,7 +11733,7 @@
       </c>
       <c r="H4" s="143" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_SND#0000</v>
+        <v>USD_YCONRH_SND#0001</v>
       </c>
       <c r="I4" s="142" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -11918,7 +11889,7 @@
       </c>
       <c r="L4" s="172" t="str">
         <f>_xll.qlEonia(K4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS_LiborON#0000</v>
+        <v>USD_YCONRH_OIS_LiborON#0002</v>
       </c>
       <c r="M4" s="171" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -11977,7 +11948,7 @@
       </c>
       <c r="L6" s="164" t="str">
         <f>_xll.qlOISRateHelper(K6,2,C6,J6,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OISSW#0000</v>
+        <v>USD_YCONRH_OISSW#0002</v>
       </c>
       <c r="M6" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -11986,11 +11957,11 @@
       <c r="N6" s="161"/>
       <c r="P6" s="163">
         <f>_xll.qlRateHelperEarliestDate($L6)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q6" s="163">
         <f>_xll.qlRateHelperLatestDate($L6)</f>
-        <v>41662</v>
+        <v>41663</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -12029,7 +12000,7 @@
       </c>
       <c r="L7" s="164" t="str">
         <f>_xll.qlOISRateHelper(K7,2,C7,J7,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2W#0000</v>
+        <v>USD_YCONRH_OIS2W#0002</v>
       </c>
       <c r="M7" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -12038,11 +12009,11 @@
       <c r="N7" s="161"/>
       <c r="P7" s="163">
         <f>_xll.qlRateHelperEarliestDate(L7)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q7" s="163">
         <f>_xll.qlRateHelperLatestDate($L7)</f>
-        <v>41669</v>
+        <v>41670</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -12081,7 +12052,7 @@
       </c>
       <c r="L8" s="164" t="str">
         <f>_xll.qlOISRateHelper(K8,2,C8,J8,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3W#0000</v>
+        <v>USD_YCONRH_OIS3W#0002</v>
       </c>
       <c r="M8" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -12090,11 +12061,11 @@
       <c r="N8" s="161"/>
       <c r="P8" s="163">
         <f>_xll.qlRateHelperEarliestDate(L8)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q8" s="163">
         <f>_xll.qlRateHelperLatestDate($L8)</f>
-        <v>41676</v>
+        <v>41677</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -12133,7 +12104,7 @@
       </c>
       <c r="L9" s="164" t="str">
         <f>_xll.qlOISRateHelper(K9,2,C9,J9,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS1M#0000</v>
+        <v>USD_YCONRH_OIS1M#0002</v>
       </c>
       <c r="M9" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -12142,7 +12113,7 @@
       <c r="N9" s="161"/>
       <c r="P9" s="163">
         <f>_xll.qlRateHelperEarliestDate(L9)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q9" s="163">
         <f>_xll.qlRateHelperLatestDate($L9)</f>
@@ -12185,7 +12156,7 @@
       </c>
       <c r="L10" s="164" t="str">
         <f>_xll.qlOISRateHelper(K10,2,C10,J10,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2M#0000</v>
+        <v>USD_YCONRH_OIS2M#0002</v>
       </c>
       <c r="M10" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -12194,7 +12165,7 @@
       <c r="N10" s="161"/>
       <c r="P10" s="163">
         <f>_xll.qlRateHelperEarliestDate(L10)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q10" s="163">
         <f>_xll.qlRateHelperLatestDate($L10)</f>
@@ -12237,7 +12208,7 @@
       </c>
       <c r="L11" s="164" t="str">
         <f>_xll.qlOISRateHelper(K11,2,C11,J11,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3M#0000</v>
+        <v>USD_YCONRH_OIS3M#0002</v>
       </c>
       <c r="M11" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -12246,11 +12217,11 @@
       <c r="N11" s="161"/>
       <c r="P11" s="163">
         <f>_xll.qlRateHelperEarliestDate(L11)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q11" s="163">
         <f>_xll.qlRateHelperLatestDate($L11)</f>
-        <v>41745</v>
+        <v>41746</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -12289,7 +12260,7 @@
       </c>
       <c r="L12" s="164" t="str">
         <f>_xll.qlOISRateHelper(K12,2,C12,J12,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS4M#0000</v>
+        <v>USD_YCONRH_OIS4M#0002</v>
       </c>
       <c r="M12" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -12298,11 +12269,11 @@
       <c r="N12" s="161"/>
       <c r="P12" s="163">
         <f>_xll.qlRateHelperEarliestDate(L12)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q12" s="163">
         <f>_xll.qlRateHelperLatestDate($L12)</f>
-        <v>41775</v>
+        <v>41778</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -12341,7 +12312,7 @@
       </c>
       <c r="L13" s="164" t="str">
         <f>_xll.qlOISRateHelper(K13,2,C13,J13,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS5M#0000</v>
+        <v>USD_YCONRH_OIS5M#0002</v>
       </c>
       <c r="M13" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -12350,11 +12321,11 @@
       <c r="N13" s="161"/>
       <c r="P13" s="163">
         <f>_xll.qlRateHelperEarliestDate(L13)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q13" s="163">
         <f>_xll.qlRateHelperLatestDate($L13)</f>
-        <v>41806</v>
+        <v>41807</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -12393,7 +12364,7 @@
       </c>
       <c r="L14" s="164" t="str">
         <f>_xll.qlOISRateHelper(K14,2,C14,J14,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS6M#0000</v>
+        <v>USD_YCONRH_OIS6M#0002</v>
       </c>
       <c r="M14" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -12402,11 +12373,11 @@
       <c r="N14" s="161"/>
       <c r="P14" s="163">
         <f>_xll.qlRateHelperEarliestDate(L14)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q14" s="163">
         <f>_xll.qlRateHelperLatestDate($L14)</f>
-        <v>41836</v>
+        <v>41837</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -12445,7 +12416,7 @@
       </c>
       <c r="L15" s="164" t="str">
         <f>_xll.qlOISRateHelper(K15,2,C15,J15,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS7M#0000</v>
+        <v>USD_YCONRH_OIS7M#0002</v>
       </c>
       <c r="M15" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -12454,7 +12425,7 @@
       <c r="N15" s="161"/>
       <c r="P15" s="163">
         <f>_xll.qlRateHelperEarliestDate(L15)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q15" s="163">
         <f>_xll.qlRateHelperLatestDate($L15)</f>
@@ -12497,7 +12468,7 @@
       </c>
       <c r="L16" s="164" t="str">
         <f>_xll.qlOISRateHelper(K16,2,C16,J16,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS8M#0000</v>
+        <v>USD_YCONRH_OIS8M#0002</v>
       </c>
       <c r="M16" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -12506,11 +12477,11 @@
       <c r="N16" s="161"/>
       <c r="P16" s="163">
         <f>_xll.qlRateHelperEarliestDate(L16)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q16" s="163">
         <f>_xll.qlRateHelperLatestDate($L16)</f>
-        <v>41898</v>
+        <v>41899</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -12549,7 +12520,7 @@
       </c>
       <c r="L17" s="164" t="str">
         <f>_xll.qlOISRateHelper(K17,2,C17,J17,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS9M#0000</v>
+        <v>USD_YCONRH_OIS9M#0002</v>
       </c>
       <c r="M17" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -12558,11 +12529,11 @@
       <c r="N17" s="161"/>
       <c r="P17" s="163">
         <f>_xll.qlRateHelperEarliestDate(L17)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q17" s="163">
         <f>_xll.qlRateHelperLatestDate($L17)</f>
-        <v>41928</v>
+        <v>41929</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -12601,7 +12572,7 @@
       </c>
       <c r="L18" s="164" t="str">
         <f>_xll.qlOISRateHelper(K18,2,C18,J18,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS10M#0000</v>
+        <v>USD_YCONRH_OIS10M#0002</v>
       </c>
       <c r="M18" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -12610,7 +12581,7 @@
       <c r="N18" s="161"/>
       <c r="P18" s="163">
         <f>_xll.qlRateHelperEarliestDate(L18)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q18" s="163">
         <f>_xll.qlRateHelperLatestDate($L18)</f>
@@ -12653,7 +12624,7 @@
       </c>
       <c r="L19" s="164" t="str">
         <f>_xll.qlOISRateHelper(K19,2,C19,J19,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS11M#0000</v>
+        <v>USD_YCONRH_OIS11M#0002</v>
       </c>
       <c r="M19" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -12662,11 +12633,11 @@
       <c r="N19" s="161"/>
       <c r="P19" s="163">
         <f>_xll.qlRateHelperEarliestDate(L19)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q19" s="163">
         <f>_xll.qlRateHelperLatestDate($L19)</f>
-        <v>41989</v>
+        <v>41990</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -12705,7 +12676,7 @@
       </c>
       <c r="L20" s="164" t="str">
         <f>_xll.qlOISRateHelper(K20,2,C20,J20,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS1Y#0000</v>
+        <v>USD_YCONRH_OIS1Y#0002</v>
       </c>
       <c r="M20" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -12714,11 +12685,11 @@
       <c r="N20" s="161"/>
       <c r="P20" s="163">
         <f>_xll.qlRateHelperEarliestDate(L20)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q20" s="163">
         <f>_xll.qlRateHelperLatestDate($L20)</f>
-        <v>42020</v>
+        <v>42023</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -12757,7 +12728,7 @@
       </c>
       <c r="L21" s="164" t="str">
         <f>_xll.qlOISRateHelper(K21,2,C21,J21,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS13M#0000</v>
+        <v>USD_YCONRH_OIS13M#0002</v>
       </c>
       <c r="M21" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -12766,11 +12737,11 @@
       <c r="N21" s="161"/>
       <c r="P21" s="163">
         <f>_xll.qlRateHelperEarliestDate(L21)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q21" s="163">
         <f>_xll.qlRateHelperLatestDate($L21)</f>
-        <v>42051</v>
+        <v>42052</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -12809,7 +12780,7 @@
       </c>
       <c r="L22" s="164" t="str">
         <f>_xll.qlOISRateHelper(K22,2,C22,J22,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS14M#0000</v>
+        <v>USD_YCONRH_OIS14M#0002</v>
       </c>
       <c r="M22" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -12818,11 +12789,11 @@
       <c r="N22" s="161"/>
       <c r="P22" s="163">
         <f>_xll.qlRateHelperEarliestDate(L22)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q22" s="163">
         <f>_xll.qlRateHelperLatestDate($L22)</f>
-        <v>42079</v>
+        <v>42080</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -12861,7 +12832,7 @@
       </c>
       <c r="L23" s="164" t="str">
         <f>_xll.qlOISRateHelper(K23,2,C23,J23,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS15M#0000</v>
+        <v>USD_YCONRH_OIS15M#0002</v>
       </c>
       <c r="M23" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -12870,11 +12841,11 @@
       <c r="N23" s="161"/>
       <c r="P23" s="163">
         <f>_xll.qlRateHelperEarliestDate(L23)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q23" s="163">
         <f>_xll.qlRateHelperLatestDate($L23)</f>
-        <v>42110</v>
+        <v>42111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -12913,7 +12884,7 @@
       </c>
       <c r="L24" s="164" t="str">
         <f>_xll.qlOISRateHelper(K24,2,C24,J24,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS16M#0000</v>
+        <v>USD_YCONRH_OIS16M#0002</v>
       </c>
       <c r="M24" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -12922,7 +12893,7 @@
       <c r="N24" s="161"/>
       <c r="P24" s="163">
         <f>_xll.qlRateHelperEarliestDate(L24)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q24" s="163">
         <f>_xll.qlRateHelperLatestDate($L24)</f>
@@ -12965,7 +12936,7 @@
       </c>
       <c r="L25" s="164" t="str">
         <f>_xll.qlOISRateHelper(K25,2,C25,J25,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS17M#0000</v>
+        <v>USD_YCONRH_OIS17M#0002</v>
       </c>
       <c r="M25" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -12974,11 +12945,11 @@
       <c r="N25" s="161"/>
       <c r="P25" s="163">
         <f>_xll.qlRateHelperEarliestDate(L25)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q25" s="163">
         <f>_xll.qlRateHelperLatestDate($L25)</f>
-        <v>42171</v>
+        <v>42172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -13017,7 +12988,7 @@
       </c>
       <c r="L26" s="164" t="str">
         <f>_xll.qlOISRateHelper(K26,2,C26,J26,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS18M#0000</v>
+        <v>USD_YCONRH_OIS18M#0002</v>
       </c>
       <c r="M26" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -13026,11 +12997,11 @@
       <c r="N26" s="161"/>
       <c r="P26" s="163">
         <f>_xll.qlRateHelperEarliestDate(L26)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q26" s="163">
         <f>_xll.qlRateHelperLatestDate($L26)</f>
-        <v>42201</v>
+        <v>42202</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -13069,7 +13040,7 @@
       </c>
       <c r="L27" s="164" t="str">
         <f>_xll.qlOISRateHelper(K27,2,C27,J27,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS19M#0000</v>
+        <v>USD_YCONRH_OIS19M#0002</v>
       </c>
       <c r="M27" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -13078,7 +13049,7 @@
       <c r="N27" s="161"/>
       <c r="P27" s="163">
         <f>_xll.qlRateHelperEarliestDate(L27)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q27" s="163">
         <f>_xll.qlRateHelperLatestDate($L27)</f>
@@ -13121,7 +13092,7 @@
       </c>
       <c r="L28" s="164" t="str">
         <f>_xll.qlOISRateHelper(K28,2,C28,J28,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS20M#0000</v>
+        <v>USD_YCONRH_OIS20M#0002</v>
       </c>
       <c r="M28" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -13130,11 +13101,11 @@
       <c r="N28" s="161"/>
       <c r="P28" s="163">
         <f>_xll.qlRateHelperEarliestDate(L28)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q28" s="163">
         <f>_xll.qlRateHelperLatestDate($L28)</f>
-        <v>42263</v>
+        <v>42264</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -13173,7 +13144,7 @@
       </c>
       <c r="L29" s="164" t="str">
         <f>_xll.qlOISRateHelper(K29,2,C29,J29,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS21M#0000</v>
+        <v>USD_YCONRH_OIS21M#0002</v>
       </c>
       <c r="M29" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -13182,11 +13153,11 @@
       <c r="N29" s="161"/>
       <c r="P29" s="163">
         <f>_xll.qlRateHelperEarliestDate(L29)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q29" s="163">
         <f>_xll.qlRateHelperLatestDate($L29)</f>
-        <v>42293</v>
+        <v>42296</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -13225,7 +13196,7 @@
       </c>
       <c r="L30" s="164" t="str">
         <f>_xll.qlOISRateHelper(K30,2,C30,J30,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS22M#0000</v>
+        <v>USD_YCONRH_OIS22M#0002</v>
       </c>
       <c r="M30" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -13234,11 +13205,11 @@
       <c r="N30" s="161"/>
       <c r="P30" s="163">
         <f>_xll.qlRateHelperEarliestDate(L30)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q30" s="163">
         <f>_xll.qlRateHelperLatestDate($L30)</f>
-        <v>42324</v>
+        <v>42325</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -13277,7 +13248,7 @@
       </c>
       <c r="L31" s="164" t="str">
         <f>_xll.qlOISRateHelper(K31,2,C31,J31,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS23M#0000</v>
+        <v>USD_YCONRH_OIS23M#0002</v>
       </c>
       <c r="M31" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -13286,11 +13257,11 @@
       <c r="N31" s="161"/>
       <c r="P31" s="163">
         <f>_xll.qlRateHelperEarliestDate(L31)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q31" s="163">
         <f>_xll.qlRateHelperLatestDate($L31)</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -13329,7 +13300,7 @@
       </c>
       <c r="L32" s="164" t="str">
         <f>_xll.qlOISRateHelper(K32,2,C32,J32,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2Y#0000</v>
+        <v>USD_YCONRH_OIS2Y#0002</v>
       </c>
       <c r="M32" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -13338,7 +13309,7 @@
       <c r="N32" s="161"/>
       <c r="P32" s="163">
         <f>_xll.qlRateHelperEarliestDate(L32)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q32" s="163">
         <f>_xll.qlRateHelperLatestDate($L32)</f>
@@ -13381,7 +13352,7 @@
       </c>
       <c r="L33" s="164" t="str">
         <f>_xll.qlOISRateHelper(K33,2,C33,J33,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS27M#0000</v>
+        <v>USD_YCONRH_OIS27M#0002</v>
       </c>
       <c r="M33" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -13390,7 +13361,7 @@
       <c r="N33" s="161"/>
       <c r="P33" s="163">
         <f>_xll.qlRateHelperEarliestDate(L33)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q33" s="163">
         <f>_xll.qlRateHelperLatestDate($L33)</f>
@@ -13433,7 +13404,7 @@
       </c>
       <c r="L34" s="164" t="str">
         <f>_xll.qlOISRateHelper(K34,2,C34,J34,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS30M#0000</v>
+        <v>USD_YCONRH_OIS30M#0002</v>
       </c>
       <c r="M34" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -13442,7 +13413,7 @@
       <c r="N34" s="161"/>
       <c r="P34" s="163">
         <f>_xll.qlRateHelperEarliestDate(L34)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q34" s="163">
         <f>_xll.qlRateHelperLatestDate($L34)</f>
@@ -13485,7 +13456,7 @@
       </c>
       <c r="L35" s="164" t="str">
         <f>_xll.qlOISRateHelper(K35,2,C35,J35,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS33M#0000</v>
+        <v>USD_YCONRH_OIS33M#0002</v>
       </c>
       <c r="M35" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -13494,7 +13465,7 @@
       <c r="N35" s="161"/>
       <c r="P35" s="163">
         <f>_xll.qlRateHelperEarliestDate(L35)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q35" s="163">
         <f>_xll.qlRateHelperLatestDate($L35)</f>
@@ -13537,7 +13508,7 @@
       </c>
       <c r="L36" s="164" t="str">
         <f>_xll.qlOISRateHelper(K36,2,C36,J36,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3Y#0000</v>
+        <v>USD_YCONRH_OIS3Y#0002</v>
       </c>
       <c r="M36" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -13546,11 +13517,11 @@
       <c r="N36" s="161"/>
       <c r="P36" s="163">
         <f>_xll.qlRateHelperEarliestDate(L36)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q36" s="163">
         <f>_xll.qlRateHelperLatestDate($L36)</f>
-        <v>42751</v>
+        <v>42752</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -13589,7 +13560,7 @@
       </c>
       <c r="L37" s="164" t="str">
         <f>_xll.qlOISRateHelper(K37,2,C37,J37,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS39M#0000</v>
+        <v>USD_YCONRH_OIS39M#0002</v>
       </c>
       <c r="M37" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -13598,7 +13569,7 @@
       <c r="N37" s="161"/>
       <c r="P37" s="163">
         <f>_xll.qlRateHelperEarliestDate(L37)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q37" s="163">
         <f>_xll.qlRateHelperLatestDate($L37)</f>
@@ -13641,7 +13612,7 @@
       </c>
       <c r="L38" s="164" t="str">
         <f>_xll.qlOISRateHelper(K38,2,C38,J38,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS42M#0000</v>
+        <v>USD_YCONRH_OIS42M#0002</v>
       </c>
       <c r="M38" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -13687,7 +13658,7 @@
       </c>
       <c r="L39" s="164" t="str">
         <f>_xll.qlOISRateHelper(K39,2,C39,J39,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS45M#0000</v>
+        <v>USD_YCONRH_OIS45M#0002</v>
       </c>
       <c r="M39" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -13733,7 +13704,7 @@
       </c>
       <c r="L40" s="164" t="str">
         <f>_xll.qlOISRateHelper(K40,2,C40,J40,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS4Y#0000</v>
+        <v>USD_YCONRH_OIS4Y#0002</v>
       </c>
       <c r="M40" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -13779,7 +13750,7 @@
       </c>
       <c r="L41" s="164" t="str">
         <f>_xll.qlOISRateHelper(K41,2,C41,J41,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS51M#0000</v>
+        <v>USD_YCONRH_OIS51M#0002</v>
       </c>
       <c r="M41" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -13825,7 +13796,7 @@
       </c>
       <c r="L42" s="164" t="str">
         <f>_xll.qlOISRateHelper(K42,2,C42,J42,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS54M#0000</v>
+        <v>USD_YCONRH_OIS54M#0002</v>
       </c>
       <c r="M42" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -13871,7 +13842,7 @@
       </c>
       <c r="L43" s="164" t="str">
         <f>_xll.qlOISRateHelper(K43,2,C43,J43,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS57M#0000</v>
+        <v>USD_YCONRH_OIS57M#0002</v>
       </c>
       <c r="M43" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L43)</f>
@@ -13917,7 +13888,7 @@
       </c>
       <c r="L44" s="164" t="str">
         <f>_xll.qlOISRateHelper(K44,2,C44,J44,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS5Y#0000</v>
+        <v>USD_YCONRH_OIS5Y#0002</v>
       </c>
       <c r="M44" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -13963,7 +13934,7 @@
       </c>
       <c r="L45" s="164" t="str">
         <f>_xll.qlOISRateHelper(K45,2,C45,J45,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS6Y#0000</v>
+        <v>USD_YCONRH_OIS6Y#0002</v>
       </c>
       <c r="M45" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -14009,7 +13980,7 @@
       </c>
       <c r="L46" s="164" t="str">
         <f>_xll.qlOISRateHelper(K46,2,C46,J46,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS7Y#0000</v>
+        <v>USD_YCONRH_OIS7Y#0002</v>
       </c>
       <c r="M46" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -14055,7 +14026,7 @@
       </c>
       <c r="L47" s="164" t="str">
         <f>_xll.qlOISRateHelper(K47,2,C47,J47,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS8Y#0000</v>
+        <v>USD_YCONRH_OIS8Y#0002</v>
       </c>
       <c r="M47" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -14101,7 +14072,7 @@
       </c>
       <c r="L48" s="164" t="str">
         <f>_xll.qlOISRateHelper(K48,2,C48,J48,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS9Y#0000</v>
+        <v>USD_YCONRH_OIS9Y#0002</v>
       </c>
       <c r="M48" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -14147,7 +14118,7 @@
       </c>
       <c r="L49" s="164" t="str">
         <f>_xll.qlOISRateHelper(K49,2,C49,J49,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS10Y#0000</v>
+        <v>USD_YCONRH_OIS10Y#0002</v>
       </c>
       <c r="M49" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -14193,7 +14164,7 @@
       </c>
       <c r="L50" s="164" t="str">
         <f>_xll.qlOISRateHelper(K50,2,C50,J50,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS12Y#0000</v>
+        <v>USD_YCONRH_OIS12Y#0002</v>
       </c>
       <c r="M50" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -14239,7 +14210,7 @@
       </c>
       <c r="L51" s="164" t="str">
         <f>_xll.qlOISRateHelper(K51,2,C51,J51,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS15Y#0000</v>
+        <v>USD_YCONRH_OIS15Y#0002</v>
       </c>
       <c r="M51" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L51)</f>
@@ -14285,7 +14256,7 @@
       </c>
       <c r="L52" s="164" t="str">
         <f>_xll.qlOISRateHelper(K52,2,C52,J52,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS20Y#0000</v>
+        <v>USD_YCONRH_OIS20Y#0002</v>
       </c>
       <c r="M52" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L52)</f>
@@ -14331,7 +14302,7 @@
       </c>
       <c r="L53" s="164" t="str">
         <f>_xll.qlOISRateHelper(K53,2,C53,J53,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS25Y#0000</v>
+        <v>USD_YCONRH_OIS25Y#0002</v>
       </c>
       <c r="M53" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L53)</f>
@@ -14377,7 +14348,7 @@
       </c>
       <c r="L54" s="164" t="str">
         <f>_xll.qlOISRateHelper(K54,2,C54,J54,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS27Y#0000</v>
+        <v>USD_YCONRH_OIS27Y#0002</v>
       </c>
       <c r="M54" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L54)</f>
@@ -14423,7 +14394,7 @@
       </c>
       <c r="L55" s="164" t="str">
         <f>_xll.qlOISRateHelper(K55,2,C55,J55,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS30Y#0000</v>
+        <v>USD_YCONRH_OIS30Y#0002</v>
       </c>
       <c r="M55" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L55)</f>
@@ -14469,7 +14440,7 @@
       </c>
       <c r="L56" s="164" t="str">
         <f>_xll.qlOISRateHelper(K56,2,C56,J56,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS35Y#0000</v>
+        <v>USD_YCONRH_OIS35Y#0002</v>
       </c>
       <c r="M56" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L56)</f>
@@ -14515,7 +14486,7 @@
       </c>
       <c r="L57" s="164" t="str">
         <f>_xll.qlOISRateHelper(K57,2,C57,J57,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS40Y#0000</v>
+        <v>USD_YCONRH_OIS40Y#0002</v>
       </c>
       <c r="M57" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L57)</f>
@@ -14561,7 +14532,7 @@
       </c>
       <c r="L58" s="164" t="str">
         <f>_xll.qlOISRateHelper(K58,2,C58,J58,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS45Y#0000</v>
+        <v>USD_YCONRH_OIS45Y#0002</v>
       </c>
       <c r="M58" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L58)</f>
@@ -14607,7 +14578,7 @@
       </c>
       <c r="L59" s="164" t="str">
         <f>_xll.qlOISRateHelper(K59,2,C59,J59,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS50Y#0000</v>
+        <v>USD_YCONRH_OIS50Y#0002</v>
       </c>
       <c r="M59" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L59)</f>
@@ -14616,11 +14587,11 @@
       <c r="N59" s="161"/>
       <c r="P59" s="163">
         <f>_xll.qlRateHelperEarliestDate(L59)</f>
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="Q59" s="163">
         <f>_xll.qlRateHelperLatestDate($L59)</f>
-        <v>59917</v>
+        <v>59918</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -14682,7 +14653,7 @@
       </c>
       <c r="M61" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L61)</f>
-        <v/>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISJAN13_Quote'</v>
       </c>
       <c r="N61" s="161"/>
       <c r="P61" s="163" t="e">
@@ -14735,7 +14706,7 @@
       </c>
       <c r="M62" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L62)</f>
-        <v/>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISFEB13_Quote'</v>
       </c>
       <c r="N62" s="161"/>
       <c r="P62" s="163" t="e">
@@ -14788,7 +14759,7 @@
       </c>
       <c r="M63" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
-        <v/>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISMAR13_Quote'</v>
       </c>
       <c r="N63" s="161"/>
       <c r="P63" s="163" t="e">
@@ -14841,7 +14812,7 @@
       </c>
       <c r="M64" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
-        <v/>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISAPR13_Quote'</v>
       </c>
       <c r="N64" s="161"/>
       <c r="P64" s="163" t="e">
@@ -14894,7 +14865,7 @@
       </c>
       <c r="M65" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L65)</f>
-        <v/>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISMAY13_Quote'</v>
       </c>
       <c r="N65" s="161"/>
       <c r="P65" s="163" t="e">
@@ -14947,7 +14918,7 @@
       </c>
       <c r="M66" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L66)</f>
-        <v/>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISJUN13_Quote'</v>
       </c>
       <c r="N66" s="161"/>
       <c r="P66" s="163" t="e">
@@ -15000,7 +14971,7 @@
       </c>
       <c r="M67" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L67)</f>
-        <v/>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISJUL13_Quote'</v>
       </c>
       <c r="N67" s="161"/>
       <c r="P67" s="163" t="e">
@@ -15053,7 +15024,7 @@
       </c>
       <c r="M68" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L68)</f>
-        <v/>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISAUG13_Quote'</v>
       </c>
       <c r="N68" s="161"/>
       <c r="P68" s="163" t="e">
@@ -15106,7 +15077,7 @@
       </c>
       <c r="M69" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L69)</f>
-        <v/>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISSEP13_Quote'</v>
       </c>
       <c r="N69" s="161"/>
       <c r="P69" s="163" t="e">
@@ -15159,7 +15130,7 @@
       </c>
       <c r="M70" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L70)</f>
-        <v/>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISOCT13_Quote'</v>
       </c>
       <c r="N70" s="161"/>
       <c r="P70" s="163" t="e">
@@ -15212,7 +15183,7 @@
       </c>
       <c r="M71" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L71)</f>
-        <v/>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISNOV13_Quote'</v>
       </c>
       <c r="N71" s="161"/>
       <c r="P71" s="163" t="e">
@@ -15265,7 +15236,7 @@
       </c>
       <c r="M72" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L72)</f>
-        <v/>
+        <v>qlDatedOISRateHelper - Error converting parameter 'EndDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
       <c r="N72" s="161"/>
       <c r="P72" s="163" t="e">

--- a/QuantLibXL/Data2/XLS/USD_YCONBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YCONBootstrapping.xlsx
@@ -1035,7 +1035,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1093,6 +1093,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1538,7 +1544,7 @@
     <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1945,6 +1951,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="10" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1960,21 +1975,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="10" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2293,39 +2302,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="187" customWidth="1"/>
-    <col min="3" max="3" width="18" style="187" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="187" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="187" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.7109375" style="187" customWidth="1"/>
-    <col min="8" max="9" width="8" style="187"/>
-    <col min="10" max="11" width="2.7109375" style="187" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="187" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="187" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="187" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="187"/>
+    <col min="1" max="2" width="2.7109375" style="182" customWidth="1"/>
+    <col min="3" max="3" width="18" style="182" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="182" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="182" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="182" customWidth="1"/>
+    <col min="8" max="8" width="4" style="182" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="182" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="2.7109375" style="182" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="182" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="182" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="182" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="182"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="187" t="str">
+      <c r="B1" s="182" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Feb  7 2014 15:33:58</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="184" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="197"/>
-      <c r="K2" s="195" t="s">
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="186"/>
+      <c r="K2" s="184" t="s">
         <v>152</v>
       </c>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="198"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="61"/>
@@ -2348,10 +2358,10 @@
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="57"/>
-      <c r="H4" s="190" t="s">
+      <c r="H4" s="192" t="s">
         <v>137</v>
       </c>
-      <c r="I4" s="191"/>
+      <c r="I4" s="193"/>
       <c r="K4" s="135"/>
       <c r="L4" s="134" t="s">
         <v>151</v>
@@ -2369,10 +2379,10 @@
       <c r="D5" s="62"/>
       <c r="E5" s="58"/>
       <c r="F5" s="57"/>
-      <c r="H5" s="188" t="s">
+      <c r="H5" s="194" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="189" t="s">
+      <c r="I5" s="195" t="s">
         <v>134</v>
       </c>
       <c r="K5" s="135"/>
@@ -2381,7 +2391,7 @@
       </c>
       <c r="M5" s="136" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
+        <v>C:\Users\erik\Documents\repos\quantlib\QuantLibXL\Data2\XML\</v>
       </c>
       <c r="N5" s="133"/>
     </row>
@@ -2395,10 +2405,10 @@
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="57"/>
-      <c r="H6" s="188" t="s">
+      <c r="H6" s="194" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="189"/>
+      <c r="I6" s="195"/>
       <c r="K6" s="135"/>
       <c r="L6" s="134" t="s">
         <v>149</v>
@@ -2418,10 +2428,10 @@
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
-      <c r="H7" s="188" t="s">
+      <c r="H7" s="194" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="189"/>
+      <c r="I7" s="195"/>
       <c r="K7" s="132"/>
       <c r="L7" s="131"/>
       <c r="M7" s="131"/>
@@ -2437,16 +2447,16 @@
       </c>
       <c r="E8" s="58"/>
       <c r="F8" s="57"/>
-      <c r="H8" s="192" t="s">
+      <c r="H8" s="196" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="193" t="s">
+      <c r="I8" s="197" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="194"/>
-      <c r="N8" s="194"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="183"/>
     </row>
     <row r="9" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="61"/>
@@ -2459,12 +2469,12 @@
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="57"/>
-      <c r="K9" s="195" t="s">
+      <c r="K9" s="184" t="s">
         <v>148</v>
       </c>
-      <c r="L9" s="196"/>
-      <c r="M9" s="196"/>
-      <c r="N9" s="196"/>
+      <c r="L9" s="185"/>
+      <c r="M9" s="185"/>
+      <c r="N9" s="198"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="61"/>
@@ -2487,7 +2497,7 @@
         <v>122</v>
       </c>
       <c r="D11" s="86">
-        <v>41654.207465277781</v>
+        <v>41684.590624999997</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
@@ -2542,7 +2552,7 @@
       </c>
       <c r="D14" s="83" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYCON#0002</v>
+        <v>_USDYCON#0000</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="57"/>
@@ -2696,7 +2706,7 @@
       <c r="B27" s="61"/>
       <c r="C27" s="65">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="D27" s="64">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2709,11 +2719,11 @@
       <c r="B28" s="61"/>
       <c r="C28" s="63">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>59918</v>
+        <v>59950</v>
       </c>
       <c r="D28" s="62">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.18595513265821129</v>
+        <v>0.16015408542015044</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="57"/>
@@ -2798,11 +2808,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="187" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="189"/>
       <c r="E1" s="32" t="s">
         <v>96</v>
       </c>
@@ -2836,11 +2846,11 @@
       </c>
       <c r="E2" s="14" t="str">
         <f>ON_Deposits!F3</f>
-        <v>USD_YCONRH_OND#0002</v>
+        <v>USD_YCONRH_OND#0000</v>
       </c>
       <c r="F2" s="13">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="181" t="b">
@@ -2854,11 +2864,11 @@
       </c>
       <c r="K2" s="12">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L2" s="11">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41655</v>
+        <v>41687</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2869,11 +2879,11 @@
       </c>
       <c r="E3" s="14" t="str">
         <f>ON_FRAs!H3</f>
-        <v>USD_YCONRH_TND#0001</v>
+        <v>USD_YCONRH_TND#0000</v>
       </c>
       <c r="F3" s="13">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="181" t="b">
@@ -2887,11 +2897,11 @@
       </c>
       <c r="K3" s="12">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41655</v>
+        <v>41687</v>
       </c>
       <c r="L3" s="11">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2902,11 +2912,11 @@
       </c>
       <c r="E4" s="14" t="str">
         <f>ON_FRAs!H4</f>
-        <v>USD_YCONRH_SND#0001</v>
+        <v>USD_YCONRH_SND#0000</v>
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="6" t="b">
@@ -2920,11 +2930,11 @@
       </c>
       <c r="K4" s="12">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L4" s="11">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41659</v>
+        <v>41689</v>
       </c>
     </row>
     <row r="5" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4120,11 +4130,11 @@
       </c>
       <c r="E35" s="21" t="str">
         <f>ON_Swaps!L6</f>
-        <v>USD_YCONRH_OISSW#0002</v>
+        <v>USD_YCONRH_OISSW#0000</v>
       </c>
       <c r="F35" s="20">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="G35" s="20" t="e">
         <f>_xll.qlSwapRateHelperSpread($E35,Trigger)</f>
@@ -4142,11 +4152,11 @@
       </c>
       <c r="K35" s="18">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L35" s="17">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>41663</v>
+        <v>41695</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
@@ -4160,11 +4170,11 @@
       </c>
       <c r="E36" s="14" t="str">
         <f>ON_Swaps!L7</f>
-        <v>USD_YCONRH_OIS2W#0002</v>
+        <v>USD_YCONRH_OIS2W#0000</v>
       </c>
       <c r="F36" s="13">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
-        <v>8.5999999999999998E-4</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="G36" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E36,Trigger)</f>
@@ -4182,11 +4192,11 @@
       </c>
       <c r="K36" s="12">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L36" s="11">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>41670</v>
+        <v>41702</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
@@ -4200,11 +4210,11 @@
       </c>
       <c r="E37" s="14" t="str">
         <f>ON_Swaps!L8</f>
-        <v>USD_YCONRH_OIS3W#0002</v>
+        <v>USD_YCONRH_OIS3W#0000</v>
       </c>
       <c r="F37" s="13">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
-        <v>8.5000000000000006E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G37" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E37,Trigger)</f>
@@ -4222,11 +4232,11 @@
       </c>
       <c r="K37" s="12">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L37" s="11">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>41677</v>
+        <v>41709</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
@@ -4240,11 +4250,11 @@
       </c>
       <c r="E38" s="14" t="str">
         <f>ON_Swaps!L9</f>
-        <v>USD_YCONRH_OIS1M#0002</v>
+        <v>USD_YCONRH_OIS1M#0000</v>
       </c>
       <c r="F38" s="13">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>8.4000000000000003E-4</v>
+        <v>8.1000000000000006E-4</v>
       </c>
       <c r="G38" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E38,Trigger)</f>
@@ -4262,11 +4272,11 @@
       </c>
       <c r="K38" s="12">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L38" s="11">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>41687</v>
+        <v>41716</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
@@ -4280,11 +4290,11 @@
       </c>
       <c r="E39" s="14" t="str">
         <f>ON_Swaps!L10</f>
-        <v>USD_YCONRH_OIS2M#0002</v>
+        <v>USD_YCONRH_OIS2M#0000</v>
       </c>
       <c r="F39" s="13">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
-        <v>8.4000000000000003E-4</v>
+        <v>8.1999999999999998E-4</v>
       </c>
       <c r="G39" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E39,Trigger)</f>
@@ -4302,11 +4312,11 @@
       </c>
       <c r="K39" s="12">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L39" s="11">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>41715</v>
+        <v>41751</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
@@ -4320,11 +4330,11 @@
       </c>
       <c r="E40" s="14" t="str">
         <f>ON_Swaps!L11</f>
-        <v>USD_YCONRH_OIS3M#0002</v>
+        <v>USD_YCONRH_OIS3M#0000</v>
       </c>
       <c r="F40" s="13">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
-        <v>8.4000000000000003E-4</v>
+        <v>8.7999999999999992E-4</v>
       </c>
       <c r="G40" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E40,Trigger)</f>
@@ -4342,11 +4352,11 @@
       </c>
       <c r="K40" s="12">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L40" s="11">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
-        <v>41746</v>
+        <v>41778</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
@@ -4360,11 +4370,11 @@
       </c>
       <c r="E41" s="14" t="str">
         <f>ON_Swaps!L12</f>
-        <v>USD_YCONRH_OIS4M#0002</v>
+        <v>USD_YCONRH_OIS4M#0000</v>
       </c>
       <c r="F41" s="13">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>8.7999999999999992E-4</v>
+        <v>9.1E-4</v>
       </c>
       <c r="G41" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E41,Trigger)</f>
@@ -4382,11 +4392,11 @@
       </c>
       <c r="K41" s="12">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L41" s="11">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
-        <v>41778</v>
+        <v>41808</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
@@ -4400,11 +4410,11 @@
       </c>
       <c r="E42" s="14" t="str">
         <f>ON_Swaps!L13</f>
-        <v>USD_YCONRH_OIS5M#0002</v>
+        <v>USD_YCONRH_OIS5M#0000</v>
       </c>
       <c r="F42" s="13">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>9.2999999999999995E-4</v>
       </c>
       <c r="G42" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E42,Trigger)</f>
@@ -4422,11 +4432,11 @@
       </c>
       <c r="K42" s="12">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L42" s="11">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
-        <v>41807</v>
+        <v>41838</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
@@ -4440,11 +4450,11 @@
       </c>
       <c r="E43" s="14" t="str">
         <f>ON_Swaps!L14</f>
-        <v>USD_YCONRH_OIS6M#0002</v>
+        <v>USD_YCONRH_OIS6M#0000</v>
       </c>
       <c r="F43" s="13">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
-        <v>9.2999999999999995E-4</v>
+        <v>9.6000000000000002E-4</v>
       </c>
       <c r="G43" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E43,Trigger)</f>
@@ -4462,11 +4472,11 @@
       </c>
       <c r="K43" s="12">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L43" s="11">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
-        <v>41837</v>
+        <v>41869</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
@@ -4480,11 +4490,11 @@
       </c>
       <c r="E44" s="14" t="str">
         <f>ON_Swaps!L15</f>
-        <v>USD_YCONRH_OIS7M#0002</v>
+        <v>USD_YCONRH_OIS7M#0000</v>
       </c>
       <c r="F44" s="13">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>9.7000000000000005E-4</v>
+        <v>1.01E-3</v>
       </c>
       <c r="G44" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E44,Trigger)</f>
@@ -4502,11 +4512,11 @@
       </c>
       <c r="K44" s="12">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L44" s="11">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
-        <v>41869</v>
+        <v>41900</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
@@ -4520,11 +4530,11 @@
       </c>
       <c r="E45" s="14" t="str">
         <f>ON_Swaps!L16</f>
-        <v>USD_YCONRH_OIS8M#0002</v>
+        <v>USD_YCONRH_OIS8M#0000</v>
       </c>
       <c r="F45" s="13">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>1E-3</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="G45" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E45,Trigger)</f>
@@ -4542,11 +4552,11 @@
       </c>
       <c r="K45" s="12">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L45" s="11">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
-        <v>41899</v>
+        <v>41932</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
@@ -4560,11 +4570,11 @@
       </c>
       <c r="E46" s="14" t="str">
         <f>ON_Swaps!L17</f>
-        <v>USD_YCONRH_OIS9M#0002</v>
+        <v>USD_YCONRH_OIS9M#0000</v>
       </c>
       <c r="F46" s="13">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
-        <v>1.0499999999999999E-3</v>
+        <v>1.1100000000000001E-3</v>
       </c>
       <c r="G46" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E46,Trigger)</f>
@@ -4582,11 +4592,11 @@
       </c>
       <c r="K46" s="12">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L46" s="11">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
-        <v>41929</v>
+        <v>41961</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
@@ -4600,11 +4610,11 @@
       </c>
       <c r="E47" s="14" t="str">
         <f>ON_Swaps!L18</f>
-        <v>USD_YCONRH_OIS10M#0002</v>
+        <v>USD_YCONRH_OIS10M#0000</v>
       </c>
       <c r="F47" s="13">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>1.09E-3</v>
+        <v>1.17E-3</v>
       </c>
       <c r="G47" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E47,Trigger)</f>
@@ -4622,11 +4632,11 @@
       </c>
       <c r="K47" s="12">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L47" s="11">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
-        <v>41960</v>
+        <v>41991</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
@@ -4640,11 +4650,11 @@
       </c>
       <c r="E48" s="14" t="str">
         <f>ON_Swaps!L19</f>
-        <v>USD_YCONRH_OIS11M#0002</v>
+        <v>USD_YCONRH_OIS11M#0000</v>
       </c>
       <c r="F48" s="13">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>1.14E-3</v>
+        <v>1.2099999999999999E-3</v>
       </c>
       <c r="G48" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E48,Trigger)</f>
@@ -4662,11 +4672,11 @@
       </c>
       <c r="K48" s="12">
         <f>_xll.qlRateHelperEarliestDate($E48,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L48" s="11">
         <f>_xll.qlRateHelperLatestDate($E48,Trigger)</f>
-        <v>41990</v>
+        <v>42023</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
@@ -4680,11 +4690,11 @@
       </c>
       <c r="E49" s="14" t="str">
         <f>ON_Swaps!L20</f>
-        <v>USD_YCONRH_OIS1Y#0002</v>
+        <v>USD_YCONRH_OIS1Y#0000</v>
       </c>
       <c r="F49" s="13">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
-        <v>1.1899999999999999E-3</v>
+        <v>1.2900000000000001E-3</v>
       </c>
       <c r="G49" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E49,Trigger)</f>
@@ -4702,11 +4712,11 @@
       </c>
       <c r="K49" s="12">
         <f>_xll.qlRateHelperEarliestDate($E49,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L49" s="11">
         <f>_xll.qlRateHelperLatestDate($E49,Trigger)</f>
-        <v>42023</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
@@ -4723,11 +4733,11 @@
       </c>
       <c r="E50" s="14" t="str">
         <f>ON_Swaps!L21</f>
-        <v>USD_YCONRH_OIS13M#0002</v>
+        <v>USD_YCONRH_OIS13M#0000</v>
       </c>
       <c r="F50" s="13">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>1.24E-3</v>
+        <v>1.3700000000000001E-3</v>
       </c>
       <c r="G50" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E50,Trigger)</f>
@@ -4745,11 +4755,11 @@
       </c>
       <c r="K50" s="12">
         <f>_xll.qlRateHelperEarliestDate($E50,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L50" s="11">
         <f>_xll.qlRateHelperLatestDate($E50,Trigger)</f>
-        <v>42052</v>
+        <v>42081</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
@@ -4766,11 +4776,11 @@
       </c>
       <c r="E51" s="14" t="str">
         <f>ON_Swaps!L22</f>
-        <v>USD_YCONRH_OIS14M#0002</v>
+        <v>USD_YCONRH_OIS14M#0000</v>
       </c>
       <c r="F51" s="13">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>1.2900000000000001E-3</v>
+        <v>1.4599999999999999E-3</v>
       </c>
       <c r="G51" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E51,Trigger)</f>
@@ -4788,11 +4798,11 @@
       </c>
       <c r="K51" s="12">
         <f>_xll.qlRateHelperEarliestDate($E51,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L51" s="11">
         <f>_xll.qlRateHelperLatestDate($E51,Trigger)</f>
-        <v>42080</v>
+        <v>42114</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
@@ -4809,11 +4819,11 @@
       </c>
       <c r="E52" s="14" t="str">
         <f>ON_Swaps!L23</f>
-        <v>USD_YCONRH_OIS15M#0002</v>
+        <v>USD_YCONRH_OIS15M#0000</v>
       </c>
       <c r="F52" s="13">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>1.3600000000000001E-3</v>
+        <v>1.56E-3</v>
       </c>
       <c r="G52" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E52,Trigger)</f>
@@ -4831,11 +4841,11 @@
       </c>
       <c r="K52" s="12">
         <f>_xll.qlRateHelperEarliestDate($E52,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L52" s="11">
         <f>_xll.qlRateHelperLatestDate($E52,Trigger)</f>
-        <v>42111</v>
+        <v>42142</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
@@ -4852,11 +4862,11 @@
       </c>
       <c r="E53" s="14" t="str">
         <f>ON_Swaps!L24</f>
-        <v>USD_YCONRH_OIS16M#0002</v>
+        <v>USD_YCONRH_OIS16M#0000</v>
       </c>
       <c r="F53" s="13">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>1.4300000000000001E-3</v>
+        <v>1.6800000000000001E-3</v>
       </c>
       <c r="G53" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E53,Trigger)</f>
@@ -4874,11 +4884,11 @@
       </c>
       <c r="K53" s="12">
         <f>_xll.qlRateHelperEarliestDate($E53,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L53" s="11">
         <f>_xll.qlRateHelperLatestDate($E53,Trigger)</f>
-        <v>42142</v>
+        <v>42173</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
@@ -4895,11 +4905,11 @@
       </c>
       <c r="E54" s="14" t="str">
         <f>ON_Swaps!L25</f>
-        <v>USD_YCONRH_OIS17M#0002</v>
+        <v>USD_YCONRH_OIS17M#0000</v>
       </c>
       <c r="F54" s="13">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>1.5000000000000002E-3</v>
+        <v>1.81E-3</v>
       </c>
       <c r="G54" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E54,Trigger)</f>
@@ -4917,11 +4927,11 @@
       </c>
       <c r="K54" s="12">
         <f>_xll.qlRateHelperEarliestDate($E54,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L54" s="11">
         <f>_xll.qlRateHelperLatestDate($E54,Trigger)</f>
-        <v>42172</v>
+        <v>42205</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
@@ -4938,11 +4948,11 @@
       </c>
       <c r="E55" s="14" t="str">
         <f>ON_Swaps!L26</f>
-        <v>USD_YCONRH_OIS18M#0002</v>
+        <v>USD_YCONRH_OIS18M#0000</v>
       </c>
       <c r="F55" s="13">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>1.5799999999999998E-3</v>
+        <v>1.9500000000000001E-3</v>
       </c>
       <c r="G55" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E55,Trigger)</f>
@@ -4960,11 +4970,11 @@
       </c>
       <c r="K55" s="12">
         <f>_xll.qlRateHelperEarliestDate($E55,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L55" s="11">
         <f>_xll.qlRateHelperLatestDate($E55,Trigger)</f>
-        <v>42202</v>
+        <v>42234</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
@@ -4981,11 +4991,11 @@
       </c>
       <c r="E56" s="14" t="str">
         <f>ON_Swaps!L27</f>
-        <v>USD_YCONRH_OIS19M#0002</v>
+        <v>USD_YCONRH_OIS19M#0000</v>
       </c>
       <c r="F56" s="13">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>1.6699999999999998E-3</v>
+        <v>2.1099999999999999E-3</v>
       </c>
       <c r="G56" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E56,Trigger)</f>
@@ -5003,11 +5013,11 @@
       </c>
       <c r="K56" s="12">
         <f>_xll.qlRateHelperEarliestDate($E56,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L56" s="11">
         <f>_xll.qlRateHelperLatestDate($E56,Trigger)</f>
-        <v>42233</v>
+        <v>42265</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
@@ -5024,11 +5034,11 @@
       </c>
       <c r="E57" s="14" t="str">
         <f>ON_Swaps!L28</f>
-        <v>USD_YCONRH_OIS20M#0002</v>
+        <v>USD_YCONRH_OIS20M#0000</v>
       </c>
       <c r="F57" s="13">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>1.7699999999999999E-3</v>
+        <v>2.2899999999999999E-3</v>
       </c>
       <c r="G57" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E57,Trigger)</f>
@@ -5046,11 +5056,11 @@
       </c>
       <c r="K57" s="12">
         <f>_xll.qlRateHelperEarliestDate($E57,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L57" s="11">
         <f>_xll.qlRateHelperLatestDate($E57,Trigger)</f>
-        <v>42264</v>
+        <v>42296</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
@@ -5067,11 +5077,11 @@
       </c>
       <c r="E58" s="14" t="str">
         <f>ON_Swaps!L29</f>
-        <v>USD_YCONRH_OIS21M#0002</v>
+        <v>USD_YCONRH_OIS21M#0000</v>
       </c>
       <c r="F58" s="13">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>1.8699999999999999E-3</v>
+        <v>2.48E-3</v>
       </c>
       <c r="G58" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E58,Trigger)</f>
@@ -5089,11 +5099,11 @@
       </c>
       <c r="K58" s="12">
         <f>_xll.qlRateHelperEarliestDate($E58,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L58" s="11">
         <f>_xll.qlRateHelperLatestDate($E58,Trigger)</f>
-        <v>42296</v>
+        <v>42326</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
@@ -5110,11 +5120,11 @@
       </c>
       <c r="E59" s="14" t="str">
         <f>ON_Swaps!L30</f>
-        <v>USD_YCONRH_OIS22M#0002</v>
+        <v>USD_YCONRH_OIS22M#0000</v>
       </c>
       <c r="F59" s="13">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>1.98E-3</v>
+        <v>2.6800000000000001E-3</v>
       </c>
       <c r="G59" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E59,Trigger)</f>
@@ -5132,11 +5142,11 @@
       </c>
       <c r="K59" s="12">
         <f>_xll.qlRateHelperEarliestDate($E59,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L59" s="11">
         <f>_xll.qlRateHelperLatestDate($E59,Trigger)</f>
-        <v>42325</v>
+        <v>42356</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
@@ -5153,11 +5163,11 @@
       </c>
       <c r="E60" s="14" t="str">
         <f>ON_Swaps!L31</f>
-        <v>USD_YCONRH_OIS23M#0002</v>
+        <v>USD_YCONRH_OIS23M#0000</v>
       </c>
       <c r="F60" s="13">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>2.1000000000000003E-3</v>
+        <v>2.8899999999999998E-3</v>
       </c>
       <c r="G60" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E60,Trigger)</f>
@@ -5175,11 +5185,11 @@
       </c>
       <c r="K60" s="12">
         <f>_xll.qlRateHelperEarliestDate($E60,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L60" s="11">
         <f>_xll.qlRateHelperLatestDate($E60,Trigger)</f>
-        <v>42355</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
@@ -5196,11 +5206,11 @@
       </c>
       <c r="E61" s="14" t="str">
         <f>ON_Swaps!L32</f>
-        <v>USD_YCONRH_OIS2Y#0002</v>
+        <v>USD_YCONRH_OIS2Y#0000</v>
       </c>
       <c r="F61" s="13">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>2.2299999999999998E-3</v>
+        <v>3.14E-3</v>
       </c>
       <c r="G61" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E61,Trigger)</f>
@@ -5218,11 +5228,11 @@
       </c>
       <c r="K61" s="12">
         <f>_xll.qlRateHelperEarliestDate($E61,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L61" s="11">
         <f>_xll.qlRateHelperLatestDate($E61,Trigger)</f>
-        <v>42387</v>
+        <v>42418</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.2">
@@ -5239,11 +5249,11 @@
       </c>
       <c r="E62" s="14" t="str">
         <f>ON_Swaps!L33</f>
-        <v>USD_YCONRH_OIS27M#0002</v>
+        <v>USD_YCONRH_OIS27M#0000</v>
       </c>
       <c r="F62" s="13">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
-        <v>2.66E-3</v>
+        <v>3.9000000000000003E-3</v>
       </c>
       <c r="G62" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E62,Trigger)</f>
@@ -5261,11 +5271,11 @@
       </c>
       <c r="K62" s="12">
         <f>_xll.qlRateHelperEarliestDate($E62,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L62" s="11">
         <f>_xll.qlRateHelperLatestDate($E62,Trigger)</f>
-        <v>42478</v>
+        <v>42508</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
@@ -5282,11 +5292,11 @@
       </c>
       <c r="E63" s="14" t="str">
         <f>ON_Swaps!L34</f>
-        <v>USD_YCONRH_OIS30M#0002</v>
+        <v>USD_YCONRH_OIS30M#0000</v>
       </c>
       <c r="F63" s="13">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>3.1899999999999997E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="G63" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E63,Trigger)</f>
@@ -5304,11 +5314,11 @@
       </c>
       <c r="K63" s="12">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L63" s="11">
         <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>42569</v>
+        <v>42600</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
@@ -5325,11 +5335,11 @@
       </c>
       <c r="E64" s="14" t="str">
         <f>ON_Swaps!L35</f>
-        <v>USD_YCONRH_OIS33M#0002</v>
+        <v>USD_YCONRH_OIS33M#0000</v>
       </c>
       <c r="F64" s="13">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
-        <v>3.81E-3</v>
+        <v>5.77E-3</v>
       </c>
       <c r="G64" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E64,Trigger)</f>
@@ -5347,11 +5357,11 @@
       </c>
       <c r="K64" s="12">
         <f>_xll.qlRateHelperEarliestDate($E64,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L64" s="11">
         <f>_xll.qlRateHelperLatestDate($E64,Trigger)</f>
-        <v>42660</v>
+        <v>42692</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
@@ -5368,11 +5378,11 @@
       </c>
       <c r="E65" s="14" t="str">
         <f>ON_Swaps!L36</f>
-        <v>USD_YCONRH_OIS3Y#0002</v>
+        <v>USD_YCONRH_OIS3Y#0000</v>
       </c>
       <c r="F65" s="13">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>4.5099999999999993E-3</v>
+        <v>6.7900000000000009E-3</v>
       </c>
       <c r="G65" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E65,Trigger)</f>
@@ -5389,11 +5399,11 @@
       </c>
       <c r="K65" s="12">
         <f>_xll.qlRateHelperEarliestDate($E65,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L65" s="11">
         <f>_xll.qlRateHelperLatestDate($E65,Trigger)</f>
-        <v>42752</v>
+        <v>42786</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
@@ -5410,11 +5420,11 @@
       </c>
       <c r="E66" s="14" t="str">
         <f>ON_Swaps!L37</f>
-        <v>USD_YCONRH_OIS39M#0002</v>
+        <v>USD_YCONRH_OIS39M#0000</v>
       </c>
       <c r="F66" s="13">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
-        <v>5.28E-3</v>
+        <v>7.8300000000000002E-3</v>
       </c>
       <c r="G66" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E66,Trigger)</f>
@@ -5431,11 +5441,11 @@
       </c>
       <c r="K66" s="12">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L66" s="11">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>42843</v>
+        <v>42873</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
@@ -5452,11 +5462,11 @@
       </c>
       <c r="E67" s="14" t="str">
         <f>ON_Swaps!L38</f>
-        <v>USD_YCONRH_OIS42M#0002</v>
+        <v>USD_YCONRH_OIS42M#0000</v>
       </c>
       <c r="F67" s="13">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
-        <v>6.0899999999999999E-3</v>
+        <v>8.9499999999999996E-3</v>
       </c>
       <c r="G67" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E67,Trigger)</f>
@@ -5473,11 +5483,11 @@
       </c>
       <c r="K67" s="12">
         <f>_xll.qlRateHelperEarliestDate($E67,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L67" s="11">
         <f>_xll.qlRateHelperLatestDate($E67,Trigger)</f>
-        <v>42933</v>
+        <v>42965</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
@@ -5494,11 +5504,11 @@
       </c>
       <c r="E68" s="14" t="str">
         <f>ON_Swaps!L39</f>
-        <v>USD_YCONRH_OIS45M#0002</v>
+        <v>USD_YCONRH_OIS45M#0000</v>
       </c>
       <c r="F68" s="13">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
-        <v>6.9100000000000003E-3</v>
+        <v>9.9699999999999997E-3</v>
       </c>
       <c r="G68" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E68,Trigger)</f>
@@ -5515,11 +5525,11 @@
       </c>
       <c r="K68" s="12">
         <f>_xll.qlRateHelperEarliestDate($E68,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L68" s="11">
         <f>_xll.qlRateHelperLatestDate($E68,Trigger)</f>
-        <v>43025</v>
+        <v>43059</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
@@ -5536,11 +5546,11 @@
       </c>
       <c r="E69" s="14" t="str">
         <f>ON_Swaps!L40</f>
-        <v>USD_YCONRH_OIS4Y#0002</v>
+        <v>USD_YCONRH_OIS4Y#0000</v>
       </c>
       <c r="F69" s="13">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
-        <v>7.79E-3</v>
+        <v>1.1089999999999999E-2</v>
       </c>
       <c r="G69" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E69,Trigger)</f>
@@ -5557,11 +5567,11 @@
       </c>
       <c r="K69" s="12">
         <f>_xll.qlRateHelperEarliestDate($E69,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L69" s="11">
         <f>_xll.qlRateHelperLatestDate($E69,Trigger)</f>
-        <v>43117</v>
+        <v>43150</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
@@ -5578,11 +5588,11 @@
       </c>
       <c r="E70" s="14" t="str">
         <f>ON_Swaps!L41</f>
-        <v>USD_YCONRH_OIS51M#0002</v>
+        <v>USD_YCONRH_OIS51M#0000</v>
       </c>
       <c r="F70" s="13">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
-        <v>8.5900000000000004E-3</v>
+        <v>1.2070000000000001E-2</v>
       </c>
       <c r="G70" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E70,Trigger)</f>
@@ -5599,11 +5609,11 @@
       </c>
       <c r="K70" s="12">
         <f>_xll.qlRateHelperEarliestDate($E70,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L70" s="11">
         <f>_xll.qlRateHelperLatestDate($E70,Trigger)</f>
-        <v>43207</v>
+        <v>43238</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
@@ -5620,11 +5630,11 @@
       </c>
       <c r="E71" s="14" t="str">
         <f>ON_Swaps!L42</f>
-        <v>USD_YCONRH_OIS54M#0002</v>
+        <v>USD_YCONRH_OIS54M#0000</v>
       </c>
       <c r="F71" s="13">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
-        <v>9.5199999999999989E-3</v>
+        <v>1.3140000000000001E-2</v>
       </c>
       <c r="G71" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E71,Trigger)</f>
@@ -5641,11 +5651,11 @@
       </c>
       <c r="K71" s="12">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L71" s="11">
         <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>43298</v>
+        <v>43332</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
@@ -5662,11 +5672,11 @@
       </c>
       <c r="E72" s="14" t="str">
         <f>ON_Swaps!L43</f>
-        <v>USD_YCONRH_OIS57M#0002</v>
+        <v>USD_YCONRH_OIS57M#0000</v>
       </c>
       <c r="F72" s="13">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
-        <v>1.0270000000000001E-2</v>
+        <v>1.4079999999999999E-2</v>
       </c>
       <c r="G72" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E72,Trigger)</f>
@@ -5683,11 +5693,11 @@
       </c>
       <c r="K72" s="12">
         <f>_xll.qlRateHelperEarliestDate($E72,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L72" s="11">
         <f>_xll.qlRateHelperLatestDate($E72,Trigger)</f>
-        <v>43390</v>
+        <v>43423</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
@@ -5704,11 +5714,11 @@
       </c>
       <c r="E73" s="14" t="str">
         <f>ON_Swaps!L44</f>
-        <v>USD_YCONRH_OIS5Y#0002</v>
+        <v>USD_YCONRH_OIS5Y#0000</v>
       </c>
       <c r="F73" s="13">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
-        <v>1.125E-2</v>
+        <v>1.5069999999999998E-2</v>
       </c>
       <c r="G73" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E73,Trigger)</f>
@@ -5726,11 +5736,11 @@
       </c>
       <c r="K73" s="12">
         <f>_xll.qlRateHelperEarliestDate($E73,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L73" s="11">
         <f>_xll.qlRateHelperLatestDate($E73,Trigger)</f>
-        <v>43482</v>
+        <v>43514</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
@@ -5747,11 +5757,11 @@
       </c>
       <c r="E74" s="14" t="str">
         <f>ON_Swaps!L45</f>
-        <v>USD_YCONRH_OIS6Y#0002</v>
+        <v>USD_YCONRH_OIS6Y#0000</v>
       </c>
       <c r="F74" s="13">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
-        <v>1.44E-2</v>
+        <v>1.8530000000000001E-2</v>
       </c>
       <c r="G74" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E74,Trigger)</f>
@@ -5769,11 +5779,11 @@
       </c>
       <c r="K74" s="12">
         <f>_xll.qlRateHelperEarliestDate($E74,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L74" s="11">
         <f>_xll.qlRateHelperLatestDate($E74,Trigger)</f>
-        <v>43847</v>
+        <v>43879</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
@@ -5790,11 +5800,11 @@
       </c>
       <c r="E75" s="14" t="str">
         <f>ON_Swaps!L46</f>
-        <v>USD_YCONRH_OIS7Y#0002</v>
+        <v>USD_YCONRH_OIS7Y#0000</v>
       </c>
       <c r="F75" s="13">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
-        <v>1.7129999999999999E-2</v>
+        <v>2.1360000000000001E-2</v>
       </c>
       <c r="G75" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E75,Trigger)</f>
@@ -5812,11 +5822,11 @@
       </c>
       <c r="K75" s="12">
         <f>_xll.qlRateHelperEarliestDate($E75,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L75" s="11">
         <f>_xll.qlRateHelperLatestDate($E75,Trigger)</f>
-        <v>44214</v>
+        <v>44245</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
@@ -5833,11 +5843,11 @@
       </c>
       <c r="E76" s="14" t="str">
         <f>ON_Swaps!L47</f>
-        <v>USD_YCONRH_OIS8Y#0002</v>
+        <v>USD_YCONRH_OIS8Y#0000</v>
       </c>
       <c r="F76" s="13">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
-        <v>1.9429999999999999E-2</v>
+        <v>2.3700000000000002E-2</v>
       </c>
       <c r="G76" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E76,Trigger)</f>
@@ -5855,11 +5865,11 @@
       </c>
       <c r="K76" s="12">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L76" s="11">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>44578</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
@@ -5876,11 +5886,11 @@
       </c>
       <c r="E77" s="14" t="str">
         <f>ON_Swaps!L48</f>
-        <v>USD_YCONRH_OIS9Y#0002</v>
+        <v>USD_YCONRH_OIS9Y#0000</v>
       </c>
       <c r="F77" s="13">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
-        <v>2.1360000000000001E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="G77" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E77,Trigger)</f>
@@ -5898,11 +5908,11 @@
       </c>
       <c r="K77" s="12">
         <f>_xll.qlRateHelperEarliestDate($E77,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L77" s="11">
         <f>_xll.qlRateHelperLatestDate($E77,Trigger)</f>
-        <v>44943</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
@@ -5919,11 +5929,11 @@
       </c>
       <c r="E78" s="14" t="str">
         <f>ON_Swaps!L49</f>
-        <v>USD_YCONRH_OIS10Y#0002</v>
+        <v>USD_YCONRH_OIS10Y#0000</v>
       </c>
       <c r="F78" s="13">
         <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
-        <v>2.3019999999999999E-2</v>
+        <v>2.7160000000000004E-2</v>
       </c>
       <c r="G78" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E78,Trigger)</f>
@@ -5941,11 +5951,11 @@
       </c>
       <c r="K78" s="12">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L78" s="11">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>45308</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
@@ -5962,11 +5972,11 @@
       </c>
       <c r="E79" s="14" t="str">
         <f>ON_Swaps!L50</f>
-        <v>USD_YCONRH_OIS12Y#0002</v>
+        <v>USD_YCONRH_OIS12Y#0000</v>
       </c>
       <c r="F79" s="13">
         <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
-        <v>2.5770000000000001E-2</v>
+        <v>2.9679999999999998E-2</v>
       </c>
       <c r="G79" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E79,Trigger)</f>
@@ -5984,11 +5994,11 @@
       </c>
       <c r="K79" s="12">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L79" s="11">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>46041</v>
+        <v>46071</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
@@ -6005,11 +6015,11 @@
       </c>
       <c r="E80" s="14" t="str">
         <f>ON_Swaps!L51</f>
-        <v>USD_YCONRH_OIS15Y#0002</v>
+        <v>USD_YCONRH_OIS15Y#0000</v>
       </c>
       <c r="F80" s="13">
         <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
-        <v>2.8389999999999999E-2</v>
+        <v>3.2070000000000001E-2</v>
       </c>
       <c r="G80" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E80,Trigger)</f>
@@ -6027,11 +6037,11 @@
       </c>
       <c r="K80" s="12">
         <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L80" s="11">
         <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
-        <v>47135</v>
+        <v>47168</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
@@ -6045,11 +6055,11 @@
       </c>
       <c r="E81" s="14" t="str">
         <f>ON_Swaps!L52</f>
-        <v>USD_YCONRH_OIS20Y#0002</v>
+        <v>USD_YCONRH_OIS20Y#0000</v>
       </c>
       <c r="F81" s="13">
         <f>_xll.qlRateHelperQuoteValue($E81,Trigger)</f>
-        <v>3.065E-2</v>
+        <v>3.4079999999999999E-2</v>
       </c>
       <c r="G81" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E81,Trigger)</f>
@@ -6067,11 +6077,11 @@
       </c>
       <c r="K81" s="12">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L81" s="11">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>48961</v>
+        <v>48995</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
@@ -6085,11 +6095,11 @@
       </c>
       <c r="E82" s="14" t="str">
         <f>ON_Swaps!L53</f>
-        <v>USD_YCONRH_OIS25Y#0002</v>
+        <v>USD_YCONRH_OIS25Y#0000</v>
       </c>
       <c r="F82" s="13">
         <f>_xll.qlRateHelperQuoteValue($E82,Trigger)</f>
-        <v>3.1799999999999995E-2</v>
+        <v>3.4970000000000001E-2</v>
       </c>
       <c r="G82" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E82,Trigger)</f>
@@ -6106,11 +6116,11 @@
       </c>
       <c r="K82" s="12">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L82" s="11">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>50787</v>
+        <v>50819</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
@@ -6124,7 +6134,7 @@
       </c>
       <c r="E83" s="14" t="str">
         <f>ON_Swaps!L54</f>
-        <v>USD_YCONRH_OIS27Y#0002</v>
+        <v>USD_YCONRH_OIS27Y#0000</v>
       </c>
       <c r="F83" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
@@ -6146,11 +6156,11 @@
       </c>
       <c r="K83" s="12">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L83" s="11">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>51518</v>
+        <v>51550</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
@@ -6167,11 +6177,11 @@
       </c>
       <c r="E84" s="14" t="str">
         <f>ON_Swaps!L55</f>
-        <v>USD_YCONRH_OIS30Y#0002</v>
+        <v>USD_YCONRH_OIS30Y#0000</v>
       </c>
       <c r="F84" s="13">
         <f>_xll.qlRateHelperQuoteValue($E84,Trigger)</f>
-        <v>3.245E-2</v>
+        <v>3.5490000000000001E-2</v>
       </c>
       <c r="G84" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E84,Trigger)</f>
@@ -6189,11 +6199,11 @@
       </c>
       <c r="K84" s="12">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L84" s="11">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>52614</v>
+        <v>52645</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
@@ -6210,11 +6220,11 @@
       </c>
       <c r="E85" s="14" t="str">
         <f>ON_Swaps!L56</f>
-        <v>USD_YCONRH_OIS35Y#0002</v>
+        <v>USD_YCONRH_OIS35Y#0000</v>
       </c>
       <c r="F85" s="13">
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
-        <v>3.2629999999999999E-2</v>
+        <v>3.567E-2</v>
       </c>
       <c r="G85" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E85,Trigger)</f>
@@ -6232,11 +6242,11 @@
       </c>
       <c r="K85" s="12">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L85" s="11">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>54441</v>
+        <v>54472</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
@@ -6253,11 +6263,11 @@
       </c>
       <c r="E86" s="14" t="str">
         <f>ON_Swaps!L57</f>
-        <v>USD_YCONRH_OIS40Y#0002</v>
+        <v>USD_YCONRH_OIS40Y#0000</v>
       </c>
       <c r="F86" s="13">
         <f>_xll.qlRateHelperQuoteValue($E86,Trigger)</f>
-        <v>3.2640000000000002E-2</v>
+        <v>3.5680000000000003E-2</v>
       </c>
       <c r="G86" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E86,Trigger)</f>
@@ -6275,11 +6285,11 @@
       </c>
       <c r="K86" s="12">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L86" s="11">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>56268</v>
+        <v>56298</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
@@ -6296,11 +6306,11 @@
       </c>
       <c r="E87" s="14" t="str">
         <f>ON_Swaps!L58</f>
-        <v>USD_YCONRH_OIS45Y#0002</v>
+        <v>USD_YCONRH_OIS45Y#0000</v>
       </c>
       <c r="F87" s="13">
         <f>_xll.qlRateHelperQuoteValue($E87,Trigger)</f>
-        <v>3.2549999999999996E-2</v>
+        <v>3.5590000000000004E-2</v>
       </c>
       <c r="G87" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E87,Trigger)</f>
@@ -6318,11 +6328,11 @@
       </c>
       <c r="K87" s="12">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L87" s="11">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>58092</v>
+        <v>58124</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
@@ -6339,11 +6349,11 @@
       </c>
       <c r="E88" s="8" t="str">
         <f>ON_Swaps!L59</f>
-        <v>USD_YCONRH_OIS50Y#0002</v>
+        <v>USD_YCONRH_OIS50Y#0000</v>
       </c>
       <c r="F88" s="7">
         <f>_xll.qlRateHelperQuoteValue($E88,Trigger)</f>
-        <v>3.2439999999999997E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="G88" s="7" t="e">
         <f>_xll.qlSwapRateHelperSpread($E88,Trigger)</f>
@@ -6361,11 +6371,11 @@
       </c>
       <c r="K88" s="4">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L88" s="3">
         <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>59918</v>
+        <v>59950</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
@@ -7997,10 +8007,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="190" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="186"/>
+      <c r="B1" s="191"/>
       <c r="D1" s="52" t="s">
         <v>105</v>
       </c>
@@ -8032,7 +8042,7 @@
       </c>
       <c r="E2" s="40">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F2" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -8040,14 +8050,14 @@
       </c>
       <c r="G2" s="39">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H2" s="38">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41655</v>
+        <v>41687</v>
       </c>
       <c r="I2" s="33">
-        <v>0.9999955555753085</v>
+        <v>0.99998750015624804</v>
       </c>
       <c r="L2" s="179" t="s">
         <v>173</v>
@@ -8068,7 +8078,7 @@
       </c>
       <c r="E3" s="40">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F3" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -8076,14 +8086,14 @@
       </c>
       <c r="G3" s="39">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41655</v>
+        <v>41687</v>
       </c>
       <c r="H3" s="38">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="I3" s="33">
-        <v>0.99999111117036987</v>
+        <v>0.99998333355907243</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J37" si="0">H3-H2</f>
@@ -8108,7 +8118,7 @@
       </c>
       <c r="E4" s="40">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="F4" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -8116,14 +8126,14 @@
       </c>
       <c r="G4" s="39">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H4" s="38">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41663</v>
+        <v>41695</v>
       </c>
       <c r="I4" s="33">
-        <v>0.99997361163216636</v>
+        <v>0.99996797293993267</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
@@ -8148,7 +8158,7 @@
       </c>
       <c r="E5" s="40">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>8.5999999999999998E-4</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="F5" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -8156,14 +8166,14 @@
       </c>
       <c r="G5" s="39">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H5" s="38">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41670</v>
+        <v>41702</v>
       </c>
       <c r="I5" s="33">
-        <v>0.99995766814159714</v>
+        <v>0.99995261279267844</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
@@ -8189,7 +8199,7 @@
       </c>
       <c r="E6" s="40">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>8.5000000000000006E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="F6" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -8197,14 +8207,14 @@
       </c>
       <c r="G6" s="39">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H6" s="38">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41677</v>
+        <v>41709</v>
       </c>
       <c r="I6" s="33">
-        <v>0.99994153073624759</v>
+        <v>0.9999366698479325</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
@@ -8220,7 +8230,7 @@
     <row r="7" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_RateHelpersSelected#0002</v>
+        <v>USD_YCONRH_RateHelpersSelected#0000</v>
       </c>
       <c r="B7" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -8231,7 +8241,7 @@
       </c>
       <c r="E7" s="40">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>8.4000000000000003E-4</v>
+        <v>8.1000000000000006E-4</v>
       </c>
       <c r="F7" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -8239,18 +8249,18 @@
       </c>
       <c r="G7" s="39">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H7" s="38">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41687</v>
+        <v>41716</v>
       </c>
       <c r="I7" s="33">
-        <v>0.99991878371188003</v>
+        <v>0.99992033857777995</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L7" s="179" t="s">
         <v>178</v>
@@ -8265,7 +8275,7 @@
       </c>
       <c r="E8" s="40">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>8.4000000000000003E-4</v>
+        <v>8.1999999999999998E-4</v>
       </c>
       <c r="F8" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -8273,18 +8283,18 @@
       </c>
       <c r="G8" s="39">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H8" s="38">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41715</v>
+        <v>41751</v>
       </c>
       <c r="I8" s="33">
-        <v>0.99985346467673264</v>
+        <v>0.99983985653965901</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L8" s="179" t="s">
         <v>179</v>
@@ -8299,7 +8309,7 @@
       </c>
       <c r="E9" s="40">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>8.4000000000000003E-4</v>
+        <v>8.7999999999999992E-4</v>
       </c>
       <c r="F9" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -8307,18 +8317,18 @@
       </c>
       <c r="G9" s="39">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H9" s="38">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41746</v>
+        <v>41778</v>
       </c>
       <c r="I9" s="33">
-        <v>0.99978115712728388</v>
+        <v>0.99976338561423739</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L9" s="179" t="s">
         <v>180</v>
@@ -8333,7 +8343,7 @@
       </c>
       <c r="E10" s="40">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>8.7999999999999992E-4</v>
+        <v>9.1E-4</v>
       </c>
       <c r="F10" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -8341,18 +8351,18 @@
       </c>
       <c r="G10" s="39">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H10" s="38">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41778</v>
+        <v>41808</v>
       </c>
       <c r="I10" s="33">
-        <v>0.99969298050818267</v>
+        <v>0.99968009726302642</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L10" s="179" t="s">
         <v>181</v>
@@ -8367,7 +8377,7 @@
       </c>
       <c r="E11" s="40">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>9.2999999999999995E-4</v>
       </c>
       <c r="F11" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -8375,18 +8385,18 @@
       </c>
       <c r="G11" s="39">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H11" s="38">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41807</v>
+        <v>41838</v>
       </c>
       <c r="I11" s="33">
-        <v>0.99961375697728971</v>
+        <v>0.99959599011312295</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L11" s="179" t="s">
         <v>182</v>
@@ -8401,7 +8411,7 @@
       </c>
       <c r="E12" s="40">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>9.2999999999999995E-4</v>
+        <v>9.6000000000000002E-4</v>
       </c>
       <c r="F12" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -8409,18 +8419,18 @@
       </c>
       <c r="G12" s="39">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H12" s="38">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41837</v>
+        <v>41869</v>
       </c>
       <c r="I12" s="33">
-        <v>0.99952375052335429</v>
+        <v>0.99950090778758038</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L12" s="179" t="s">
         <v>183</v>
@@ -8435,7 +8445,7 @@
       </c>
       <c r="E13" s="40">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>9.7000000000000005E-4</v>
+        <v>1.01E-3</v>
       </c>
       <c r="F13" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -8443,18 +8453,18 @@
       </c>
       <c r="G13" s="39">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H13" s="38">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>41869</v>
+        <v>41900</v>
       </c>
       <c r="I13" s="33">
-        <v>0.99941752879363643</v>
+        <v>0.99938891923855211</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L13" s="179" t="s">
         <v>184</v>
@@ -8469,7 +8479,7 @@
       </c>
       <c r="E14" s="40">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>1E-3</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="F14" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -8477,18 +8487,18 @@
       </c>
       <c r="G14" s="39">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H14" s="38">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>41899</v>
+        <v>41932</v>
       </c>
       <c r="I14" s="33">
-        <v>0.99931657248394312</v>
+        <v>0.99927218485418445</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L14" s="179" t="s">
         <v>185</v>
@@ -8503,7 +8513,7 @@
       </c>
       <c r="E15" s="40">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>1.0499999999999999E-3</v>
+        <v>1.1100000000000001E-3</v>
       </c>
       <c r="F15" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -8511,18 +8521,18 @@
       </c>
       <c r="G15" s="39">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H15" s="38">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>41929</v>
+        <v>41961</v>
       </c>
       <c r="I15" s="33">
-        <v>0.9991955017520997</v>
+        <v>0.99914230552339811</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L15" s="179" t="s">
         <v>186</v>
@@ -8537,7 +8547,7 @@
       </c>
       <c r="E16" s="40">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.09E-3</v>
+        <v>1.17E-3</v>
       </c>
       <c r="F16" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -8545,18 +8555,18 @@
       </c>
       <c r="G16" s="39">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H16" s="38">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>41960</v>
+        <v>41991</v>
       </c>
       <c r="I16" s="33">
-        <v>0.99907152133895072</v>
+        <v>0.99899956873376194</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" s="179" t="s">
         <v>187</v>
@@ -8571,7 +8581,7 @@
       </c>
       <c r="E17" s="40">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.14E-3</v>
+        <v>1.2099999999999999E-3</v>
       </c>
       <c r="F17" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -8579,18 +8589,18 @@
       </c>
       <c r="G17" s="39">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H17" s="38">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>41990</v>
+        <v>42023</v>
       </c>
       <c r="I17" s="33">
-        <v>0.99893457137204889</v>
+        <v>0.99885864646922173</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L17" s="179" t="s">
         <v>188</v>
@@ -8605,7 +8615,7 @@
       </c>
       <c r="E18" s="40">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.1899999999999999E-3</v>
+        <v>1.2900000000000001E-3</v>
       </c>
       <c r="F18" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -8613,18 +8623,18 @@
       </c>
       <c r="G18" s="39">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H18" s="38">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42023</v>
+        <v>42053</v>
       </c>
       <c r="I18" s="33">
-        <v>0.99877945297454329</v>
+        <v>0.99867714707379573</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L18" s="179" t="s">
         <v>189</v>
@@ -8639,7 +8649,7 @@
       </c>
       <c r="E19" s="40">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.24E-3</v>
+        <v>1.3700000000000001E-3</v>
       </c>
       <c r="F19" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -8647,18 +8657,18 @@
       </c>
       <c r="G19" s="39">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H19" s="38">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42052</v>
+        <v>42081</v>
       </c>
       <c r="I19" s="33">
-        <v>0.99862879104595836</v>
+        <v>0.99848974863085838</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L19" s="179" t="s">
         <v>190</v>
@@ -8673,7 +8683,7 @@
       </c>
       <c r="E20" s="40">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.2900000000000001E-3</v>
+        <v>1.4599999999999999E-3</v>
       </c>
       <c r="F20" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -8681,18 +8691,18 @@
       </c>
       <c r="G20" s="39">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H20" s="38">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>42080</v>
+        <v>42114</v>
       </c>
       <c r="I20" s="33">
-        <v>0.99847369470589808</v>
+        <v>0.99825805601953499</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L20" s="179" t="s">
         <v>191</v>
@@ -8707,7 +8717,7 @@
       </c>
       <c r="E21" s="40">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.3600000000000001E-3</v>
+        <v>1.56E-3</v>
       </c>
       <c r="F21" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -8715,18 +8725,18 @@
       </c>
       <c r="G21" s="39">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H21" s="38">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>42111</v>
+        <v>42142</v>
       </c>
       <c r="I21" s="33">
-        <v>0.99827448813908437</v>
+        <v>0.99801885659908907</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L21" s="179" t="s">
         <v>192</v>
@@ -8741,7 +8751,7 @@
       </c>
       <c r="E22" s="40">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.4300000000000001E-3</v>
+        <v>1.6800000000000001E-3</v>
       </c>
       <c r="F22" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -8749,14 +8759,14 @@
       </c>
       <c r="G22" s="39">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H22" s="38">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>42142</v>
+        <v>42173</v>
       </c>
       <c r="I22" s="33">
-        <v>0.99806330595512016</v>
+        <v>0.99772352830937028</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
@@ -8775,7 +8785,7 @@
       </c>
       <c r="E23" s="40">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>1.5000000000000002E-3</v>
+        <v>1.81E-3</v>
       </c>
       <c r="F23" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -8783,18 +8793,18 @@
       </c>
       <c r="G23" s="39">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H23" s="38">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>42172</v>
+        <v>42205</v>
       </c>
       <c r="I23" s="33">
-        <v>0.99784431591073508</v>
+        <v>0.9973883959126898</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L23" s="179" t="s">
         <v>194</v>
@@ -8809,7 +8819,7 @@
       </c>
       <c r="E24" s="40">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>1.5799999999999998E-3</v>
+        <v>1.9500000000000001E-3</v>
       </c>
       <c r="F24" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -8817,18 +8827,18 @@
       </c>
       <c r="G24" s="39">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H24" s="38">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>42202</v>
+        <v>42234</v>
       </c>
       <c r="I24" s="33">
-        <v>0.99759863034193896</v>
+        <v>0.99703135945421395</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L24" s="179" t="s">
         <v>195</v>
@@ -8843,7 +8853,7 @@
       </c>
       <c r="E25" s="40">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>1.6699999999999998E-3</v>
+        <v>2.1099999999999999E-3</v>
       </c>
       <c r="F25" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -8851,14 +8861,14 @@
       </c>
       <c r="G25" s="39">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H25" s="38">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>42233</v>
+        <v>42265</v>
       </c>
       <c r="I25" s="33">
-        <v>0.99731916181208913</v>
+        <v>0.99660851654118898</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="0"/>
@@ -8877,7 +8887,7 @@
       </c>
       <c r="E26" s="40">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>1.7699999999999999E-3</v>
+        <v>2.2899999999999999E-3</v>
       </c>
       <c r="F26" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -8885,14 +8895,14 @@
       </c>
       <c r="G26" s="39">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H26" s="38">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>42264</v>
+        <v>42296</v>
       </c>
       <c r="I26" s="33">
-        <v>0.99700752604469611</v>
+        <v>0.99612483944022556</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="0"/>
@@ -8911,7 +8921,7 @@
       </c>
       <c r="E27" s="40">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>1.8699999999999999E-3</v>
+        <v>2.48E-3</v>
       </c>
       <c r="F27" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -8919,18 +8929,18 @@
       </c>
       <c r="G27" s="39">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H27" s="38">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>42296</v>
+        <v>42326</v>
       </c>
       <c r="I27" s="33">
-        <v>0.99667371048503217</v>
+        <v>0.99559982395257263</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="179" t="s">
         <v>198</v>
@@ -8945,7 +8955,7 @@
       </c>
       <c r="E28" s="40">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>1.98E-3</v>
+        <v>2.6800000000000001E-3</v>
       </c>
       <c r="F28" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -8953,18 +8963,18 @@
       </c>
       <c r="G28" s="39">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H28" s="38">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>42325</v>
+        <v>42356</v>
       </c>
       <c r="I28" s="33">
-        <v>0.99632018701391079</v>
+        <v>0.99502526050959583</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L28" s="179" t="s">
         <v>199</v>
@@ -8979,7 +8989,7 @@
       </c>
       <c r="E29" s="40">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.1000000000000003E-3</v>
+        <v>2.8899999999999998E-3</v>
       </c>
       <c r="F29" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -8987,18 +8997,18 @@
       </c>
       <c r="G29" s="39">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H29" s="38">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>42355</v>
+        <v>42387</v>
       </c>
       <c r="I29" s="33">
-        <v>0.99592411778335344</v>
+        <v>0.99439083277065399</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L29" s="179" t="s">
         <v>200</v>
@@ -9013,7 +9023,7 @@
       </c>
       <c r="E30" s="40">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.2299999999999998E-3</v>
+        <v>3.14E-3</v>
       </c>
       <c r="F30" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -9021,18 +9031,18 @@
       </c>
       <c r="G30" s="39">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H30" s="38">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>42387</v>
+        <v>42418</v>
       </c>
       <c r="I30" s="33">
-        <v>0.9954759477580839</v>
+        <v>0.99364056874213946</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L30" s="179" t="s">
         <v>201</v>
@@ -9047,7 +9057,7 @@
       </c>
       <c r="E31" s="40">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>2.66E-3</v>
+        <v>3.9000000000000003E-3</v>
       </c>
       <c r="F31" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -9055,18 +9065,18 @@
       </c>
       <c r="G31" s="39">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H31" s="38">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>42478</v>
+        <v>42508</v>
       </c>
       <c r="I31" s="33">
-        <v>0.9939369986727622</v>
+        <v>0.99113901671648597</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L31" s="179" t="s">
         <v>202</v>
@@ -9081,7 +9091,7 @@
       </c>
       <c r="E32" s="40">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>3.1899999999999997E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="F32" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -9089,18 +9099,18 @@
       </c>
       <c r="G32" s="39">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H32" s="38">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>42569</v>
+        <v>42600</v>
       </c>
       <c r="I32" s="33">
-        <v>0.99193248871266537</v>
+        <v>0.98789010734830884</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L32" s="179" t="s">
         <v>203</v>
@@ -9115,7 +9125,7 @@
       </c>
       <c r="E33" s="40">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>3.81E-3</v>
+        <v>5.77E-3</v>
       </c>
       <c r="F33" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -9123,18 +9133,18 @@
       </c>
       <c r="G33" s="39">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H33" s="38">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>42660</v>
+        <v>42692</v>
       </c>
       <c r="I33" s="33">
-        <v>0.98941818687097693</v>
+        <v>0.98400662378812298</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L33" s="179" t="s">
         <v>204</v>
@@ -9149,7 +9159,7 @@
       </c>
       <c r="E34" s="40">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>4.5099999999999993E-3</v>
+        <v>6.7900000000000009E-3</v>
       </c>
       <c r="F34" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -9157,18 +9167,18 @@
       </c>
       <c r="G34" s="39">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H34" s="38">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>42752</v>
+        <v>42786</v>
       </c>
       <c r="I34" s="33">
-        <v>0.98634932820172894</v>
+        <v>0.97946922259552727</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L34" s="179" t="s">
         <v>205</v>
@@ -9183,7 +9193,7 @@
       </c>
       <c r="E35" s="40">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>7.79E-3</v>
+        <v>1.1089999999999999E-2</v>
       </c>
       <c r="F35" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -9191,18 +9201,18 @@
       </c>
       <c r="G35" s="39">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H35" s="38">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>43117</v>
+        <v>43150</v>
       </c>
       <c r="I35" s="33">
-        <v>0.96877644674781405</v>
+        <v>0.95576080113882378</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L35" s="179" t="s">
         <v>206</v>
@@ -9217,7 +9227,7 @@
       </c>
       <c r="E36" s="40">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>1.125E-2</v>
+        <v>1.5069999999999998E-2</v>
       </c>
       <c r="F36" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -9225,18 +9235,18 @@
       </c>
       <c r="G36" s="39">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H36" s="38">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>43482</v>
+        <v>43514</v>
       </c>
       <c r="I36" s="33">
-        <v>0.94414303554363244</v>
+        <v>0.92578356019561281</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L36" s="179" t="s">
         <v>207</v>
@@ -9251,7 +9261,7 @@
       </c>
       <c r="E37" s="40">
         <f>_xll.qlRateHelperRate($D37)</f>
-        <v>1.44E-2</v>
+        <v>1.8530000000000001E-2</v>
       </c>
       <c r="F37" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
@@ -9259,14 +9269,14 @@
       </c>
       <c r="G37" s="39">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H37" s="38">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>43847</v>
+        <v>43879</v>
       </c>
       <c r="I37" s="33">
-        <v>0.91514446517656789</v>
+        <v>0.89198951756215394</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="0"/>
@@ -9285,7 +9295,7 @@
       </c>
       <c r="E38" s="40">
         <f>_xll.qlRateHelperRate($D38)</f>
-        <v>1.7129999999999999E-2</v>
+        <v>2.1360000000000001E-2</v>
       </c>
       <c r="F38" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
@@ -9293,14 +9303,14 @@
       </c>
       <c r="G38" s="39">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H38" s="38">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>44214</v>
+        <v>44245</v>
       </c>
       <c r="I38" s="33">
-        <v>0.88362808433450235</v>
+        <v>0.85688794978518679</v>
       </c>
       <c r="L38" s="179" t="s">
         <v>209</v>
@@ -9315,7 +9325,7 @@
       </c>
       <c r="E39" s="40">
         <f>_xll.qlRateHelperRate($D39)</f>
-        <v>1.9429999999999999E-2</v>
+        <v>2.3700000000000002E-2</v>
       </c>
       <c r="F39" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
@@ -9323,14 +9333,14 @@
       </c>
       <c r="G39" s="39">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H39" s="38">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>44578</v>
+        <v>44610</v>
       </c>
       <c r="I39" s="33">
-        <v>0.85128017142168666</v>
+        <v>0.82147247118002908</v>
       </c>
       <c r="L39" s="179" t="s">
         <v>210</v>
@@ -9345,7 +9355,7 @@
       </c>
       <c r="E40" s="40">
         <f>_xll.qlRateHelperRate($D40)</f>
-        <v>2.1360000000000001E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="F40" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
@@ -9353,14 +9363,14 @@
       </c>
       <c r="G40" s="39">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H40" s="38">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>44943</v>
+        <v>44977</v>
       </c>
       <c r="I40" s="33">
-        <v>0.81877660327334401</v>
+        <v>0.7866321234241298</v>
       </c>
       <c r="L40" s="179" t="s">
         <v>211</v>
@@ -9375,7 +9385,7 @@
       </c>
       <c r="E41" s="40">
         <f>_xll.qlRateHelperRate($D41)</f>
-        <v>2.3019999999999999E-2</v>
+        <v>2.7160000000000004E-2</v>
       </c>
       <c r="F41" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
@@ -9383,14 +9393,14 @@
       </c>
       <c r="G41" s="39">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H41" s="38">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>45308</v>
+        <v>45341</v>
       </c>
       <c r="I41" s="33">
-        <v>0.78634048482710239</v>
+        <v>0.75295358989388561</v>
       </c>
       <c r="L41" s="179" t="s">
         <v>212</v>
@@ -9405,7 +9415,7 @@
       </c>
       <c r="E42" s="40">
         <f>_xll.qlRateHelperRate($D42)</f>
-        <v>2.5770000000000001E-2</v>
+        <v>2.9679999999999998E-2</v>
       </c>
       <c r="F42" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
@@ -9413,14 +9423,14 @@
       </c>
       <c r="G42" s="39">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H42" s="38">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>46041</v>
+        <v>46071</v>
       </c>
       <c r="I42" s="33">
-        <v>0.72210358907889161</v>
+        <v>0.68768555790306607</v>
       </c>
       <c r="L42" s="179" t="s">
         <v>213</v>
@@ -9435,7 +9445,7 @@
       </c>
       <c r="E43" s="40">
         <f>_xll.qlRateHelperRate($D43)</f>
-        <v>2.8389999999999999E-2</v>
+        <v>3.2070000000000001E-2</v>
       </c>
       <c r="F43" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
@@ -9443,14 +9453,14 @@
       </c>
       <c r="G43" s="39">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H43" s="38">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>47135</v>
+        <v>47168</v>
       </c>
       <c r="I43" s="33">
-        <v>0.63654234568676926</v>
+        <v>0.60106172043864947</v>
       </c>
       <c r="L43" s="179" t="s">
         <v>214</v>
@@ -9465,7 +9475,7 @@
       </c>
       <c r="E44" s="40">
         <f>_xll.qlRateHelperRate($D44)</f>
-        <v>3.065E-2</v>
+        <v>3.4079999999999999E-2</v>
       </c>
       <c r="F44" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
@@ -9473,14 +9483,14 @@
       </c>
       <c r="G44" s="39">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H44" s="38">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>48961</v>
+        <v>48995</v>
       </c>
       <c r="I44" s="33">
-        <v>0.51983111265149418</v>
+        <v>0.48454057874763712</v>
       </c>
       <c r="L44" s="179" t="s">
         <v>215</v>
@@ -9495,7 +9505,7 @@
       </c>
       <c r="E45" s="40">
         <f>_xll.qlRateHelperRate($D45)</f>
-        <v>3.1799999999999995E-2</v>
+        <v>3.4970000000000001E-2</v>
       </c>
       <c r="F45" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
@@ -9503,14 +9513,14 @@
       </c>
       <c r="G45" s="39">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H45" s="38">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>50787</v>
+        <v>50819</v>
       </c>
       <c r="I45" s="33">
-        <v>0.42717049670673313</v>
+        <v>0.39500558484196241</v>
       </c>
       <c r="L45" s="179" t="s">
         <v>216</v>
@@ -9525,7 +9535,7 @@
       </c>
       <c r="E46" s="40">
         <f>_xll.qlRateHelperRate($D46)</f>
-        <v>3.245E-2</v>
+        <v>3.5490000000000001E-2</v>
       </c>
       <c r="F46" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
@@ -9533,14 +9543,14 @@
       </c>
       <c r="G46" s="39">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H46" s="38">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>52614</v>
+        <v>52645</v>
       </c>
       <c r="I46" s="33">
-        <v>0.35266392637230037</v>
+        <v>0.32290058005403066</v>
       </c>
       <c r="L46" s="179" t="s">
         <v>217</v>
@@ -9555,7 +9565,7 @@
       </c>
       <c r="E47" s="40">
         <f>_xll.qlRateHelperRate($D47)</f>
-        <v>3.2629999999999999E-2</v>
+        <v>3.567E-2</v>
       </c>
       <c r="F47" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
@@ -9563,14 +9573,14 @@
       </c>
       <c r="G47" s="39">
         <f>_xll.qlRateHelperEarliestDate($D47)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H47" s="38">
         <f>_xll.qlRateHelperLatestDate($D47)</f>
-        <v>54441</v>
+        <v>54472</v>
       </c>
       <c r="I47" s="33">
-        <v>0.29639342256542828</v>
+        <v>0.26721436913643926</v>
       </c>
       <c r="L47" s="179" t="s">
         <v>218</v>
@@ -9585,7 +9595,7 @@
       </c>
       <c r="E48" s="40">
         <f>_xll.qlRateHelperRate($D48)</f>
-        <v>3.2640000000000002E-2</v>
+        <v>3.5680000000000003E-2</v>
       </c>
       <c r="F48" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
@@ -9593,14 +9603,14 @@
       </c>
       <c r="G48" s="39">
         <f>_xll.qlRateHelperEarliestDate($D48)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H48" s="38">
         <f>_xll.qlRateHelperLatestDate($D48)</f>
-        <v>56268</v>
+        <v>56298</v>
       </c>
       <c r="I48" s="33">
-        <v>0.25162709259328819</v>
+        <v>0.22350819005228562</v>
       </c>
       <c r="L48" s="179" t="s">
         <v>219</v>
@@ -9615,7 +9625,7 @@
       </c>
       <c r="E49" s="40">
         <f>_xll.qlRateHelperRate($D49)</f>
-        <v>3.2549999999999996E-2</v>
+        <v>3.5590000000000004E-2</v>
       </c>
       <c r="F49" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
@@ -9623,14 +9633,14 @@
       </c>
       <c r="G49" s="39">
         <f>_xll.qlRateHelperEarliestDate($D49)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H49" s="38">
         <f>_xll.qlRateHelperLatestDate($D49)</f>
-        <v>58092</v>
+        <v>58124</v>
       </c>
       <c r="I49" s="33">
-        <v>0.21580903276940397</v>
+        <v>0.18894629856312009</v>
       </c>
       <c r="L49" s="179" t="s">
         <v>220</v>
@@ -9645,7 +9655,7 @@
       </c>
       <c r="E50" s="40">
         <f>_xll.qlRateHelperRate($D50)</f>
-        <v>3.2439999999999997E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="F50" s="40" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
@@ -9653,14 +9663,14 @@
       </c>
       <c r="G50" s="39">
         <f>_xll.qlRateHelperEarliestDate($D50)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H50" s="38">
         <f>_xll.qlRateHelperLatestDate($D50)</f>
-        <v>59918</v>
+        <v>59950</v>
       </c>
       <c r="I50" s="33">
-        <v>0.18595513265821129</v>
+        <v>0.16015408542015044</v>
       </c>
       <c r="L50" s="179" t="s">
         <v>221</v>
@@ -11587,7 +11597,7 @@
       </c>
       <c r="F3" s="105" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OND#0002</v>
+        <v>USD_YCONRH_OND#0000</v>
       </c>
       <c r="G3" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -11701,7 +11711,7 @@
       </c>
       <c r="H3" s="146" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_TND#0001</v>
+        <v>USD_YCONRH_TND#0000</v>
       </c>
       <c r="I3" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -11733,7 +11743,7 @@
       </c>
       <c r="H4" s="143" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_SND#0001</v>
+        <v>USD_YCONRH_SND#0000</v>
       </c>
       <c r="I4" s="142" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -11889,7 +11899,7 @@
       </c>
       <c r="L4" s="172" t="str">
         <f>_xll.qlEonia(K4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS_LiborON#0002</v>
+        <v>USD_YCONRH_OIS_LiborON#0000</v>
       </c>
       <c r="M4" s="171" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -11948,7 +11958,7 @@
       </c>
       <c r="L6" s="164" t="str">
         <f>_xll.qlOISRateHelper(K6,2,C6,J6,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OISSW#0002</v>
+        <v>USD_YCONRH_OISSW#0000</v>
       </c>
       <c r="M6" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -11957,11 +11967,11 @@
       <c r="N6" s="161"/>
       <c r="P6" s="163">
         <f>_xll.qlRateHelperEarliestDate($L6)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q6" s="163">
         <f>_xll.qlRateHelperLatestDate($L6)</f>
-        <v>41663</v>
+        <v>41695</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -12000,7 +12010,7 @@
       </c>
       <c r="L7" s="164" t="str">
         <f>_xll.qlOISRateHelper(K7,2,C7,J7,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2W#0002</v>
+        <v>USD_YCONRH_OIS2W#0000</v>
       </c>
       <c r="M7" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -12009,11 +12019,11 @@
       <c r="N7" s="161"/>
       <c r="P7" s="163">
         <f>_xll.qlRateHelperEarliestDate(L7)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q7" s="163">
         <f>_xll.qlRateHelperLatestDate($L7)</f>
-        <v>41670</v>
+        <v>41702</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -12052,7 +12062,7 @@
       </c>
       <c r="L8" s="164" t="str">
         <f>_xll.qlOISRateHelper(K8,2,C8,J8,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3W#0002</v>
+        <v>USD_YCONRH_OIS3W#0000</v>
       </c>
       <c r="M8" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -12061,11 +12071,11 @@
       <c r="N8" s="161"/>
       <c r="P8" s="163">
         <f>_xll.qlRateHelperEarliestDate(L8)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q8" s="163">
         <f>_xll.qlRateHelperLatestDate($L8)</f>
-        <v>41677</v>
+        <v>41709</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -12104,7 +12114,7 @@
       </c>
       <c r="L9" s="164" t="str">
         <f>_xll.qlOISRateHelper(K9,2,C9,J9,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS1M#0002</v>
+        <v>USD_YCONRH_OIS1M#0000</v>
       </c>
       <c r="M9" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -12113,11 +12123,11 @@
       <c r="N9" s="161"/>
       <c r="P9" s="163">
         <f>_xll.qlRateHelperEarliestDate(L9)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q9" s="163">
         <f>_xll.qlRateHelperLatestDate($L9)</f>
-        <v>41687</v>
+        <v>41716</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -12156,7 +12166,7 @@
       </c>
       <c r="L10" s="164" t="str">
         <f>_xll.qlOISRateHelper(K10,2,C10,J10,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2M#0002</v>
+        <v>USD_YCONRH_OIS2M#0000</v>
       </c>
       <c r="M10" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -12165,11 +12175,11 @@
       <c r="N10" s="161"/>
       <c r="P10" s="163">
         <f>_xll.qlRateHelperEarliestDate(L10)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q10" s="163">
         <f>_xll.qlRateHelperLatestDate($L10)</f>
-        <v>41715</v>
+        <v>41751</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -12208,7 +12218,7 @@
       </c>
       <c r="L11" s="164" t="str">
         <f>_xll.qlOISRateHelper(K11,2,C11,J11,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3M#0002</v>
+        <v>USD_YCONRH_OIS3M#0000</v>
       </c>
       <c r="M11" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -12217,11 +12227,11 @@
       <c r="N11" s="161"/>
       <c r="P11" s="163">
         <f>_xll.qlRateHelperEarliestDate(L11)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q11" s="163">
         <f>_xll.qlRateHelperLatestDate($L11)</f>
-        <v>41746</v>
+        <v>41778</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -12260,7 +12270,7 @@
       </c>
       <c r="L12" s="164" t="str">
         <f>_xll.qlOISRateHelper(K12,2,C12,J12,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS4M#0002</v>
+        <v>USD_YCONRH_OIS4M#0000</v>
       </c>
       <c r="M12" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -12269,11 +12279,11 @@
       <c r="N12" s="161"/>
       <c r="P12" s="163">
         <f>_xll.qlRateHelperEarliestDate(L12)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q12" s="163">
         <f>_xll.qlRateHelperLatestDate($L12)</f>
-        <v>41778</v>
+        <v>41808</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -12312,7 +12322,7 @@
       </c>
       <c r="L13" s="164" t="str">
         <f>_xll.qlOISRateHelper(K13,2,C13,J13,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS5M#0002</v>
+        <v>USD_YCONRH_OIS5M#0000</v>
       </c>
       <c r="M13" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -12321,11 +12331,11 @@
       <c r="N13" s="161"/>
       <c r="P13" s="163">
         <f>_xll.qlRateHelperEarliestDate(L13)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q13" s="163">
         <f>_xll.qlRateHelperLatestDate($L13)</f>
-        <v>41807</v>
+        <v>41838</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -12364,7 +12374,7 @@
       </c>
       <c r="L14" s="164" t="str">
         <f>_xll.qlOISRateHelper(K14,2,C14,J14,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS6M#0002</v>
+        <v>USD_YCONRH_OIS6M#0000</v>
       </c>
       <c r="M14" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -12373,11 +12383,11 @@
       <c r="N14" s="161"/>
       <c r="P14" s="163">
         <f>_xll.qlRateHelperEarliestDate(L14)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q14" s="163">
         <f>_xll.qlRateHelperLatestDate($L14)</f>
-        <v>41837</v>
+        <v>41869</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -12416,7 +12426,7 @@
       </c>
       <c r="L15" s="164" t="str">
         <f>_xll.qlOISRateHelper(K15,2,C15,J15,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS7M#0002</v>
+        <v>USD_YCONRH_OIS7M#0000</v>
       </c>
       <c r="M15" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -12425,11 +12435,11 @@
       <c r="N15" s="161"/>
       <c r="P15" s="163">
         <f>_xll.qlRateHelperEarliestDate(L15)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q15" s="163">
         <f>_xll.qlRateHelperLatestDate($L15)</f>
-        <v>41869</v>
+        <v>41900</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -12468,7 +12478,7 @@
       </c>
       <c r="L16" s="164" t="str">
         <f>_xll.qlOISRateHelper(K16,2,C16,J16,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS8M#0002</v>
+        <v>USD_YCONRH_OIS8M#0000</v>
       </c>
       <c r="M16" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -12477,11 +12487,11 @@
       <c r="N16" s="161"/>
       <c r="P16" s="163">
         <f>_xll.qlRateHelperEarliestDate(L16)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q16" s="163">
         <f>_xll.qlRateHelperLatestDate($L16)</f>
-        <v>41899</v>
+        <v>41932</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -12520,7 +12530,7 @@
       </c>
       <c r="L17" s="164" t="str">
         <f>_xll.qlOISRateHelper(K17,2,C17,J17,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS9M#0002</v>
+        <v>USD_YCONRH_OIS9M#0000</v>
       </c>
       <c r="M17" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -12529,11 +12539,11 @@
       <c r="N17" s="161"/>
       <c r="P17" s="163">
         <f>_xll.qlRateHelperEarliestDate(L17)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q17" s="163">
         <f>_xll.qlRateHelperLatestDate($L17)</f>
-        <v>41929</v>
+        <v>41961</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -12572,7 +12582,7 @@
       </c>
       <c r="L18" s="164" t="str">
         <f>_xll.qlOISRateHelper(K18,2,C18,J18,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS10M#0002</v>
+        <v>USD_YCONRH_OIS10M#0000</v>
       </c>
       <c r="M18" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -12581,11 +12591,11 @@
       <c r="N18" s="161"/>
       <c r="P18" s="163">
         <f>_xll.qlRateHelperEarliestDate(L18)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q18" s="163">
         <f>_xll.qlRateHelperLatestDate($L18)</f>
-        <v>41960</v>
+        <v>41991</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -12624,7 +12634,7 @@
       </c>
       <c r="L19" s="164" t="str">
         <f>_xll.qlOISRateHelper(K19,2,C19,J19,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS11M#0002</v>
+        <v>USD_YCONRH_OIS11M#0000</v>
       </c>
       <c r="M19" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -12633,11 +12643,11 @@
       <c r="N19" s="161"/>
       <c r="P19" s="163">
         <f>_xll.qlRateHelperEarliestDate(L19)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q19" s="163">
         <f>_xll.qlRateHelperLatestDate($L19)</f>
-        <v>41990</v>
+        <v>42023</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -12676,7 +12686,7 @@
       </c>
       <c r="L20" s="164" t="str">
         <f>_xll.qlOISRateHelper(K20,2,C20,J20,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS1Y#0002</v>
+        <v>USD_YCONRH_OIS1Y#0000</v>
       </c>
       <c r="M20" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -12685,11 +12695,11 @@
       <c r="N20" s="161"/>
       <c r="P20" s="163">
         <f>_xll.qlRateHelperEarliestDate(L20)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q20" s="163">
         <f>_xll.qlRateHelperLatestDate($L20)</f>
-        <v>42023</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -12728,7 +12738,7 @@
       </c>
       <c r="L21" s="164" t="str">
         <f>_xll.qlOISRateHelper(K21,2,C21,J21,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS13M#0002</v>
+        <v>USD_YCONRH_OIS13M#0000</v>
       </c>
       <c r="M21" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -12737,11 +12747,11 @@
       <c r="N21" s="161"/>
       <c r="P21" s="163">
         <f>_xll.qlRateHelperEarliestDate(L21)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q21" s="163">
         <f>_xll.qlRateHelperLatestDate($L21)</f>
-        <v>42052</v>
+        <v>42081</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -12780,7 +12790,7 @@
       </c>
       <c r="L22" s="164" t="str">
         <f>_xll.qlOISRateHelper(K22,2,C22,J22,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS14M#0002</v>
+        <v>USD_YCONRH_OIS14M#0000</v>
       </c>
       <c r="M22" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -12789,11 +12799,11 @@
       <c r="N22" s="161"/>
       <c r="P22" s="163">
         <f>_xll.qlRateHelperEarliestDate(L22)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q22" s="163">
         <f>_xll.qlRateHelperLatestDate($L22)</f>
-        <v>42080</v>
+        <v>42114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -12832,7 +12842,7 @@
       </c>
       <c r="L23" s="164" t="str">
         <f>_xll.qlOISRateHelper(K23,2,C23,J23,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS15M#0002</v>
+        <v>USD_YCONRH_OIS15M#0000</v>
       </c>
       <c r="M23" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -12841,11 +12851,11 @@
       <c r="N23" s="161"/>
       <c r="P23" s="163">
         <f>_xll.qlRateHelperEarliestDate(L23)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q23" s="163">
         <f>_xll.qlRateHelperLatestDate($L23)</f>
-        <v>42111</v>
+        <v>42142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -12884,7 +12894,7 @@
       </c>
       <c r="L24" s="164" t="str">
         <f>_xll.qlOISRateHelper(K24,2,C24,J24,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS16M#0002</v>
+        <v>USD_YCONRH_OIS16M#0000</v>
       </c>
       <c r="M24" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -12893,11 +12903,11 @@
       <c r="N24" s="161"/>
       <c r="P24" s="163">
         <f>_xll.qlRateHelperEarliestDate(L24)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q24" s="163">
         <f>_xll.qlRateHelperLatestDate($L24)</f>
-        <v>42142</v>
+        <v>42173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -12936,7 +12946,7 @@
       </c>
       <c r="L25" s="164" t="str">
         <f>_xll.qlOISRateHelper(K25,2,C25,J25,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS17M#0002</v>
+        <v>USD_YCONRH_OIS17M#0000</v>
       </c>
       <c r="M25" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -12945,11 +12955,11 @@
       <c r="N25" s="161"/>
       <c r="P25" s="163">
         <f>_xll.qlRateHelperEarliestDate(L25)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q25" s="163">
         <f>_xll.qlRateHelperLatestDate($L25)</f>
-        <v>42172</v>
+        <v>42205</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -12988,7 +12998,7 @@
       </c>
       <c r="L26" s="164" t="str">
         <f>_xll.qlOISRateHelper(K26,2,C26,J26,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS18M#0002</v>
+        <v>USD_YCONRH_OIS18M#0000</v>
       </c>
       <c r="M26" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -12997,11 +13007,11 @@
       <c r="N26" s="161"/>
       <c r="P26" s="163">
         <f>_xll.qlRateHelperEarliestDate(L26)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q26" s="163">
         <f>_xll.qlRateHelperLatestDate($L26)</f>
-        <v>42202</v>
+        <v>42234</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -13040,7 +13050,7 @@
       </c>
       <c r="L27" s="164" t="str">
         <f>_xll.qlOISRateHelper(K27,2,C27,J27,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS19M#0002</v>
+        <v>USD_YCONRH_OIS19M#0000</v>
       </c>
       <c r="M27" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -13049,11 +13059,11 @@
       <c r="N27" s="161"/>
       <c r="P27" s="163">
         <f>_xll.qlRateHelperEarliestDate(L27)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q27" s="163">
         <f>_xll.qlRateHelperLatestDate($L27)</f>
-        <v>42233</v>
+        <v>42265</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -13092,7 +13102,7 @@
       </c>
       <c r="L28" s="164" t="str">
         <f>_xll.qlOISRateHelper(K28,2,C28,J28,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS20M#0002</v>
+        <v>USD_YCONRH_OIS20M#0000</v>
       </c>
       <c r="M28" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -13101,11 +13111,11 @@
       <c r="N28" s="161"/>
       <c r="P28" s="163">
         <f>_xll.qlRateHelperEarliestDate(L28)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q28" s="163">
         <f>_xll.qlRateHelperLatestDate($L28)</f>
-        <v>42264</v>
+        <v>42296</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -13144,7 +13154,7 @@
       </c>
       <c r="L29" s="164" t="str">
         <f>_xll.qlOISRateHelper(K29,2,C29,J29,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS21M#0002</v>
+        <v>USD_YCONRH_OIS21M#0000</v>
       </c>
       <c r="M29" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -13153,11 +13163,11 @@
       <c r="N29" s="161"/>
       <c r="P29" s="163">
         <f>_xll.qlRateHelperEarliestDate(L29)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q29" s="163">
         <f>_xll.qlRateHelperLatestDate($L29)</f>
-        <v>42296</v>
+        <v>42326</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -13196,7 +13206,7 @@
       </c>
       <c r="L30" s="164" t="str">
         <f>_xll.qlOISRateHelper(K30,2,C30,J30,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS22M#0002</v>
+        <v>USD_YCONRH_OIS22M#0000</v>
       </c>
       <c r="M30" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -13205,11 +13215,11 @@
       <c r="N30" s="161"/>
       <c r="P30" s="163">
         <f>_xll.qlRateHelperEarliestDate(L30)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q30" s="163">
         <f>_xll.qlRateHelperLatestDate($L30)</f>
-        <v>42325</v>
+        <v>42356</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -13248,7 +13258,7 @@
       </c>
       <c r="L31" s="164" t="str">
         <f>_xll.qlOISRateHelper(K31,2,C31,J31,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS23M#0002</v>
+        <v>USD_YCONRH_OIS23M#0000</v>
       </c>
       <c r="M31" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -13257,11 +13267,11 @@
       <c r="N31" s="161"/>
       <c r="P31" s="163">
         <f>_xll.qlRateHelperEarliestDate(L31)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q31" s="163">
         <f>_xll.qlRateHelperLatestDate($L31)</f>
-        <v>42355</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -13300,7 +13310,7 @@
       </c>
       <c r="L32" s="164" t="str">
         <f>_xll.qlOISRateHelper(K32,2,C32,J32,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2Y#0002</v>
+        <v>USD_YCONRH_OIS2Y#0000</v>
       </c>
       <c r="M32" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -13309,11 +13319,11 @@
       <c r="N32" s="161"/>
       <c r="P32" s="163">
         <f>_xll.qlRateHelperEarliestDate(L32)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q32" s="163">
         <f>_xll.qlRateHelperLatestDate($L32)</f>
-        <v>42387</v>
+        <v>42418</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -13352,7 +13362,7 @@
       </c>
       <c r="L33" s="164" t="str">
         <f>_xll.qlOISRateHelper(K33,2,C33,J33,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS27M#0002</v>
+        <v>USD_YCONRH_OIS27M#0000</v>
       </c>
       <c r="M33" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -13361,11 +13371,11 @@
       <c r="N33" s="161"/>
       <c r="P33" s="163">
         <f>_xll.qlRateHelperEarliestDate(L33)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q33" s="163">
         <f>_xll.qlRateHelperLatestDate($L33)</f>
-        <v>42478</v>
+        <v>42508</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -13404,7 +13414,7 @@
       </c>
       <c r="L34" s="164" t="str">
         <f>_xll.qlOISRateHelper(K34,2,C34,J34,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS30M#0002</v>
+        <v>USD_YCONRH_OIS30M#0000</v>
       </c>
       <c r="M34" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -13413,11 +13423,11 @@
       <c r="N34" s="161"/>
       <c r="P34" s="163">
         <f>_xll.qlRateHelperEarliestDate(L34)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q34" s="163">
         <f>_xll.qlRateHelperLatestDate($L34)</f>
-        <v>42569</v>
+        <v>42600</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -13456,7 +13466,7 @@
       </c>
       <c r="L35" s="164" t="str">
         <f>_xll.qlOISRateHelper(K35,2,C35,J35,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS33M#0002</v>
+        <v>USD_YCONRH_OIS33M#0000</v>
       </c>
       <c r="M35" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -13465,11 +13475,11 @@
       <c r="N35" s="161"/>
       <c r="P35" s="163">
         <f>_xll.qlRateHelperEarliestDate(L35)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q35" s="163">
         <f>_xll.qlRateHelperLatestDate($L35)</f>
-        <v>42660</v>
+        <v>42692</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -13508,7 +13518,7 @@
       </c>
       <c r="L36" s="164" t="str">
         <f>_xll.qlOISRateHelper(K36,2,C36,J36,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3Y#0002</v>
+        <v>USD_YCONRH_OIS3Y#0000</v>
       </c>
       <c r="M36" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -13517,11 +13527,11 @@
       <c r="N36" s="161"/>
       <c r="P36" s="163">
         <f>_xll.qlRateHelperEarliestDate(L36)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q36" s="163">
         <f>_xll.qlRateHelperLatestDate($L36)</f>
-        <v>42752</v>
+        <v>42786</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -13560,7 +13570,7 @@
       </c>
       <c r="L37" s="164" t="str">
         <f>_xll.qlOISRateHelper(K37,2,C37,J37,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS39M#0002</v>
+        <v>USD_YCONRH_OIS39M#0000</v>
       </c>
       <c r="M37" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -13569,11 +13579,11 @@
       <c r="N37" s="161"/>
       <c r="P37" s="163">
         <f>_xll.qlRateHelperEarliestDate(L37)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q37" s="163">
         <f>_xll.qlRateHelperLatestDate($L37)</f>
-        <v>42843</v>
+        <v>42873</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -13612,7 +13622,7 @@
       </c>
       <c r="L38" s="164" t="str">
         <f>_xll.qlOISRateHelper(K38,2,C38,J38,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS42M#0002</v>
+        <v>USD_YCONRH_OIS42M#0000</v>
       </c>
       <c r="M38" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -13658,7 +13668,7 @@
       </c>
       <c r="L39" s="164" t="str">
         <f>_xll.qlOISRateHelper(K39,2,C39,J39,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS45M#0002</v>
+        <v>USD_YCONRH_OIS45M#0000</v>
       </c>
       <c r="M39" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -13704,7 +13714,7 @@
       </c>
       <c r="L40" s="164" t="str">
         <f>_xll.qlOISRateHelper(K40,2,C40,J40,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS4Y#0002</v>
+        <v>USD_YCONRH_OIS4Y#0000</v>
       </c>
       <c r="M40" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -13750,7 +13760,7 @@
       </c>
       <c r="L41" s="164" t="str">
         <f>_xll.qlOISRateHelper(K41,2,C41,J41,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS51M#0002</v>
+        <v>USD_YCONRH_OIS51M#0000</v>
       </c>
       <c r="M41" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -13796,7 +13806,7 @@
       </c>
       <c r="L42" s="164" t="str">
         <f>_xll.qlOISRateHelper(K42,2,C42,J42,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS54M#0002</v>
+        <v>USD_YCONRH_OIS54M#0000</v>
       </c>
       <c r="M42" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -13842,7 +13852,7 @@
       </c>
       <c r="L43" s="164" t="str">
         <f>_xll.qlOISRateHelper(K43,2,C43,J43,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS57M#0002</v>
+        <v>USD_YCONRH_OIS57M#0000</v>
       </c>
       <c r="M43" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L43)</f>
@@ -13888,7 +13898,7 @@
       </c>
       <c r="L44" s="164" t="str">
         <f>_xll.qlOISRateHelper(K44,2,C44,J44,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS5Y#0002</v>
+        <v>USD_YCONRH_OIS5Y#0000</v>
       </c>
       <c r="M44" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -13934,7 +13944,7 @@
       </c>
       <c r="L45" s="164" t="str">
         <f>_xll.qlOISRateHelper(K45,2,C45,J45,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS6Y#0002</v>
+        <v>USD_YCONRH_OIS6Y#0000</v>
       </c>
       <c r="M45" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -13980,7 +13990,7 @@
       </c>
       <c r="L46" s="164" t="str">
         <f>_xll.qlOISRateHelper(K46,2,C46,J46,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS7Y#0002</v>
+        <v>USD_YCONRH_OIS7Y#0000</v>
       </c>
       <c r="M46" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -14026,7 +14036,7 @@
       </c>
       <c r="L47" s="164" t="str">
         <f>_xll.qlOISRateHelper(K47,2,C47,J47,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS8Y#0002</v>
+        <v>USD_YCONRH_OIS8Y#0000</v>
       </c>
       <c r="M47" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -14072,7 +14082,7 @@
       </c>
       <c r="L48" s="164" t="str">
         <f>_xll.qlOISRateHelper(K48,2,C48,J48,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS9Y#0002</v>
+        <v>USD_YCONRH_OIS9Y#0000</v>
       </c>
       <c r="M48" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -14118,7 +14128,7 @@
       </c>
       <c r="L49" s="164" t="str">
         <f>_xll.qlOISRateHelper(K49,2,C49,J49,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS10Y#0002</v>
+        <v>USD_YCONRH_OIS10Y#0000</v>
       </c>
       <c r="M49" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -14164,7 +14174,7 @@
       </c>
       <c r="L50" s="164" t="str">
         <f>_xll.qlOISRateHelper(K50,2,C50,J50,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS12Y#0002</v>
+        <v>USD_YCONRH_OIS12Y#0000</v>
       </c>
       <c r="M50" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -14210,7 +14220,7 @@
       </c>
       <c r="L51" s="164" t="str">
         <f>_xll.qlOISRateHelper(K51,2,C51,J51,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS15Y#0002</v>
+        <v>USD_YCONRH_OIS15Y#0000</v>
       </c>
       <c r="M51" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L51)</f>
@@ -14256,7 +14266,7 @@
       </c>
       <c r="L52" s="164" t="str">
         <f>_xll.qlOISRateHelper(K52,2,C52,J52,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS20Y#0002</v>
+        <v>USD_YCONRH_OIS20Y#0000</v>
       </c>
       <c r="M52" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L52)</f>
@@ -14302,7 +14312,7 @@
       </c>
       <c r="L53" s="164" t="str">
         <f>_xll.qlOISRateHelper(K53,2,C53,J53,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS25Y#0002</v>
+        <v>USD_YCONRH_OIS25Y#0000</v>
       </c>
       <c r="M53" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L53)</f>
@@ -14348,7 +14358,7 @@
       </c>
       <c r="L54" s="164" t="str">
         <f>_xll.qlOISRateHelper(K54,2,C54,J54,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS27Y#0002</v>
+        <v>USD_YCONRH_OIS27Y#0000</v>
       </c>
       <c r="M54" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L54)</f>
@@ -14394,7 +14404,7 @@
       </c>
       <c r="L55" s="164" t="str">
         <f>_xll.qlOISRateHelper(K55,2,C55,J55,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS30Y#0002</v>
+        <v>USD_YCONRH_OIS30Y#0000</v>
       </c>
       <c r="M55" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L55)</f>
@@ -14440,7 +14450,7 @@
       </c>
       <c r="L56" s="164" t="str">
         <f>_xll.qlOISRateHelper(K56,2,C56,J56,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS35Y#0002</v>
+        <v>USD_YCONRH_OIS35Y#0000</v>
       </c>
       <c r="M56" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L56)</f>
@@ -14486,7 +14496,7 @@
       </c>
       <c r="L57" s="164" t="str">
         <f>_xll.qlOISRateHelper(K57,2,C57,J57,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS40Y#0002</v>
+        <v>USD_YCONRH_OIS40Y#0000</v>
       </c>
       <c r="M57" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L57)</f>
@@ -14532,7 +14542,7 @@
       </c>
       <c r="L58" s="164" t="str">
         <f>_xll.qlOISRateHelper(K58,2,C58,J58,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS45Y#0002</v>
+        <v>USD_YCONRH_OIS45Y#0000</v>
       </c>
       <c r="M58" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L58)</f>
@@ -14578,7 +14588,7 @@
       </c>
       <c r="L59" s="164" t="str">
         <f>_xll.qlOISRateHelper(K59,2,C59,J59,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS50Y#0002</v>
+        <v>USD_YCONRH_OIS50Y#0000</v>
       </c>
       <c r="M59" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(L59)</f>
@@ -14587,11 +14597,11 @@
       <c r="N59" s="161"/>
       <c r="P59" s="163">
         <f>_xll.qlRateHelperEarliestDate(L59)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="Q59" s="163">
         <f>_xll.qlRateHelperLatestDate($L59)</f>
-        <v>59918</v>
+        <v>59950</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -14616,7 +14626,7 @@
       <c r="A61" s="94"/>
       <c r="B61" s="170">
         <f>_xll.qlECBdate(E61,,Trigger)</f>
-        <v>41290</v>
+        <v>41346</v>
       </c>
       <c r="C61" s="168"/>
       <c r="D61" s="169" t="s">
@@ -14624,7 +14634,7 @@
       </c>
       <c r="E61" s="168" t="str">
         <f>_xll.qlECBNextCode(_xll.qlSettingsEvaluationDate(Trigger)-365)</f>
-        <v>JAN13</v>
+        <v>MAR13</v>
       </c>
       <c r="F61" s="167" t="s">
         <v>166</v>
@@ -14641,11 +14651,11 @@
       </c>
       <c r="J61" s="165" t="str">
         <f t="shared" ref="J61:J95" si="9">Currency&amp;$D61&amp;$E61&amp;QuoteSuffix</f>
-        <v>USDECBOISJAN13_Quote</v>
+        <v>USDECBOISMAR13_Quote</v>
       </c>
       <c r="K61" s="165" t="str">
         <f t="shared" ref="K61:K95" si="10">$K$2&amp;"_"&amp;$D61&amp;$E61</f>
-        <v>USD_YCONRH_ECBOISJAN13</v>
+        <v>USD_YCONRH_ECBOISMAR13</v>
       </c>
       <c r="L61" s="164" t="e">
         <f>_xll.qlDatedOISRateHelper(K61,B61,B62,J61,$L$4,Permanent,,ObjectOverwrite)</f>
@@ -14653,7 +14663,7 @@
       </c>
       <c r="M61" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L61)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISJAN13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISMAR13_Quote'</v>
       </c>
       <c r="N61" s="161"/>
       <c r="P61" s="163" t="e">
@@ -14669,7 +14679,7 @@
       <c r="A62" s="94"/>
       <c r="B62" s="170">
         <f>_xll.qlECBdate(E62,,Trigger)</f>
-        <v>41318</v>
+        <v>41374</v>
       </c>
       <c r="C62" s="168"/>
       <c r="D62" s="169" t="s">
@@ -14677,7 +14687,7 @@
       </c>
       <c r="E62" s="168" t="str">
         <f>_xll.qlECBNextCode(B61)</f>
-        <v>FEB13</v>
+        <v>APR13</v>
       </c>
       <c r="F62" s="167" t="s">
         <v>166</v>
@@ -14694,11 +14704,11 @@
       </c>
       <c r="J62" s="165" t="str">
         <f t="shared" si="9"/>
-        <v>USDECBOISFEB13_Quote</v>
+        <v>USDECBOISAPR13_Quote</v>
       </c>
       <c r="K62" s="165" t="str">
         <f t="shared" si="10"/>
-        <v>USD_YCONRH_ECBOISFEB13</v>
+        <v>USD_YCONRH_ECBOISAPR13</v>
       </c>
       <c r="L62" s="164" t="e">
         <f>_xll.qlDatedOISRateHelper(K62,B62,B63,J62,$L$4,Permanent,,ObjectOverwrite)</f>
@@ -14706,7 +14716,7 @@
       </c>
       <c r="M62" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L62)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISFEB13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISAPR13_Quote'</v>
       </c>
       <c r="N62" s="161"/>
       <c r="P62" s="163" t="e">
@@ -14722,7 +14732,7 @@
       <c r="A63" s="94"/>
       <c r="B63" s="170">
         <f>_xll.qlECBdate(E63,,Trigger)</f>
-        <v>41346</v>
+        <v>41402</v>
       </c>
       <c r="C63" s="168"/>
       <c r="D63" s="169" t="s">
@@ -14730,7 +14740,7 @@
       </c>
       <c r="E63" s="168" t="str">
         <f>_xll.qlECBNextCode(B62)</f>
-        <v>MAR13</v>
+        <v>MAY13</v>
       </c>
       <c r="F63" s="167" t="s">
         <v>166</v>
@@ -14747,11 +14757,11 @@
       </c>
       <c r="J63" s="165" t="str">
         <f t="shared" si="9"/>
-        <v>USDECBOISMAR13_Quote</v>
+        <v>USDECBOISMAY13_Quote</v>
       </c>
       <c r="K63" s="165" t="str">
         <f t="shared" si="10"/>
-        <v>USD_YCONRH_ECBOISMAR13</v>
+        <v>USD_YCONRH_ECBOISMAY13</v>
       </c>
       <c r="L63" s="164" t="e">
         <f>_xll.qlDatedOISRateHelper(K63,B63,B64,J63,$L$4,Permanent,,ObjectOverwrite)</f>
@@ -14759,7 +14769,7 @@
       </c>
       <c r="M63" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISMAR13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISMAY13_Quote'</v>
       </c>
       <c r="N63" s="161"/>
       <c r="P63" s="163" t="e">
@@ -14775,7 +14785,7 @@
       <c r="A64" s="94"/>
       <c r="B64" s="170">
         <f>_xll.qlECBdate(E64,,Trigger)</f>
-        <v>41374</v>
+        <v>41437</v>
       </c>
       <c r="C64" s="168"/>
       <c r="D64" s="169" t="s">
@@ -14783,7 +14793,7 @@
       </c>
       <c r="E64" s="168" t="str">
         <f>_xll.qlECBNextCode(B63)</f>
-        <v>APR13</v>
+        <v>JUN13</v>
       </c>
       <c r="F64" s="167" t="s">
         <v>166</v>
@@ -14800,11 +14810,11 @@
       </c>
       <c r="J64" s="165" t="str">
         <f t="shared" si="9"/>
-        <v>USDECBOISAPR13_Quote</v>
+        <v>USDECBOISJUN13_Quote</v>
       </c>
       <c r="K64" s="165" t="str">
         <f t="shared" si="10"/>
-        <v>USD_YCONRH_ECBOISAPR13</v>
+        <v>USD_YCONRH_ECBOISJUN13</v>
       </c>
       <c r="L64" s="164" t="e">
         <f>_xll.qlDatedOISRateHelper(K64,B64,B65,J64,$L$4,Permanent,,ObjectOverwrite)</f>
@@ -14812,7 +14822,7 @@
       </c>
       <c r="M64" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISAPR13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISJUN13_Quote'</v>
       </c>
       <c r="N64" s="161"/>
       <c r="P64" s="163" t="e">
@@ -14828,7 +14838,7 @@
       <c r="A65" s="94"/>
       <c r="B65" s="170">
         <f>_xll.qlECBdate(E65,,Trigger)</f>
-        <v>41402</v>
+        <v>41465</v>
       </c>
       <c r="C65" s="168"/>
       <c r="D65" s="169" t="s">
@@ -14836,7 +14846,7 @@
       </c>
       <c r="E65" s="168" t="str">
         <f>_xll.qlECBNextCode(B64)</f>
-        <v>MAY13</v>
+        <v>JUL13</v>
       </c>
       <c r="F65" s="167" t="s">
         <v>166</v>
@@ -14853,11 +14863,11 @@
       </c>
       <c r="J65" s="165" t="str">
         <f t="shared" si="9"/>
-        <v>USDECBOISMAY13_Quote</v>
+        <v>USDECBOISJUL13_Quote</v>
       </c>
       <c r="K65" s="165" t="str">
         <f t="shared" si="10"/>
-        <v>USD_YCONRH_ECBOISMAY13</v>
+        <v>USD_YCONRH_ECBOISJUL13</v>
       </c>
       <c r="L65" s="164" t="e">
         <f>_xll.qlDatedOISRateHelper(K65,B65,B66,J65,$L$4,Permanent,,ObjectOverwrite)</f>
@@ -14865,7 +14875,7 @@
       </c>
       <c r="M65" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L65)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISMAY13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISJUL13_Quote'</v>
       </c>
       <c r="N65" s="161"/>
       <c r="P65" s="163" t="e">
@@ -14881,7 +14891,7 @@
       <c r="A66" s="94"/>
       <c r="B66" s="170">
         <f>_xll.qlECBdate(E66,,Trigger)</f>
-        <v>41437</v>
+        <v>41493</v>
       </c>
       <c r="C66" s="168"/>
       <c r="D66" s="169" t="s">
@@ -14889,7 +14899,7 @@
       </c>
       <c r="E66" s="168" t="str">
         <f>_xll.qlECBNextCode(B65)</f>
-        <v>JUN13</v>
+        <v>AUG13</v>
       </c>
       <c r="F66" s="167" t="s">
         <v>166</v>
@@ -14906,11 +14916,11 @@
       </c>
       <c r="J66" s="165" t="str">
         <f t="shared" si="9"/>
-        <v>USDECBOISJUN13_Quote</v>
+        <v>USDECBOISAUG13_Quote</v>
       </c>
       <c r="K66" s="165" t="str">
         <f t="shared" si="10"/>
-        <v>USD_YCONRH_ECBOISJUN13</v>
+        <v>USD_YCONRH_ECBOISAUG13</v>
       </c>
       <c r="L66" s="164" t="e">
         <f>_xll.qlDatedOISRateHelper(K66,B66,B67,J66,$L$4,Permanent,,ObjectOverwrite)</f>
@@ -14918,7 +14928,7 @@
       </c>
       <c r="M66" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L66)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISJUN13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISAUG13_Quote'</v>
       </c>
       <c r="N66" s="161"/>
       <c r="P66" s="163" t="e">
@@ -14934,7 +14944,7 @@
       <c r="A67" s="94"/>
       <c r="B67" s="170">
         <f>_xll.qlECBdate(E67,,Trigger)</f>
-        <v>41465</v>
+        <v>41528</v>
       </c>
       <c r="C67" s="168"/>
       <c r="D67" s="169" t="s">
@@ -14942,7 +14952,7 @@
       </c>
       <c r="E67" s="168" t="str">
         <f>_xll.qlECBNextCode(B66)</f>
-        <v>JUL13</v>
+        <v>SEP13</v>
       </c>
       <c r="F67" s="167" t="s">
         <v>166</v>
@@ -14959,11 +14969,11 @@
       </c>
       <c r="J67" s="165" t="str">
         <f t="shared" si="9"/>
-        <v>USDECBOISJUL13_Quote</v>
+        <v>USDECBOISSEP13_Quote</v>
       </c>
       <c r="K67" s="165" t="str">
         <f t="shared" si="10"/>
-        <v>USD_YCONRH_ECBOISJUL13</v>
+        <v>USD_YCONRH_ECBOISSEP13</v>
       </c>
       <c r="L67" s="164" t="e">
         <f>_xll.qlDatedOISRateHelper(K67,B67,B68,J67,$L$4,Permanent,,ObjectOverwrite)</f>
@@ -14971,7 +14981,7 @@
       </c>
       <c r="M67" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L67)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISJUL13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISSEP13_Quote'</v>
       </c>
       <c r="N67" s="161"/>
       <c r="P67" s="163" t="e">
@@ -14987,7 +14997,7 @@
       <c r="A68" s="94"/>
       <c r="B68" s="170">
         <f>_xll.qlECBdate(E68,,Trigger)</f>
-        <v>41493</v>
+        <v>41556</v>
       </c>
       <c r="C68" s="168"/>
       <c r="D68" s="169" t="s">
@@ -14995,7 +15005,7 @@
       </c>
       <c r="E68" s="168" t="str">
         <f>_xll.qlECBNextCode(B67)</f>
-        <v>AUG13</v>
+        <v>OCT13</v>
       </c>
       <c r="F68" s="167" t="s">
         <v>166</v>
@@ -15012,11 +15022,11 @@
       </c>
       <c r="J68" s="165" t="str">
         <f t="shared" si="9"/>
-        <v>USDECBOISAUG13_Quote</v>
+        <v>USDECBOISOCT13_Quote</v>
       </c>
       <c r="K68" s="165" t="str">
         <f t="shared" si="10"/>
-        <v>USD_YCONRH_ECBOISAUG13</v>
+        <v>USD_YCONRH_ECBOISOCT13</v>
       </c>
       <c r="L68" s="164" t="e">
         <f>_xll.qlDatedOISRateHelper(K68,B68,B69,J68,$L$4,Permanent,,ObjectOverwrite)</f>
@@ -15024,7 +15034,7 @@
       </c>
       <c r="M68" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L68)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISAUG13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISOCT13_Quote'</v>
       </c>
       <c r="N68" s="161"/>
       <c r="P68" s="163" t="e">
@@ -15040,7 +15050,7 @@
       <c r="A69" s="94"/>
       <c r="B69" s="170">
         <f>_xll.qlECBdate(E69,,Trigger)</f>
-        <v>41528</v>
+        <v>41591</v>
       </c>
       <c r="C69" s="168"/>
       <c r="D69" s="169" t="s">
@@ -15048,7 +15058,7 @@
       </c>
       <c r="E69" s="168" t="str">
         <f>_xll.qlECBNextCode(B68)</f>
-        <v>SEP13</v>
+        <v>NOV13</v>
       </c>
       <c r="F69" s="167" t="s">
         <v>166</v>
@@ -15065,11 +15075,11 @@
       </c>
       <c r="J69" s="165" t="str">
         <f t="shared" si="9"/>
-        <v>USDECBOISSEP13_Quote</v>
+        <v>USDECBOISNOV13_Quote</v>
       </c>
       <c r="K69" s="165" t="str">
         <f t="shared" si="10"/>
-        <v>USD_YCONRH_ECBOISSEP13</v>
+        <v>USD_YCONRH_ECBOISNOV13</v>
       </c>
       <c r="L69" s="164" t="e">
         <f>_xll.qlDatedOISRateHelper(K69,B69,B70,J69,$L$4,Permanent,,ObjectOverwrite)</f>
@@ -15077,7 +15087,7 @@
       </c>
       <c r="M69" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L69)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISSEP13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISNOV13_Quote'</v>
       </c>
       <c r="N69" s="161"/>
       <c r="P69" s="163" t="e">
@@ -15093,7 +15103,7 @@
       <c r="A70" s="94"/>
       <c r="B70" s="170">
         <f>_xll.qlECBdate(E70,,Trigger)</f>
-        <v>41556</v>
+        <v>41619</v>
       </c>
       <c r="C70" s="168"/>
       <c r="D70" s="169" t="s">
@@ -15101,7 +15111,7 @@
       </c>
       <c r="E70" s="168" t="str">
         <f>_xll.qlECBNextCode(B69)</f>
-        <v>OCT13</v>
+        <v>DEC13</v>
       </c>
       <c r="F70" s="167" t="s">
         <v>166</v>
@@ -15118,11 +15128,11 @@
       </c>
       <c r="J70" s="165" t="str">
         <f t="shared" si="9"/>
-        <v>USDECBOISOCT13_Quote</v>
+        <v>USDECBOISDEC13_Quote</v>
       </c>
       <c r="K70" s="165" t="str">
         <f t="shared" si="10"/>
-        <v>USD_YCONRH_ECBOISOCT13</v>
+        <v>USD_YCONRH_ECBOISDEC13</v>
       </c>
       <c r="L70" s="164" t="e">
         <f>_xll.qlDatedOISRateHelper(K70,B70,B71,J70,$L$4,Permanent,,ObjectOverwrite)</f>
@@ -15130,7 +15140,7 @@
       </c>
       <c r="M70" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L70)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISOCT13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'EndDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
       <c r="N70" s="161"/>
       <c r="P70" s="163" t="e">
@@ -15144,17 +15154,17 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="94"/>
-      <c r="B71" s="170">
+      <c r="B71" s="170" t="e">
         <f>_xll.qlECBdate(E71,,Trigger)</f>
-        <v>41591</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C71" s="168"/>
       <c r="D71" s="169" t="s">
         <v>167</v>
       </c>
-      <c r="E71" s="168" t="str">
+      <c r="E71" s="168" t="e">
         <f>_xll.qlECBNextCode(B70)</f>
-        <v>NOV13</v>
+        <v>#NUM!</v>
       </c>
       <c r="F71" s="167" t="s">
         <v>166</v>
@@ -15169,21 +15179,21 @@
       <c r="I71" s="166">
         <v>0</v>
       </c>
-      <c r="J71" s="165" t="str">
+      <c r="J71" s="165" t="e">
         <f t="shared" si="9"/>
-        <v>USDECBOISNOV13_Quote</v>
-      </c>
-      <c r="K71" s="165" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="K71" s="165" t="e">
         <f t="shared" si="10"/>
-        <v>USD_YCONRH_ECBOISNOV13</v>
+        <v>#NUM!</v>
       </c>
       <c r="L71" s="164" t="e">
         <f>_xll.qlDatedOISRateHelper(K71,B71,B72,J71,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M71" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L71)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISNOV13_Quote'</v>
+        <v/>
       </c>
       <c r="N71" s="161"/>
       <c r="P71" s="163" t="e">
@@ -15197,17 +15207,17 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="94"/>
-      <c r="B72" s="170">
+      <c r="B72" s="170" t="e">
         <f>_xll.qlECBdate(E72,,Trigger)</f>
-        <v>41619</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C72" s="168"/>
       <c r="D72" s="169" t="s">
         <v>167</v>
       </c>
-      <c r="E72" s="168" t="str">
+      <c r="E72" s="168" t="e">
         <f>_xll.qlECBNextCode(B71)</f>
-        <v>DEC13</v>
+        <v>#NUM!</v>
       </c>
       <c r="F72" s="167" t="s">
         <v>166</v>
@@ -15222,21 +15232,21 @@
       <c r="I72" s="166">
         <v>0</v>
       </c>
-      <c r="J72" s="165" t="str">
+      <c r="J72" s="165" t="e">
         <f t="shared" si="9"/>
-        <v>USDECBOISDEC13_Quote</v>
-      </c>
-      <c r="K72" s="165" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="K72" s="165" t="e">
         <f t="shared" si="10"/>
-        <v>USD_YCONRH_ECBOISDEC13</v>
+        <v>#NUM!</v>
       </c>
       <c r="L72" s="164" t="e">
         <f>_xll.qlDatedOISRateHelper(K72,B72,B73,J72,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M72" s="95" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L72)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'EndDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
+        <v/>
       </c>
       <c r="N72" s="161"/>
       <c r="P72" s="163" t="e">

--- a/QuantLibXL/Data2/XLS/USD_YCONBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YCONBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="375" windowWidth="25635" windowHeight="11025" tabRatio="821"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15300" windowHeight="7995" tabRatio="821" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="224">
   <si>
     <t>60Y</t>
   </si>
@@ -882,6 +882,12 @@
   </si>
   <si>
     <t>MonotonicLogCubicNaturalSpline</t>
+  </si>
+  <si>
+    <t>UnitedStates::Settlement</t>
+  </si>
+  <si>
+    <t>JoinHolidays</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1547,7 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1984,6 +1990,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2298,15 +2307,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="2.7109375" style="180" customWidth="1"/>
     <col min="3" max="3" width="18" style="180" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="180" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="180" customWidth="1"/>
     <col min="5" max="5" width="22" style="180" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.7109375" style="180" customWidth="1"/>
     <col min="8" max="8" width="4" style="180" bestFit="1" customWidth="1"/>
@@ -2495,9 +2504,7 @@
       <c r="C11" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="84">
-        <v>41753.680752314816</v>
-      </c>
+      <c r="D11" s="84"/>
       <c r="E11" s="57"/>
       <c r="F11" s="56"/>
       <c r="K11" s="125"/>
@@ -2553,7 +2560,9 @@
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
         <v>_USDYCON#0002</v>
       </c>
-      <c r="E14" s="57"/>
+      <c r="E14" s="57" t="s">
+        <v>223</v>
+      </c>
       <c r="F14" s="56"/>
       <c r="K14" s="125"/>
       <c r="L14" s="124" t="s">
@@ -2574,7 +2583,9 @@
         <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
         <v/>
       </c>
-      <c r="E15" s="57"/>
+      <c r="E15" s="57" t="s">
+        <v>115</v>
+      </c>
       <c r="F15" s="56"/>
       <c r="K15" s="121"/>
       <c r="L15" s="120"/>
@@ -2590,7 +2601,9 @@
         <f>"_"&amp;Currency&amp;"YC"&amp;IndexTenor</f>
         <v>_USDYCON</v>
       </c>
-      <c r="E16" s="57"/>
+      <c r="E16" s="57" t="s">
+        <v>222</v>
+      </c>
       <c r="F16" s="56"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -2609,8 +2622,9 @@
       <c r="C18" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="76" t="s">
-        <v>115</v>
+      <c r="D18" s="200" t="str">
+        <f>E14&amp;"("&amp;E15&amp;","&amp;E16&amp;")"</f>
+        <v>JoinHolidays(UnitedKingdom::Exchange,UnitedStates::Settlement)</v>
       </c>
       <c r="E18" s="57"/>
       <c r="F18" s="56"/>
@@ -2705,7 +2719,7 @@
       <c r="B27" s="59"/>
       <c r="C27" s="63">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41753</v>
+        <v>41757</v>
       </c>
       <c r="D27" s="62">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2718,11 +2732,11 @@
       <c r="B28" s="59"/>
       <c r="C28" s="61">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>60020</v>
+        <v>60022</v>
       </c>
       <c r="D28" s="60">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.16020945108279799</v>
+        <v>0.19692498522639698</v>
       </c>
       <c r="E28" s="57"/>
       <c r="F28" s="56"/>
@@ -2765,7 +2779,7 @@
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="K9:N9"/>
   </mergeCells>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25">
       <formula1>"Linear,BackwardFlat,ForwardFlat,Linear,LogLinear,CubicNaturalSpline,LogCubicNaturalSpline,MonotonicCubicNaturalSpline,MonotonicLogCubicNaturalSpline,FritschButlandCubic,FritschButlandLogCubic,KrugerCubic,KrugerLogCubic"</formula1>
     </dataValidation>
@@ -2778,11 +2792,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
       <formula1>"EUR,USD,GBP,JPY,CHF"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
-      <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange"</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M11">
       <formula1>"Libor,ibor"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15:E16">
+      <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange,NullCalendar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14">
+      <formula1>"JoinBusinessDays,JoinHolidays"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2858,11 +2875,11 @@
       </c>
       <c r="E2" s="14" t="str">
         <f>ON_Deposits!F3</f>
-        <v>USD_YCONRH_OND#0000</v>
+        <v>USD_YCONRH_OND#0001</v>
       </c>
       <c r="F2" s="13">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>1.5E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="179" t="b">
@@ -2876,11 +2893,11 @@
       </c>
       <c r="K2" s="12">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41753</v>
+        <v>41757</v>
       </c>
       <c r="L2" s="11">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41754</v>
+        <v>41758</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2891,11 +2908,11 @@
       </c>
       <c r="E3" s="14" t="str">
         <f>ON_FRAs!H3</f>
-        <v>USD_YCONRH_TND#0000</v>
+        <v>USD_YCONRH_TND#0001</v>
       </c>
       <c r="F3" s="13">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
-        <v>1.5E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="179" t="b">
@@ -2909,11 +2926,11 @@
       </c>
       <c r="K3" s="12">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41754</v>
+        <v>41758</v>
       </c>
       <c r="L3" s="11">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2924,11 +2941,11 @@
       </c>
       <c r="E4" s="14" t="str">
         <f>ON_FRAs!H4</f>
-        <v>USD_YCONRH_SND#0000</v>
+        <v>USD_YCONRH_SND#0001</v>
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>1.5E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="6" t="b">
@@ -2942,11 +2959,11 @@
       </c>
       <c r="K4" s="12">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L4" s="11">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41758</v>
+        <v>41761</v>
       </c>
     </row>
     <row r="5" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4142,11 +4159,11 @@
       </c>
       <c r="E35" s="21" t="str">
         <f>ON_Swaps!L6</f>
-        <v>USD_YCONRH_OISSW#0000</v>
+        <v>USD_YCONRH_OISSW#0004</v>
       </c>
       <c r="F35" s="20">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
-        <v>7.9000000000000001E-4</v>
+        <v>1.06E-3</v>
       </c>
       <c r="G35" s="20" t="e">
         <f>_xll.qlSwapRateHelperSpread($E35,Trigger)</f>
@@ -4164,11 +4181,11 @@
       </c>
       <c r="K35" s="18">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L35" s="17">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>41764</v>
+        <v>41766</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
@@ -4182,11 +4199,11 @@
       </c>
       <c r="E36" s="14" t="str">
         <f>ON_Swaps!L7</f>
-        <v>USD_YCONRH_OIS2W#0000</v>
+        <v>USD_YCONRH_OIS2W#0001</v>
       </c>
       <c r="F36" s="13">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
-        <v>7.9000000000000001E-4</v>
+        <v>9.8999999999999999E-4</v>
       </c>
       <c r="G36" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E36,Trigger)</f>
@@ -4204,11 +4221,11 @@
       </c>
       <c r="K36" s="12">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L36" s="11">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>41771</v>
+        <v>41773</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
@@ -4222,11 +4239,11 @@
       </c>
       <c r="E37" s="14" t="str">
         <f>ON_Swaps!L8</f>
-        <v>USD_YCONRH_OIS3W#0000</v>
+        <v>USD_YCONRH_OIS3W#0001</v>
       </c>
       <c r="F37" s="13">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
-        <v>8.0000000000000004E-4</v>
+        <v>9.7000000000000005E-4</v>
       </c>
       <c r="G37" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E37,Trigger)</f>
@@ -4244,11 +4261,11 @@
       </c>
       <c r="K37" s="12">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L37" s="11">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>41778</v>
+        <v>41780</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
@@ -4262,11 +4279,11 @@
       </c>
       <c r="E38" s="14" t="str">
         <f>ON_Swaps!L9</f>
-        <v>USD_YCONRH_OIS1M#0000</v>
+        <v>USD_YCONRH_OIS1M#0001</v>
       </c>
       <c r="F38" s="13">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>8.1000000000000006E-4</v>
+        <v>9.6000000000000002E-4</v>
       </c>
       <c r="G38" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E38,Trigger)</f>
@@ -4284,11 +4301,11 @@
       </c>
       <c r="K38" s="12">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L38" s="11">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>41787</v>
+        <v>41789</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
@@ -4302,11 +4319,11 @@
       </c>
       <c r="E39" s="14" t="str">
         <f>ON_Swaps!L10</f>
-        <v>USD_YCONRH_OIS2M#0000</v>
+        <v>USD_YCONRH_OIS2M#0001</v>
       </c>
       <c r="F39" s="13">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
-        <v>8.1999999999999998E-4</v>
+        <v>9.5E-4</v>
       </c>
       <c r="G39" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E39,Trigger)</f>
@@ -4324,7 +4341,7 @@
       </c>
       <c r="K39" s="12">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L39" s="11">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
@@ -4342,11 +4359,11 @@
       </c>
       <c r="E40" s="14" t="str">
         <f>ON_Swaps!L11</f>
-        <v>USD_YCONRH_OIS3M#0000</v>
+        <v>USD_YCONRH_OIS3M#0001</v>
       </c>
       <c r="F40" s="13">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
-        <v>8.7999999999999992E-4</v>
+        <v>9.5E-4</v>
       </c>
       <c r="G40" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E40,Trigger)</f>
@@ -4364,11 +4381,11 @@
       </c>
       <c r="K40" s="12">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L40" s="11">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
-        <v>41848</v>
+        <v>41851</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
@@ -4382,11 +4399,11 @@
       </c>
       <c r="E41" s="14" t="str">
         <f>ON_Swaps!L12</f>
-        <v>USD_YCONRH_OIS4M#0000</v>
+        <v>USD_YCONRH_OIS4M#0001</v>
       </c>
       <c r="F41" s="13">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>9.1E-4</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="G41" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E41,Trigger)</f>
@@ -4404,11 +4421,11 @@
       </c>
       <c r="K41" s="12">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L41" s="11">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
-        <v>41879</v>
+        <v>41880</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
@@ -4422,11 +4439,11 @@
       </c>
       <c r="E42" s="14" t="str">
         <f>ON_Swaps!L13</f>
-        <v>USD_YCONRH_OIS5M#0000</v>
+        <v>USD_YCONRH_OIS5M#0001</v>
       </c>
       <c r="F42" s="13">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>9.2999999999999995E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="G42" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E42,Trigger)</f>
@@ -4444,11 +4461,11 @@
       </c>
       <c r="K42" s="12">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L42" s="11">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
-        <v>41911</v>
+        <v>41912</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
@@ -4462,11 +4479,11 @@
       </c>
       <c r="E43" s="14" t="str">
         <f>ON_Swaps!L14</f>
-        <v>USD_YCONRH_OIS6M#0000</v>
+        <v>USD_YCONRH_OIS6M#0001</v>
       </c>
       <c r="F43" s="13">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
-        <v>9.6000000000000002E-4</v>
+        <v>1.0200000000000001E-3</v>
       </c>
       <c r="G43" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E43,Trigger)</f>
@@ -4484,11 +4501,11 @@
       </c>
       <c r="K43" s="12">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L43" s="11">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
-        <v>41940</v>
+        <v>41943</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
@@ -4502,11 +4519,11 @@
       </c>
       <c r="E44" s="14" t="str">
         <f>ON_Swaps!L15</f>
-        <v>USD_YCONRH_OIS7M#0000</v>
+        <v>USD_YCONRH_OIS7M#0001</v>
       </c>
       <c r="F44" s="13">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>1.01E-3</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="G44" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E44,Trigger)</f>
@@ -4524,7 +4541,7 @@
       </c>
       <c r="K44" s="12">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L44" s="11">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
@@ -4542,11 +4559,11 @@
       </c>
       <c r="E45" s="14" t="str">
         <f>ON_Swaps!L16</f>
-        <v>USD_YCONRH_OIS8M#0000</v>
+        <v>USD_YCONRH_OIS8M#0001</v>
       </c>
       <c r="F45" s="13">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>1.0499999999999999E-3</v>
+        <v>1.08E-3</v>
       </c>
       <c r="G45" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E45,Trigger)</f>
@@ -4564,11 +4581,11 @@
       </c>
       <c r="K45" s="12">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L45" s="11">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
-        <v>42002</v>
+        <v>42004</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
@@ -4582,11 +4599,11 @@
       </c>
       <c r="E46" s="14" t="str">
         <f>ON_Swaps!L17</f>
-        <v>USD_YCONRH_OIS9M#0000</v>
+        <v>USD_YCONRH_OIS9M#0001</v>
       </c>
       <c r="F46" s="13">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
-        <v>1.1100000000000001E-3</v>
+        <v>1.1200000000000001E-3</v>
       </c>
       <c r="G46" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E46,Trigger)</f>
@@ -4604,11 +4621,11 @@
       </c>
       <c r="K46" s="12">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L46" s="11">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
-        <v>42032</v>
+        <v>42034</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
@@ -4622,7 +4639,7 @@
       </c>
       <c r="E47" s="14" t="str">
         <f>ON_Swaps!L18</f>
-        <v>USD_YCONRH_OIS10M#0000</v>
+        <v>USD_YCONRH_OIS10M#0001</v>
       </c>
       <c r="F47" s="13">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -4644,7 +4661,7 @@
       </c>
       <c r="K47" s="12">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L47" s="11">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
@@ -4662,11 +4679,11 @@
       </c>
       <c r="E48" s="14" t="str">
         <f>ON_Swaps!L19</f>
-        <v>USD_YCONRH_OIS11M#0000</v>
+        <v>USD_YCONRH_OIS11M#0001</v>
       </c>
       <c r="F48" s="13">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>1.2099999999999999E-3</v>
+        <v>1.23E-3</v>
       </c>
       <c r="G48" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E48,Trigger)</f>
@@ -4684,11 +4701,11 @@
       </c>
       <c r="K48" s="12">
         <f>_xll.qlRateHelperEarliestDate($E48,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L48" s="11">
         <f>_xll.qlRateHelperLatestDate($E48,Trigger)</f>
-        <v>42093</v>
+        <v>42094</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
@@ -4702,11 +4719,11 @@
       </c>
       <c r="E49" s="14" t="str">
         <f>ON_Swaps!L20</f>
-        <v>USD_YCONRH_OIS1Y#0000</v>
+        <v>USD_YCONRH_OIS1Y#0001</v>
       </c>
       <c r="F49" s="13">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
-        <v>1.2900000000000001E-3</v>
+        <v>1.31E-3</v>
       </c>
       <c r="G49" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E49,Trigger)</f>
@@ -4724,11 +4741,11 @@
       </c>
       <c r="K49" s="12">
         <f>_xll.qlRateHelperEarliestDate($E49,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L49" s="11">
         <f>_xll.qlRateHelperLatestDate($E49,Trigger)</f>
-        <v>42122</v>
+        <v>42124</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
@@ -4745,11 +4762,11 @@
       </c>
       <c r="E50" s="14" t="str">
         <f>ON_Swaps!L21</f>
-        <v>USD_YCONRH_OIS13M#0000</v>
+        <v>USD_YCONRH_OIS13M#0001</v>
       </c>
       <c r="F50" s="13">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>1.3700000000000001E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="G50" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E50,Trigger)</f>
@@ -4767,11 +4784,11 @@
       </c>
       <c r="K50" s="12">
         <f>_xll.qlRateHelperEarliestDate($E50,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L50" s="11">
         <f>_xll.qlRateHelperLatestDate($E50,Trigger)</f>
-        <v>42152</v>
+        <v>42153</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
@@ -4788,11 +4805,11 @@
       </c>
       <c r="E51" s="14" t="str">
         <f>ON_Swaps!L22</f>
-        <v>USD_YCONRH_OIS14M#0000</v>
+        <v>USD_YCONRH_OIS14M#0001</v>
       </c>
       <c r="F51" s="13">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>1.4599999999999999E-3</v>
+        <v>1.5200000000000003E-3</v>
       </c>
       <c r="G51" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E51,Trigger)</f>
@@ -4810,11 +4827,11 @@
       </c>
       <c r="K51" s="12">
         <f>_xll.qlRateHelperEarliestDate($E51,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L51" s="11">
         <f>_xll.qlRateHelperLatestDate($E51,Trigger)</f>
-        <v>42184</v>
+        <v>42185</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
@@ -4831,11 +4848,11 @@
       </c>
       <c r="E52" s="14" t="str">
         <f>ON_Swaps!L23</f>
-        <v>USD_YCONRH_OIS15M#0000</v>
+        <v>USD_YCONRH_OIS15M#0001</v>
       </c>
       <c r="F52" s="13">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>1.56E-3</v>
+        <v>1.6599999999999998E-3</v>
       </c>
       <c r="G52" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E52,Trigger)</f>
@@ -4853,11 +4870,11 @@
       </c>
       <c r="K52" s="12">
         <f>_xll.qlRateHelperEarliestDate($E52,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L52" s="11">
         <f>_xll.qlRateHelperLatestDate($E52,Trigger)</f>
-        <v>42213</v>
+        <v>42216</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
@@ -4874,11 +4891,11 @@
       </c>
       <c r="E53" s="14" t="str">
         <f>ON_Swaps!L24</f>
-        <v>USD_YCONRH_OIS16M#0000</v>
+        <v>USD_YCONRH_OIS16M#0001</v>
       </c>
       <c r="F53" s="13">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>1.6800000000000001E-3</v>
+        <v>1.83E-3</v>
       </c>
       <c r="G53" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E53,Trigger)</f>
@@ -4896,11 +4913,11 @@
       </c>
       <c r="K53" s="12">
         <f>_xll.qlRateHelperEarliestDate($E53,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L53" s="11">
         <f>_xll.qlRateHelperLatestDate($E53,Trigger)</f>
-        <v>42244</v>
+        <v>42247</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
@@ -4917,11 +4934,11 @@
       </c>
       <c r="E54" s="14" t="str">
         <f>ON_Swaps!L25</f>
-        <v>USD_YCONRH_OIS17M#0000</v>
+        <v>USD_YCONRH_OIS17M#0001</v>
       </c>
       <c r="F54" s="13">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>1.81E-3</v>
+        <v>2.0100000000000001E-3</v>
       </c>
       <c r="G54" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E54,Trigger)</f>
@@ -4939,11 +4956,11 @@
       </c>
       <c r="K54" s="12">
         <f>_xll.qlRateHelperEarliestDate($E54,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L54" s="11">
         <f>_xll.qlRateHelperLatestDate($E54,Trigger)</f>
-        <v>42275</v>
+        <v>42277</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
@@ -4960,11 +4977,11 @@
       </c>
       <c r="E55" s="14" t="str">
         <f>ON_Swaps!L26</f>
-        <v>USD_YCONRH_OIS18M#0000</v>
+        <v>USD_YCONRH_OIS18M#0001</v>
       </c>
       <c r="F55" s="13">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>1.9500000000000001E-3</v>
+        <v>2.2099999999999997E-3</v>
       </c>
       <c r="G55" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E55,Trigger)</f>
@@ -4982,11 +4999,11 @@
       </c>
       <c r="K55" s="12">
         <f>_xll.qlRateHelperEarliestDate($E55,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L55" s="11">
         <f>_xll.qlRateHelperLatestDate($E55,Trigger)</f>
-        <v>42305</v>
+        <v>42307</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
@@ -5003,11 +5020,11 @@
       </c>
       <c r="E56" s="14" t="str">
         <f>ON_Swaps!L27</f>
-        <v>USD_YCONRH_OIS19M#0000</v>
+        <v>USD_YCONRH_OIS19M#0001</v>
       </c>
       <c r="F56" s="13">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>2.1099999999999999E-3</v>
+        <v>2.4499999999999999E-3</v>
       </c>
       <c r="G56" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E56,Trigger)</f>
@@ -5025,7 +5042,7 @@
       </c>
       <c r="K56" s="12">
         <f>_xll.qlRateHelperEarliestDate($E56,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L56" s="11">
         <f>_xll.qlRateHelperLatestDate($E56,Trigger)</f>
@@ -5046,11 +5063,11 @@
       </c>
       <c r="E57" s="14" t="str">
         <f>ON_Swaps!L28</f>
-        <v>USD_YCONRH_OIS20M#0000</v>
+        <v>USD_YCONRH_OIS20M#0001</v>
       </c>
       <c r="F57" s="13">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>2.2899999999999999E-3</v>
+        <v>2.6900000000000001E-3</v>
       </c>
       <c r="G57" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E57,Trigger)</f>
@@ -5068,11 +5085,11 @@
       </c>
       <c r="K57" s="12">
         <f>_xll.qlRateHelperEarliestDate($E57,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L57" s="11">
         <f>_xll.qlRateHelperLatestDate($E57,Trigger)</f>
-        <v>42366</v>
+        <v>42369</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
@@ -5089,11 +5106,11 @@
       </c>
       <c r="E58" s="14" t="str">
         <f>ON_Swaps!L29</f>
-        <v>USD_YCONRH_OIS21M#0000</v>
+        <v>USD_YCONRH_OIS21M#0001</v>
       </c>
       <c r="F58" s="13">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>2.48E-3</v>
+        <v>2.9500000000000004E-3</v>
       </c>
       <c r="G58" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E58,Trigger)</f>
@@ -5111,11 +5128,11 @@
       </c>
       <c r="K58" s="12">
         <f>_xll.qlRateHelperEarliestDate($E58,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L58" s="11">
         <f>_xll.qlRateHelperLatestDate($E58,Trigger)</f>
-        <v>42397</v>
+        <v>42398</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
@@ -5132,11 +5149,11 @@
       </c>
       <c r="E59" s="14" t="str">
         <f>ON_Swaps!L30</f>
-        <v>USD_YCONRH_OIS22M#0000</v>
+        <v>USD_YCONRH_OIS22M#0001</v>
       </c>
       <c r="F59" s="13">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>2.6800000000000001E-3</v>
+        <v>3.2400000000000003E-3</v>
       </c>
       <c r="G59" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E59,Trigger)</f>
@@ -5154,7 +5171,7 @@
       </c>
       <c r="K59" s="12">
         <f>_xll.qlRateHelperEarliestDate($E59,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L59" s="11">
         <f>_xll.qlRateHelperLatestDate($E59,Trigger)</f>
@@ -5175,11 +5192,11 @@
       </c>
       <c r="E60" s="14" t="str">
         <f>ON_Swaps!L31</f>
-        <v>USD_YCONRH_OIS23M#0000</v>
+        <v>USD_YCONRH_OIS23M#0001</v>
       </c>
       <c r="F60" s="13">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>2.8899999999999998E-3</v>
+        <v>3.5499999999999998E-3</v>
       </c>
       <c r="G60" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E60,Trigger)</f>
@@ -5197,11 +5214,11 @@
       </c>
       <c r="K60" s="12">
         <f>_xll.qlRateHelperEarliestDate($E60,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L60" s="11">
         <f>_xll.qlRateHelperLatestDate($E60,Trigger)</f>
-        <v>42458</v>
+        <v>42460</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
@@ -5218,11 +5235,11 @@
       </c>
       <c r="E61" s="14" t="str">
         <f>ON_Swaps!L32</f>
-        <v>USD_YCONRH_OIS2Y#0000</v>
+        <v>USD_YCONRH_OIS2Y#0001</v>
       </c>
       <c r="F61" s="13">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>3.14E-3</v>
+        <v>3.8500000000000001E-3</v>
       </c>
       <c r="G61" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E61,Trigger)</f>
@@ -5240,11 +5257,11 @@
       </c>
       <c r="K61" s="12">
         <f>_xll.qlRateHelperEarliestDate($E61,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L61" s="11">
         <f>_xll.qlRateHelperLatestDate($E61,Trigger)</f>
-        <v>42488</v>
+        <v>42489</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.2">
@@ -5261,11 +5278,11 @@
       </c>
       <c r="E62" s="14" t="str">
         <f>ON_Swaps!L33</f>
-        <v>USD_YCONRH_OIS27M#0000</v>
+        <v>USD_YCONRH_OIS27M#0001</v>
       </c>
       <c r="F62" s="13">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
-        <v>3.9000000000000003E-3</v>
+        <v>4.8799999999999998E-3</v>
       </c>
       <c r="G62" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E62,Trigger)</f>
@@ -5282,11 +5299,11 @@
       </c>
       <c r="K62" s="12">
         <f>_xll.qlRateHelperEarliestDate($E62,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L62" s="11">
         <f>_xll.qlRateHelperLatestDate($E62,Trigger)</f>
-        <v>42579</v>
+        <v>42580</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
@@ -5303,11 +5320,11 @@
       </c>
       <c r="E63" s="14" t="str">
         <f>ON_Swaps!L34</f>
-        <v>USD_YCONRH_OIS30M#0000</v>
+        <v>USD_YCONRH_OIS30M#0001</v>
       </c>
       <c r="F63" s="13">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>4.7999999999999996E-3</v>
+        <v>5.9899999999999997E-3</v>
       </c>
       <c r="G63" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E63,Trigger)</f>
@@ -5324,11 +5341,11 @@
       </c>
       <c r="K63" s="12">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L63" s="11">
         <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>42671</v>
+        <v>42674</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
@@ -5345,11 +5362,11 @@
       </c>
       <c r="E64" s="14" t="str">
         <f>ON_Swaps!L35</f>
-        <v>USD_YCONRH_OIS33M#0000</v>
+        <v>USD_YCONRH_OIS33M#0001</v>
       </c>
       <c r="F64" s="13">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
-        <v>5.77E-3</v>
+        <v>7.1100000000000009E-3</v>
       </c>
       <c r="G64" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E64,Trigger)</f>
@@ -5366,7 +5383,7 @@
       </c>
       <c r="K64" s="12">
         <f>_xll.qlRateHelperEarliestDate($E64,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L64" s="11">
         <f>_xll.qlRateHelperLatestDate($E64,Trigger)</f>
@@ -5387,11 +5404,11 @@
       </c>
       <c r="E65" s="14" t="str">
         <f>ON_Swaps!L36</f>
-        <v>USD_YCONRH_OIS3Y#0000</v>
+        <v>USD_YCONRH_OIS3Y#0001</v>
       </c>
       <c r="F65" s="13">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>6.7900000000000009E-3</v>
+        <v>8.1799999999999998E-3</v>
       </c>
       <c r="G65" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E65,Trigger)</f>
@@ -5408,7 +5425,7 @@
       </c>
       <c r="K65" s="12">
         <f>_xll.qlRateHelperEarliestDate($E65,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L65" s="11">
         <f>_xll.qlRateHelperLatestDate($E65,Trigger)</f>
@@ -5429,11 +5446,11 @@
       </c>
       <c r="E66" s="14" t="str">
         <f>ON_Swaps!L37</f>
-        <v>USD_YCONRH_OIS39M#0000</v>
+        <v>USD_YCONRH_OIS39M#0001</v>
       </c>
       <c r="F66" s="13">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
-        <v>7.8300000000000002E-3</v>
+        <v>9.3200000000000002E-3</v>
       </c>
       <c r="G66" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E66,Trigger)</f>
@@ -5450,11 +5467,11 @@
       </c>
       <c r="K66" s="12">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L66" s="11">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>42944</v>
+        <v>42947</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
@@ -5471,11 +5488,11 @@
       </c>
       <c r="E67" s="14" t="str">
         <f>ON_Swaps!L38</f>
-        <v>USD_YCONRH_OIS42M#0000</v>
+        <v>USD_YCONRH_OIS42M#0001</v>
       </c>
       <c r="F67" s="13">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
-        <v>8.9499999999999996E-3</v>
+        <v>1.0470000000000002E-2</v>
       </c>
       <c r="G67" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E67,Trigger)</f>
@@ -5492,7 +5509,7 @@
       </c>
       <c r="K67" s="12">
         <f>_xll.qlRateHelperEarliestDate($E67,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L67" s="11">
         <f>_xll.qlRateHelperLatestDate($E67,Trigger)</f>
@@ -5513,11 +5530,11 @@
       </c>
       <c r="E68" s="14" t="str">
         <f>ON_Swaps!L39</f>
-        <v>USD_YCONRH_OIS45M#0000</v>
+        <v>USD_YCONRH_OIS45M#0001</v>
       </c>
       <c r="F68" s="13">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
-        <v>9.9699999999999997E-3</v>
+        <v>1.1440000000000001E-2</v>
       </c>
       <c r="G68" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E68,Trigger)</f>
@@ -5534,11 +5551,11 @@
       </c>
       <c r="K68" s="12">
         <f>_xll.qlRateHelperEarliestDate($E68,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L68" s="11">
         <f>_xll.qlRateHelperLatestDate($E68,Trigger)</f>
-        <v>43129</v>
+        <v>43130</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
@@ -5555,11 +5572,11 @@
       </c>
       <c r="E69" s="14" t="str">
         <f>ON_Swaps!L40</f>
-        <v>USD_YCONRH_OIS4Y#0000</v>
+        <v>USD_YCONRH_OIS4Y#0001</v>
       </c>
       <c r="F69" s="13">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
-        <v>1.1089999999999999E-2</v>
+        <v>1.2460000000000001E-2</v>
       </c>
       <c r="G69" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E69,Trigger)</f>
@@ -5576,7 +5593,7 @@
       </c>
       <c r="K69" s="12">
         <f>_xll.qlRateHelperEarliestDate($E69,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L69" s="11">
         <f>_xll.qlRateHelperLatestDate($E69,Trigger)</f>
@@ -5597,11 +5614,11 @@
       </c>
       <c r="E70" s="14" t="str">
         <f>ON_Swaps!L41</f>
-        <v>USD_YCONRH_OIS51M#0000</v>
+        <v>USD_YCONRH_OIS51M#0001</v>
       </c>
       <c r="F70" s="13">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
-        <v>1.2070000000000001E-2</v>
+        <v>1.3380000000000001E-2</v>
       </c>
       <c r="G70" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E70,Trigger)</f>
@@ -5618,7 +5635,7 @@
       </c>
       <c r="K70" s="12">
         <f>_xll.qlRateHelperEarliestDate($E70,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L70" s="11">
         <f>_xll.qlRateHelperLatestDate($E70,Trigger)</f>
@@ -5639,11 +5656,11 @@
       </c>
       <c r="E71" s="14" t="str">
         <f>ON_Swaps!L42</f>
-        <v>USD_YCONRH_OIS54M#0000</v>
+        <v>USD_YCONRH_OIS54M#0001</v>
       </c>
       <c r="F71" s="13">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
-        <v>1.3140000000000001E-2</v>
+        <v>1.4329999999999999E-2</v>
       </c>
       <c r="G71" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E71,Trigger)</f>
@@ -5660,11 +5677,11 @@
       </c>
       <c r="K71" s="12">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L71" s="11">
         <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>43402</v>
+        <v>43403</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
@@ -5681,11 +5698,11 @@
       </c>
       <c r="E72" s="14" t="str">
         <f>ON_Swaps!L43</f>
-        <v>USD_YCONRH_OIS57M#0000</v>
+        <v>USD_YCONRH_OIS57M#0001</v>
       </c>
       <c r="F72" s="13">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
-        <v>1.4079999999999999E-2</v>
+        <v>1.5190000000000002E-2</v>
       </c>
       <c r="G72" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E72,Trigger)</f>
@@ -5702,11 +5719,11 @@
       </c>
       <c r="K72" s="12">
         <f>_xll.qlRateHelperEarliestDate($E72,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L72" s="11">
         <f>_xll.qlRateHelperLatestDate($E72,Trigger)</f>
-        <v>43493</v>
+        <v>43495</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
@@ -5723,11 +5740,11 @@
       </c>
       <c r="E73" s="14" t="str">
         <f>ON_Swaps!L44</f>
-        <v>USD_YCONRH_OIS5Y#0000</v>
+        <v>USD_YCONRH_OIS5Y#0001</v>
       </c>
       <c r="F73" s="13">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
-        <v>1.5069999999999998E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G73" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E73,Trigger)</f>
@@ -5745,11 +5762,11 @@
       </c>
       <c r="K73" s="12">
         <f>_xll.qlRateHelperEarliestDate($E73,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L73" s="11">
         <f>_xll.qlRateHelperLatestDate($E73,Trigger)</f>
-        <v>43584</v>
+        <v>43585</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
@@ -5766,11 +5783,11 @@
       </c>
       <c r="E74" s="14" t="str">
         <f>ON_Swaps!L45</f>
-        <v>USD_YCONRH_OIS6Y#0000</v>
+        <v>USD_YCONRH_OIS6Y#0001</v>
       </c>
       <c r="F74" s="13">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
-        <v>1.8530000000000001E-2</v>
+        <v>1.881E-2</v>
       </c>
       <c r="G74" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E74,Trigger)</f>
@@ -5788,11 +5805,11 @@
       </c>
       <c r="K74" s="12">
         <f>_xll.qlRateHelperEarliestDate($E74,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L74" s="11">
         <f>_xll.qlRateHelperLatestDate($E74,Trigger)</f>
-        <v>43949</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
@@ -5809,11 +5826,11 @@
       </c>
       <c r="E75" s="14" t="str">
         <f>ON_Swaps!L46</f>
-        <v>USD_YCONRH_OIS7Y#0000</v>
+        <v>USD_YCONRH_OIS7Y#0001</v>
       </c>
       <c r="F75" s="13">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
-        <v>2.1360000000000001E-2</v>
+        <v>2.0979999999999999E-2</v>
       </c>
       <c r="G75" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E75,Trigger)</f>
@@ -5831,11 +5848,11 @@
       </c>
       <c r="K75" s="12">
         <f>_xll.qlRateHelperEarliestDate($E75,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L75" s="11">
         <f>_xll.qlRateHelperLatestDate($E75,Trigger)</f>
-        <v>44314</v>
+        <v>44316</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
@@ -5852,11 +5869,11 @@
       </c>
       <c r="E76" s="14" t="str">
         <f>ON_Swaps!L47</f>
-        <v>USD_YCONRH_OIS8Y#0000</v>
+        <v>USD_YCONRH_OIS8Y#0001</v>
       </c>
       <c r="F76" s="13">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
-        <v>2.3700000000000002E-2</v>
+        <v>2.274E-2</v>
       </c>
       <c r="G76" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E76,Trigger)</f>
@@ -5874,11 +5891,11 @@
       </c>
       <c r="K76" s="12">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L76" s="11">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>44679</v>
+        <v>44680</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
@@ -5895,11 +5912,11 @@
       </c>
       <c r="E77" s="14" t="str">
         <f>ON_Swaps!L48</f>
-        <v>USD_YCONRH_OIS9Y#0000</v>
+        <v>USD_YCONRH_OIS9Y#0001</v>
       </c>
       <c r="F77" s="13">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
-        <v>2.5600000000000001E-2</v>
+        <v>2.4150000000000001E-2</v>
       </c>
       <c r="G77" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E77,Trigger)</f>
@@ -5917,7 +5934,7 @@
       </c>
       <c r="K77" s="12">
         <f>_xll.qlRateHelperEarliestDate($E77,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L77" s="11">
         <f>_xll.qlRateHelperLatestDate($E77,Trigger)</f>
@@ -5938,11 +5955,11 @@
       </c>
       <c r="E78" s="14" t="str">
         <f>ON_Swaps!L49</f>
-        <v>USD_YCONRH_OIS10Y#0000</v>
+        <v>USD_YCONRH_OIS10Y#0001</v>
       </c>
       <c r="F78" s="13">
         <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
-        <v>2.7160000000000004E-2</v>
+        <v>2.5329999999999998E-2</v>
       </c>
       <c r="G78" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E78,Trigger)</f>
@@ -5960,11 +5977,11 @@
       </c>
       <c r="K78" s="12">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L78" s="11">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>45411</v>
+        <v>45412</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
@@ -5981,11 +5998,11 @@
       </c>
       <c r="E79" s="14" t="str">
         <f>ON_Swaps!L50</f>
-        <v>USD_YCONRH_OIS12Y#0000</v>
+        <v>USD_YCONRH_OIS12Y#0001</v>
       </c>
       <c r="F79" s="13">
         <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
-        <v>2.9679999999999998E-2</v>
+        <v>2.724E-2</v>
       </c>
       <c r="G79" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E79,Trigger)</f>
@@ -6003,11 +6020,11 @@
       </c>
       <c r="K79" s="12">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L79" s="11">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>46140</v>
+        <v>46142</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
@@ -6024,11 +6041,11 @@
       </c>
       <c r="E80" s="14" t="str">
         <f>ON_Swaps!L51</f>
-        <v>USD_YCONRH_OIS15Y#0000</v>
+        <v>USD_YCONRH_OIS15Y#0001</v>
       </c>
       <c r="F80" s="13">
         <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
-        <v>3.2070000000000001E-2</v>
+        <v>2.92E-2</v>
       </c>
       <c r="G80" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E80,Trigger)</f>
@@ -6046,7 +6063,7 @@
       </c>
       <c r="K80" s="12">
         <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L80" s="11">
         <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
@@ -6064,11 +6081,11 @@
       </c>
       <c r="E81" s="14" t="str">
         <f>ON_Swaps!L52</f>
-        <v>USD_YCONRH_OIS20Y#0000</v>
+        <v>USD_YCONRH_OIS20Y#0001</v>
       </c>
       <c r="F81" s="13">
         <f>_xll.qlRateHelperQuoteValue($E81,Trigger)</f>
-        <v>3.4079999999999999E-2</v>
+        <v>3.0869999999999998E-2</v>
       </c>
       <c r="G81" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E81,Trigger)</f>
@@ -6086,7 +6103,7 @@
       </c>
       <c r="K81" s="12">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L81" s="11">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
@@ -6104,11 +6121,11 @@
       </c>
       <c r="E82" s="14" t="str">
         <f>ON_Swaps!L53</f>
-        <v>USD_YCONRH_OIS25Y#0000</v>
+        <v>USD_YCONRH_OIS25Y#0001</v>
       </c>
       <c r="F82" s="13">
         <f>_xll.qlRateHelperQuoteValue($E82,Trigger)</f>
-        <v>3.4970000000000001E-2</v>
+        <v>3.1600000000000003E-2</v>
       </c>
       <c r="G82" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E82,Trigger)</f>
@@ -6125,11 +6142,11 @@
       </c>
       <c r="K82" s="12">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L82" s="11">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>50888</v>
+        <v>50889</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
@@ -6143,7 +6160,7 @@
       </c>
       <c r="E83" s="14" t="str">
         <f>ON_Swaps!L54</f>
-        <v>USD_YCONRH_OIS27Y#0000</v>
+        <v>USD_YCONRH_OIS27Y#0001</v>
       </c>
       <c r="F83" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
@@ -6165,11 +6182,11 @@
       </c>
       <c r="K83" s="12">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L83" s="11">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>51620</v>
+        <v>51621</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
@@ -6186,11 +6203,11 @@
       </c>
       <c r="E84" s="14" t="str">
         <f>ON_Swaps!L55</f>
-        <v>USD_YCONRH_OIS30Y#0000</v>
+        <v>USD_YCONRH_OIS30Y#0001</v>
       </c>
       <c r="F84" s="13">
         <f>_xll.qlRateHelperQuoteValue($E84,Trigger)</f>
-        <v>3.5490000000000001E-2</v>
+        <v>3.1910000000000001E-2</v>
       </c>
       <c r="G84" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E84,Trigger)</f>
@@ -6207,11 +6224,11 @@
       </c>
       <c r="K84" s="12">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L84" s="11">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>52715</v>
+        <v>52716</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
@@ -6228,11 +6245,11 @@
       </c>
       <c r="E85" s="14" t="str">
         <f>ON_Swaps!L56</f>
-        <v>USD_YCONRH_OIS35Y#0000</v>
+        <v>USD_YCONRH_OIS35Y#0001</v>
       </c>
       <c r="F85" s="13">
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
-        <v>3.567E-2</v>
+        <v>3.1959999999999995E-2</v>
       </c>
       <c r="G85" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E85,Trigger)</f>
@@ -6250,11 +6267,11 @@
       </c>
       <c r="K85" s="12">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L85" s="11">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>54541</v>
+        <v>54543</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
@@ -6271,11 +6288,11 @@
       </c>
       <c r="E86" s="14" t="str">
         <f>ON_Swaps!L57</f>
-        <v>USD_YCONRH_OIS40Y#0000</v>
+        <v>USD_YCONRH_OIS40Y#0001</v>
       </c>
       <c r="F86" s="13">
         <f>_xll.qlRateHelperQuoteValue($E86,Trigger)</f>
-        <v>3.5680000000000003E-2</v>
+        <v>3.1989999999999998E-2</v>
       </c>
       <c r="G86" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E86,Trigger)</f>
@@ -6293,11 +6310,11 @@
       </c>
       <c r="K86" s="12">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L86" s="11">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>56367</v>
+        <v>56369</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
@@ -6314,11 +6331,11 @@
       </c>
       <c r="E87" s="14" t="str">
         <f>ON_Swaps!L58</f>
-        <v>USD_YCONRH_OIS45Y#0000</v>
+        <v>USD_YCONRH_OIS45Y#0001</v>
       </c>
       <c r="F87" s="13">
         <f>_xll.qlRateHelperQuoteValue($E87,Trigger)</f>
-        <v>3.5590000000000004E-2</v>
+        <v>3.1910000000000001E-2</v>
       </c>
       <c r="G87" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E87,Trigger)</f>
@@ -6336,11 +6353,11 @@
       </c>
       <c r="K87" s="12">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L87" s="11">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>58193</v>
+        <v>58195</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
@@ -6357,11 +6374,11 @@
       </c>
       <c r="E88" s="8" t="str">
         <f>ON_Swaps!L59</f>
-        <v>USD_YCONRH_OIS50Y#0000</v>
+        <v>USD_YCONRH_OIS50Y#0001</v>
       </c>
       <c r="F88" s="7">
         <f>_xll.qlRateHelperQuoteValue($E88,Trigger)</f>
-        <v>3.5499999999999997E-2</v>
+        <v>3.1799999999999995E-2</v>
       </c>
       <c r="G88" s="7" t="e">
         <f>_xll.qlSwapRateHelperSpread($E88,Trigger)</f>
@@ -6379,11 +6396,11 @@
       </c>
       <c r="K88" s="4">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="L88" s="3">
         <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>60020</v>
+        <v>60022</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
@@ -7993,8 +8010,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M126"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -8050,7 +8067,7 @@
       </c>
       <c r="E2" s="39">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>1.5E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F2" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -8058,14 +8075,14 @@
       </c>
       <c r="G2" s="38">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41753</v>
+        <v>41757</v>
       </c>
       <c r="H2" s="37">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41754</v>
+        <v>41758</v>
       </c>
       <c r="I2" s="190">
-        <v>0.99999583335069442</v>
+        <v>0.99999638890192899</v>
       </c>
       <c r="L2" s="177" t="s">
         <v>171</v>
@@ -8086,7 +8103,7 @@
       </c>
       <c r="E3" s="39">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>1.5E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F3" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -8094,18 +8111,18 @@
       </c>
       <c r="G3" s="38">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41754</v>
+        <v>41758</v>
       </c>
       <c r="H3" s="37">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="I3" s="190">
-        <v>0.99998333355895508</v>
+        <v>0.99999277781689799</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J37" si="0">H3-H2</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3" s="177" t="s">
         <v>172</v>
@@ -8126,7 +8143,7 @@
       </c>
       <c r="E4" s="39">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>7.9000000000000001E-4</v>
+        <v>1.06E-3</v>
       </c>
       <c r="F4" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -8134,14 +8151,14 @@
       </c>
       <c r="G4" s="38">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H4" s="37">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41764</v>
+        <v>41766</v>
       </c>
       <c r="I4" s="190">
-        <v>0.99996797293981521</v>
+        <v>0.99997216727937177</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
@@ -8166,7 +8183,7 @@
       </c>
       <c r="E5" s="39">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>7.9000000000000001E-4</v>
+        <v>9.8999999999999999E-4</v>
       </c>
       <c r="F5" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -8174,14 +8191,14 @@
       </c>
       <c r="G5" s="38">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H5" s="37">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41771</v>
+        <v>41773</v>
       </c>
       <c r="I5" s="190">
-        <v>0.9999526127925612</v>
+        <v>0.99995427957690763</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
@@ -8207,7 +8224,7 @@
       </c>
       <c r="E6" s="39">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>8.0000000000000004E-4</v>
+        <v>9.7000000000000005E-4</v>
       </c>
       <c r="F6" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -8215,14 +8232,14 @@
       </c>
       <c r="G6" s="38">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H6" s="37">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41778</v>
+        <v>41780</v>
       </c>
       <c r="I6" s="190">
-        <v>0.99993666984781526</v>
+        <v>0.99993619809376078</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
@@ -8238,7 +8255,7 @@
     <row r="7" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_RateHelpersSelected#0000</v>
+        <v>USD_YCONRH_RateHelpersSelected#0001</v>
       </c>
       <c r="B7" s="41" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -8249,7 +8266,7 @@
       </c>
       <c r="E7" s="39">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>8.1000000000000006E-4</v>
+        <v>9.6000000000000002E-4</v>
       </c>
       <c r="F7" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -8257,14 +8274,14 @@
       </c>
       <c r="G7" s="38">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H7" s="37">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41787</v>
+        <v>41789</v>
       </c>
       <c r="I7" s="190">
-        <v>0.99991583923990313</v>
+        <v>0.99991278479417467</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
@@ -8283,7 +8300,7 @@
       </c>
       <c r="E8" s="39">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>8.1999999999999998E-4</v>
+        <v>9.5E-4</v>
       </c>
       <c r="F8" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -8291,18 +8308,18 @@
       </c>
       <c r="G8" s="38">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H8" s="37">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
         <v>41820</v>
       </c>
       <c r="I8" s="190">
-        <v>0.99983985653954155</v>
+        <v>0.99983183266494535</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L8" s="177" t="s">
         <v>177</v>
@@ -8317,7 +8334,7 @@
       </c>
       <c r="E9" s="39">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>8.7999999999999992E-4</v>
+        <v>9.5E-4</v>
       </c>
       <c r="F9" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -8325,18 +8342,18 @@
       </c>
       <c r="G9" s="38">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H9" s="37">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41848</v>
+        <v>41851</v>
       </c>
       <c r="I9" s="190">
-        <v>0.99976094229156964</v>
+        <v>0.99975006071890637</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L9" s="177" t="s">
         <v>178</v>
@@ -8351,7 +8368,7 @@
       </c>
       <c r="E10" s="39">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>9.1E-4</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="F10" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -8359,18 +8376,18 @@
       </c>
       <c r="G10" s="38">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H10" s="37">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41879</v>
+        <v>41880</v>
       </c>
       <c r="I10" s="190">
-        <v>0.99967504488270098</v>
+        <v>0.99966349976744673</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L10" s="177" t="s">
         <v>179</v>
@@ -8385,7 +8402,7 @@
       </c>
       <c r="E11" s="39">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>9.2999999999999995E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F11" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -8393,14 +8410,14 @@
       </c>
       <c r="G11" s="38">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H11" s="37">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41911</v>
+        <v>41912</v>
       </c>
       <c r="I11" s="190">
-        <v>0.99958566506204005</v>
+        <v>0.99956796143333781</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
@@ -8419,7 +8436,7 @@
       </c>
       <c r="E12" s="39">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>9.6000000000000002E-4</v>
+        <v>1.0200000000000001E-3</v>
       </c>
       <c r="F12" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -8427,18 +8444,18 @@
       </c>
       <c r="G12" s="38">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H12" s="37">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41940</v>
+        <v>41943</v>
       </c>
       <c r="I12" s="190">
-        <v>0.99949557971605363</v>
+        <v>0.9994717198935934</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L12" s="177" t="s">
         <v>181</v>
@@ -8453,7 +8470,7 @@
       </c>
       <c r="E13" s="39">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>1.01E-3</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="F13" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -8461,18 +8478,18 @@
       </c>
       <c r="G13" s="38">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H13" s="37">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
         <v>41971</v>
       </c>
       <c r="I13" s="190">
-        <v>0.99938331492093568</v>
+        <v>0.9993748310463676</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L13" s="177" t="s">
         <v>182</v>
@@ -8487,7 +8504,7 @@
       </c>
       <c r="E14" s="39">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>1.0499999999999999E-3</v>
+        <v>1.08E-3</v>
       </c>
       <c r="F14" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -8495,18 +8512,18 @@
       </c>
       <c r="G14" s="38">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H14" s="37">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42002</v>
+        <v>42004</v>
       </c>
       <c r="I14" s="190">
-        <v>0.99926927239139207</v>
+        <v>0.9992583229495301</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L14" s="177" t="s">
         <v>183</v>
@@ -8521,7 +8538,7 @@
       </c>
       <c r="E15" s="39">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>1.1100000000000001E-3</v>
+        <v>1.1200000000000001E-3</v>
       </c>
       <c r="F15" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -8529,14 +8546,14 @@
       </c>
       <c r="G15" s="38">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H15" s="37">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42032</v>
+        <v>42034</v>
       </c>
       <c r="I15" s="190">
-        <v>0.99913614936563888</v>
+        <v>0.99913795978463771</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
@@ -8563,18 +8580,18 @@
       </c>
       <c r="G16" s="38">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H16" s="37">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
         <v>42062</v>
       </c>
       <c r="I16" s="190">
-        <v>0.99899308166675305</v>
+        <v>0.99900900370050383</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L16" s="177" t="s">
         <v>185</v>
@@ -8589,7 +8606,7 @@
       </c>
       <c r="E17" s="39">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.2099999999999999E-3</v>
+        <v>1.23E-3</v>
       </c>
       <c r="F17" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -8597,18 +8614,18 @@
       </c>
       <c r="G17" s="38">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H17" s="37">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42093</v>
+        <v>42094</v>
       </c>
       <c r="I17" s="190">
-        <v>0.99885529298141484</v>
+        <v>0.99884951131374033</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L17" s="177" t="s">
         <v>186</v>
@@ -8623,7 +8640,7 @@
       </c>
       <c r="E18" s="39">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.2900000000000001E-3</v>
+        <v>1.31E-3</v>
       </c>
       <c r="F18" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -8631,18 +8648,18 @@
       </c>
       <c r="G18" s="38">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H18" s="37">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42122</v>
+        <v>42124</v>
       </c>
       <c r="I18" s="190">
-        <v>0.9986771470736785</v>
+        <v>0.99866635471271514</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L18" s="177" t="s">
         <v>187</v>
@@ -8657,7 +8674,7 @@
       </c>
       <c r="E19" s="39">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.3700000000000001E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="F19" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -8665,18 +8682,18 @@
       </c>
       <c r="G19" s="38">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H19" s="37">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42152</v>
+        <v>42153</v>
       </c>
       <c r="I19" s="190">
-        <v>0.99848214988183881</v>
+        <v>0.99846262201212022</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L19" s="177" t="s">
         <v>188</v>
@@ -8691,7 +8708,7 @@
       </c>
       <c r="E20" s="39">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.4599999999999999E-3</v>
+        <v>1.5200000000000003E-3</v>
       </c>
       <c r="F20" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -8699,14 +8716,14 @@
       </c>
       <c r="G20" s="38">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H20" s="37">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>42184</v>
+        <v>42185</v>
       </c>
       <c r="I20" s="190">
-        <v>0.99825400854613044</v>
+        <v>0.9981966309136151</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
@@ -8725,7 +8742,7 @@
       </c>
       <c r="E21" s="39">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.56E-3</v>
+        <v>1.6599999999999998E-3</v>
       </c>
       <c r="F21" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -8733,18 +8750,18 @@
       </c>
       <c r="G21" s="38">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H21" s="37">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>42213</v>
+        <v>42216</v>
       </c>
       <c r="I21" s="190">
-        <v>0.99801021051165528</v>
+        <v>0.99788864032392377</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L21" s="177" t="s">
         <v>190</v>
@@ -8759,7 +8776,7 @@
       </c>
       <c r="E22" s="39">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.6800000000000001E-3</v>
+        <v>1.83E-3</v>
       </c>
       <c r="F22" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -8767,14 +8784,14 @@
       </c>
       <c r="G22" s="38">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H22" s="37">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>42244</v>
+        <v>42247</v>
       </c>
       <c r="I22" s="190">
-        <v>0.99771422152165334</v>
+        <v>0.99751613865223243</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
@@ -8793,7 +8810,7 @@
       </c>
       <c r="E23" s="39">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>1.81E-3</v>
+        <v>2.0100000000000001E-3</v>
       </c>
       <c r="F23" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -8801,18 +8818,18 @@
       </c>
       <c r="G23" s="38">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H23" s="37">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>42275</v>
+        <v>42277</v>
       </c>
       <c r="I23" s="190">
-        <v>0.99738338511991209</v>
+        <v>0.99710580137736304</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L23" s="177" t="s">
         <v>192</v>
@@ -8827,7 +8844,7 @@
       </c>
       <c r="E24" s="39">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>1.9500000000000001E-3</v>
+        <v>2.2099999999999997E-3</v>
       </c>
       <c r="F24" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -8835,14 +8852,14 @@
       </c>
       <c r="G24" s="38">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H24" s="37">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>42305</v>
+        <v>42307</v>
       </c>
       <c r="I24" s="190">
-        <v>0.99702056897709634</v>
+        <v>0.99663543480598804</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
@@ -8861,7 +8878,7 @@
       </c>
       <c r="E25" s="39">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.1099999999999999E-3</v>
+        <v>2.4499999999999999E-3</v>
       </c>
       <c r="F25" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -8869,18 +8886,18 @@
       </c>
       <c r="G25" s="38">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H25" s="37">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
         <v>42338</v>
       </c>
       <c r="I25" s="190">
-        <v>0.9965851811506774</v>
+        <v>0.99606141008076721</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L25" s="177" t="s">
         <v>194</v>
@@ -8895,7 +8912,7 @@
       </c>
       <c r="E26" s="39">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.2899999999999999E-3</v>
+        <v>2.6900000000000001E-3</v>
       </c>
       <c r="F26" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -8903,18 +8920,18 @@
       </c>
       <c r="G26" s="38">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H26" s="37">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>42366</v>
+        <v>42369</v>
       </c>
       <c r="I26" s="190">
-        <v>0.99611851279897445</v>
+        <v>0.9954466953032477</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L26" s="177" t="s">
         <v>195</v>
@@ -8929,7 +8946,7 @@
       </c>
       <c r="E27" s="39">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.48E-3</v>
+        <v>2.9500000000000004E-3</v>
       </c>
       <c r="F27" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -8937,18 +8954,18 @@
       </c>
       <c r="G27" s="38">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H27" s="37">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>42397</v>
+        <v>42398</v>
       </c>
       <c r="I27" s="190">
-        <v>0.99558613273657359</v>
+        <v>0.9947722544538099</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L27" s="177" t="s">
         <v>196</v>
@@ -8963,7 +8980,7 @@
       </c>
       <c r="E28" s="39">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.6800000000000001E-3</v>
+        <v>3.2400000000000003E-3</v>
       </c>
       <c r="F28" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -8971,18 +8988,18 @@
       </c>
       <c r="G28" s="38">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H28" s="37">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
         <v>42429</v>
       </c>
       <c r="I28" s="190">
-        <v>0.99499569843087665</v>
+        <v>0.99398367365747853</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L28" s="177" t="s">
         <v>197</v>
@@ -8997,7 +9014,7 @@
       </c>
       <c r="E29" s="39">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.8899999999999998E-3</v>
+        <v>3.5499999999999998E-3</v>
       </c>
       <c r="F29" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -9005,18 +9022,18 @@
       </c>
       <c r="G29" s="38">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H29" s="37">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>42458</v>
+        <v>42460</v>
       </c>
       <c r="I29" s="190">
-        <v>0.99437491022169933</v>
+        <v>0.99310777536253569</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L29" s="177" t="s">
         <v>198</v>
@@ -9031,7 +9048,7 @@
       </c>
       <c r="E30" s="39">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>3.14E-3</v>
+        <v>3.8500000000000001E-3</v>
       </c>
       <c r="F30" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -9039,18 +9056,18 @@
       </c>
       <c r="G30" s="38">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H30" s="37">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>42488</v>
+        <v>42489</v>
       </c>
       <c r="I30" s="190">
-        <v>0.99363192956729851</v>
+        <v>0.99222140275805149</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L30" s="177" t="s">
         <v>199</v>
@@ -9065,7 +9082,7 @@
       </c>
       <c r="E31" s="39">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>6.7900000000000009E-3</v>
+        <v>8.1799999999999998E-3</v>
       </c>
       <c r="F31" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -9073,18 +9090,18 @@
       </c>
       <c r="G31" s="38">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H31" s="37">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
         <v>42853</v>
       </c>
       <c r="I31" s="190">
-        <v>0.97950571150064347</v>
+        <v>0.97541359155410901</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L31" s="177" t="s">
         <v>200</v>
@@ -9099,7 +9116,7 @@
       </c>
       <c r="E32" s="39">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>1.1089999999999999E-2</v>
+        <v>1.2460000000000001E-2</v>
       </c>
       <c r="F32" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -9107,14 +9124,14 @@
       </c>
       <c r="G32" s="38">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H32" s="37">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
         <v>43220</v>
       </c>
       <c r="I32" s="190">
-        <v>0.95573239086157702</v>
+        <v>0.95047982941296616</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="0"/>
@@ -9133,7 +9150,7 @@
       </c>
       <c r="E33" s="39">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>1.5069999999999998E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F33" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -9141,18 +9158,18 @@
       </c>
       <c r="G33" s="38">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H33" s="37">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>43584</v>
+        <v>43585</v>
       </c>
       <c r="I33" s="190">
-        <v>0.92574553341576982</v>
+        <v>0.92146454514249376</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L33" s="177" t="s">
         <v>202</v>
@@ -9167,7 +9184,7 @@
       </c>
       <c r="E34" s="39">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>1.8530000000000001E-2</v>
+        <v>1.881E-2</v>
       </c>
       <c r="F34" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -9175,18 +9192,18 @@
       </c>
       <c r="G34" s="38">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H34" s="37">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>43949</v>
+        <v>43951</v>
       </c>
       <c r="I34" s="190">
-        <v>0.89194362226685286</v>
+        <v>0.89064085390931669</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L34" s="177" t="s">
         <v>203</v>
@@ -9201,7 +9218,7 @@
       </c>
       <c r="E35" s="39">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>2.1360000000000001E-2</v>
+        <v>2.0979999999999999E-2</v>
       </c>
       <c r="F35" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -9209,14 +9226,14 @@
       </c>
       <c r="G35" s="38">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H35" s="37">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>44314</v>
+        <v>44316</v>
       </c>
       <c r="I35" s="190">
-        <v>0.85688593085826803</v>
+        <v>0.85973774428778293</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="0"/>
@@ -9235,7 +9252,7 @@
       </c>
       <c r="E36" s="39">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>2.3700000000000002E-2</v>
+        <v>2.274E-2</v>
       </c>
       <c r="F36" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -9243,18 +9260,18 @@
       </c>
       <c r="G36" s="38">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H36" s="37">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>44679</v>
+        <v>44680</v>
       </c>
       <c r="I36" s="190">
-        <v>0.82147028364323149</v>
+        <v>0.82891291278483903</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L36" s="177" t="s">
         <v>205</v>
@@ -9269,7 +9286,7 @@
       </c>
       <c r="E37" s="39">
         <f>_xll.qlRateHelperRate($D37)</f>
-        <v>2.5600000000000001E-2</v>
+        <v>2.4150000000000001E-2</v>
       </c>
       <c r="F37" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
@@ -9277,18 +9294,18 @@
       </c>
       <c r="G37" s="38">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H37" s="37">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
         <v>45044</v>
       </c>
       <c r="I37" s="190">
-        <v>0.78673886650781921</v>
+        <v>0.79879970099135589</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L37" s="177" t="s">
         <v>206</v>
@@ -9303,7 +9320,7 @@
       </c>
       <c r="E38" s="39">
         <f>_xll.qlRateHelperRate($D38)</f>
-        <v>2.7160000000000004E-2</v>
+        <v>2.5329999999999998E-2</v>
       </c>
       <c r="F38" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
@@ -9311,14 +9328,14 @@
       </c>
       <c r="G38" s="38">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H38" s="37">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="I38" s="190">
-        <v>0.75289795944057114</v>
+        <v>0.76905606573791763</v>
       </c>
       <c r="L38" s="177" t="s">
         <v>207</v>
@@ -9333,7 +9350,7 @@
       </c>
       <c r="E39" s="39">
         <f>_xll.qlRateHelperRate($D39)</f>
-        <v>2.9679999999999998E-2</v>
+        <v>2.724E-2</v>
       </c>
       <c r="F39" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
@@ -9341,14 +9358,14 @@
       </c>
       <c r="G39" s="38">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H39" s="37">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>46140</v>
+        <v>46142</v>
       </c>
       <c r="I39" s="190">
-        <v>0.68767738449036797</v>
+        <v>0.71155340907264242</v>
       </c>
       <c r="L39" s="177" t="s">
         <v>208</v>
@@ -9363,7 +9380,7 @@
       </c>
       <c r="E40" s="39">
         <f>_xll.qlRateHelperRate($D40)</f>
-        <v>3.2070000000000001E-2</v>
+        <v>2.92E-2</v>
       </c>
       <c r="F40" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
@@ -9371,14 +9388,14 @@
       </c>
       <c r="G40" s="38">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H40" s="37">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
         <v>47238</v>
       </c>
       <c r="I40" s="190">
-        <v>0.6010204069840539</v>
+        <v>0.63230663100627083</v>
       </c>
       <c r="L40" s="177" t="s">
         <v>209</v>
@@ -9393,7 +9410,7 @@
       </c>
       <c r="E41" s="39">
         <f>_xll.qlRateHelperRate($D41)</f>
-        <v>3.4079999999999999E-2</v>
+        <v>3.0869999999999998E-2</v>
       </c>
       <c r="F41" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
@@ -9401,14 +9418,14 @@
       </c>
       <c r="G41" s="38">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H41" s="37">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
         <v>49062</v>
       </c>
       <c r="I41" s="190">
-        <v>0.48471539557630899</v>
+        <v>0.52296904035024483</v>
       </c>
       <c r="L41" s="177" t="s">
         <v>210</v>
@@ -9423,7 +9440,7 @@
       </c>
       <c r="E42" s="39">
         <f>_xll.qlRateHelperRate($D42)</f>
-        <v>3.4970000000000001E-2</v>
+        <v>3.1600000000000003E-2</v>
       </c>
       <c r="F42" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
@@ -9431,14 +9448,14 @@
       </c>
       <c r="G42" s="38">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H42" s="37">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>50888</v>
+        <v>50889</v>
       </c>
       <c r="I42" s="190">
-        <v>0.39512527969412525</v>
+        <v>0.43641118383599042</v>
       </c>
       <c r="L42" s="177" t="s">
         <v>211</v>
@@ -9453,7 +9470,7 @@
       </c>
       <c r="E43" s="39">
         <f>_xll.qlRateHelperRate($D43)</f>
-        <v>3.567E-2</v>
+        <v>3.1959999999999995E-2</v>
       </c>
       <c r="F43" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
@@ -9461,14 +9478,14 @@
       </c>
       <c r="G43" s="38">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H43" s="37">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>54541</v>
+        <v>54543</v>
       </c>
       <c r="I43" s="190">
-        <v>0.26725880738088237</v>
+        <v>0.31197030353297411</v>
       </c>
       <c r="L43" s="177" t="s">
         <v>212</v>
@@ -9483,7 +9500,7 @@
       </c>
       <c r="E44" s="39">
         <f>_xll.qlRateHelperRate($D44)</f>
-        <v>3.5680000000000003E-2</v>
+        <v>3.1989999999999998E-2</v>
       </c>
       <c r="F44" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
@@ -9491,14 +9508,14 @@
       </c>
       <c r="G44" s="38">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H44" s="37">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>56367</v>
+        <v>56369</v>
       </c>
       <c r="I44" s="190">
-        <v>0.2235873037676859</v>
+        <v>0.26536442509905256</v>
       </c>
       <c r="L44" s="177" t="s">
         <v>213</v>
@@ -9513,7 +9530,7 @@
       </c>
       <c r="E45" s="39">
         <f>_xll.qlRateHelperRate($D45)</f>
-        <v>3.5590000000000004E-2</v>
+        <v>3.1910000000000001E-2</v>
       </c>
       <c r="F45" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
@@ -9521,14 +9538,14 @@
       </c>
       <c r="G45" s="38">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H45" s="37">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>58193</v>
+        <v>58195</v>
       </c>
       <c r="I45" s="190">
-        <v>0.18902957744587393</v>
+        <v>0.22798429343299909</v>
       </c>
       <c r="L45" s="177" t="s">
         <v>214</v>
@@ -9543,7 +9560,7 @@
       </c>
       <c r="E46" s="39">
         <f>_xll.qlRateHelperRate($D46)</f>
-        <v>3.5499999999999997E-2</v>
+        <v>3.1799999999999995E-2</v>
       </c>
       <c r="F46" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
@@ -9551,14 +9568,14 @@
       </c>
       <c r="G46" s="38">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="H46" s="37">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>60020</v>
+        <v>60022</v>
       </c>
       <c r="I46" s="190">
-        <v>0.16020945108279799</v>
+        <v>0.19692498522639698</v>
       </c>
       <c r="L46" s="177" t="s">
         <v>215</v>
@@ -11533,7 +11550,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11607,7 +11624,7 @@
       </c>
       <c r="F3" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OND#0000</v>
+        <v>USD_YCONRH_OND#0001</v>
       </c>
       <c r="G3" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -11638,7 +11655,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11723,7 +11740,7 @@
       </c>
       <c r="H3" s="144" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_TND#0000</v>
+        <v>USD_YCONRH_TND#0001</v>
       </c>
       <c r="I3" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -11755,7 +11772,7 @@
       </c>
       <c r="H4" s="141" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_SND#0000</v>
+        <v>USD_YCONRH_SND#0001</v>
       </c>
       <c r="I4" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -11793,7 +11810,7 @@
   <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11913,7 +11930,7 @@
       </c>
       <c r="L4" s="170" t="str">
         <f>_xll.qlEonia(K4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS_LiborON#0000</v>
+        <v>USD_YCONRH_OIS_LiborON#0001</v>
       </c>
       <c r="M4" s="169" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -11972,7 +11989,7 @@
       </c>
       <c r="L6" s="162" t="str">
         <f>_xll.qlOISRateHelper(K6,2,C6,J6,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OISSW#0000</v>
+        <v>USD_YCONRH_OISSW#0004</v>
       </c>
       <c r="M6" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -11981,11 +11998,11 @@
       <c r="N6" s="159"/>
       <c r="P6" s="161">
         <f>_xll.qlRateHelperEarliestDate($L6)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q6" s="161">
         <f>_xll.qlRateHelperLatestDate($L6)</f>
-        <v>41764</v>
+        <v>41766</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -12024,7 +12041,7 @@
       </c>
       <c r="L7" s="162" t="str">
         <f>_xll.qlOISRateHelper(K7,2,C7,J7,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2W#0000</v>
+        <v>USD_YCONRH_OIS2W#0001</v>
       </c>
       <c r="M7" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -12033,11 +12050,11 @@
       <c r="N7" s="159"/>
       <c r="P7" s="161">
         <f>_xll.qlRateHelperEarliestDate(L7)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q7" s="161">
         <f>_xll.qlRateHelperLatestDate($L7)</f>
-        <v>41771</v>
+        <v>41773</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -12076,7 +12093,7 @@
       </c>
       <c r="L8" s="162" t="str">
         <f>_xll.qlOISRateHelper(K8,2,C8,J8,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3W#0000</v>
+        <v>USD_YCONRH_OIS3W#0001</v>
       </c>
       <c r="M8" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -12085,11 +12102,11 @@
       <c r="N8" s="159"/>
       <c r="P8" s="161">
         <f>_xll.qlRateHelperEarliestDate(L8)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q8" s="161">
         <f>_xll.qlRateHelperLatestDate($L8)</f>
-        <v>41778</v>
+        <v>41780</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -12128,7 +12145,7 @@
       </c>
       <c r="L9" s="162" t="str">
         <f>_xll.qlOISRateHelper(K9,2,C9,J9,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS1M#0000</v>
+        <v>USD_YCONRH_OIS1M#0001</v>
       </c>
       <c r="M9" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -12137,11 +12154,11 @@
       <c r="N9" s="159"/>
       <c r="P9" s="161">
         <f>_xll.qlRateHelperEarliestDate(L9)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q9" s="161">
         <f>_xll.qlRateHelperLatestDate($L9)</f>
-        <v>41787</v>
+        <v>41789</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -12180,7 +12197,7 @@
       </c>
       <c r="L10" s="162" t="str">
         <f>_xll.qlOISRateHelper(K10,2,C10,J10,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2M#0000</v>
+        <v>USD_YCONRH_OIS2M#0001</v>
       </c>
       <c r="M10" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -12189,7 +12206,7 @@
       <c r="N10" s="159"/>
       <c r="P10" s="161">
         <f>_xll.qlRateHelperEarliestDate(L10)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q10" s="161">
         <f>_xll.qlRateHelperLatestDate($L10)</f>
@@ -12232,7 +12249,7 @@
       </c>
       <c r="L11" s="162" t="str">
         <f>_xll.qlOISRateHelper(K11,2,C11,J11,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3M#0000</v>
+        <v>USD_YCONRH_OIS3M#0001</v>
       </c>
       <c r="M11" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -12241,11 +12258,11 @@
       <c r="N11" s="159"/>
       <c r="P11" s="161">
         <f>_xll.qlRateHelperEarliestDate(L11)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q11" s="161">
         <f>_xll.qlRateHelperLatestDate($L11)</f>
-        <v>41848</v>
+        <v>41851</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -12284,7 +12301,7 @@
       </c>
       <c r="L12" s="162" t="str">
         <f>_xll.qlOISRateHelper(K12,2,C12,J12,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS4M#0000</v>
+        <v>USD_YCONRH_OIS4M#0001</v>
       </c>
       <c r="M12" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -12293,11 +12310,11 @@
       <c r="N12" s="159"/>
       <c r="P12" s="161">
         <f>_xll.qlRateHelperEarliestDate(L12)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q12" s="161">
         <f>_xll.qlRateHelperLatestDate($L12)</f>
-        <v>41879</v>
+        <v>41880</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -12336,7 +12353,7 @@
       </c>
       <c r="L13" s="162" t="str">
         <f>_xll.qlOISRateHelper(K13,2,C13,J13,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS5M#0000</v>
+        <v>USD_YCONRH_OIS5M#0001</v>
       </c>
       <c r="M13" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -12345,11 +12362,11 @@
       <c r="N13" s="159"/>
       <c r="P13" s="161">
         <f>_xll.qlRateHelperEarliestDate(L13)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q13" s="161">
         <f>_xll.qlRateHelperLatestDate($L13)</f>
-        <v>41911</v>
+        <v>41912</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -12388,7 +12405,7 @@
       </c>
       <c r="L14" s="162" t="str">
         <f>_xll.qlOISRateHelper(K14,2,C14,J14,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS6M#0000</v>
+        <v>USD_YCONRH_OIS6M#0001</v>
       </c>
       <c r="M14" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -12397,11 +12414,11 @@
       <c r="N14" s="159"/>
       <c r="P14" s="161">
         <f>_xll.qlRateHelperEarliestDate(L14)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q14" s="161">
         <f>_xll.qlRateHelperLatestDate($L14)</f>
-        <v>41940</v>
+        <v>41943</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -12440,7 +12457,7 @@
       </c>
       <c r="L15" s="162" t="str">
         <f>_xll.qlOISRateHelper(K15,2,C15,J15,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS7M#0000</v>
+        <v>USD_YCONRH_OIS7M#0001</v>
       </c>
       <c r="M15" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -12449,7 +12466,7 @@
       <c r="N15" s="159"/>
       <c r="P15" s="161">
         <f>_xll.qlRateHelperEarliestDate(L15)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q15" s="161">
         <f>_xll.qlRateHelperLatestDate($L15)</f>
@@ -12492,7 +12509,7 @@
       </c>
       <c r="L16" s="162" t="str">
         <f>_xll.qlOISRateHelper(K16,2,C16,J16,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS8M#0000</v>
+        <v>USD_YCONRH_OIS8M#0001</v>
       </c>
       <c r="M16" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -12501,11 +12518,11 @@
       <c r="N16" s="159"/>
       <c r="P16" s="161">
         <f>_xll.qlRateHelperEarliestDate(L16)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q16" s="161">
         <f>_xll.qlRateHelperLatestDate($L16)</f>
-        <v>42002</v>
+        <v>42004</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -12544,7 +12561,7 @@
       </c>
       <c r="L17" s="162" t="str">
         <f>_xll.qlOISRateHelper(K17,2,C17,J17,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS9M#0000</v>
+        <v>USD_YCONRH_OIS9M#0001</v>
       </c>
       <c r="M17" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -12553,11 +12570,11 @@
       <c r="N17" s="159"/>
       <c r="P17" s="161">
         <f>_xll.qlRateHelperEarliestDate(L17)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q17" s="161">
         <f>_xll.qlRateHelperLatestDate($L17)</f>
-        <v>42032</v>
+        <v>42034</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -12596,7 +12613,7 @@
       </c>
       <c r="L18" s="162" t="str">
         <f>_xll.qlOISRateHelper(K18,2,C18,J18,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS10M#0000</v>
+        <v>USD_YCONRH_OIS10M#0001</v>
       </c>
       <c r="M18" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -12605,7 +12622,7 @@
       <c r="N18" s="159"/>
       <c r="P18" s="161">
         <f>_xll.qlRateHelperEarliestDate(L18)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q18" s="161">
         <f>_xll.qlRateHelperLatestDate($L18)</f>
@@ -12648,7 +12665,7 @@
       </c>
       <c r="L19" s="162" t="str">
         <f>_xll.qlOISRateHelper(K19,2,C19,J19,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS11M#0000</v>
+        <v>USD_YCONRH_OIS11M#0001</v>
       </c>
       <c r="M19" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -12657,11 +12674,11 @@
       <c r="N19" s="159"/>
       <c r="P19" s="161">
         <f>_xll.qlRateHelperEarliestDate(L19)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q19" s="161">
         <f>_xll.qlRateHelperLatestDate($L19)</f>
-        <v>42093</v>
+        <v>42094</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -12700,7 +12717,7 @@
       </c>
       <c r="L20" s="162" t="str">
         <f>_xll.qlOISRateHelper(K20,2,C20,J20,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS1Y#0000</v>
+        <v>USD_YCONRH_OIS1Y#0001</v>
       </c>
       <c r="M20" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -12709,11 +12726,11 @@
       <c r="N20" s="159"/>
       <c r="P20" s="161">
         <f>_xll.qlRateHelperEarliestDate(L20)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q20" s="161">
         <f>_xll.qlRateHelperLatestDate($L20)</f>
-        <v>42122</v>
+        <v>42124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -12752,7 +12769,7 @@
       </c>
       <c r="L21" s="162" t="str">
         <f>_xll.qlOISRateHelper(K21,2,C21,J21,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS13M#0000</v>
+        <v>USD_YCONRH_OIS13M#0001</v>
       </c>
       <c r="M21" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -12761,11 +12778,11 @@
       <c r="N21" s="159"/>
       <c r="P21" s="161">
         <f>_xll.qlRateHelperEarliestDate(L21)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q21" s="161">
         <f>_xll.qlRateHelperLatestDate($L21)</f>
-        <v>42152</v>
+        <v>42153</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -12804,7 +12821,7 @@
       </c>
       <c r="L22" s="162" t="str">
         <f>_xll.qlOISRateHelper(K22,2,C22,J22,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS14M#0000</v>
+        <v>USD_YCONRH_OIS14M#0001</v>
       </c>
       <c r="M22" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -12813,11 +12830,11 @@
       <c r="N22" s="159"/>
       <c r="P22" s="161">
         <f>_xll.qlRateHelperEarliestDate(L22)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q22" s="161">
         <f>_xll.qlRateHelperLatestDate($L22)</f>
-        <v>42184</v>
+        <v>42185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -12856,7 +12873,7 @@
       </c>
       <c r="L23" s="162" t="str">
         <f>_xll.qlOISRateHelper(K23,2,C23,J23,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS15M#0000</v>
+        <v>USD_YCONRH_OIS15M#0001</v>
       </c>
       <c r="M23" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -12865,11 +12882,11 @@
       <c r="N23" s="159"/>
       <c r="P23" s="161">
         <f>_xll.qlRateHelperEarliestDate(L23)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q23" s="161">
         <f>_xll.qlRateHelperLatestDate($L23)</f>
-        <v>42213</v>
+        <v>42216</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -12908,7 +12925,7 @@
       </c>
       <c r="L24" s="162" t="str">
         <f>_xll.qlOISRateHelper(K24,2,C24,J24,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS16M#0000</v>
+        <v>USD_YCONRH_OIS16M#0001</v>
       </c>
       <c r="M24" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -12917,11 +12934,11 @@
       <c r="N24" s="159"/>
       <c r="P24" s="161">
         <f>_xll.qlRateHelperEarliestDate(L24)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q24" s="161">
         <f>_xll.qlRateHelperLatestDate($L24)</f>
-        <v>42244</v>
+        <v>42247</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -12960,7 +12977,7 @@
       </c>
       <c r="L25" s="162" t="str">
         <f>_xll.qlOISRateHelper(K25,2,C25,J25,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS17M#0000</v>
+        <v>USD_YCONRH_OIS17M#0001</v>
       </c>
       <c r="M25" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -12969,11 +12986,11 @@
       <c r="N25" s="159"/>
       <c r="P25" s="161">
         <f>_xll.qlRateHelperEarliestDate(L25)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q25" s="161">
         <f>_xll.qlRateHelperLatestDate($L25)</f>
-        <v>42275</v>
+        <v>42277</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -13012,7 +13029,7 @@
       </c>
       <c r="L26" s="162" t="str">
         <f>_xll.qlOISRateHelper(K26,2,C26,J26,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS18M#0000</v>
+        <v>USD_YCONRH_OIS18M#0001</v>
       </c>
       <c r="M26" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -13021,11 +13038,11 @@
       <c r="N26" s="159"/>
       <c r="P26" s="161">
         <f>_xll.qlRateHelperEarliestDate(L26)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q26" s="161">
         <f>_xll.qlRateHelperLatestDate($L26)</f>
-        <v>42305</v>
+        <v>42307</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -13064,7 +13081,7 @@
       </c>
       <c r="L27" s="162" t="str">
         <f>_xll.qlOISRateHelper(K27,2,C27,J27,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS19M#0000</v>
+        <v>USD_YCONRH_OIS19M#0001</v>
       </c>
       <c r="M27" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -13073,7 +13090,7 @@
       <c r="N27" s="159"/>
       <c r="P27" s="161">
         <f>_xll.qlRateHelperEarliestDate(L27)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q27" s="161">
         <f>_xll.qlRateHelperLatestDate($L27)</f>
@@ -13116,7 +13133,7 @@
       </c>
       <c r="L28" s="162" t="str">
         <f>_xll.qlOISRateHelper(K28,2,C28,J28,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS20M#0000</v>
+        <v>USD_YCONRH_OIS20M#0001</v>
       </c>
       <c r="M28" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -13125,11 +13142,11 @@
       <c r="N28" s="159"/>
       <c r="P28" s="161">
         <f>_xll.qlRateHelperEarliestDate(L28)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q28" s="161">
         <f>_xll.qlRateHelperLatestDate($L28)</f>
-        <v>42366</v>
+        <v>42369</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -13168,7 +13185,7 @@
       </c>
       <c r="L29" s="162" t="str">
         <f>_xll.qlOISRateHelper(K29,2,C29,J29,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS21M#0000</v>
+        <v>USD_YCONRH_OIS21M#0001</v>
       </c>
       <c r="M29" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -13177,11 +13194,11 @@
       <c r="N29" s="159"/>
       <c r="P29" s="161">
         <f>_xll.qlRateHelperEarliestDate(L29)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q29" s="161">
         <f>_xll.qlRateHelperLatestDate($L29)</f>
-        <v>42397</v>
+        <v>42398</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -13220,7 +13237,7 @@
       </c>
       <c r="L30" s="162" t="str">
         <f>_xll.qlOISRateHelper(K30,2,C30,J30,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS22M#0000</v>
+        <v>USD_YCONRH_OIS22M#0001</v>
       </c>
       <c r="M30" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -13229,7 +13246,7 @@
       <c r="N30" s="159"/>
       <c r="P30" s="161">
         <f>_xll.qlRateHelperEarliestDate(L30)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q30" s="161">
         <f>_xll.qlRateHelperLatestDate($L30)</f>
@@ -13272,7 +13289,7 @@
       </c>
       <c r="L31" s="162" t="str">
         <f>_xll.qlOISRateHelper(K31,2,C31,J31,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS23M#0000</v>
+        <v>USD_YCONRH_OIS23M#0001</v>
       </c>
       <c r="M31" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -13281,11 +13298,11 @@
       <c r="N31" s="159"/>
       <c r="P31" s="161">
         <f>_xll.qlRateHelperEarliestDate(L31)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q31" s="161">
         <f>_xll.qlRateHelperLatestDate($L31)</f>
-        <v>42458</v>
+        <v>42460</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -13324,7 +13341,7 @@
       </c>
       <c r="L32" s="162" t="str">
         <f>_xll.qlOISRateHelper(K32,2,C32,J32,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2Y#0000</v>
+        <v>USD_YCONRH_OIS2Y#0001</v>
       </c>
       <c r="M32" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -13333,11 +13350,11 @@
       <c r="N32" s="159"/>
       <c r="P32" s="161">
         <f>_xll.qlRateHelperEarliestDate(L32)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q32" s="161">
         <f>_xll.qlRateHelperLatestDate($L32)</f>
-        <v>42488</v>
+        <v>42489</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -13376,7 +13393,7 @@
       </c>
       <c r="L33" s="162" t="str">
         <f>_xll.qlOISRateHelper(K33,2,C33,J33,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS27M#0000</v>
+        <v>USD_YCONRH_OIS27M#0001</v>
       </c>
       <c r="M33" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -13385,11 +13402,11 @@
       <c r="N33" s="159"/>
       <c r="P33" s="161">
         <f>_xll.qlRateHelperEarliestDate(L33)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q33" s="161">
         <f>_xll.qlRateHelperLatestDate($L33)</f>
-        <v>42579</v>
+        <v>42580</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -13428,7 +13445,7 @@
       </c>
       <c r="L34" s="162" t="str">
         <f>_xll.qlOISRateHelper(K34,2,C34,J34,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS30M#0000</v>
+        <v>USD_YCONRH_OIS30M#0001</v>
       </c>
       <c r="M34" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -13437,11 +13454,11 @@
       <c r="N34" s="159"/>
       <c r="P34" s="161">
         <f>_xll.qlRateHelperEarliestDate(L34)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q34" s="161">
         <f>_xll.qlRateHelperLatestDate($L34)</f>
-        <v>42671</v>
+        <v>42674</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -13480,7 +13497,7 @@
       </c>
       <c r="L35" s="162" t="str">
         <f>_xll.qlOISRateHelper(K35,2,C35,J35,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS33M#0000</v>
+        <v>USD_YCONRH_OIS33M#0001</v>
       </c>
       <c r="M35" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -13489,7 +13506,7 @@
       <c r="N35" s="159"/>
       <c r="P35" s="161">
         <f>_xll.qlRateHelperEarliestDate(L35)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q35" s="161">
         <f>_xll.qlRateHelperLatestDate($L35)</f>
@@ -13532,7 +13549,7 @@
       </c>
       <c r="L36" s="162" t="str">
         <f>_xll.qlOISRateHelper(K36,2,C36,J36,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3Y#0000</v>
+        <v>USD_YCONRH_OIS3Y#0001</v>
       </c>
       <c r="M36" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -13541,7 +13558,7 @@
       <c r="N36" s="159"/>
       <c r="P36" s="161">
         <f>_xll.qlRateHelperEarliestDate(L36)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q36" s="161">
         <f>_xll.qlRateHelperLatestDate($L36)</f>
@@ -13584,7 +13601,7 @@
       </c>
       <c r="L37" s="162" t="str">
         <f>_xll.qlOISRateHelper(K37,2,C37,J37,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS39M#0000</v>
+        <v>USD_YCONRH_OIS39M#0001</v>
       </c>
       <c r="M37" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -13593,11 +13610,11 @@
       <c r="N37" s="159"/>
       <c r="P37" s="161">
         <f>_xll.qlRateHelperEarliestDate(L37)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q37" s="161">
         <f>_xll.qlRateHelperLatestDate($L37)</f>
-        <v>42944</v>
+        <v>42947</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -13636,7 +13653,7 @@
       </c>
       <c r="L38" s="162" t="str">
         <f>_xll.qlOISRateHelper(K38,2,C38,J38,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS42M#0000</v>
+        <v>USD_YCONRH_OIS42M#0001</v>
       </c>
       <c r="M38" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -13682,7 +13699,7 @@
       </c>
       <c r="L39" s="162" t="str">
         <f>_xll.qlOISRateHelper(K39,2,C39,J39,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS45M#0000</v>
+        <v>USD_YCONRH_OIS45M#0001</v>
       </c>
       <c r="M39" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -13728,7 +13745,7 @@
       </c>
       <c r="L40" s="162" t="str">
         <f>_xll.qlOISRateHelper(K40,2,C40,J40,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS4Y#0000</v>
+        <v>USD_YCONRH_OIS4Y#0001</v>
       </c>
       <c r="M40" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -13774,7 +13791,7 @@
       </c>
       <c r="L41" s="162" t="str">
         <f>_xll.qlOISRateHelper(K41,2,C41,J41,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS51M#0000</v>
+        <v>USD_YCONRH_OIS51M#0001</v>
       </c>
       <c r="M41" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -13820,7 +13837,7 @@
       </c>
       <c r="L42" s="162" t="str">
         <f>_xll.qlOISRateHelper(K42,2,C42,J42,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS54M#0000</v>
+        <v>USD_YCONRH_OIS54M#0001</v>
       </c>
       <c r="M42" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -13866,7 +13883,7 @@
       </c>
       <c r="L43" s="162" t="str">
         <f>_xll.qlOISRateHelper(K43,2,C43,J43,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS57M#0000</v>
+        <v>USD_YCONRH_OIS57M#0001</v>
       </c>
       <c r="M43" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L43)</f>
@@ -13912,7 +13929,7 @@
       </c>
       <c r="L44" s="162" t="str">
         <f>_xll.qlOISRateHelper(K44,2,C44,J44,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS5Y#0000</v>
+        <v>USD_YCONRH_OIS5Y#0001</v>
       </c>
       <c r="M44" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -13958,7 +13975,7 @@
       </c>
       <c r="L45" s="162" t="str">
         <f>_xll.qlOISRateHelper(K45,2,C45,J45,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS6Y#0000</v>
+        <v>USD_YCONRH_OIS6Y#0001</v>
       </c>
       <c r="M45" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -14004,7 +14021,7 @@
       </c>
       <c r="L46" s="162" t="str">
         <f>_xll.qlOISRateHelper(K46,2,C46,J46,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS7Y#0000</v>
+        <v>USD_YCONRH_OIS7Y#0001</v>
       </c>
       <c r="M46" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -14050,7 +14067,7 @@
       </c>
       <c r="L47" s="162" t="str">
         <f>_xll.qlOISRateHelper(K47,2,C47,J47,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS8Y#0000</v>
+        <v>USD_YCONRH_OIS8Y#0001</v>
       </c>
       <c r="M47" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -14096,7 +14113,7 @@
       </c>
       <c r="L48" s="162" t="str">
         <f>_xll.qlOISRateHelper(K48,2,C48,J48,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS9Y#0000</v>
+        <v>USD_YCONRH_OIS9Y#0001</v>
       </c>
       <c r="M48" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -14142,7 +14159,7 @@
       </c>
       <c r="L49" s="162" t="str">
         <f>_xll.qlOISRateHelper(K49,2,C49,J49,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS10Y#0000</v>
+        <v>USD_YCONRH_OIS10Y#0001</v>
       </c>
       <c r="M49" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -14188,7 +14205,7 @@
       </c>
       <c r="L50" s="162" t="str">
         <f>_xll.qlOISRateHelper(K50,2,C50,J50,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS12Y#0000</v>
+        <v>USD_YCONRH_OIS12Y#0001</v>
       </c>
       <c r="M50" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -14234,7 +14251,7 @@
       </c>
       <c r="L51" s="162" t="str">
         <f>_xll.qlOISRateHelper(K51,2,C51,J51,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS15Y#0000</v>
+        <v>USD_YCONRH_OIS15Y#0001</v>
       </c>
       <c r="M51" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L51)</f>
@@ -14280,7 +14297,7 @@
       </c>
       <c r="L52" s="162" t="str">
         <f>_xll.qlOISRateHelper(K52,2,C52,J52,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS20Y#0000</v>
+        <v>USD_YCONRH_OIS20Y#0001</v>
       </c>
       <c r="M52" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L52)</f>
@@ -14326,7 +14343,7 @@
       </c>
       <c r="L53" s="162" t="str">
         <f>_xll.qlOISRateHelper(K53,2,C53,J53,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS25Y#0000</v>
+        <v>USD_YCONRH_OIS25Y#0001</v>
       </c>
       <c r="M53" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L53)</f>
@@ -14372,7 +14389,7 @@
       </c>
       <c r="L54" s="162" t="str">
         <f>_xll.qlOISRateHelper(K54,2,C54,J54,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS27Y#0000</v>
+        <v>USD_YCONRH_OIS27Y#0001</v>
       </c>
       <c r="M54" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L54)</f>
@@ -14418,7 +14435,7 @@
       </c>
       <c r="L55" s="162" t="str">
         <f>_xll.qlOISRateHelper(K55,2,C55,J55,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS30Y#0000</v>
+        <v>USD_YCONRH_OIS30Y#0001</v>
       </c>
       <c r="M55" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L55)</f>
@@ -14464,7 +14481,7 @@
       </c>
       <c r="L56" s="162" t="str">
         <f>_xll.qlOISRateHelper(K56,2,C56,J56,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS35Y#0000</v>
+        <v>USD_YCONRH_OIS35Y#0001</v>
       </c>
       <c r="M56" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L56)</f>
@@ -14510,7 +14527,7 @@
       </c>
       <c r="L57" s="162" t="str">
         <f>_xll.qlOISRateHelper(K57,2,C57,J57,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS40Y#0000</v>
+        <v>USD_YCONRH_OIS40Y#0001</v>
       </c>
       <c r="M57" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L57)</f>
@@ -14556,7 +14573,7 @@
       </c>
       <c r="L58" s="162" t="str">
         <f>_xll.qlOISRateHelper(K58,2,C58,J58,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS45Y#0000</v>
+        <v>USD_YCONRH_OIS45Y#0001</v>
       </c>
       <c r="M58" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L58)</f>
@@ -14602,7 +14619,7 @@
       </c>
       <c r="L59" s="162" t="str">
         <f>_xll.qlOISRateHelper(K59,2,C59,J59,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS50Y#0000</v>
+        <v>USD_YCONRH_OIS50Y#0001</v>
       </c>
       <c r="M59" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L59)</f>
@@ -14611,11 +14628,11 @@
       <c r="N59" s="159"/>
       <c r="P59" s="161">
         <f>_xll.qlRateHelperEarliestDate(L59)</f>
-        <v>41757</v>
+        <v>41759</v>
       </c>
       <c r="Q59" s="161">
         <f>_xll.qlRateHelperLatestDate($L59)</f>
-        <v>60020</v>
+        <v>60022</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">

--- a/QuantLibXL/Data2/XLS/USD_YCONBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YCONBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15300" windowHeight="7995" tabRatio="821" activeTab="2"/>
+    <workbookView xWindow="10155" yWindow="-15" windowWidth="5085" windowHeight="8235" tabRatio="821" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="225">
   <si>
     <t>60Y</t>
   </si>
@@ -878,9 +878,6 @@
     <t>USD_YCONRH_OIS50Y</t>
   </si>
   <si>
-    <t>FedFund</t>
-  </si>
-  <si>
     <t>MonotonicLogCubicNaturalSpline</t>
   </si>
   <si>
@@ -888,6 +885,12 @@
   </si>
   <si>
     <t>JoinHolidays</t>
+  </si>
+  <si>
+    <t>UsdFedFunds</t>
+  </si>
+  <si>
+    <t>USDFedFunds</t>
   </si>
 </sst>
 </file>
@@ -1965,6 +1968,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1989,9 +1995,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2308,14 +2311,14 @@
   <dimension ref="B1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="2.7109375" style="180" customWidth="1"/>
     <col min="3" max="3" width="18" style="180" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="180" customWidth="1"/>
+    <col min="4" max="4" width="47" style="180" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="180" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.7109375" style="180" customWidth="1"/>
     <col min="8" max="8" width="4" style="180" bestFit="1" customWidth="1"/>
@@ -2330,23 +2333,23 @@
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="180" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 18 2014 11:20:01</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 29 2014 14:47:17</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="192" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="193"/>
-      <c r="K2" s="191" t="s">
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="194"/>
+      <c r="K2" s="192" t="s">
         <v>150</v>
       </c>
-      <c r="L2" s="192"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="194"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="195"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="59"/>
@@ -2477,12 +2480,12 @@
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="56"/>
-      <c r="K9" s="191" t="s">
+      <c r="K9" s="192" t="s">
         <v>146</v>
       </c>
-      <c r="L9" s="192"/>
-      <c r="M9" s="192"/>
-      <c r="N9" s="194"/>
+      <c r="L9" s="193"/>
+      <c r="M9" s="193"/>
+      <c r="N9" s="195"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="59"/>
@@ -2504,7 +2507,9 @@
       <c r="C11" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="84">
+        <v>41761.485127314816</v>
+      </c>
       <c r="E11" s="57"/>
       <c r="F11" s="56"/>
       <c r="K11" s="125"/>
@@ -2558,10 +2563,10 @@
       </c>
       <c r="D14" s="81" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYCON#0002</v>
+        <v>_USDYCON#0001</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F14" s="56"/>
       <c r="K14" s="125"/>
@@ -2602,7 +2607,7 @@
         <v>_USDYCON</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F16" s="56"/>
     </row>
@@ -2622,11 +2627,14 @@
       <c r="C18" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="200" t="str">
+      <c r="D18" s="191" t="str">
         <f>E14&amp;"("&amp;E15&amp;","&amp;E16&amp;")"</f>
         <v>JoinHolidays(UnitedKingdom::Exchange,UnitedStates::Settlement)</v>
       </c>
-      <c r="E18" s="57"/>
+      <c r="E18" s="57" t="str">
+        <f>_xll.qlIndexFixingCalendar("USDFEDFUNDS")</f>
+        <v>JoinHolidays(London stock exchange, US settlement)</v>
+      </c>
       <c r="F18" s="56"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -2703,7 +2711,7 @@
         <v>107</v>
       </c>
       <c r="D25" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E25" s="57"/>
       <c r="F25" s="56"/>
@@ -2719,7 +2727,7 @@
       <c r="B27" s="59"/>
       <c r="C27" s="63">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41757</v>
+        <v>41761</v>
       </c>
       <c r="D27" s="62">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2732,11 +2740,11 @@
       <c r="B28" s="59"/>
       <c r="C28" s="61">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>60022</v>
+        <v>60029</v>
       </c>
       <c r="D28" s="60">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.19692498522639698</v>
+        <v>0.19913176651883227</v>
       </c>
       <c r="E28" s="57"/>
       <c r="F28" s="56"/>
@@ -2837,11 +2845,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="196" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="198"/>
       <c r="E1" s="32" t="s">
         <v>96</v>
       </c>
@@ -2875,11 +2883,11 @@
       </c>
       <c r="E2" s="14" t="str">
         <f>ON_Deposits!F3</f>
-        <v>USD_YCONRH_OND#0001</v>
+        <v>USD_YCONRH_OND#0000</v>
       </c>
       <c r="F2" s="13">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>1.2999999999999999E-3</v>
+        <v>1.5000000000000002E-3</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="179" t="b">
@@ -2893,11 +2901,11 @@
       </c>
       <c r="K2" s="12">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41757</v>
+        <v>41761</v>
       </c>
       <c r="L2" s="11">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41758</v>
+        <v>41765</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2908,11 +2916,11 @@
       </c>
       <c r="E3" s="14" t="str">
         <f>ON_FRAs!H3</f>
-        <v>USD_YCONRH_TND#0001</v>
+        <v>USD_YCONRH_TND#0000</v>
       </c>
       <c r="F3" s="13">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
-        <v>1.2999999999999999E-3</v>
+        <v>1.5000000000000002E-3</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="179" t="b">
@@ -2926,11 +2934,11 @@
       </c>
       <c r="K3" s="12">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="L3" s="11">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2941,11 +2949,11 @@
       </c>
       <c r="E4" s="14" t="str">
         <f>ON_FRAs!H4</f>
-        <v>USD_YCONRH_SND#0001</v>
+        <v>USD_YCONRH_SND#0000</v>
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>1.2999999999999999E-3</v>
+        <v>1.5000000000000002E-3</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="6" t="b">
@@ -2959,11 +2967,11 @@
       </c>
       <c r="K4" s="12">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L4" s="11">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41761</v>
+        <v>41767</v>
       </c>
     </row>
     <row r="5" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4159,11 +4167,11 @@
       </c>
       <c r="E35" s="21" t="str">
         <f>ON_Swaps!L6</f>
-        <v>USD_YCONRH_OISSW#0004</v>
+        <v>USD_YCONRH_OISSW#0000</v>
       </c>
       <c r="F35" s="20">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
-        <v>1.06E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="G35" s="20" t="e">
         <f>_xll.qlSwapRateHelperSpread($E35,Trigger)</f>
@@ -4181,11 +4189,11 @@
       </c>
       <c r="K35" s="18">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L35" s="17">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>41766</v>
+        <v>41773</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
@@ -4199,11 +4207,11 @@
       </c>
       <c r="E36" s="14" t="str">
         <f>ON_Swaps!L7</f>
-        <v>USD_YCONRH_OIS2W#0001</v>
+        <v>USD_YCONRH_OIS2W#0000</v>
       </c>
       <c r="F36" s="13">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
-        <v>9.8999999999999999E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="G36" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E36,Trigger)</f>
@@ -4221,11 +4229,11 @@
       </c>
       <c r="K36" s="12">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L36" s="11">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>41773</v>
+        <v>41780</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
@@ -4239,11 +4247,11 @@
       </c>
       <c r="E37" s="14" t="str">
         <f>ON_Swaps!L8</f>
-        <v>USD_YCONRH_OIS3W#0001</v>
+        <v>USD_YCONRH_OIS3W#0000</v>
       </c>
       <c r="F37" s="13">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
-        <v>9.7000000000000005E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="G37" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E37,Trigger)</f>
@@ -4261,11 +4269,11 @@
       </c>
       <c r="K37" s="12">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L37" s="11">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>41780</v>
+        <v>41787</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
@@ -4279,11 +4287,11 @@
       </c>
       <c r="E38" s="14" t="str">
         <f>ON_Swaps!L9</f>
-        <v>USD_YCONRH_OIS1M#0001</v>
+        <v>USD_YCONRH_OIS1M#0000</v>
       </c>
       <c r="F38" s="13">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>9.6000000000000002E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="G38" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E38,Trigger)</f>
@@ -4301,11 +4309,11 @@
       </c>
       <c r="K38" s="12">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L38" s="11">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>41789</v>
+        <v>41799</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
@@ -4319,11 +4327,11 @@
       </c>
       <c r="E39" s="14" t="str">
         <f>ON_Swaps!L10</f>
-        <v>USD_YCONRH_OIS2M#0001</v>
+        <v>USD_YCONRH_OIS2M#0000</v>
       </c>
       <c r="F39" s="13">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
-        <v>9.5E-4</v>
+        <v>9.2000000000000003E-4</v>
       </c>
       <c r="G39" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E39,Trigger)</f>
@@ -4341,11 +4349,11 @@
       </c>
       <c r="K39" s="12">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L39" s="11">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>41820</v>
+        <v>41827</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
@@ -4359,11 +4367,11 @@
       </c>
       <c r="E40" s="14" t="str">
         <f>ON_Swaps!L11</f>
-        <v>USD_YCONRH_OIS3M#0001</v>
+        <v>USD_YCONRH_OIS3M#0000</v>
       </c>
       <c r="F40" s="13">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
-        <v>9.5E-4</v>
+        <v>9.2999999999999995E-4</v>
       </c>
       <c r="G40" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E40,Trigger)</f>
@@ -4381,11 +4389,11 @@
       </c>
       <c r="K40" s="12">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L40" s="11">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
-        <v>41851</v>
+        <v>41858</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
@@ -4399,11 +4407,11 @@
       </c>
       <c r="E41" s="14" t="str">
         <f>ON_Swaps!L12</f>
-        <v>USD_YCONRH_OIS4M#0001</v>
+        <v>USD_YCONRH_OIS4M#0000</v>
       </c>
       <c r="F41" s="13">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>9.7999999999999997E-4</v>
+        <v>9.5E-4</v>
       </c>
       <c r="G41" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E41,Trigger)</f>
@@ -4421,11 +4429,11 @@
       </c>
       <c r="K41" s="12">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L41" s="11">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
-        <v>41880</v>
+        <v>41890</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
@@ -4439,11 +4447,11 @@
       </c>
       <c r="E42" s="14" t="str">
         <f>ON_Swaps!L13</f>
-        <v>USD_YCONRH_OIS5M#0001</v>
+        <v>USD_YCONRH_OIS5M#0000</v>
       </c>
       <c r="F42" s="13">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>1E-3</v>
+        <v>9.7000000000000005E-4</v>
       </c>
       <c r="G42" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E42,Trigger)</f>
@@ -4461,11 +4469,11 @@
       </c>
       <c r="K42" s="12">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L42" s="11">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
-        <v>41912</v>
+        <v>41919</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
@@ -4479,11 +4487,11 @@
       </c>
       <c r="E43" s="14" t="str">
         <f>ON_Swaps!L14</f>
-        <v>USD_YCONRH_OIS6M#0001</v>
+        <v>USD_YCONRH_OIS6M#0000</v>
       </c>
       <c r="F43" s="13">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
-        <v>1.0200000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="G43" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E43,Trigger)</f>
@@ -4501,11 +4509,11 @@
       </c>
       <c r="K43" s="12">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L43" s="11">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
-        <v>41943</v>
+        <v>41950</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
@@ -4519,11 +4527,11 @@
       </c>
       <c r="E44" s="14" t="str">
         <f>ON_Swaps!L15</f>
-        <v>USD_YCONRH_OIS7M#0001</v>
+        <v>USD_YCONRH_OIS7M#0000</v>
       </c>
       <c r="F44" s="13">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>1.0499999999999999E-3</v>
+        <v>1.0299999999999999E-3</v>
       </c>
       <c r="G44" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E44,Trigger)</f>
@@ -4541,11 +4549,11 @@
       </c>
       <c r="K44" s="12">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L44" s="11">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
-        <v>41971</v>
+        <v>41981</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
@@ -4559,11 +4567,11 @@
       </c>
       <c r="E45" s="14" t="str">
         <f>ON_Swaps!L16</f>
-        <v>USD_YCONRH_OIS8M#0001</v>
+        <v>USD_YCONRH_OIS8M#0000</v>
       </c>
       <c r="F45" s="13">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>1.08E-3</v>
+        <v>1.06E-3</v>
       </c>
       <c r="G45" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E45,Trigger)</f>
@@ -4581,11 +4589,11 @@
       </c>
       <c r="K45" s="12">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L45" s="11">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
-        <v>42004</v>
+        <v>42011</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
@@ -4599,11 +4607,11 @@
       </c>
       <c r="E46" s="14" t="str">
         <f>ON_Swaps!L17</f>
-        <v>USD_YCONRH_OIS9M#0001</v>
+        <v>USD_YCONRH_OIS9M#0000</v>
       </c>
       <c r="F46" s="13">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
-        <v>1.1200000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="G46" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E46,Trigger)</f>
@@ -4621,11 +4629,11 @@
       </c>
       <c r="K46" s="12">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L46" s="11">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
-        <v>42034</v>
+        <v>42044</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
@@ -4639,11 +4647,11 @@
       </c>
       <c r="E47" s="14" t="str">
         <f>ON_Swaps!L18</f>
-        <v>USD_YCONRH_OIS10M#0001</v>
+        <v>USD_YCONRH_OIS10M#0000</v>
       </c>
       <c r="F47" s="13">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>1.17E-3</v>
+        <v>1.15E-3</v>
       </c>
       <c r="G47" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E47,Trigger)</f>
@@ -4661,11 +4669,11 @@
       </c>
       <c r="K47" s="12">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L47" s="11">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
-        <v>42062</v>
+        <v>42072</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
@@ -4679,11 +4687,11 @@
       </c>
       <c r="E48" s="14" t="str">
         <f>ON_Swaps!L19</f>
-        <v>USD_YCONRH_OIS11M#0001</v>
+        <v>USD_YCONRH_OIS11M#0000</v>
       </c>
       <c r="F48" s="13">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>1.23E-3</v>
+        <v>1.2099999999999999E-3</v>
       </c>
       <c r="G48" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E48,Trigger)</f>
@@ -4701,11 +4709,11 @@
       </c>
       <c r="K48" s="12">
         <f>_xll.qlRateHelperEarliestDate($E48,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L48" s="11">
         <f>_xll.qlRateHelperLatestDate($E48,Trigger)</f>
-        <v>42094</v>
+        <v>42101</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
@@ -4719,11 +4727,11 @@
       </c>
       <c r="E49" s="14" t="str">
         <f>ON_Swaps!L20</f>
-        <v>USD_YCONRH_OIS1Y#0001</v>
+        <v>USD_YCONRH_OIS1Y#0000</v>
       </c>
       <c r="F49" s="13">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
-        <v>1.31E-3</v>
+        <v>1.2900000000000001E-3</v>
       </c>
       <c r="G49" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E49,Trigger)</f>
@@ -4741,11 +4749,11 @@
       </c>
       <c r="K49" s="12">
         <f>_xll.qlRateHelperEarliestDate($E49,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L49" s="11">
         <f>_xll.qlRateHelperLatestDate($E49,Trigger)</f>
-        <v>42124</v>
+        <v>42131</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
@@ -4762,7 +4770,7 @@
       </c>
       <c r="E50" s="14" t="str">
         <f>ON_Swaps!L21</f>
-        <v>USD_YCONRH_OIS13M#0001</v>
+        <v>USD_YCONRH_OIS13M#0000</v>
       </c>
       <c r="F50" s="13">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
@@ -4784,11 +4792,11 @@
       </c>
       <c r="K50" s="12">
         <f>_xll.qlRateHelperEarliestDate($E50,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L50" s="11">
         <f>_xll.qlRateHelperLatestDate($E50,Trigger)</f>
-        <v>42153</v>
+        <v>42163</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
@@ -4805,11 +4813,11 @@
       </c>
       <c r="E51" s="14" t="str">
         <f>ON_Swaps!L22</f>
-        <v>USD_YCONRH_OIS14M#0001</v>
+        <v>USD_YCONRH_OIS14M#0000</v>
       </c>
       <c r="F51" s="13">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>1.5200000000000003E-3</v>
+        <v>1.5100000000000003E-3</v>
       </c>
       <c r="G51" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E51,Trigger)</f>
@@ -4827,11 +4835,11 @@
       </c>
       <c r="K51" s="12">
         <f>_xll.qlRateHelperEarliestDate($E51,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L51" s="11">
         <f>_xll.qlRateHelperLatestDate($E51,Trigger)</f>
-        <v>42185</v>
+        <v>42192</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
@@ -4848,11 +4856,11 @@
       </c>
       <c r="E52" s="14" t="str">
         <f>ON_Swaps!L23</f>
-        <v>USD_YCONRH_OIS15M#0001</v>
+        <v>USD_YCONRH_OIS15M#0000</v>
       </c>
       <c r="F52" s="13">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>1.6599999999999998E-3</v>
+        <v>1.6499999999999998E-3</v>
       </c>
       <c r="G52" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E52,Trigger)</f>
@@ -4870,11 +4878,11 @@
       </c>
       <c r="K52" s="12">
         <f>_xll.qlRateHelperEarliestDate($E52,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L52" s="11">
         <f>_xll.qlRateHelperLatestDate($E52,Trigger)</f>
-        <v>42216</v>
+        <v>42223</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
@@ -4891,7 +4899,7 @@
       </c>
       <c r="E53" s="14" t="str">
         <f>ON_Swaps!L24</f>
-        <v>USD_YCONRH_OIS16M#0001</v>
+        <v>USD_YCONRH_OIS16M#0000</v>
       </c>
       <c r="F53" s="13">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
@@ -4913,11 +4921,11 @@
       </c>
       <c r="K53" s="12">
         <f>_xll.qlRateHelperEarliestDate($E53,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L53" s="11">
         <f>_xll.qlRateHelperLatestDate($E53,Trigger)</f>
-        <v>42247</v>
+        <v>42255</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
@@ -4934,11 +4942,11 @@
       </c>
       <c r="E54" s="14" t="str">
         <f>ON_Swaps!L25</f>
-        <v>USD_YCONRH_OIS17M#0001</v>
+        <v>USD_YCONRH_OIS17M#0000</v>
       </c>
       <c r="F54" s="13">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>2.0100000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="G54" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E54,Trigger)</f>
@@ -4956,11 +4964,11 @@
       </c>
       <c r="K54" s="12">
         <f>_xll.qlRateHelperEarliestDate($E54,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L54" s="11">
         <f>_xll.qlRateHelperLatestDate($E54,Trigger)</f>
-        <v>42277</v>
+        <v>42284</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
@@ -4977,11 +4985,11 @@
       </c>
       <c r="E55" s="14" t="str">
         <f>ON_Swaps!L26</f>
-        <v>USD_YCONRH_OIS18M#0001</v>
+        <v>USD_YCONRH_OIS18M#0000</v>
       </c>
       <c r="F55" s="13">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>2.2099999999999997E-3</v>
+        <v>2.1999999999999997E-3</v>
       </c>
       <c r="G55" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E55,Trigger)</f>
@@ -4999,11 +5007,11 @@
       </c>
       <c r="K55" s="12">
         <f>_xll.qlRateHelperEarliestDate($E55,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L55" s="11">
         <f>_xll.qlRateHelperLatestDate($E55,Trigger)</f>
-        <v>42307</v>
+        <v>42317</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
@@ -5020,11 +5028,11 @@
       </c>
       <c r="E56" s="14" t="str">
         <f>ON_Swaps!L27</f>
-        <v>USD_YCONRH_OIS19M#0001</v>
+        <v>USD_YCONRH_OIS19M#0000</v>
       </c>
       <c r="F56" s="13">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>2.4499999999999999E-3</v>
+        <v>2.4299999999999999E-3</v>
       </c>
       <c r="G56" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E56,Trigger)</f>
@@ -5042,11 +5050,11 @@
       </c>
       <c r="K56" s="12">
         <f>_xll.qlRateHelperEarliestDate($E56,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L56" s="11">
         <f>_xll.qlRateHelperLatestDate($E56,Trigger)</f>
-        <v>42338</v>
+        <v>42345</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
@@ -5063,11 +5071,11 @@
       </c>
       <c r="E57" s="14" t="str">
         <f>ON_Swaps!L28</f>
-        <v>USD_YCONRH_OIS20M#0001</v>
+        <v>USD_YCONRH_OIS20M#0000</v>
       </c>
       <c r="F57" s="13">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>2.6900000000000001E-3</v>
+        <v>2.66E-3</v>
       </c>
       <c r="G57" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E57,Trigger)</f>
@@ -5085,11 +5093,11 @@
       </c>
       <c r="K57" s="12">
         <f>_xll.qlRateHelperEarliestDate($E57,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L57" s="11">
         <f>_xll.qlRateHelperLatestDate($E57,Trigger)</f>
-        <v>42369</v>
+        <v>42376</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
@@ -5106,11 +5114,11 @@
       </c>
       <c r="E58" s="14" t="str">
         <f>ON_Swaps!L29</f>
-        <v>USD_YCONRH_OIS21M#0001</v>
+        <v>USD_YCONRH_OIS21M#0000</v>
       </c>
       <c r="F58" s="13">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>2.9500000000000004E-3</v>
+        <v>2.9400000000000003E-3</v>
       </c>
       <c r="G58" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E58,Trigger)</f>
@@ -5128,11 +5136,11 @@
       </c>
       <c r="K58" s="12">
         <f>_xll.qlRateHelperEarliestDate($E58,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L58" s="11">
         <f>_xll.qlRateHelperLatestDate($E58,Trigger)</f>
-        <v>42398</v>
+        <v>42408</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
@@ -5149,11 +5157,11 @@
       </c>
       <c r="E59" s="14" t="str">
         <f>ON_Swaps!L30</f>
-        <v>USD_YCONRH_OIS22M#0001</v>
+        <v>USD_YCONRH_OIS22M#0000</v>
       </c>
       <c r="F59" s="13">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>3.2400000000000003E-3</v>
+        <v>3.1900000000000001E-3</v>
       </c>
       <c r="G59" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E59,Trigger)</f>
@@ -5171,11 +5179,11 @@
       </c>
       <c r="K59" s="12">
         <f>_xll.qlRateHelperEarliestDate($E59,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L59" s="11">
         <f>_xll.qlRateHelperLatestDate($E59,Trigger)</f>
-        <v>42429</v>
+        <v>42436</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
@@ -5192,11 +5200,11 @@
       </c>
       <c r="E60" s="14" t="str">
         <f>ON_Swaps!L31</f>
-        <v>USD_YCONRH_OIS23M#0001</v>
+        <v>USD_YCONRH_OIS23M#0000</v>
       </c>
       <c r="F60" s="13">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>3.5499999999999998E-3</v>
+        <v>3.4799999999999996E-3</v>
       </c>
       <c r="G60" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E60,Trigger)</f>
@@ -5214,11 +5222,11 @@
       </c>
       <c r="K60" s="12">
         <f>_xll.qlRateHelperEarliestDate($E60,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L60" s="11">
         <f>_xll.qlRateHelperLatestDate($E60,Trigger)</f>
-        <v>42460</v>
+        <v>42467</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
@@ -5235,11 +5243,11 @@
       </c>
       <c r="E61" s="14" t="str">
         <f>ON_Swaps!L32</f>
-        <v>USD_YCONRH_OIS2Y#0001</v>
+        <v>USD_YCONRH_OIS2Y#0000</v>
       </c>
       <c r="F61" s="13">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>3.8500000000000001E-3</v>
+        <v>3.7799999999999999E-3</v>
       </c>
       <c r="G61" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E61,Trigger)</f>
@@ -5257,11 +5265,11 @@
       </c>
       <c r="K61" s="12">
         <f>_xll.qlRateHelperEarliestDate($E61,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L61" s="11">
         <f>_xll.qlRateHelperLatestDate($E61,Trigger)</f>
-        <v>42489</v>
+        <v>42499</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.2">
@@ -5278,11 +5286,11 @@
       </c>
       <c r="E62" s="14" t="str">
         <f>ON_Swaps!L33</f>
-        <v>USD_YCONRH_OIS27M#0001</v>
+        <v>USD_YCONRH_OIS27M#0000</v>
       </c>
       <c r="F62" s="13">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
-        <v>4.8799999999999998E-3</v>
+        <v>4.81E-3</v>
       </c>
       <c r="G62" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E62,Trigger)</f>
@@ -5299,11 +5307,11 @@
       </c>
       <c r="K62" s="12">
         <f>_xll.qlRateHelperEarliestDate($E62,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L62" s="11">
         <f>_xll.qlRateHelperLatestDate($E62,Trigger)</f>
-        <v>42580</v>
+        <v>42590</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
@@ -5320,11 +5328,11 @@
       </c>
       <c r="E63" s="14" t="str">
         <f>ON_Swaps!L34</f>
-        <v>USD_YCONRH_OIS30M#0001</v>
+        <v>USD_YCONRH_OIS30M#0000</v>
       </c>
       <c r="F63" s="13">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>5.9899999999999997E-3</v>
+        <v>5.8499999999999993E-3</v>
       </c>
       <c r="G63" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E63,Trigger)</f>
@@ -5341,11 +5349,11 @@
       </c>
       <c r="K63" s="12">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L63" s="11">
         <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>42674</v>
+        <v>42681</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
@@ -5362,11 +5370,11 @@
       </c>
       <c r="E64" s="14" t="str">
         <f>ON_Swaps!L35</f>
-        <v>USD_YCONRH_OIS33M#0001</v>
+        <v>USD_YCONRH_OIS33M#0000</v>
       </c>
       <c r="F64" s="13">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
-        <v>7.1100000000000009E-3</v>
+        <v>6.9199999999999991E-3</v>
       </c>
       <c r="G64" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E64,Trigger)</f>
@@ -5383,11 +5391,11 @@
       </c>
       <c r="K64" s="12">
         <f>_xll.qlRateHelperEarliestDate($E64,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L64" s="11">
         <f>_xll.qlRateHelperLatestDate($E64,Trigger)</f>
-        <v>42765</v>
+        <v>42773</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
@@ -5404,11 +5412,11 @@
       </c>
       <c r="E65" s="14" t="str">
         <f>ON_Swaps!L36</f>
-        <v>USD_YCONRH_OIS3Y#0001</v>
+        <v>USD_YCONRH_OIS3Y#0000</v>
       </c>
       <c r="F65" s="13">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>8.1799999999999998E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G65" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E65,Trigger)</f>
@@ -5425,11 +5433,11 @@
       </c>
       <c r="K65" s="12">
         <f>_xll.qlRateHelperEarliestDate($E65,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L65" s="11">
         <f>_xll.qlRateHelperLatestDate($E65,Trigger)</f>
-        <v>42853</v>
+        <v>42863</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
@@ -5446,11 +5454,11 @@
       </c>
       <c r="E66" s="14" t="str">
         <f>ON_Swaps!L37</f>
-        <v>USD_YCONRH_OIS39M#0001</v>
+        <v>USD_YCONRH_OIS39M#0000</v>
       </c>
       <c r="F66" s="13">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
-        <v>9.3200000000000002E-3</v>
+        <v>9.0500000000000008E-3</v>
       </c>
       <c r="G66" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E66,Trigger)</f>
@@ -5467,11 +5475,11 @@
       </c>
       <c r="K66" s="12">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L66" s="11">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>42947</v>
+        <v>42954</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
@@ -5488,11 +5496,11 @@
       </c>
       <c r="E67" s="14" t="str">
         <f>ON_Swaps!L38</f>
-        <v>USD_YCONRH_OIS42M#0001</v>
+        <v>USD_YCONRH_OIS42M#0000</v>
       </c>
       <c r="F67" s="13">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
-        <v>1.0470000000000002E-2</v>
+        <v>1.004E-2</v>
       </c>
       <c r="G67" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E67,Trigger)</f>
@@ -5509,11 +5517,11 @@
       </c>
       <c r="K67" s="12">
         <f>_xll.qlRateHelperEarliestDate($E67,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L67" s="11">
         <f>_xll.qlRateHelperLatestDate($E67,Trigger)</f>
-        <v>43038</v>
+        <v>43046</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
@@ -5530,11 +5538,11 @@
       </c>
       <c r="E68" s="14" t="str">
         <f>ON_Swaps!L39</f>
-        <v>USD_YCONRH_OIS45M#0001</v>
+        <v>USD_YCONRH_OIS45M#0000</v>
       </c>
       <c r="F68" s="13">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
-        <v>1.1440000000000001E-2</v>
+        <v>1.1059999999999999E-2</v>
       </c>
       <c r="G68" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E68,Trigger)</f>
@@ -5551,11 +5559,11 @@
       </c>
       <c r="K68" s="12">
         <f>_xll.qlRateHelperEarliestDate($E68,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L68" s="11">
         <f>_xll.qlRateHelperLatestDate($E68,Trigger)</f>
-        <v>43130</v>
+        <v>43138</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
@@ -5572,11 +5580,11 @@
       </c>
       <c r="E69" s="14" t="str">
         <f>ON_Swaps!L40</f>
-        <v>USD_YCONRH_OIS4Y#0001</v>
+        <v>USD_YCONRH_OIS4Y#0000</v>
       </c>
       <c r="F69" s="13">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
-        <v>1.2460000000000001E-2</v>
+        <v>1.1979999999999999E-2</v>
       </c>
       <c r="G69" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E69,Trigger)</f>
@@ -5593,11 +5601,11 @@
       </c>
       <c r="K69" s="12">
         <f>_xll.qlRateHelperEarliestDate($E69,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L69" s="11">
         <f>_xll.qlRateHelperLatestDate($E69,Trigger)</f>
-        <v>43220</v>
+        <v>43228</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
@@ -5614,11 +5622,11 @@
       </c>
       <c r="E70" s="14" t="str">
         <f>ON_Swaps!L41</f>
-        <v>USD_YCONRH_OIS51M#0001</v>
+        <v>USD_YCONRH_OIS51M#0000</v>
       </c>
       <c r="F70" s="13">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
-        <v>1.3380000000000001E-2</v>
+        <v>1.2919999999999997E-2</v>
       </c>
       <c r="G70" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E70,Trigger)</f>
@@ -5635,11 +5643,11 @@
       </c>
       <c r="K70" s="12">
         <f>_xll.qlRateHelperEarliestDate($E70,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L70" s="11">
         <f>_xll.qlRateHelperLatestDate($E70,Trigger)</f>
-        <v>43311</v>
+        <v>43319</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
@@ -5656,11 +5664,11 @@
       </c>
       <c r="E71" s="14" t="str">
         <f>ON_Swaps!L42</f>
-        <v>USD_YCONRH_OIS54M#0001</v>
+        <v>USD_YCONRH_OIS54M#0000</v>
       </c>
       <c r="F71" s="13">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
-        <v>1.4329999999999999E-2</v>
+        <v>1.3769999999999999E-2</v>
       </c>
       <c r="G71" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E71,Trigger)</f>
@@ -5677,11 +5685,11 @@
       </c>
       <c r="K71" s="12">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L71" s="11">
         <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>43403</v>
+        <v>43411</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
@@ -5698,11 +5706,11 @@
       </c>
       <c r="E72" s="14" t="str">
         <f>ON_Swaps!L43</f>
-        <v>USD_YCONRH_OIS57M#0001</v>
+        <v>USD_YCONRH_OIS57M#0000</v>
       </c>
       <c r="F72" s="13">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
-        <v>1.5190000000000002E-2</v>
+        <v>1.4660000000000001E-2</v>
       </c>
       <c r="G72" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E72,Trigger)</f>
@@ -5719,11 +5727,11 @@
       </c>
       <c r="K72" s="12">
         <f>_xll.qlRateHelperEarliestDate($E72,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L72" s="11">
         <f>_xll.qlRateHelperLatestDate($E72,Trigger)</f>
-        <v>43495</v>
+        <v>43503</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
@@ -5740,11 +5748,11 @@
       </c>
       <c r="E73" s="14" t="str">
         <f>ON_Swaps!L44</f>
-        <v>USD_YCONRH_OIS5Y#0001</v>
+        <v>USD_YCONRH_OIS5Y#0000</v>
       </c>
       <c r="F73" s="13">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
-        <v>1.6E-2</v>
+        <v>1.5440000000000001E-2</v>
       </c>
       <c r="G73" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E73,Trigger)</f>
@@ -5762,11 +5770,11 @@
       </c>
       <c r="K73" s="12">
         <f>_xll.qlRateHelperEarliestDate($E73,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L73" s="11">
         <f>_xll.qlRateHelperLatestDate($E73,Trigger)</f>
-        <v>43585</v>
+        <v>43592</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
@@ -5783,11 +5791,11 @@
       </c>
       <c r="E74" s="14" t="str">
         <f>ON_Swaps!L45</f>
-        <v>USD_YCONRH_OIS6Y#0001</v>
+        <v>USD_YCONRH_OIS6Y#0000</v>
       </c>
       <c r="F74" s="13">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
-        <v>1.881E-2</v>
+        <v>1.8189999999999998E-2</v>
       </c>
       <c r="G74" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E74,Trigger)</f>
@@ -5805,11 +5813,11 @@
       </c>
       <c r="K74" s="12">
         <f>_xll.qlRateHelperEarliestDate($E74,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L74" s="11">
         <f>_xll.qlRateHelperLatestDate($E74,Trigger)</f>
-        <v>43951</v>
+        <v>43958</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
@@ -5826,11 +5834,11 @@
       </c>
       <c r="E75" s="14" t="str">
         <f>ON_Swaps!L46</f>
-        <v>USD_YCONRH_OIS7Y#0001</v>
+        <v>USD_YCONRH_OIS7Y#0000</v>
       </c>
       <c r="F75" s="13">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
-        <v>2.0979999999999999E-2</v>
+        <v>2.0409999999999998E-2</v>
       </c>
       <c r="G75" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E75,Trigger)</f>
@@ -5848,11 +5856,11 @@
       </c>
       <c r="K75" s="12">
         <f>_xll.qlRateHelperEarliestDate($E75,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L75" s="11">
         <f>_xll.qlRateHelperLatestDate($E75,Trigger)</f>
-        <v>44316</v>
+        <v>44323</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
@@ -5869,11 +5877,11 @@
       </c>
       <c r="E76" s="14" t="str">
         <f>ON_Swaps!L47</f>
-        <v>USD_YCONRH_OIS8Y#0001</v>
+        <v>USD_YCONRH_OIS8Y#0000</v>
       </c>
       <c r="F76" s="13">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
-        <v>2.274E-2</v>
+        <v>2.215E-2</v>
       </c>
       <c r="G76" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E76,Trigger)</f>
@@ -5891,11 +5899,11 @@
       </c>
       <c r="K76" s="12">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L76" s="11">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>44680</v>
+        <v>44690</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
@@ -5912,11 +5920,11 @@
       </c>
       <c r="E77" s="14" t="str">
         <f>ON_Swaps!L48</f>
-        <v>USD_YCONRH_OIS9Y#0001</v>
+        <v>USD_YCONRH_OIS9Y#0000</v>
       </c>
       <c r="F77" s="13">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
-        <v>2.4150000000000001E-2</v>
+        <v>2.368E-2</v>
       </c>
       <c r="G77" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E77,Trigger)</f>
@@ -5934,11 +5942,11 @@
       </c>
       <c r="K77" s="12">
         <f>_xll.qlRateHelperEarliestDate($E77,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L77" s="11">
         <f>_xll.qlRateHelperLatestDate($E77,Trigger)</f>
-        <v>45044</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
@@ -5955,11 +5963,11 @@
       </c>
       <c r="E78" s="14" t="str">
         <f>ON_Swaps!L49</f>
-        <v>USD_YCONRH_OIS10Y#0001</v>
+        <v>USD_YCONRH_OIS10Y#0000</v>
       </c>
       <c r="F78" s="13">
         <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
-        <v>2.5329999999999998E-2</v>
+        <v>2.4929999999999997E-2</v>
       </c>
       <c r="G78" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E78,Trigger)</f>
@@ -5977,11 +5985,11 @@
       </c>
       <c r="K78" s="12">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L78" s="11">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>45412</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
@@ -5998,11 +6006,11 @@
       </c>
       <c r="E79" s="14" t="str">
         <f>ON_Swaps!L50</f>
-        <v>USD_YCONRH_OIS12Y#0001</v>
+        <v>USD_YCONRH_OIS12Y#0000</v>
       </c>
       <c r="F79" s="13">
         <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
-        <v>2.724E-2</v>
+        <v>2.6859999999999998E-2</v>
       </c>
       <c r="G79" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E79,Trigger)</f>
@@ -6020,11 +6028,11 @@
       </c>
       <c r="K79" s="12">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L79" s="11">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>46142</v>
+        <v>46149</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
@@ -6041,11 +6049,11 @@
       </c>
       <c r="E80" s="14" t="str">
         <f>ON_Swaps!L51</f>
-        <v>USD_YCONRH_OIS15Y#0001</v>
+        <v>USD_YCONRH_OIS15Y#0000</v>
       </c>
       <c r="F80" s="13">
         <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
-        <v>2.92E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="G80" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E80,Trigger)</f>
@@ -6063,11 +6071,11 @@
       </c>
       <c r="K80" s="12">
         <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L80" s="11">
         <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
-        <v>47238</v>
+        <v>47246</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
@@ -6081,11 +6089,11 @@
       </c>
       <c r="E81" s="14" t="str">
         <f>ON_Swaps!L52</f>
-        <v>USD_YCONRH_OIS20Y#0001</v>
+        <v>USD_YCONRH_OIS20Y#0000</v>
       </c>
       <c r="F81" s="13">
         <f>_xll.qlRateHelperQuoteValue($E81,Trigger)</f>
-        <v>3.0869999999999998E-2</v>
+        <v>3.056E-2</v>
       </c>
       <c r="G81" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E81,Trigger)</f>
@@ -6103,11 +6111,11 @@
       </c>
       <c r="K81" s="12">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L81" s="11">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>49062</v>
+        <v>49072</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
@@ -6121,11 +6129,11 @@
       </c>
       <c r="E82" s="14" t="str">
         <f>ON_Swaps!L53</f>
-        <v>USD_YCONRH_OIS25Y#0001</v>
+        <v>USD_YCONRH_OIS25Y#0000</v>
       </c>
       <c r="F82" s="13">
         <f>_xll.qlRateHelperQuoteValue($E82,Trigger)</f>
-        <v>3.1600000000000003E-2</v>
+        <v>3.1329999999999997E-2</v>
       </c>
       <c r="G82" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E82,Trigger)</f>
@@ -6142,11 +6150,11 @@
       </c>
       <c r="K82" s="12">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L82" s="11">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>50889</v>
+        <v>50899</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
@@ -6160,7 +6168,7 @@
       </c>
       <c r="E83" s="14" t="str">
         <f>ON_Swaps!L54</f>
-        <v>USD_YCONRH_OIS27Y#0001</v>
+        <v>USD_YCONRH_OIS27Y#0000</v>
       </c>
       <c r="F83" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
@@ -6182,11 +6190,11 @@
       </c>
       <c r="K83" s="12">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L83" s="11">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>51621</v>
+        <v>51628</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
@@ -6203,11 +6211,11 @@
       </c>
       <c r="E84" s="14" t="str">
         <f>ON_Swaps!L55</f>
-        <v>USD_YCONRH_OIS30Y#0001</v>
+        <v>USD_YCONRH_OIS30Y#0000</v>
       </c>
       <c r="F84" s="13">
         <f>_xll.qlRateHelperQuoteValue($E84,Trigger)</f>
-        <v>3.1910000000000001E-2</v>
+        <v>3.1669999999999997E-2</v>
       </c>
       <c r="G84" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E84,Trigger)</f>
@@ -6224,11 +6232,11 @@
       </c>
       <c r="K84" s="12">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L84" s="11">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>52716</v>
+        <v>52726</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
@@ -6245,11 +6253,11 @@
       </c>
       <c r="E85" s="14" t="str">
         <f>ON_Swaps!L56</f>
-        <v>USD_YCONRH_OIS35Y#0001</v>
+        <v>USD_YCONRH_OIS35Y#0000</v>
       </c>
       <c r="F85" s="13">
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
-        <v>3.1959999999999995E-2</v>
+        <v>3.1719999999999998E-2</v>
       </c>
       <c r="G85" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E85,Trigger)</f>
@@ -6267,11 +6275,11 @@
       </c>
       <c r="K85" s="12">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L85" s="11">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>54543</v>
+        <v>54550</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
@@ -6288,11 +6296,11 @@
       </c>
       <c r="E86" s="14" t="str">
         <f>ON_Swaps!L57</f>
-        <v>USD_YCONRH_OIS40Y#0001</v>
+        <v>USD_YCONRH_OIS40Y#0000</v>
       </c>
       <c r="F86" s="13">
         <f>_xll.qlRateHelperQuoteValue($E86,Trigger)</f>
-        <v>3.1989999999999998E-2</v>
+        <v>3.1739999999999997E-2</v>
       </c>
       <c r="G86" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E86,Trigger)</f>
@@ -6310,11 +6318,11 @@
       </c>
       <c r="K86" s="12">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L86" s="11">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>56369</v>
+        <v>56376</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
@@ -6331,11 +6339,11 @@
       </c>
       <c r="E87" s="14" t="str">
         <f>ON_Swaps!L58</f>
-        <v>USD_YCONRH_OIS45Y#0001</v>
+        <v>USD_YCONRH_OIS45Y#0000</v>
       </c>
       <c r="F87" s="13">
         <f>_xll.qlRateHelperQuoteValue($E87,Trigger)</f>
-        <v>3.1910000000000001E-2</v>
+        <v>3.1649999999999998E-2</v>
       </c>
       <c r="G87" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E87,Trigger)</f>
@@ -6353,11 +6361,11 @@
       </c>
       <c r="K87" s="12">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L87" s="11">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>58195</v>
+        <v>58202</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
@@ -6374,11 +6382,11 @@
       </c>
       <c r="E88" s="8" t="str">
         <f>ON_Swaps!L59</f>
-        <v>USD_YCONRH_OIS50Y#0001</v>
+        <v>USD_YCONRH_OIS50Y#0000</v>
       </c>
       <c r="F88" s="7">
         <f>_xll.qlRateHelperQuoteValue($E88,Trigger)</f>
-        <v>3.1799999999999995E-2</v>
+        <v>3.1550000000000002E-2</v>
       </c>
       <c r="G88" s="7" t="e">
         <f>_xll.qlSwapRateHelperSpread($E88,Trigger)</f>
@@ -6396,11 +6404,11 @@
       </c>
       <c r="K88" s="4">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L88" s="3">
         <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>60022</v>
+        <v>60029</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
@@ -8032,10 +8040,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="199" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="199"/>
+      <c r="B1" s="200"/>
       <c r="D1" s="51" t="s">
         <v>105</v>
       </c>
@@ -8067,7 +8075,7 @@
       </c>
       <c r="E2" s="39">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>1.2999999999999999E-3</v>
+        <v>1.5000000000000002E-3</v>
       </c>
       <c r="F2" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -8075,14 +8083,14 @@
       </c>
       <c r="G2" s="38">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41757</v>
+        <v>41761</v>
       </c>
       <c r="H2" s="37">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="I2" s="190">
-        <v>0.99999638890192899</v>
+        <v>0.99998333361110636</v>
       </c>
       <c r="L2" s="177" t="s">
         <v>171</v>
@@ -8103,7 +8111,7 @@
       </c>
       <c r="E3" s="39">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>1.2999999999999999E-3</v>
+        <v>1.5000000000000002E-3</v>
       </c>
       <c r="F3" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -8111,14 +8119,14 @@
       </c>
       <c r="G3" s="38">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="H3" s="37">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="I3" s="190">
-        <v>0.99999277781689799</v>
+        <v>0.99997916703131484</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J37" si="0">H3-H2</f>
@@ -8143,7 +8151,7 @@
       </c>
       <c r="E4" s="39">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>1.06E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="F4" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -8151,14 +8159,14 @@
       </c>
       <c r="G4" s="38">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H4" s="37">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41766</v>
+        <v>41773</v>
       </c>
       <c r="I4" s="190">
-        <v>0.99997216727937177</v>
+        <v>0.99996166770212991</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
@@ -8183,7 +8191,7 @@
       </c>
       <c r="E5" s="39">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>9.8999999999999999E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="F5" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -8191,14 +8199,14 @@
       </c>
       <c r="G5" s="38">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H5" s="37">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41773</v>
+        <v>41780</v>
       </c>
       <c r="I5" s="190">
-        <v>0.99995427957690763</v>
+        <v>0.99994416898535787</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
@@ -8224,7 +8232,7 @@
       </c>
       <c r="E6" s="39">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>9.7000000000000005E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="F6" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -8232,14 +8240,14 @@
       </c>
       <c r="G6" s="38">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H6" s="37">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41780</v>
+        <v>41787</v>
       </c>
       <c r="I6" s="190">
-        <v>0.99993619809376078</v>
+        <v>0.99992667088127629</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
@@ -8266,7 +8274,7 @@
       </c>
       <c r="E7" s="39">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>9.6000000000000002E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="F7" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -8274,18 +8282,18 @@
       </c>
       <c r="G7" s="38">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H7" s="37">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41789</v>
+        <v>41799</v>
       </c>
       <c r="I7" s="190">
-        <v>0.99991278479417467</v>
+        <v>0.99989667555557626</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L7" s="177" t="s">
         <v>176</v>
@@ -8300,7 +8308,7 @@
       </c>
       <c r="E8" s="39">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>9.5E-4</v>
+        <v>9.2000000000000003E-4</v>
       </c>
       <c r="F8" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -8308,18 +8316,18 @@
       </c>
       <c r="G8" s="38">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H8" s="37">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41820</v>
+        <v>41827</v>
       </c>
       <c r="I8" s="190">
-        <v>0.99983183266494535</v>
+        <v>0.99982330568710609</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L8" s="177" t="s">
         <v>177</v>
@@ -8334,7 +8342,7 @@
       </c>
       <c r="E9" s="39">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>9.5E-4</v>
+        <v>9.2999999999999995E-4</v>
       </c>
       <c r="F9" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -8342,14 +8350,14 @@
       </c>
       <c r="G9" s="38">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H9" s="37">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41851</v>
+        <v>41858</v>
       </c>
       <c r="I9" s="190">
-        <v>0.99975006071890637</v>
+        <v>0.99974156178693296</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
@@ -8368,7 +8376,7 @@
       </c>
       <c r="E10" s="39">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>9.7999999999999997E-4</v>
+        <v>9.5E-4</v>
       </c>
       <c r="F10" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -8376,18 +8384,18 @@
       </c>
       <c r="G10" s="38">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H10" s="37">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41880</v>
+        <v>41890</v>
       </c>
       <c r="I10" s="190">
-        <v>0.99966349976744673</v>
+        <v>0.99965205866310236</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L10" s="177" t="s">
         <v>179</v>
@@ -8402,7 +8410,7 @@
       </c>
       <c r="E11" s="39">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>1E-3</v>
+        <v>9.7000000000000005E-4</v>
       </c>
       <c r="F11" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -8410,18 +8418,18 @@
       </c>
       <c r="G11" s="38">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H11" s="37">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="I11" s="190">
-        <v>0.99956796143333781</v>
+        <v>0.99956709549643075</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L11" s="177" t="s">
         <v>180</v>
@@ -8436,7 +8444,7 @@
       </c>
       <c r="E12" s="39">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>1.0200000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F12" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -8444,14 +8452,14 @@
       </c>
       <c r="G12" s="38">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H12" s="37">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41943</v>
+        <v>41950</v>
       </c>
       <c r="I12" s="190">
-        <v>0.9994717198935934</v>
+        <v>0.99946832766384208</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
@@ -8470,7 +8478,7 @@
       </c>
       <c r="E13" s="39">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>1.0499999999999999E-3</v>
+        <v>1.0299999999999999E-3</v>
       </c>
       <c r="F13" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -8478,18 +8486,18 @@
       </c>
       <c r="G13" s="38">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H13" s="37">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>41971</v>
+        <v>41981</v>
       </c>
       <c r="I13" s="190">
-        <v>0.9993748310463676</v>
+        <v>0.9993644191129466</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L13" s="177" t="s">
         <v>182</v>
@@ -8504,7 +8512,7 @@
       </c>
       <c r="E14" s="39">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>1.08E-3</v>
+        <v>1.06E-3</v>
       </c>
       <c r="F14" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -8512,18 +8520,18 @@
       </c>
       <c r="G14" s="38">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H14" s="37">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42004</v>
+        <v>42011</v>
       </c>
       <c r="I14" s="190">
-        <v>0.9992583229495301</v>
+        <v>0.99925831318705183</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L14" s="177" t="s">
         <v>183</v>
@@ -8538,7 +8546,7 @@
       </c>
       <c r="E15" s="39">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>1.1200000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F15" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -8546,18 +8554,18 @@
       </c>
       <c r="G15" s="38">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H15" s="37">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42034</v>
+        <v>42044</v>
       </c>
       <c r="I15" s="190">
-        <v>0.99913795978463771</v>
+        <v>0.99913046121176319</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L15" s="177" t="s">
         <v>184</v>
@@ -8572,7 +8580,7 @@
       </c>
       <c r="E16" s="39">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.17E-3</v>
+        <v>1.15E-3</v>
       </c>
       <c r="F16" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -8580,14 +8588,14 @@
       </c>
       <c r="G16" s="38">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H16" s="37">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42062</v>
+        <v>42072</v>
       </c>
       <c r="I16" s="190">
-        <v>0.99900900370050383</v>
+        <v>0.99900264194880983</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
@@ -8606,7 +8614,7 @@
       </c>
       <c r="E17" s="39">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.23E-3</v>
+        <v>1.2099999999999999E-3</v>
       </c>
       <c r="F17" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -8614,18 +8622,18 @@
       </c>
       <c r="G17" s="38">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H17" s="37">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="I17" s="190">
-        <v>0.99884951131374033</v>
+        <v>0.9988544846275822</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L17" s="177" t="s">
         <v>186</v>
@@ -8640,7 +8648,7 @@
       </c>
       <c r="E18" s="39">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.31E-3</v>
+        <v>1.2900000000000001E-3</v>
       </c>
       <c r="F18" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -8648,14 +8656,14 @@
       </c>
       <c r="G18" s="38">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H18" s="37">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42124</v>
+        <v>42131</v>
       </c>
       <c r="I18" s="190">
-        <v>0.99866635471271514</v>
+        <v>0.99867298598839116</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="0"/>
@@ -8682,18 +8690,18 @@
       </c>
       <c r="G19" s="38">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H19" s="37">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42153</v>
+        <v>42163</v>
       </c>
       <c r="I19" s="190">
-        <v>0.99846262201212022</v>
+        <v>0.99843735622737473</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L19" s="177" t="s">
         <v>188</v>
@@ -8708,7 +8716,7 @@
       </c>
       <c r="E20" s="39">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.5200000000000003E-3</v>
+        <v>1.5100000000000003E-3</v>
       </c>
       <c r="F20" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -8716,18 +8724,18 @@
       </c>
       <c r="G20" s="38">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H20" s="37">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>42185</v>
+        <v>42192</v>
       </c>
       <c r="I20" s="190">
-        <v>0.9981966309136151</v>
+        <v>0.99819482719330499</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L20" s="177" t="s">
         <v>189</v>
@@ -8742,7 +8750,7 @@
       </c>
       <c r="E21" s="39">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.6599999999999998E-3</v>
+        <v>1.6499999999999998E-3</v>
       </c>
       <c r="F21" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -8750,14 +8758,14 @@
       </c>
       <c r="G21" s="38">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H21" s="37">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>42216</v>
+        <v>42223</v>
       </c>
       <c r="I21" s="190">
-        <v>0.99788864032392377</v>
+        <v>0.99788769437071201</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
@@ -8784,18 +8792,18 @@
       </c>
       <c r="G22" s="38">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H22" s="37">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>42247</v>
+        <v>42255</v>
       </c>
       <c r="I22" s="190">
-        <v>0.99751613865223243</v>
+        <v>0.99749745663173206</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L22" s="177" t="s">
         <v>191</v>
@@ -8810,7 +8818,7 @@
       </c>
       <c r="E23" s="39">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.0100000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F23" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -8818,18 +8826,18 @@
       </c>
       <c r="G23" s="38">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H23" s="37">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>42277</v>
+        <v>42284</v>
       </c>
       <c r="I23" s="190">
-        <v>0.99710580137736304</v>
+        <v>0.99710653958441386</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L23" s="177" t="s">
         <v>192</v>
@@ -8844,7 +8852,7 @@
       </c>
       <c r="E24" s="39">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.2099999999999997E-3</v>
+        <v>2.1999999999999997E-3</v>
       </c>
       <c r="F24" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -8852,18 +8860,18 @@
       </c>
       <c r="G24" s="38">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H24" s="37">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>42307</v>
+        <v>42317</v>
       </c>
       <c r="I24" s="190">
-        <v>0.99663543480598804</v>
+        <v>0.9966187481438451</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L24" s="177" t="s">
         <v>193</v>
@@ -8878,7 +8886,7 @@
       </c>
       <c r="E25" s="39">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.4499999999999999E-3</v>
+        <v>2.4299999999999999E-3</v>
       </c>
       <c r="F25" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -8886,18 +8894,18 @@
       </c>
       <c r="G25" s="38">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H25" s="37">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>42338</v>
+        <v>42345</v>
       </c>
       <c r="I25" s="190">
-        <v>0.99606141008076721</v>
+        <v>0.996079849120032</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L25" s="177" t="s">
         <v>194</v>
@@ -8912,7 +8920,7 @@
       </c>
       <c r="E26" s="39">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.6900000000000001E-3</v>
+        <v>2.66E-3</v>
       </c>
       <c r="F26" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -8920,14 +8928,14 @@
       </c>
       <c r="G26" s="38">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H26" s="37">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>42369</v>
+        <v>42376</v>
       </c>
       <c r="I26" s="190">
-        <v>0.9954466953032477</v>
+        <v>0.99548369945068149</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="0"/>
@@ -8946,7 +8954,7 @@
       </c>
       <c r="E27" s="39">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.9500000000000004E-3</v>
+        <v>2.9400000000000003E-3</v>
       </c>
       <c r="F27" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -8954,18 +8962,18 @@
       </c>
       <c r="G27" s="38">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H27" s="37">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>42398</v>
+        <v>42408</v>
       </c>
       <c r="I27" s="190">
-        <v>0.9947722544538099</v>
+        <v>0.99475199450201934</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L27" s="177" t="s">
         <v>196</v>
@@ -8980,7 +8988,7 @@
       </c>
       <c r="E28" s="39">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>3.2400000000000003E-3</v>
+        <v>3.1900000000000001E-3</v>
       </c>
       <c r="F28" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -8988,18 +8996,18 @@
       </c>
       <c r="G28" s="38">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H28" s="37">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>42429</v>
+        <v>42436</v>
       </c>
       <c r="I28" s="190">
-        <v>0.99398367365747853</v>
+        <v>0.99406256130836945</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L28" s="177" t="s">
         <v>197</v>
@@ -9014,7 +9022,7 @@
       </c>
       <c r="E29" s="39">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>3.5499999999999998E-3</v>
+        <v>3.4799999999999996E-3</v>
       </c>
       <c r="F29" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -9022,14 +9030,14 @@
       </c>
       <c r="G29" s="38">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H29" s="37">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>42460</v>
+        <v>42467</v>
       </c>
       <c r="I29" s="190">
-        <v>0.99310777536253569</v>
+        <v>0.99322950640893859</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="0"/>
@@ -9048,7 +9056,7 @@
       </c>
       <c r="E30" s="39">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>3.8500000000000001E-3</v>
+        <v>3.7799999999999999E-3</v>
       </c>
       <c r="F30" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -9056,18 +9064,18 @@
       </c>
       <c r="G30" s="38">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H30" s="37">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>42489</v>
+        <v>42499</v>
       </c>
       <c r="I30" s="190">
-        <v>0.99222140275805149</v>
+        <v>0.99231743823119301</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L30" s="177" t="s">
         <v>199</v>
@@ -9082,7 +9090,7 @@
       </c>
       <c r="E31" s="39">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>8.1799999999999998E-3</v>
+        <v>7.9899999999999988E-3</v>
       </c>
       <c r="F31" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -9090,14 +9098,14 @@
       </c>
       <c r="G31" s="38">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H31" s="37">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>42853</v>
+        <v>42863</v>
       </c>
       <c r="I31" s="190">
-        <v>0.97541359155410901</v>
+        <v>0.9759000574101041</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="0"/>
@@ -9116,7 +9124,7 @@
       </c>
       <c r="E32" s="39">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>1.2460000000000001E-2</v>
+        <v>1.1960000000000002E-2</v>
       </c>
       <c r="F32" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -9124,18 +9132,18 @@
       </c>
       <c r="G32" s="38">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H32" s="37">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>43220</v>
+        <v>43228</v>
       </c>
       <c r="I32" s="190">
-        <v>0.95047982941296616</v>
+        <v>0.95238709229188634</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L32" s="177" t="s">
         <v>201</v>
@@ -9150,7 +9158,7 @@
       </c>
       <c r="E33" s="39">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>1.6E-2</v>
+        <v>1.541E-2</v>
       </c>
       <c r="F33" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -9158,18 +9166,18 @@
       </c>
       <c r="G33" s="38">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H33" s="37">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>43585</v>
+        <v>43592</v>
       </c>
       <c r="I33" s="190">
-        <v>0.92146454514249376</v>
+        <v>0.92425754696415952</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L33" s="177" t="s">
         <v>202</v>
@@ -9184,7 +9192,7 @@
       </c>
       <c r="E34" s="39">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>1.881E-2</v>
+        <v>1.8170000000000002E-2</v>
       </c>
       <c r="F34" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -9192,14 +9200,14 @@
       </c>
       <c r="G34" s="38">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H34" s="37">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>43951</v>
+        <v>43958</v>
       </c>
       <c r="I34" s="190">
-        <v>0.89064085390931669</v>
+        <v>0.8941774743048474</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="0"/>
@@ -9218,7 +9226,7 @@
       </c>
       <c r="E35" s="39">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>2.0979999999999999E-2</v>
+        <v>2.0409999999999998E-2</v>
       </c>
       <c r="F35" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -9226,14 +9234,14 @@
       </c>
       <c r="G35" s="38">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H35" s="37">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="I35" s="190">
-        <v>0.85973774428778293</v>
+        <v>0.86327017036000353</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="0"/>
@@ -9252,7 +9260,7 @@
       </c>
       <c r="E36" s="39">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>2.274E-2</v>
+        <v>2.215E-2</v>
       </c>
       <c r="F36" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -9260,18 +9268,18 @@
       </c>
       <c r="G36" s="38">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H36" s="37">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>44680</v>
+        <v>44690</v>
       </c>
       <c r="I36" s="190">
-        <v>0.82891291278483903</v>
+        <v>0.83280998248738836</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L36" s="177" t="s">
         <v>205</v>
@@ -9286,7 +9294,7 @@
       </c>
       <c r="E37" s="39">
         <f>_xll.qlRateHelperRate($D37)</f>
-        <v>2.4150000000000001E-2</v>
+        <v>2.368E-2</v>
       </c>
       <c r="F37" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
@@ -9294,14 +9302,14 @@
       </c>
       <c r="G37" s="38">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H37" s="37">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>45044</v>
+        <v>45054</v>
       </c>
       <c r="I37" s="190">
-        <v>0.79879970099135589</v>
+        <v>0.80205906662058801</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="0"/>
@@ -9320,7 +9328,7 @@
       </c>
       <c r="E38" s="39">
         <f>_xll.qlRateHelperRate($D38)</f>
-        <v>2.5329999999999998E-2</v>
+        <v>2.4929999999999997E-2</v>
       </c>
       <c r="F38" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
@@ -9328,14 +9336,14 @@
       </c>
       <c r="G38" s="38">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H38" s="37">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>45412</v>
+        <v>45419</v>
       </c>
       <c r="I38" s="190">
-        <v>0.76905606573791763</v>
+        <v>0.77209574120638758</v>
       </c>
       <c r="L38" s="177" t="s">
         <v>207</v>
@@ -9350,7 +9358,7 @@
       </c>
       <c r="E39" s="39">
         <f>_xll.qlRateHelperRate($D39)</f>
-        <v>2.724E-2</v>
+        <v>2.6859999999999998E-2</v>
       </c>
       <c r="F39" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
@@ -9358,14 +9366,14 @@
       </c>
       <c r="G39" s="38">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H39" s="37">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>46142</v>
+        <v>46149</v>
       </c>
       <c r="I39" s="190">
-        <v>0.71155340907264242</v>
+        <v>0.7147538089222033</v>
       </c>
       <c r="L39" s="177" t="s">
         <v>208</v>
@@ -9380,7 +9388,7 @@
       </c>
       <c r="E40" s="39">
         <f>_xll.qlRateHelperRate($D40)</f>
-        <v>2.92E-2</v>
+        <v>2.886E-2</v>
       </c>
       <c r="F40" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
@@ -9388,14 +9396,14 @@
       </c>
       <c r="G40" s="38">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H40" s="37">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>47238</v>
+        <v>47246</v>
       </c>
       <c r="I40" s="190">
-        <v>0.63230663100627083</v>
+        <v>0.63537506066750526</v>
       </c>
       <c r="L40" s="177" t="s">
         <v>209</v>
@@ -9410,7 +9418,7 @@
       </c>
       <c r="E41" s="39">
         <f>_xll.qlRateHelperRate($D41)</f>
-        <v>3.0869999999999998E-2</v>
+        <v>3.056E-2</v>
       </c>
       <c r="F41" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
@@ -9418,14 +9426,14 @@
       </c>
       <c r="G41" s="38">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H41" s="37">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>49062</v>
+        <v>49072</v>
       </c>
       <c r="I41" s="190">
-        <v>0.52296904035024483</v>
+        <v>0.5259156349257329</v>
       </c>
       <c r="L41" s="177" t="s">
         <v>210</v>
@@ -9440,7 +9448,7 @@
       </c>
       <c r="E42" s="39">
         <f>_xll.qlRateHelperRate($D42)</f>
-        <v>3.1600000000000003E-2</v>
+        <v>3.1329999999999997E-2</v>
       </c>
       <c r="F42" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
@@ -9448,14 +9456,14 @@
       </c>
       <c r="G42" s="38">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H42" s="37">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>50889</v>
+        <v>50899</v>
       </c>
       <c r="I42" s="190">
-        <v>0.43641118383599042</v>
+        <v>0.4389071953124794</v>
       </c>
       <c r="L42" s="177" t="s">
         <v>211</v>
@@ -9470,7 +9478,7 @@
       </c>
       <c r="E43" s="39">
         <f>_xll.qlRateHelperRate($D43)</f>
-        <v>3.1959999999999995E-2</v>
+        <v>3.1719999999999998E-2</v>
       </c>
       <c r="F43" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
@@ -9478,14 +9486,14 @@
       </c>
       <c r="G43" s="38">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H43" s="37">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>54543</v>
+        <v>54550</v>
       </c>
       <c r="I43" s="190">
-        <v>0.31197030353297411</v>
+        <v>0.31416549117725623</v>
       </c>
       <c r="L43" s="177" t="s">
         <v>212</v>
@@ -9500,7 +9508,7 @@
       </c>
       <c r="E44" s="39">
         <f>_xll.qlRateHelperRate($D44)</f>
-        <v>3.1989999999999998E-2</v>
+        <v>3.1739999999999997E-2</v>
       </c>
       <c r="F44" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
@@ -9508,14 +9516,14 @@
       </c>
       <c r="G44" s="38">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H44" s="37">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>56369</v>
+        <v>56376</v>
       </c>
       <c r="I44" s="190">
-        <v>0.26536442509905256</v>
+        <v>0.26776167758521707</v>
       </c>
       <c r="L44" s="177" t="s">
         <v>213</v>
@@ -9530,7 +9538,7 @@
       </c>
       <c r="E45" s="39">
         <f>_xll.qlRateHelperRate($D45)</f>
-        <v>3.1910000000000001E-2</v>
+        <v>3.1649999999999998E-2</v>
       </c>
       <c r="F45" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
@@ -9538,14 +9546,14 @@
       </c>
       <c r="G45" s="38">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H45" s="37">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>58195</v>
+        <v>58202</v>
       </c>
       <c r="I45" s="190">
-        <v>0.22798429343299909</v>
+        <v>0.23053541348972773</v>
       </c>
       <c r="L45" s="177" t="s">
         <v>214</v>
@@ -9560,7 +9568,7 @@
       </c>
       <c r="E46" s="39">
         <f>_xll.qlRateHelperRate($D46)</f>
-        <v>3.1799999999999995E-2</v>
+        <v>3.1550000000000002E-2</v>
       </c>
       <c r="F46" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
@@ -9568,14 +9576,14 @@
       </c>
       <c r="G46" s="38">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H46" s="37">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>60022</v>
+        <v>60029</v>
       </c>
       <c r="I46" s="190">
-        <v>0.19692498522639698</v>
+        <v>0.19913176651883227</v>
       </c>
       <c r="L46" s="177" t="s">
         <v>215</v>
@@ -11557,7 +11565,7 @@
   <cols>
     <col min="1" max="1" width="3" style="97" customWidth="1"/>
     <col min="2" max="2" width="4.140625" style="97" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="97" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="97" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="97" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="97" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="97" bestFit="1" customWidth="1"/>
@@ -11612,7 +11620,7 @@
         <v>131</v>
       </c>
       <c r="C3" s="105" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D3" s="104" t="str">
         <f>Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
@@ -11624,7 +11632,7 @@
       </c>
       <c r="F3" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OND#0001</v>
+        <v>USD_YCONRH_OND#0000</v>
       </c>
       <c r="G3" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -11664,7 +11672,7 @@
     <col min="2" max="2" width="3" style="112" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="112" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" style="138" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="138" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="138" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="112" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="112" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" style="137" bestFit="1" customWidth="1"/>
@@ -11728,7 +11736,7 @@
         <v>152</v>
       </c>
       <c r="E3" s="144" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F3" s="144" t="str">
         <f>Currency&amp;C3&amp;D3&amp;"_Quote"</f>
@@ -11740,7 +11748,7 @@
       </c>
       <c r="H3" s="144" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_TND#0001</v>
+        <v>USD_YCONRH_TND#0000</v>
       </c>
       <c r="I3" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -11760,7 +11768,7 @@
         <v>152</v>
       </c>
       <c r="E4" s="141" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F4" s="141" t="str">
         <f>Currency&amp;C4&amp;D4&amp;"_Quote"</f>
@@ -11772,7 +11780,7 @@
       </c>
       <c r="H4" s="141" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_SND#0001</v>
+        <v>USD_YCONRH_SND#0000</v>
       </c>
       <c r="I4" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -11929,8 +11937,8 @@
         <v>USD_YCONRH_OIS_LiborON</v>
       </c>
       <c r="L4" s="170" t="str">
-        <f>_xll.qlEonia(K4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS_LiborON#0001</v>
+        <f>_xll.qlOvernightIndex(K4,"usd-no-fix",0,"USD",Calendar,"act/360",,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>USD_YCONRH_OIS_LiborON#0000</v>
       </c>
       <c r="M4" s="169" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -11989,7 +11997,7 @@
       </c>
       <c r="L6" s="162" t="str">
         <f>_xll.qlOISRateHelper(K6,2,C6,J6,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OISSW#0004</v>
+        <v>USD_YCONRH_OISSW#0000</v>
       </c>
       <c r="M6" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -11998,11 +12006,11 @@
       <c r="N6" s="159"/>
       <c r="P6" s="161">
         <f>_xll.qlRateHelperEarliestDate($L6)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q6" s="161">
         <f>_xll.qlRateHelperLatestDate($L6)</f>
-        <v>41766</v>
+        <v>41773</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -12041,7 +12049,7 @@
       </c>
       <c r="L7" s="162" t="str">
         <f>_xll.qlOISRateHelper(K7,2,C7,J7,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2W#0001</v>
+        <v>USD_YCONRH_OIS2W#0000</v>
       </c>
       <c r="M7" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -12050,11 +12058,11 @@
       <c r="N7" s="159"/>
       <c r="P7" s="161">
         <f>_xll.qlRateHelperEarliestDate(L7)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q7" s="161">
         <f>_xll.qlRateHelperLatestDate($L7)</f>
-        <v>41773</v>
+        <v>41780</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -12093,7 +12101,7 @@
       </c>
       <c r="L8" s="162" t="str">
         <f>_xll.qlOISRateHelper(K8,2,C8,J8,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3W#0001</v>
+        <v>USD_YCONRH_OIS3W#0000</v>
       </c>
       <c r="M8" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -12102,11 +12110,11 @@
       <c r="N8" s="159"/>
       <c r="P8" s="161">
         <f>_xll.qlRateHelperEarliestDate(L8)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q8" s="161">
         <f>_xll.qlRateHelperLatestDate($L8)</f>
-        <v>41780</v>
+        <v>41787</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -12145,7 +12153,7 @@
       </c>
       <c r="L9" s="162" t="str">
         <f>_xll.qlOISRateHelper(K9,2,C9,J9,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS1M#0001</v>
+        <v>USD_YCONRH_OIS1M#0000</v>
       </c>
       <c r="M9" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -12154,11 +12162,11 @@
       <c r="N9" s="159"/>
       <c r="P9" s="161">
         <f>_xll.qlRateHelperEarliestDate(L9)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q9" s="161">
         <f>_xll.qlRateHelperLatestDate($L9)</f>
-        <v>41789</v>
+        <v>41799</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -12197,7 +12205,7 @@
       </c>
       <c r="L10" s="162" t="str">
         <f>_xll.qlOISRateHelper(K10,2,C10,J10,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2M#0001</v>
+        <v>USD_YCONRH_OIS2M#0000</v>
       </c>
       <c r="M10" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -12206,11 +12214,11 @@
       <c r="N10" s="159"/>
       <c r="P10" s="161">
         <f>_xll.qlRateHelperEarliestDate(L10)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q10" s="161">
         <f>_xll.qlRateHelperLatestDate($L10)</f>
-        <v>41820</v>
+        <v>41827</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -12249,7 +12257,7 @@
       </c>
       <c r="L11" s="162" t="str">
         <f>_xll.qlOISRateHelper(K11,2,C11,J11,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3M#0001</v>
+        <v>USD_YCONRH_OIS3M#0000</v>
       </c>
       <c r="M11" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -12258,11 +12266,11 @@
       <c r="N11" s="159"/>
       <c r="P11" s="161">
         <f>_xll.qlRateHelperEarliestDate(L11)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q11" s="161">
         <f>_xll.qlRateHelperLatestDate($L11)</f>
-        <v>41851</v>
+        <v>41858</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -12301,7 +12309,7 @@
       </c>
       <c r="L12" s="162" t="str">
         <f>_xll.qlOISRateHelper(K12,2,C12,J12,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS4M#0001</v>
+        <v>USD_YCONRH_OIS4M#0000</v>
       </c>
       <c r="M12" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -12310,11 +12318,11 @@
       <c r="N12" s="159"/>
       <c r="P12" s="161">
         <f>_xll.qlRateHelperEarliestDate(L12)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q12" s="161">
         <f>_xll.qlRateHelperLatestDate($L12)</f>
-        <v>41880</v>
+        <v>41890</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -12353,7 +12361,7 @@
       </c>
       <c r="L13" s="162" t="str">
         <f>_xll.qlOISRateHelper(K13,2,C13,J13,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS5M#0001</v>
+        <v>USD_YCONRH_OIS5M#0000</v>
       </c>
       <c r="M13" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -12362,11 +12370,11 @@
       <c r="N13" s="159"/>
       <c r="P13" s="161">
         <f>_xll.qlRateHelperEarliestDate(L13)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q13" s="161">
         <f>_xll.qlRateHelperLatestDate($L13)</f>
-        <v>41912</v>
+        <v>41919</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -12405,7 +12413,7 @@
       </c>
       <c r="L14" s="162" t="str">
         <f>_xll.qlOISRateHelper(K14,2,C14,J14,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS6M#0001</v>
+        <v>USD_YCONRH_OIS6M#0000</v>
       </c>
       <c r="M14" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -12414,11 +12422,11 @@
       <c r="N14" s="159"/>
       <c r="P14" s="161">
         <f>_xll.qlRateHelperEarliestDate(L14)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q14" s="161">
         <f>_xll.qlRateHelperLatestDate($L14)</f>
-        <v>41943</v>
+        <v>41950</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -12457,7 +12465,7 @@
       </c>
       <c r="L15" s="162" t="str">
         <f>_xll.qlOISRateHelper(K15,2,C15,J15,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS7M#0001</v>
+        <v>USD_YCONRH_OIS7M#0000</v>
       </c>
       <c r="M15" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -12466,11 +12474,11 @@
       <c r="N15" s="159"/>
       <c r="P15" s="161">
         <f>_xll.qlRateHelperEarliestDate(L15)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q15" s="161">
         <f>_xll.qlRateHelperLatestDate($L15)</f>
-        <v>41971</v>
+        <v>41981</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -12509,7 +12517,7 @@
       </c>
       <c r="L16" s="162" t="str">
         <f>_xll.qlOISRateHelper(K16,2,C16,J16,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS8M#0001</v>
+        <v>USD_YCONRH_OIS8M#0000</v>
       </c>
       <c r="M16" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -12518,11 +12526,11 @@
       <c r="N16" s="159"/>
       <c r="P16" s="161">
         <f>_xll.qlRateHelperEarliestDate(L16)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q16" s="161">
         <f>_xll.qlRateHelperLatestDate($L16)</f>
-        <v>42004</v>
+        <v>42011</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -12561,7 +12569,7 @@
       </c>
       <c r="L17" s="162" t="str">
         <f>_xll.qlOISRateHelper(K17,2,C17,J17,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS9M#0001</v>
+        <v>USD_YCONRH_OIS9M#0000</v>
       </c>
       <c r="M17" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -12570,11 +12578,11 @@
       <c r="N17" s="159"/>
       <c r="P17" s="161">
         <f>_xll.qlRateHelperEarliestDate(L17)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q17" s="161">
         <f>_xll.qlRateHelperLatestDate($L17)</f>
-        <v>42034</v>
+        <v>42044</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -12613,7 +12621,7 @@
       </c>
       <c r="L18" s="162" t="str">
         <f>_xll.qlOISRateHelper(K18,2,C18,J18,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS10M#0001</v>
+        <v>USD_YCONRH_OIS10M#0000</v>
       </c>
       <c r="M18" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -12622,11 +12630,11 @@
       <c r="N18" s="159"/>
       <c r="P18" s="161">
         <f>_xll.qlRateHelperEarliestDate(L18)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q18" s="161">
         <f>_xll.qlRateHelperLatestDate($L18)</f>
-        <v>42062</v>
+        <v>42072</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -12665,7 +12673,7 @@
       </c>
       <c r="L19" s="162" t="str">
         <f>_xll.qlOISRateHelper(K19,2,C19,J19,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS11M#0001</v>
+        <v>USD_YCONRH_OIS11M#0000</v>
       </c>
       <c r="M19" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -12674,11 +12682,11 @@
       <c r="N19" s="159"/>
       <c r="P19" s="161">
         <f>_xll.qlRateHelperEarliestDate(L19)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q19" s="161">
         <f>_xll.qlRateHelperLatestDate($L19)</f>
-        <v>42094</v>
+        <v>42101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -12717,7 +12725,7 @@
       </c>
       <c r="L20" s="162" t="str">
         <f>_xll.qlOISRateHelper(K20,2,C20,J20,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS1Y#0001</v>
+        <v>USD_YCONRH_OIS1Y#0000</v>
       </c>
       <c r="M20" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -12726,11 +12734,11 @@
       <c r="N20" s="159"/>
       <c r="P20" s="161">
         <f>_xll.qlRateHelperEarliestDate(L20)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q20" s="161">
         <f>_xll.qlRateHelperLatestDate($L20)</f>
-        <v>42124</v>
+        <v>42131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -12769,7 +12777,7 @@
       </c>
       <c r="L21" s="162" t="str">
         <f>_xll.qlOISRateHelper(K21,2,C21,J21,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS13M#0001</v>
+        <v>USD_YCONRH_OIS13M#0000</v>
       </c>
       <c r="M21" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -12778,11 +12786,11 @@
       <c r="N21" s="159"/>
       <c r="P21" s="161">
         <f>_xll.qlRateHelperEarliestDate(L21)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q21" s="161">
         <f>_xll.qlRateHelperLatestDate($L21)</f>
-        <v>42153</v>
+        <v>42163</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -12821,7 +12829,7 @@
       </c>
       <c r="L22" s="162" t="str">
         <f>_xll.qlOISRateHelper(K22,2,C22,J22,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS14M#0001</v>
+        <v>USD_YCONRH_OIS14M#0000</v>
       </c>
       <c r="M22" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -12830,11 +12838,11 @@
       <c r="N22" s="159"/>
       <c r="P22" s="161">
         <f>_xll.qlRateHelperEarliestDate(L22)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q22" s="161">
         <f>_xll.qlRateHelperLatestDate($L22)</f>
-        <v>42185</v>
+        <v>42192</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -12873,7 +12881,7 @@
       </c>
       <c r="L23" s="162" t="str">
         <f>_xll.qlOISRateHelper(K23,2,C23,J23,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS15M#0001</v>
+        <v>USD_YCONRH_OIS15M#0000</v>
       </c>
       <c r="M23" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -12882,11 +12890,11 @@
       <c r="N23" s="159"/>
       <c r="P23" s="161">
         <f>_xll.qlRateHelperEarliestDate(L23)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q23" s="161">
         <f>_xll.qlRateHelperLatestDate($L23)</f>
-        <v>42216</v>
+        <v>42223</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -12925,7 +12933,7 @@
       </c>
       <c r="L24" s="162" t="str">
         <f>_xll.qlOISRateHelper(K24,2,C24,J24,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS16M#0001</v>
+        <v>USD_YCONRH_OIS16M#0000</v>
       </c>
       <c r="M24" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -12934,11 +12942,11 @@
       <c r="N24" s="159"/>
       <c r="P24" s="161">
         <f>_xll.qlRateHelperEarliestDate(L24)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q24" s="161">
         <f>_xll.qlRateHelperLatestDate($L24)</f>
-        <v>42247</v>
+        <v>42255</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -12977,7 +12985,7 @@
       </c>
       <c r="L25" s="162" t="str">
         <f>_xll.qlOISRateHelper(K25,2,C25,J25,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS17M#0001</v>
+        <v>USD_YCONRH_OIS17M#0000</v>
       </c>
       <c r="M25" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -12986,11 +12994,11 @@
       <c r="N25" s="159"/>
       <c r="P25" s="161">
         <f>_xll.qlRateHelperEarliestDate(L25)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q25" s="161">
         <f>_xll.qlRateHelperLatestDate($L25)</f>
-        <v>42277</v>
+        <v>42284</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -13029,7 +13037,7 @@
       </c>
       <c r="L26" s="162" t="str">
         <f>_xll.qlOISRateHelper(K26,2,C26,J26,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS18M#0001</v>
+        <v>USD_YCONRH_OIS18M#0000</v>
       </c>
       <c r="M26" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -13038,11 +13046,11 @@
       <c r="N26" s="159"/>
       <c r="P26" s="161">
         <f>_xll.qlRateHelperEarliestDate(L26)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q26" s="161">
         <f>_xll.qlRateHelperLatestDate($L26)</f>
-        <v>42307</v>
+        <v>42317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -13081,7 +13089,7 @@
       </c>
       <c r="L27" s="162" t="str">
         <f>_xll.qlOISRateHelper(K27,2,C27,J27,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS19M#0001</v>
+        <v>USD_YCONRH_OIS19M#0000</v>
       </c>
       <c r="M27" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -13090,11 +13098,11 @@
       <c r="N27" s="159"/>
       <c r="P27" s="161">
         <f>_xll.qlRateHelperEarliestDate(L27)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q27" s="161">
         <f>_xll.qlRateHelperLatestDate($L27)</f>
-        <v>42338</v>
+        <v>42345</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -13133,7 +13141,7 @@
       </c>
       <c r="L28" s="162" t="str">
         <f>_xll.qlOISRateHelper(K28,2,C28,J28,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS20M#0001</v>
+        <v>USD_YCONRH_OIS20M#0000</v>
       </c>
       <c r="M28" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -13142,11 +13150,11 @@
       <c r="N28" s="159"/>
       <c r="P28" s="161">
         <f>_xll.qlRateHelperEarliestDate(L28)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q28" s="161">
         <f>_xll.qlRateHelperLatestDate($L28)</f>
-        <v>42369</v>
+        <v>42376</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -13185,7 +13193,7 @@
       </c>
       <c r="L29" s="162" t="str">
         <f>_xll.qlOISRateHelper(K29,2,C29,J29,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS21M#0001</v>
+        <v>USD_YCONRH_OIS21M#0000</v>
       </c>
       <c r="M29" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -13194,11 +13202,11 @@
       <c r="N29" s="159"/>
       <c r="P29" s="161">
         <f>_xll.qlRateHelperEarliestDate(L29)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q29" s="161">
         <f>_xll.qlRateHelperLatestDate($L29)</f>
-        <v>42398</v>
+        <v>42408</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -13237,7 +13245,7 @@
       </c>
       <c r="L30" s="162" t="str">
         <f>_xll.qlOISRateHelper(K30,2,C30,J30,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS22M#0001</v>
+        <v>USD_YCONRH_OIS22M#0000</v>
       </c>
       <c r="M30" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -13246,11 +13254,11 @@
       <c r="N30" s="159"/>
       <c r="P30" s="161">
         <f>_xll.qlRateHelperEarliestDate(L30)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q30" s="161">
         <f>_xll.qlRateHelperLatestDate($L30)</f>
-        <v>42429</v>
+        <v>42436</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -13289,7 +13297,7 @@
       </c>
       <c r="L31" s="162" t="str">
         <f>_xll.qlOISRateHelper(K31,2,C31,J31,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS23M#0001</v>
+        <v>USD_YCONRH_OIS23M#0000</v>
       </c>
       <c r="M31" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -13298,11 +13306,11 @@
       <c r="N31" s="159"/>
       <c r="P31" s="161">
         <f>_xll.qlRateHelperEarliestDate(L31)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q31" s="161">
         <f>_xll.qlRateHelperLatestDate($L31)</f>
-        <v>42460</v>
+        <v>42467</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -13341,7 +13349,7 @@
       </c>
       <c r="L32" s="162" t="str">
         <f>_xll.qlOISRateHelper(K32,2,C32,J32,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2Y#0001</v>
+        <v>USD_YCONRH_OIS2Y#0000</v>
       </c>
       <c r="M32" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -13350,11 +13358,11 @@
       <c r="N32" s="159"/>
       <c r="P32" s="161">
         <f>_xll.qlRateHelperEarliestDate(L32)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q32" s="161">
         <f>_xll.qlRateHelperLatestDate($L32)</f>
-        <v>42489</v>
+        <v>42499</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -13393,7 +13401,7 @@
       </c>
       <c r="L33" s="162" t="str">
         <f>_xll.qlOISRateHelper(K33,2,C33,J33,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS27M#0001</v>
+        <v>USD_YCONRH_OIS27M#0000</v>
       </c>
       <c r="M33" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -13402,11 +13410,11 @@
       <c r="N33" s="159"/>
       <c r="P33" s="161">
         <f>_xll.qlRateHelperEarliestDate(L33)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q33" s="161">
         <f>_xll.qlRateHelperLatestDate($L33)</f>
-        <v>42580</v>
+        <v>42590</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -13445,7 +13453,7 @@
       </c>
       <c r="L34" s="162" t="str">
         <f>_xll.qlOISRateHelper(K34,2,C34,J34,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS30M#0001</v>
+        <v>USD_YCONRH_OIS30M#0000</v>
       </c>
       <c r="M34" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -13454,11 +13462,11 @@
       <c r="N34" s="159"/>
       <c r="P34" s="161">
         <f>_xll.qlRateHelperEarliestDate(L34)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q34" s="161">
         <f>_xll.qlRateHelperLatestDate($L34)</f>
-        <v>42674</v>
+        <v>42681</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -13497,7 +13505,7 @@
       </c>
       <c r="L35" s="162" t="str">
         <f>_xll.qlOISRateHelper(K35,2,C35,J35,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS33M#0001</v>
+        <v>USD_YCONRH_OIS33M#0000</v>
       </c>
       <c r="M35" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -13506,11 +13514,11 @@
       <c r="N35" s="159"/>
       <c r="P35" s="161">
         <f>_xll.qlRateHelperEarliestDate(L35)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q35" s="161">
         <f>_xll.qlRateHelperLatestDate($L35)</f>
-        <v>42765</v>
+        <v>42773</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -13549,7 +13557,7 @@
       </c>
       <c r="L36" s="162" t="str">
         <f>_xll.qlOISRateHelper(K36,2,C36,J36,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3Y#0001</v>
+        <v>USD_YCONRH_OIS3Y#0000</v>
       </c>
       <c r="M36" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -13558,11 +13566,11 @@
       <c r="N36" s="159"/>
       <c r="P36" s="161">
         <f>_xll.qlRateHelperEarliestDate(L36)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q36" s="161">
         <f>_xll.qlRateHelperLatestDate($L36)</f>
-        <v>42853</v>
+        <v>42863</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -13601,7 +13609,7 @@
       </c>
       <c r="L37" s="162" t="str">
         <f>_xll.qlOISRateHelper(K37,2,C37,J37,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS39M#0001</v>
+        <v>USD_YCONRH_OIS39M#0000</v>
       </c>
       <c r="M37" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -13610,11 +13618,11 @@
       <c r="N37" s="159"/>
       <c r="P37" s="161">
         <f>_xll.qlRateHelperEarliestDate(L37)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q37" s="161">
         <f>_xll.qlRateHelperLatestDate($L37)</f>
-        <v>42947</v>
+        <v>42954</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -13653,7 +13661,7 @@
       </c>
       <c r="L38" s="162" t="str">
         <f>_xll.qlOISRateHelper(K38,2,C38,J38,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS42M#0001</v>
+        <v>USD_YCONRH_OIS42M#0000</v>
       </c>
       <c r="M38" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -13699,7 +13707,7 @@
       </c>
       <c r="L39" s="162" t="str">
         <f>_xll.qlOISRateHelper(K39,2,C39,J39,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS45M#0001</v>
+        <v>USD_YCONRH_OIS45M#0000</v>
       </c>
       <c r="M39" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -13745,7 +13753,7 @@
       </c>
       <c r="L40" s="162" t="str">
         <f>_xll.qlOISRateHelper(K40,2,C40,J40,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS4Y#0001</v>
+        <v>USD_YCONRH_OIS4Y#0000</v>
       </c>
       <c r="M40" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -13791,7 +13799,7 @@
       </c>
       <c r="L41" s="162" t="str">
         <f>_xll.qlOISRateHelper(K41,2,C41,J41,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS51M#0001</v>
+        <v>USD_YCONRH_OIS51M#0000</v>
       </c>
       <c r="M41" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -13837,7 +13845,7 @@
       </c>
       <c r="L42" s="162" t="str">
         <f>_xll.qlOISRateHelper(K42,2,C42,J42,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS54M#0001</v>
+        <v>USD_YCONRH_OIS54M#0000</v>
       </c>
       <c r="M42" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -13883,7 +13891,7 @@
       </c>
       <c r="L43" s="162" t="str">
         <f>_xll.qlOISRateHelper(K43,2,C43,J43,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS57M#0001</v>
+        <v>USD_YCONRH_OIS57M#0000</v>
       </c>
       <c r="M43" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L43)</f>
@@ -13929,7 +13937,7 @@
       </c>
       <c r="L44" s="162" t="str">
         <f>_xll.qlOISRateHelper(K44,2,C44,J44,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS5Y#0001</v>
+        <v>USD_YCONRH_OIS5Y#0000</v>
       </c>
       <c r="M44" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -13975,7 +13983,7 @@
       </c>
       <c r="L45" s="162" t="str">
         <f>_xll.qlOISRateHelper(K45,2,C45,J45,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS6Y#0001</v>
+        <v>USD_YCONRH_OIS6Y#0000</v>
       </c>
       <c r="M45" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -14021,7 +14029,7 @@
       </c>
       <c r="L46" s="162" t="str">
         <f>_xll.qlOISRateHelper(K46,2,C46,J46,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS7Y#0001</v>
+        <v>USD_YCONRH_OIS7Y#0000</v>
       </c>
       <c r="M46" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -14067,7 +14075,7 @@
       </c>
       <c r="L47" s="162" t="str">
         <f>_xll.qlOISRateHelper(K47,2,C47,J47,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS8Y#0001</v>
+        <v>USD_YCONRH_OIS8Y#0000</v>
       </c>
       <c r="M47" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -14113,7 +14121,7 @@
       </c>
       <c r="L48" s="162" t="str">
         <f>_xll.qlOISRateHelper(K48,2,C48,J48,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS9Y#0001</v>
+        <v>USD_YCONRH_OIS9Y#0000</v>
       </c>
       <c r="M48" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -14159,7 +14167,7 @@
       </c>
       <c r="L49" s="162" t="str">
         <f>_xll.qlOISRateHelper(K49,2,C49,J49,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS10Y#0001</v>
+        <v>USD_YCONRH_OIS10Y#0000</v>
       </c>
       <c r="M49" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -14205,7 +14213,7 @@
       </c>
       <c r="L50" s="162" t="str">
         <f>_xll.qlOISRateHelper(K50,2,C50,J50,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS12Y#0001</v>
+        <v>USD_YCONRH_OIS12Y#0000</v>
       </c>
       <c r="M50" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -14251,7 +14259,7 @@
       </c>
       <c r="L51" s="162" t="str">
         <f>_xll.qlOISRateHelper(K51,2,C51,J51,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS15Y#0001</v>
+        <v>USD_YCONRH_OIS15Y#0000</v>
       </c>
       <c r="M51" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L51)</f>
@@ -14297,7 +14305,7 @@
       </c>
       <c r="L52" s="162" t="str">
         <f>_xll.qlOISRateHelper(K52,2,C52,J52,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS20Y#0001</v>
+        <v>USD_YCONRH_OIS20Y#0000</v>
       </c>
       <c r="M52" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L52)</f>
@@ -14343,7 +14351,7 @@
       </c>
       <c r="L53" s="162" t="str">
         <f>_xll.qlOISRateHelper(K53,2,C53,J53,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS25Y#0001</v>
+        <v>USD_YCONRH_OIS25Y#0000</v>
       </c>
       <c r="M53" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L53)</f>
@@ -14389,7 +14397,7 @@
       </c>
       <c r="L54" s="162" t="str">
         <f>_xll.qlOISRateHelper(K54,2,C54,J54,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS27Y#0001</v>
+        <v>USD_YCONRH_OIS27Y#0000</v>
       </c>
       <c r="M54" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L54)</f>
@@ -14435,7 +14443,7 @@
       </c>
       <c r="L55" s="162" t="str">
         <f>_xll.qlOISRateHelper(K55,2,C55,J55,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS30Y#0001</v>
+        <v>USD_YCONRH_OIS30Y#0000</v>
       </c>
       <c r="M55" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L55)</f>
@@ -14481,7 +14489,7 @@
       </c>
       <c r="L56" s="162" t="str">
         <f>_xll.qlOISRateHelper(K56,2,C56,J56,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS35Y#0001</v>
+        <v>USD_YCONRH_OIS35Y#0000</v>
       </c>
       <c r="M56" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L56)</f>
@@ -14527,7 +14535,7 @@
       </c>
       <c r="L57" s="162" t="str">
         <f>_xll.qlOISRateHelper(K57,2,C57,J57,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS40Y#0001</v>
+        <v>USD_YCONRH_OIS40Y#0000</v>
       </c>
       <c r="M57" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L57)</f>
@@ -14573,7 +14581,7 @@
       </c>
       <c r="L58" s="162" t="str">
         <f>_xll.qlOISRateHelper(K58,2,C58,J58,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS45Y#0001</v>
+        <v>USD_YCONRH_OIS45Y#0000</v>
       </c>
       <c r="M58" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L58)</f>
@@ -14619,7 +14627,7 @@
       </c>
       <c r="L59" s="162" t="str">
         <f>_xll.qlOISRateHelper(K59,2,C59,J59,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS50Y#0001</v>
+        <v>USD_YCONRH_OIS50Y#0000</v>
       </c>
       <c r="M59" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L59)</f>
@@ -14628,11 +14636,11 @@
       <c r="N59" s="159"/>
       <c r="P59" s="161">
         <f>_xll.qlRateHelperEarliestDate(L59)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="Q59" s="161">
         <f>_xll.qlRateHelperLatestDate($L59)</f>
-        <v>60022</v>
+        <v>60029</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -16533,7 +16541,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G95">
       <formula1>"Following,Modified Following,Preceding,Modified Preceding,Month End Reference,Unadjusted Month End,Unadjusted"</formula1>
     </dataValidation>

--- a/QuantLibXL/Data2/XLS/USD_YCONBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YCONBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="-15" windowWidth="5085" windowHeight="8235" tabRatio="821" activeTab="2"/>
+    <workbookView xWindow="10155" yWindow="-15" windowWidth="5085" windowHeight="8235" tabRatio="821"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="nSerialFutures">Selected!$B$3</definedName>
     <definedName name="ObjectOverwrite">'General Settings'!$D$12</definedName>
     <definedName name="Permanent">'General Settings'!$D$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Selected!$D$1:$J$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Selected!$D$1:$I$50</definedName>
     <definedName name="QuoteSuffix">'General Settings'!$M$12</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$9</definedName>
     <definedName name="RateHelpers">RateHelpers!$E$2:$E$125</definedName>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="176">
   <si>
     <t>60Y</t>
   </si>
@@ -729,153 +729,6 @@
   </si>
   <si>
     <t>USD_YCRH_Swaps</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OND</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_TND</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OISSW</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS2W</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS3W</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS1M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS2M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS3M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS4M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS5M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS6M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS7M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS8M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS9M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS10M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS11M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS1Y</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS13M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS14M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS15M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS16M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS17M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS18M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS19M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS20M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS21M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS22M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS23M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS2Y</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS27M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS30M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS33M</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS3Y</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS4Y</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS5Y</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS6Y</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS7Y</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS8Y</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS9Y</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS10Y</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS12Y</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS15Y</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS20Y</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS25Y</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS30Y</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS35Y</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS40Y</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS45Y</t>
-  </si>
-  <si>
-    <t>USD_YCONRH_OIS50Y</t>
   </si>
   <si>
     <t>MonotonicLogCubicNaturalSpline</t>
@@ -913,7 +766,7 @@
     <numFmt numFmtId="176" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="0.000000000000000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,11 +885,6 @@
       <b/>
       <u/>
       <sz val="8"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="7"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -1550,7 +1398,7 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1948,8 +1796,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2310,46 +2156,46 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="180" customWidth="1"/>
-    <col min="3" max="3" width="18" style="180" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47" style="180" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="180" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.7109375" style="180" customWidth="1"/>
-    <col min="8" max="8" width="4" style="180" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.28515625" style="180" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="2.7109375" style="180" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="180" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="180" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="180" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="180"/>
+    <col min="1" max="2" width="2.7109375" style="178" customWidth="1"/>
+    <col min="3" max="3" width="18" style="178" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="178" customWidth="1"/>
+    <col min="5" max="5" width="22" style="178" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="178" customWidth="1"/>
+    <col min="8" max="8" width="4" style="178" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="178" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="2.7109375" style="178" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="178" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="178" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="178" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="178"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="180" t="str">
+      <c r="B1" s="178" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 29 2014 14:47:17</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="190" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="194"/>
-      <c r="K2" s="192" t="s">
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="192"/>
+      <c r="K2" s="190" t="s">
         <v>150</v>
       </c>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="195"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="193"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="59"/>
@@ -2372,10 +2218,10 @@
       </c>
       <c r="E4" s="57"/>
       <c r="F4" s="56"/>
-      <c r="H4" s="182" t="s">
+      <c r="H4" s="180" t="s">
         <v>136</v>
       </c>
-      <c r="I4" s="183"/>
+      <c r="I4" s="181"/>
       <c r="K4" s="133"/>
       <c r="L4" s="132" t="s">
         <v>149</v>
@@ -2393,10 +2239,10 @@
       <c r="D5" s="60"/>
       <c r="E5" s="57"/>
       <c r="F5" s="56"/>
-      <c r="H5" s="184" t="s">
+      <c r="H5" s="182" t="s">
         <v>134</v>
       </c>
-      <c r="I5" s="185" t="s">
+      <c r="I5" s="183" t="s">
         <v>133</v>
       </c>
       <c r="K5" s="133"/>
@@ -2416,10 +2262,10 @@
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="56"/>
-      <c r="H6" s="184" t="s">
+      <c r="H6" s="182" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="185"/>
+      <c r="I6" s="183"/>
       <c r="K6" s="133"/>
       <c r="L6" s="132" t="s">
         <v>147</v>
@@ -2439,10 +2285,10 @@
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="56"/>
-      <c r="H7" s="184" t="s">
+      <c r="H7" s="182" t="s">
         <v>128</v>
       </c>
-      <c r="I7" s="185"/>
+      <c r="I7" s="183"/>
       <c r="K7" s="130"/>
       <c r="L7" s="129"/>
       <c r="M7" s="129"/>
@@ -2458,16 +2304,16 @@
       </c>
       <c r="E8" s="57"/>
       <c r="F8" s="56"/>
-      <c r="H8" s="186" t="s">
+      <c r="H8" s="184" t="s">
         <v>125</v>
       </c>
-      <c r="I8" s="187" t="s">
+      <c r="I8" s="185" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="181"/>
-      <c r="L8" s="181"/>
-      <c r="M8" s="181"/>
-      <c r="N8" s="181"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="179"/>
+      <c r="M8" s="179"/>
+      <c r="N8" s="179"/>
     </row>
     <row r="9" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="59"/>
@@ -2480,12 +2326,12 @@
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="56"/>
-      <c r="K9" s="192" t="s">
+      <c r="K9" s="190" t="s">
         <v>146</v>
       </c>
-      <c r="L9" s="193"/>
-      <c r="M9" s="193"/>
-      <c r="N9" s="195"/>
+      <c r="L9" s="191"/>
+      <c r="M9" s="191"/>
+      <c r="N9" s="193"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="59"/>
@@ -2507,9 +2353,7 @@
       <c r="C11" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="84">
-        <v>41761.485127314816</v>
-      </c>
+      <c r="D11" s="84"/>
       <c r="E11" s="57"/>
       <c r="F11" s="56"/>
       <c r="K11" s="125"/>
@@ -2566,7 +2410,7 @@
         <v>_USDYCON#0001</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="F14" s="56"/>
       <c r="K14" s="125"/>
@@ -2607,7 +2451,7 @@
         <v>_USDYCON</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="F16" s="56"/>
     </row>
@@ -2627,7 +2471,7 @@
       <c r="C18" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="191" t="str">
+      <c r="D18" s="189" t="str">
         <f>E14&amp;"("&amp;E15&amp;","&amp;E16&amp;")"</f>
         <v>JoinHolidays(UnitedKingdom::Exchange,UnitedStates::Settlement)</v>
       </c>
@@ -2711,7 +2555,7 @@
         <v>107</v>
       </c>
       <c r="D25" s="65" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="E25" s="57"/>
       <c r="F25" s="56"/>
@@ -2727,7 +2571,7 @@
       <c r="B27" s="59"/>
       <c r="C27" s="63">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41761</v>
+        <v>41765</v>
       </c>
       <c r="D27" s="62">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2740,21 +2584,21 @@
       <c r="B28" s="59"/>
       <c r="C28" s="61">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>60029</v>
+        <v>60030</v>
       </c>
       <c r="D28" s="60">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.19913176651883227</v>
+        <v>0.20227181710883627</v>
       </c>
       <c r="E28" s="57"/>
       <c r="F28" s="56"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="59"/>
-      <c r="C29" s="188" t="s">
+      <c r="C29" s="186" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="189" t="str">
+      <c r="D29" s="187" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
         <v/>
       </c>
@@ -2777,7 +2621,10 @@
     <row r="31" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="55"/>
       <c r="C31" s="54"/>
-      <c r="D31" s="53"/>
+      <c r="D31" s="53" t="b">
+        <f>_xll.qlExtrapolatorEnableExtrapolation(YieldCurve,TRUE)</f>
+        <v>1</v>
+      </c>
       <c r="E31" s="53"/>
       <c r="F31" s="52"/>
     </row>
@@ -2822,8 +2669,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView topLeftCell="D65" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2845,11 +2692,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="194" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="198"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="196"/>
       <c r="E1" s="32" t="s">
         <v>96</v>
       </c>
@@ -2883,14 +2730,14 @@
       </c>
       <c r="E2" s="14" t="str">
         <f>ON_Deposits!F3</f>
-        <v>USD_YCONRH_OND#0000</v>
+        <v>USD_YCONRH_OND#0001</v>
       </c>
       <c r="F2" s="13">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
         <v>1.5000000000000002E-3</v>
       </c>
       <c r="G2" s="13"/>
-      <c r="H2" s="179" t="b">
+      <c r="H2" s="177" t="b">
         <v>1</v>
       </c>
       <c r="I2" s="6">
@@ -2901,11 +2748,11 @@
       </c>
       <c r="K2" s="12">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41761</v>
+        <v>41765</v>
       </c>
       <c r="L2" s="11">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41765</v>
+        <v>41766</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2916,14 +2763,14 @@
       </c>
       <c r="E3" s="14" t="str">
         <f>ON_FRAs!H3</f>
-        <v>USD_YCONRH_TND#0000</v>
+        <v>USD_YCONRH_TND#0001</v>
       </c>
       <c r="F3" s="13">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
         <v>1.5000000000000002E-3</v>
       </c>
       <c r="G3" s="13"/>
-      <c r="H3" s="179" t="b">
+      <c r="H3" s="177" t="b">
         <v>1</v>
       </c>
       <c r="I3" s="6">
@@ -2934,11 +2781,11 @@
       </c>
       <c r="K3" s="12">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="L3" s="11">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2949,7 +2796,7 @@
       </c>
       <c r="E4" s="14" t="str">
         <f>ON_FRAs!H4</f>
-        <v>USD_YCONRH_SND#0000</v>
+        <v>USD_YCONRH_SND#0001</v>
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
@@ -2967,11 +2814,11 @@
       </c>
       <c r="K4" s="12">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L4" s="11">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41767</v>
+        <v>41768</v>
       </c>
     </row>
     <row r="5" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3599,7 +3446,7 @@
         <f>_xll.qlSwapRateHelperSpread($E21,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H21" s="179" t="b">
+      <c r="H21" s="177" t="b">
         <v>0</v>
       </c>
       <c r="I21" s="6">
@@ -4167,17 +4014,17 @@
       </c>
       <c r="E35" s="21" t="str">
         <f>ON_Swaps!L6</f>
-        <v>USD_YCONRH_OISSW#0000</v>
+        <v>USD_YCONRH_OISSW#0001</v>
       </c>
       <c r="F35" s="20">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>8.8999999999999995E-4</v>
       </c>
       <c r="G35" s="20" t="e">
         <f>_xll.qlSwapRateHelperSpread($E35,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H35" s="179" t="b">
+      <c r="H35" s="177" t="b">
         <f>IF(ISERROR(F35),FALSE,IF(L35&lt;=$N$16,TRUE,IF(L35&gt;$N$17,TRUE,FALSE)))</f>
         <v>1</v>
       </c>
@@ -4189,11 +4036,11 @@
       </c>
       <c r="K35" s="18">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L35" s="17">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>41773</v>
+        <v>41774</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
@@ -4207,11 +4054,11 @@
       </c>
       <c r="E36" s="14" t="str">
         <f>ON_Swaps!L7</f>
-        <v>USD_YCONRH_OIS2W#0000</v>
+        <v>USD_YCONRH_OIS2W#0001</v>
       </c>
       <c r="F36" s="13">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>8.8999999999999995E-4</v>
       </c>
       <c r="G36" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E36,Trigger)</f>
@@ -4229,11 +4076,11 @@
       </c>
       <c r="K36" s="12">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L36" s="11">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>41780</v>
+        <v>41781</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
@@ -4247,11 +4094,11 @@
       </c>
       <c r="E37" s="14" t="str">
         <f>ON_Swaps!L8</f>
-        <v>USD_YCONRH_OIS3W#0000</v>
+        <v>USD_YCONRH_OIS3W#0001</v>
       </c>
       <c r="F37" s="13">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>8.8999999999999995E-4</v>
       </c>
       <c r="G37" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E37,Trigger)</f>
@@ -4269,11 +4116,11 @@
       </c>
       <c r="K37" s="12">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L37" s="11">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>41787</v>
+        <v>41788</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
@@ -4287,11 +4134,11 @@
       </c>
       <c r="E38" s="14" t="str">
         <f>ON_Swaps!L9</f>
-        <v>USD_YCONRH_OIS1M#0000</v>
+        <v>USD_YCONRH_OIS1M#0001</v>
       </c>
       <c r="F38" s="13">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>8.8999999999999995E-4</v>
       </c>
       <c r="G38" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E38,Trigger)</f>
@@ -4309,7 +4156,7 @@
       </c>
       <c r="K38" s="12">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L38" s="11">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
@@ -4327,7 +4174,7 @@
       </c>
       <c r="E39" s="14" t="str">
         <f>ON_Swaps!L10</f>
-        <v>USD_YCONRH_OIS2M#0000</v>
+        <v>USD_YCONRH_OIS2M#0001</v>
       </c>
       <c r="F39" s="13">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4349,11 +4196,11 @@
       </c>
       <c r="K39" s="12">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L39" s="11">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>41827</v>
+        <v>41828</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
@@ -4367,11 +4214,11 @@
       </c>
       <c r="E40" s="14" t="str">
         <f>ON_Swaps!L11</f>
-        <v>USD_YCONRH_OIS3M#0000</v>
+        <v>USD_YCONRH_OIS3M#0001</v>
       </c>
       <c r="F40" s="13">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
-        <v>9.2999999999999995E-4</v>
+        <v>9.3999999999999997E-4</v>
       </c>
       <c r="G40" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E40,Trigger)</f>
@@ -4389,11 +4236,11 @@
       </c>
       <c r="K40" s="12">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L40" s="11">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
-        <v>41858</v>
+        <v>41859</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
@@ -4407,11 +4254,11 @@
       </c>
       <c r="E41" s="14" t="str">
         <f>ON_Swaps!L12</f>
-        <v>USD_YCONRH_OIS4M#0000</v>
+        <v>USD_YCONRH_OIS4M#0001</v>
       </c>
       <c r="F41" s="13">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>9.5E-4</v>
+        <v>9.6000000000000002E-4</v>
       </c>
       <c r="G41" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E41,Trigger)</f>
@@ -4429,7 +4276,7 @@
       </c>
       <c r="K41" s="12">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L41" s="11">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
@@ -4447,11 +4294,11 @@
       </c>
       <c r="E42" s="14" t="str">
         <f>ON_Swaps!L13</f>
-        <v>USD_YCONRH_OIS5M#0000</v>
+        <v>USD_YCONRH_OIS5M#0001</v>
       </c>
       <c r="F42" s="13">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>9.7000000000000005E-4</v>
+        <v>9.8999999999999999E-4</v>
       </c>
       <c r="G42" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E42,Trigger)</f>
@@ -4469,11 +4316,11 @@
       </c>
       <c r="K42" s="12">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L42" s="11">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
-        <v>41919</v>
+        <v>41920</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
@@ -4487,11 +4334,11 @@
       </c>
       <c r="E43" s="14" t="str">
         <f>ON_Swaps!L14</f>
-        <v>USD_YCONRH_OIS6M#0000</v>
+        <v>USD_YCONRH_OIS6M#0001</v>
       </c>
       <c r="F43" s="13">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
-        <v>1E-3</v>
+        <v>1.01E-3</v>
       </c>
       <c r="G43" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E43,Trigger)</f>
@@ -4509,11 +4356,11 @@
       </c>
       <c r="K43" s="12">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L43" s="11">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
-        <v>41950</v>
+        <v>41953</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
@@ -4527,11 +4374,11 @@
       </c>
       <c r="E44" s="14" t="str">
         <f>ON_Swaps!L15</f>
-        <v>USD_YCONRH_OIS7M#0000</v>
+        <v>USD_YCONRH_OIS7M#0001</v>
       </c>
       <c r="F44" s="13">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>1.0299999999999999E-3</v>
+        <v>1.0399999999999999E-3</v>
       </c>
       <c r="G44" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E44,Trigger)</f>
@@ -4549,7 +4396,7 @@
       </c>
       <c r="K44" s="12">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L44" s="11">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
@@ -4567,11 +4414,11 @@
       </c>
       <c r="E45" s="14" t="str">
         <f>ON_Swaps!L16</f>
-        <v>USD_YCONRH_OIS8M#0000</v>
+        <v>USD_YCONRH_OIS8M#0001</v>
       </c>
       <c r="F45" s="13">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>1.06E-3</v>
+        <v>1.08E-3</v>
       </c>
       <c r="G45" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E45,Trigger)</f>
@@ -4589,11 +4436,11 @@
       </c>
       <c r="K45" s="12">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L45" s="11">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
-        <v>42011</v>
+        <v>42012</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
@@ -4607,11 +4454,11 @@
       </c>
       <c r="E46" s="14" t="str">
         <f>ON_Swaps!L17</f>
-        <v>USD_YCONRH_OIS9M#0000</v>
+        <v>USD_YCONRH_OIS9M#0001</v>
       </c>
       <c r="F46" s="13">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1299999999999999E-3</v>
       </c>
       <c r="G46" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E46,Trigger)</f>
@@ -4629,7 +4476,7 @@
       </c>
       <c r="K46" s="12">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L46" s="11">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
@@ -4647,11 +4494,11 @@
       </c>
       <c r="E47" s="14" t="str">
         <f>ON_Swaps!L18</f>
-        <v>USD_YCONRH_OIS10M#0000</v>
+        <v>USD_YCONRH_OIS10M#0001</v>
       </c>
       <c r="F47" s="13">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>1.15E-3</v>
+        <v>1.1799999999999998E-3</v>
       </c>
       <c r="G47" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E47,Trigger)</f>
@@ -4669,7 +4516,7 @@
       </c>
       <c r="K47" s="12">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L47" s="11">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
@@ -4687,11 +4534,11 @@
       </c>
       <c r="E48" s="14" t="str">
         <f>ON_Swaps!L19</f>
-        <v>USD_YCONRH_OIS11M#0000</v>
+        <v>USD_YCONRH_OIS11M#0001</v>
       </c>
       <c r="F48" s="13">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>1.2099999999999999E-3</v>
+        <v>1.25E-3</v>
       </c>
       <c r="G48" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E48,Trigger)</f>
@@ -4709,11 +4556,11 @@
       </c>
       <c r="K48" s="12">
         <f>_xll.qlRateHelperEarliestDate($E48,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L48" s="11">
         <f>_xll.qlRateHelperLatestDate($E48,Trigger)</f>
-        <v>42101</v>
+        <v>42102</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
@@ -4727,11 +4574,11 @@
       </c>
       <c r="E49" s="14" t="str">
         <f>ON_Swaps!L20</f>
-        <v>USD_YCONRH_OIS1Y#0000</v>
+        <v>USD_YCONRH_OIS1Y#0001</v>
       </c>
       <c r="F49" s="13">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
-        <v>1.2900000000000001E-3</v>
+        <v>1.34E-3</v>
       </c>
       <c r="G49" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E49,Trigger)</f>
@@ -4749,11 +4596,11 @@
       </c>
       <c r="K49" s="12">
         <f>_xll.qlRateHelperEarliestDate($E49,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L49" s="11">
         <f>_xll.qlRateHelperLatestDate($E49,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
@@ -4770,11 +4617,11 @@
       </c>
       <c r="E50" s="14" t="str">
         <f>ON_Swaps!L21</f>
-        <v>USD_YCONRH_OIS13M#0000</v>
+        <v>USD_YCONRH_OIS13M#0001</v>
       </c>
       <c r="F50" s="13">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>1.4000000000000002E-3</v>
+        <v>1.4500000000000001E-3</v>
       </c>
       <c r="G50" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E50,Trigger)</f>
@@ -4792,7 +4639,7 @@
       </c>
       <c r="K50" s="12">
         <f>_xll.qlRateHelperEarliestDate($E50,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L50" s="11">
         <f>_xll.qlRateHelperLatestDate($E50,Trigger)</f>
@@ -4813,11 +4660,11 @@
       </c>
       <c r="E51" s="14" t="str">
         <f>ON_Swaps!L22</f>
-        <v>USD_YCONRH_OIS14M#0000</v>
+        <v>USD_YCONRH_OIS14M#0001</v>
       </c>
       <c r="F51" s="13">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>1.5100000000000003E-3</v>
+        <v>1.5799999999999998E-3</v>
       </c>
       <c r="G51" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E51,Trigger)</f>
@@ -4835,11 +4682,11 @@
       </c>
       <c r="K51" s="12">
         <f>_xll.qlRateHelperEarliestDate($E51,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L51" s="11">
         <f>_xll.qlRateHelperLatestDate($E51,Trigger)</f>
-        <v>42192</v>
+        <v>42193</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
@@ -4856,11 +4703,11 @@
       </c>
       <c r="E52" s="14" t="str">
         <f>ON_Swaps!L23</f>
-        <v>USD_YCONRH_OIS15M#0000</v>
+        <v>USD_YCONRH_OIS15M#0001</v>
       </c>
       <c r="F52" s="13">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>1.6499999999999998E-3</v>
+        <v>1.7499999999999998E-3</v>
       </c>
       <c r="G52" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E52,Trigger)</f>
@@ -4878,11 +4725,11 @@
       </c>
       <c r="K52" s="12">
         <f>_xll.qlRateHelperEarliestDate($E52,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L52" s="11">
         <f>_xll.qlRateHelperLatestDate($E52,Trigger)</f>
-        <v>42223</v>
+        <v>42226</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
@@ -4899,11 +4746,11 @@
       </c>
       <c r="E53" s="14" t="str">
         <f>ON_Swaps!L24</f>
-        <v>USD_YCONRH_OIS16M#0000</v>
+        <v>USD_YCONRH_OIS16M#0001</v>
       </c>
       <c r="F53" s="13">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>1.83E-3</v>
+        <v>1.92E-3</v>
       </c>
       <c r="G53" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E53,Trigger)</f>
@@ -4921,7 +4768,7 @@
       </c>
       <c r="K53" s="12">
         <f>_xll.qlRateHelperEarliestDate($E53,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L53" s="11">
         <f>_xll.qlRateHelperLatestDate($E53,Trigger)</f>
@@ -4942,11 +4789,11 @@
       </c>
       <c r="E54" s="14" t="str">
         <f>ON_Swaps!L25</f>
-        <v>USD_YCONRH_OIS17M#0000</v>
+        <v>USD_YCONRH_OIS17M#0001</v>
       </c>
       <c r="F54" s="13">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>2E-3</v>
+        <v>2.1200000000000004E-3</v>
       </c>
       <c r="G54" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E54,Trigger)</f>
@@ -4964,11 +4811,11 @@
       </c>
       <c r="K54" s="12">
         <f>_xll.qlRateHelperEarliestDate($E54,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L54" s="11">
         <f>_xll.qlRateHelperLatestDate($E54,Trigger)</f>
-        <v>42284</v>
+        <v>42285</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
@@ -4985,11 +4832,11 @@
       </c>
       <c r="E55" s="14" t="str">
         <f>ON_Swaps!L26</f>
-        <v>USD_YCONRH_OIS18M#0000</v>
+        <v>USD_YCONRH_OIS18M#0001</v>
       </c>
       <c r="F55" s="13">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>2.1999999999999997E-3</v>
+        <v>2.3499999999999997E-3</v>
       </c>
       <c r="G55" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E55,Trigger)</f>
@@ -5007,7 +4854,7 @@
       </c>
       <c r="K55" s="12">
         <f>_xll.qlRateHelperEarliestDate($E55,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L55" s="11">
         <f>_xll.qlRateHelperLatestDate($E55,Trigger)</f>
@@ -5028,11 +4875,11 @@
       </c>
       <c r="E56" s="14" t="str">
         <f>ON_Swaps!L27</f>
-        <v>USD_YCONRH_OIS19M#0000</v>
+        <v>USD_YCONRH_OIS19M#0001</v>
       </c>
       <c r="F56" s="13">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>2.4299999999999999E-3</v>
+        <v>2.5700000000000002E-3</v>
       </c>
       <c r="G56" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E56,Trigger)</f>
@@ -5050,11 +4897,11 @@
       </c>
       <c r="K56" s="12">
         <f>_xll.qlRateHelperEarliestDate($E56,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L56" s="11">
         <f>_xll.qlRateHelperLatestDate($E56,Trigger)</f>
-        <v>42345</v>
+        <v>42346</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
@@ -5071,11 +4918,11 @@
       </c>
       <c r="E57" s="14" t="str">
         <f>ON_Swaps!L28</f>
-        <v>USD_YCONRH_OIS20M#0000</v>
+        <v>USD_YCONRH_OIS20M#0001</v>
       </c>
       <c r="F57" s="13">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>2.66E-3</v>
+        <v>2.8300000000000005E-3</v>
       </c>
       <c r="G57" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E57,Trigger)</f>
@@ -5093,11 +4940,11 @@
       </c>
       <c r="K57" s="12">
         <f>_xll.qlRateHelperEarliestDate($E57,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L57" s="11">
         <f>_xll.qlRateHelperLatestDate($E57,Trigger)</f>
-        <v>42376</v>
+        <v>42377</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
@@ -5114,11 +4961,11 @@
       </c>
       <c r="E58" s="14" t="str">
         <f>ON_Swaps!L29</f>
-        <v>USD_YCONRH_OIS21M#0000</v>
+        <v>USD_YCONRH_OIS21M#0001</v>
       </c>
       <c r="F58" s="13">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>2.9400000000000003E-3</v>
+        <v>3.1199999999999999E-3</v>
       </c>
       <c r="G58" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E58,Trigger)</f>
@@ -5136,7 +4983,7 @@
       </c>
       <c r="K58" s="12">
         <f>_xll.qlRateHelperEarliestDate($E58,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L58" s="11">
         <f>_xll.qlRateHelperLatestDate($E58,Trigger)</f>
@@ -5157,11 +5004,11 @@
       </c>
       <c r="E59" s="14" t="str">
         <f>ON_Swaps!L30</f>
-        <v>USD_YCONRH_OIS22M#0000</v>
+        <v>USD_YCONRH_OIS22M#0001</v>
       </c>
       <c r="F59" s="13">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>3.1900000000000001E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="G59" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E59,Trigger)</f>
@@ -5179,11 +5026,11 @@
       </c>
       <c r="K59" s="12">
         <f>_xll.qlRateHelperEarliestDate($E59,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L59" s="11">
         <f>_xll.qlRateHelperLatestDate($E59,Trigger)</f>
-        <v>42436</v>
+        <v>42437</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
@@ -5200,11 +5047,11 @@
       </c>
       <c r="E60" s="14" t="str">
         <f>ON_Swaps!L31</f>
-        <v>USD_YCONRH_OIS23M#0000</v>
+        <v>USD_YCONRH_OIS23M#0001</v>
       </c>
       <c r="F60" s="13">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>3.4799999999999996E-3</v>
+        <v>3.7099999999999998E-3</v>
       </c>
       <c r="G60" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E60,Trigger)</f>
@@ -5222,11 +5069,11 @@
       </c>
       <c r="K60" s="12">
         <f>_xll.qlRateHelperEarliestDate($E60,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L60" s="11">
         <f>_xll.qlRateHelperLatestDate($E60,Trigger)</f>
-        <v>42467</v>
+        <v>42468</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
@@ -5243,11 +5090,11 @@
       </c>
       <c r="E61" s="14" t="str">
         <f>ON_Swaps!L32</f>
-        <v>USD_YCONRH_OIS2Y#0000</v>
+        <v>USD_YCONRH_OIS2Y#0001</v>
       </c>
       <c r="F61" s="13">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>3.7799999999999999E-3</v>
+        <v>4.0400000000000002E-3</v>
       </c>
       <c r="G61" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E61,Trigger)</f>
@@ -5265,7 +5112,7 @@
       </c>
       <c r="K61" s="12">
         <f>_xll.qlRateHelperEarliestDate($E61,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L61" s="11">
         <f>_xll.qlRateHelperLatestDate($E61,Trigger)</f>
@@ -5286,11 +5133,11 @@
       </c>
       <c r="E62" s="14" t="str">
         <f>ON_Swaps!L33</f>
-        <v>USD_YCONRH_OIS27M#0000</v>
+        <v>USD_YCONRH_OIS27M#0001</v>
       </c>
       <c r="F62" s="13">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
-        <v>4.81E-3</v>
+        <v>5.0800000000000003E-3</v>
       </c>
       <c r="G62" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E62,Trigger)</f>
@@ -5307,7 +5154,7 @@
       </c>
       <c r="K62" s="12">
         <f>_xll.qlRateHelperEarliestDate($E62,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L62" s="11">
         <f>_xll.qlRateHelperLatestDate($E62,Trigger)</f>
@@ -5328,11 +5175,11 @@
       </c>
       <c r="E63" s="14" t="str">
         <f>ON_Swaps!L34</f>
-        <v>USD_YCONRH_OIS30M#0000</v>
+        <v>USD_YCONRH_OIS30M#0001</v>
       </c>
       <c r="F63" s="13">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>5.8499999999999993E-3</v>
+        <v>6.1700000000000001E-3</v>
       </c>
       <c r="G63" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E63,Trigger)</f>
@@ -5349,11 +5196,11 @@
       </c>
       <c r="K63" s="12">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L63" s="11">
         <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>42681</v>
+        <v>42682</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
@@ -5370,11 +5217,11 @@
       </c>
       <c r="E64" s="14" t="str">
         <f>ON_Swaps!L35</f>
-        <v>USD_YCONRH_OIS33M#0000</v>
+        <v>USD_YCONRH_OIS33M#0001</v>
       </c>
       <c r="F64" s="13">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
-        <v>6.9199999999999991E-3</v>
+        <v>7.2699999999999996E-3</v>
       </c>
       <c r="G64" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E64,Trigger)</f>
@@ -5391,11 +5238,11 @@
       </c>
       <c r="K64" s="12">
         <f>_xll.qlRateHelperEarliestDate($E64,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L64" s="11">
         <f>_xll.qlRateHelperLatestDate($E64,Trigger)</f>
-        <v>42773</v>
+        <v>42774</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
@@ -5412,11 +5259,11 @@
       </c>
       <c r="E65" s="14" t="str">
         <f>ON_Swaps!L36</f>
-        <v>USD_YCONRH_OIS3Y#0000</v>
+        <v>USD_YCONRH_OIS3Y#0001</v>
       </c>
       <c r="F65" s="13">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>8.0000000000000002E-3</v>
+        <v>8.3299999999999989E-3</v>
       </c>
       <c r="G65" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E65,Trigger)</f>
@@ -5433,7 +5280,7 @@
       </c>
       <c r="K65" s="12">
         <f>_xll.qlRateHelperEarliestDate($E65,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L65" s="11">
         <f>_xll.qlRateHelperLatestDate($E65,Trigger)</f>
@@ -5454,11 +5301,11 @@
       </c>
       <c r="E66" s="14" t="str">
         <f>ON_Swaps!L37</f>
-        <v>USD_YCONRH_OIS39M#0000</v>
+        <v>USD_YCONRH_OIS39M#0001</v>
       </c>
       <c r="F66" s="13">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
-        <v>9.0500000000000008E-3</v>
+        <v>9.3900000000000008E-3</v>
       </c>
       <c r="G66" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E66,Trigger)</f>
@@ -5475,11 +5322,11 @@
       </c>
       <c r="K66" s="12">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L66" s="11">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>42954</v>
+        <v>42955</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
@@ -5496,11 +5343,11 @@
       </c>
       <c r="E67" s="14" t="str">
         <f>ON_Swaps!L38</f>
-        <v>USD_YCONRH_OIS42M#0000</v>
+        <v>USD_YCONRH_OIS42M#0001</v>
       </c>
       <c r="F67" s="13">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
-        <v>1.004E-2</v>
+        <v>1.0369999999999999E-2</v>
       </c>
       <c r="G67" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E67,Trigger)</f>
@@ -5517,11 +5364,11 @@
       </c>
       <c r="K67" s="12">
         <f>_xll.qlRateHelperEarliestDate($E67,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L67" s="11">
         <f>_xll.qlRateHelperLatestDate($E67,Trigger)</f>
-        <v>43046</v>
+        <v>43047</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
@@ -5538,11 +5385,11 @@
       </c>
       <c r="E68" s="14" t="str">
         <f>ON_Swaps!L39</f>
-        <v>USD_YCONRH_OIS45M#0000</v>
+        <v>USD_YCONRH_OIS45M#0001</v>
       </c>
       <c r="F68" s="13">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
-        <v>1.1059999999999999E-2</v>
+        <v>1.1379999999999999E-2</v>
       </c>
       <c r="G68" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E68,Trigger)</f>
@@ -5559,11 +5406,11 @@
       </c>
       <c r="K68" s="12">
         <f>_xll.qlRateHelperEarliestDate($E68,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L68" s="11">
         <f>_xll.qlRateHelperLatestDate($E68,Trigger)</f>
-        <v>43138</v>
+        <v>43139</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
@@ -5580,11 +5427,11 @@
       </c>
       <c r="E69" s="14" t="str">
         <f>ON_Swaps!L40</f>
-        <v>USD_YCONRH_OIS4Y#0000</v>
+        <v>USD_YCONRH_OIS4Y#0001</v>
       </c>
       <c r="F69" s="13">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
-        <v>1.1979999999999999E-2</v>
+        <v>1.2269999999999998E-2</v>
       </c>
       <c r="G69" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E69,Trigger)</f>
@@ -5601,7 +5448,7 @@
       </c>
       <c r="K69" s="12">
         <f>_xll.qlRateHelperEarliestDate($E69,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L69" s="11">
         <f>_xll.qlRateHelperLatestDate($E69,Trigger)</f>
@@ -5622,11 +5469,11 @@
       </c>
       <c r="E70" s="14" t="str">
         <f>ON_Swaps!L41</f>
-        <v>USD_YCONRH_OIS51M#0000</v>
+        <v>USD_YCONRH_OIS51M#0001</v>
       </c>
       <c r="F70" s="13">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
-        <v>1.2919999999999997E-2</v>
+        <v>1.319E-2</v>
       </c>
       <c r="G70" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E70,Trigger)</f>
@@ -5643,11 +5490,11 @@
       </c>
       <c r="K70" s="12">
         <f>_xll.qlRateHelperEarliestDate($E70,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L70" s="11">
         <f>_xll.qlRateHelperLatestDate($E70,Trigger)</f>
-        <v>43319</v>
+        <v>43320</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
@@ -5664,11 +5511,11 @@
       </c>
       <c r="E71" s="14" t="str">
         <f>ON_Swaps!L42</f>
-        <v>USD_YCONRH_OIS54M#0000</v>
+        <v>USD_YCONRH_OIS54M#0001</v>
       </c>
       <c r="F71" s="13">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
-        <v>1.3769999999999999E-2</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="G71" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E71,Trigger)</f>
@@ -5685,11 +5532,11 @@
       </c>
       <c r="K71" s="12">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L71" s="11">
         <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>43411</v>
+        <v>43412</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
@@ -5706,11 +5553,11 @@
       </c>
       <c r="E72" s="14" t="str">
         <f>ON_Swaps!L43</f>
-        <v>USD_YCONRH_OIS57M#0000</v>
+        <v>USD_YCONRH_OIS57M#0001</v>
       </c>
       <c r="F72" s="13">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
-        <v>1.4660000000000001E-2</v>
+        <v>1.4870000000000001E-2</v>
       </c>
       <c r="G72" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E72,Trigger)</f>
@@ -5727,11 +5574,11 @@
       </c>
       <c r="K72" s="12">
         <f>_xll.qlRateHelperEarliestDate($E72,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L72" s="11">
         <f>_xll.qlRateHelperLatestDate($E72,Trigger)</f>
-        <v>43503</v>
+        <v>43504</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
@@ -5748,11 +5595,11 @@
       </c>
       <c r="E73" s="14" t="str">
         <f>ON_Swaps!L44</f>
-        <v>USD_YCONRH_OIS5Y#0000</v>
+        <v>USD_YCONRH_OIS5Y#0001</v>
       </c>
       <c r="F73" s="13">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
-        <v>1.5440000000000001E-2</v>
+        <v>1.5579999999999998E-2</v>
       </c>
       <c r="G73" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E73,Trigger)</f>
@@ -5770,11 +5617,11 @@
       </c>
       <c r="K73" s="12">
         <f>_xll.qlRateHelperEarliestDate($E73,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L73" s="11">
         <f>_xll.qlRateHelperLatestDate($E73,Trigger)</f>
-        <v>43592</v>
+        <v>43593</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
@@ -5791,11 +5638,11 @@
       </c>
       <c r="E74" s="14" t="str">
         <f>ON_Swaps!L45</f>
-        <v>USD_YCONRH_OIS6Y#0000</v>
+        <v>USD_YCONRH_OIS6Y#0001</v>
       </c>
       <c r="F74" s="13">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
-        <v>1.8189999999999998E-2</v>
+        <v>1.8260000000000002E-2</v>
       </c>
       <c r="G74" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E74,Trigger)</f>
@@ -5813,11 +5660,11 @@
       </c>
       <c r="K74" s="12">
         <f>_xll.qlRateHelperEarliestDate($E74,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L74" s="11">
         <f>_xll.qlRateHelperLatestDate($E74,Trigger)</f>
-        <v>43958</v>
+        <v>43959</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
@@ -5834,11 +5681,11 @@
       </c>
       <c r="E75" s="14" t="str">
         <f>ON_Swaps!L46</f>
-        <v>USD_YCONRH_OIS7Y#0000</v>
+        <v>USD_YCONRH_OIS7Y#0001</v>
       </c>
       <c r="F75" s="13">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
-        <v>2.0409999999999998E-2</v>
+        <v>2.0389999999999998E-2</v>
       </c>
       <c r="G75" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E75,Trigger)</f>
@@ -5856,11 +5703,11 @@
       </c>
       <c r="K75" s="12">
         <f>_xll.qlRateHelperEarliestDate($E75,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L75" s="11">
         <f>_xll.qlRateHelperLatestDate($E75,Trigger)</f>
-        <v>44323</v>
+        <v>44326</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
@@ -5877,11 +5724,11 @@
       </c>
       <c r="E76" s="14" t="str">
         <f>ON_Swaps!L47</f>
-        <v>USD_YCONRH_OIS8Y#0000</v>
+        <v>USD_YCONRH_OIS8Y#0001</v>
       </c>
       <c r="F76" s="13">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
-        <v>2.215E-2</v>
+        <v>2.2099999999999998E-2</v>
       </c>
       <c r="G76" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E76,Trigger)</f>
@@ -5899,7 +5746,7 @@
       </c>
       <c r="K76" s="12">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L76" s="11">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
@@ -5920,11 +5767,11 @@
       </c>
       <c r="E77" s="14" t="str">
         <f>ON_Swaps!L48</f>
-        <v>USD_YCONRH_OIS9Y#0000</v>
+        <v>USD_YCONRH_OIS9Y#0001</v>
       </c>
       <c r="F77" s="13">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
-        <v>2.368E-2</v>
+        <v>2.351E-2</v>
       </c>
       <c r="G77" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E77,Trigger)</f>
@@ -5942,7 +5789,7 @@
       </c>
       <c r="K77" s="12">
         <f>_xll.qlRateHelperEarliestDate($E77,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L77" s="11">
         <f>_xll.qlRateHelperLatestDate($E77,Trigger)</f>
@@ -5963,11 +5810,11 @@
       </c>
       <c r="E78" s="14" t="str">
         <f>ON_Swaps!L49</f>
-        <v>USD_YCONRH_OIS10Y#0000</v>
+        <v>USD_YCONRH_OIS10Y#0001</v>
       </c>
       <c r="F78" s="13">
         <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
-        <v>2.4929999999999997E-2</v>
+        <v>2.4690000000000004E-2</v>
       </c>
       <c r="G78" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E78,Trigger)</f>
@@ -5985,11 +5832,11 @@
       </c>
       <c r="K78" s="12">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L78" s="11">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>45419</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
@@ -6006,11 +5853,11 @@
       </c>
       <c r="E79" s="14" t="str">
         <f>ON_Swaps!L50</f>
-        <v>USD_YCONRH_OIS12Y#0000</v>
+        <v>USD_YCONRH_OIS12Y#0001</v>
       </c>
       <c r="F79" s="13">
         <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
-        <v>2.6859999999999998E-2</v>
+        <v>2.6600000000000002E-2</v>
       </c>
       <c r="G79" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E79,Trigger)</f>
@@ -6028,11 +5875,11 @@
       </c>
       <c r="K79" s="12">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L79" s="11">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>46149</v>
+        <v>46150</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
@@ -6049,11 +5896,11 @@
       </c>
       <c r="E80" s="14" t="str">
         <f>ON_Swaps!L51</f>
-        <v>USD_YCONRH_OIS15Y#0000</v>
+        <v>USD_YCONRH_OIS15Y#0001</v>
       </c>
       <c r="F80" s="13">
         <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
-        <v>2.886E-2</v>
+        <v>2.8609999999999997E-2</v>
       </c>
       <c r="G80" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E80,Trigger)</f>
@@ -6071,7 +5918,7 @@
       </c>
       <c r="K80" s="12">
         <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L80" s="11">
         <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
@@ -6089,11 +5936,11 @@
       </c>
       <c r="E81" s="14" t="str">
         <f>ON_Swaps!L52</f>
-        <v>USD_YCONRH_OIS20Y#0000</v>
+        <v>USD_YCONRH_OIS20Y#0001</v>
       </c>
       <c r="F81" s="13">
         <f>_xll.qlRateHelperQuoteValue($E81,Trigger)</f>
-        <v>3.056E-2</v>
+        <v>3.0259999999999999E-2</v>
       </c>
       <c r="G81" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E81,Trigger)</f>
@@ -6111,7 +5958,7 @@
       </c>
       <c r="K81" s="12">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L81" s="11">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
@@ -6129,11 +5976,11 @@
       </c>
       <c r="E82" s="14" t="str">
         <f>ON_Swaps!L53</f>
-        <v>USD_YCONRH_OIS25Y#0000</v>
+        <v>USD_YCONRH_OIS25Y#0001</v>
       </c>
       <c r="F82" s="13">
         <f>_xll.qlRateHelperQuoteValue($E82,Trigger)</f>
-        <v>3.1329999999999997E-2</v>
+        <v>3.1029999999999999E-2</v>
       </c>
       <c r="G82" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E82,Trigger)</f>
@@ -6150,7 +5997,7 @@
       </c>
       <c r="K82" s="12">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L82" s="11">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
@@ -6168,7 +6015,7 @@
       </c>
       <c r="E83" s="14" t="str">
         <f>ON_Swaps!L54</f>
-        <v>USD_YCONRH_OIS27Y#0000</v>
+        <v>USD_YCONRH_OIS27Y#0001</v>
       </c>
       <c r="F83" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
@@ -6190,11 +6037,11 @@
       </c>
       <c r="K83" s="12">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L83" s="11">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>51628</v>
+        <v>51629</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
@@ -6211,11 +6058,11 @@
       </c>
       <c r="E84" s="14" t="str">
         <f>ON_Swaps!L55</f>
-        <v>USD_YCONRH_OIS30Y#0000</v>
+        <v>USD_YCONRH_OIS30Y#0001</v>
       </c>
       <c r="F84" s="13">
         <f>_xll.qlRateHelperQuoteValue($E84,Trigger)</f>
-        <v>3.1669999999999997E-2</v>
+        <v>3.1349999999999996E-2</v>
       </c>
       <c r="G84" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E84,Trigger)</f>
@@ -6232,7 +6079,7 @@
       </c>
       <c r="K84" s="12">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L84" s="11">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
@@ -6253,11 +6100,11 @@
       </c>
       <c r="E85" s="14" t="str">
         <f>ON_Swaps!L56</f>
-        <v>USD_YCONRH_OIS35Y#0000</v>
+        <v>USD_YCONRH_OIS35Y#0001</v>
       </c>
       <c r="F85" s="13">
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
-        <v>3.1719999999999998E-2</v>
+        <v>3.141E-2</v>
       </c>
       <c r="G85" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E85,Trigger)</f>
@@ -6275,11 +6122,11 @@
       </c>
       <c r="K85" s="12">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L85" s="11">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>54550</v>
+        <v>54553</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
@@ -6296,11 +6143,11 @@
       </c>
       <c r="E86" s="14" t="str">
         <f>ON_Swaps!L57</f>
-        <v>USD_YCONRH_OIS40Y#0000</v>
+        <v>USD_YCONRH_OIS40Y#0001</v>
       </c>
       <c r="F86" s="13">
         <f>_xll.qlRateHelperQuoteValue($E86,Trigger)</f>
-        <v>3.1739999999999997E-2</v>
+        <v>3.1440000000000003E-2</v>
       </c>
       <c r="G86" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E86,Trigger)</f>
@@ -6318,11 +6165,11 @@
       </c>
       <c r="K86" s="12">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L86" s="11">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>56376</v>
+        <v>56377</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
@@ -6339,11 +6186,11 @@
       </c>
       <c r="E87" s="14" t="str">
         <f>ON_Swaps!L58</f>
-        <v>USD_YCONRH_OIS45Y#0000</v>
+        <v>USD_YCONRH_OIS45Y#0001</v>
       </c>
       <c r="F87" s="13">
         <f>_xll.qlRateHelperQuoteValue($E87,Trigger)</f>
-        <v>3.1649999999999998E-2</v>
+        <v>3.134E-2</v>
       </c>
       <c r="G87" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E87,Trigger)</f>
@@ -6361,11 +6208,11 @@
       </c>
       <c r="K87" s="12">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L87" s="11">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>58202</v>
+        <v>58203</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
@@ -6382,11 +6229,11 @@
       </c>
       <c r="E88" s="8" t="str">
         <f>ON_Swaps!L59</f>
-        <v>USD_YCONRH_OIS50Y#0000</v>
+        <v>USD_YCONRH_OIS50Y#0001</v>
       </c>
       <c r="F88" s="7">
         <f>_xll.qlRateHelperQuoteValue($E88,Trigger)</f>
-        <v>3.1550000000000002E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="G88" s="7" t="e">
         <f>_xll.qlSwapRateHelperSpread($E88,Trigger)</f>
@@ -6404,11 +6251,11 @@
       </c>
       <c r="K88" s="4">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L88" s="3">
         <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>60029</v>
+        <v>60030</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
@@ -8016,10 +7863,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -8032,18 +7879,14 @@
     <col min="6" max="6" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="16" style="177" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" style="177" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="199" t="s">
+    <row r="1" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="197" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="200"/>
+      <c r="B1" s="198"/>
       <c r="D1" s="51" t="s">
         <v>105</v>
       </c>
@@ -8057,12 +7900,12 @@
       <c r="H1" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="190">
+      <c r="I1" s="188">
         <f t="array" ref="I1:I126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>103</v>
       </c>
@@ -8083,23 +7926,17 @@
       </c>
       <c r="G2" s="38">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41761</v>
+        <v>41765</v>
       </c>
       <c r="H2" s="37">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41765</v>
-      </c>
-      <c r="I2" s="190">
-        <v>0.99998333361110636</v>
-      </c>
-      <c r="L2" s="177" t="s">
-        <v>171</v>
-      </c>
-      <c r="M2" s="178">
-        <v>1.6999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>41766</v>
+      </c>
+      <c r="I2" s="188">
+        <v>0.99999583335069442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
         <v>102</v>
       </c>
@@ -8119,27 +7956,17 @@
       </c>
       <c r="G3" s="38">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="H3" s="37">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41766</v>
-      </c>
-      <c r="I3" s="190">
-        <v>0.99997916703131484</v>
-      </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J3:J37" si="0">H3-H2</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="177" t="s">
-        <v>172</v>
-      </c>
-      <c r="M3" s="178">
-        <v>1.6999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>41767</v>
+      </c>
+      <c r="I3" s="188">
+        <v>0.99999166671874984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="44" t="s">
         <v>101</v>
       </c>
@@ -8151,7 +7978,7 @@
       </c>
       <c r="E4" s="39">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>8.8999999999999995E-4</v>
       </c>
       <c r="F4" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -8159,27 +7986,17 @@
       </c>
       <c r="G4" s="38">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H4" s="37">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41773</v>
-      </c>
-      <c r="I4" s="190">
-        <v>0.99996166770212991</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L4" s="177" t="s">
-        <v>173</v>
-      </c>
-      <c r="M4" s="178">
-        <v>9.8999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>41774</v>
+      </c>
+      <c r="I4" s="188">
+        <v>0.9999743616068808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="44" t="s">
         <v>100</v>
       </c>
@@ -8191,7 +8008,7 @@
       </c>
       <c r="E5" s="39">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>8.8999999999999995E-4</v>
       </c>
       <c r="F5" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -8199,27 +8016,17 @@
       </c>
       <c r="G5" s="38">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H5" s="37">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41780</v>
-      </c>
-      <c r="I5" s="190">
-        <v>0.99994416898535787</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L5" s="177" t="s">
-        <v>174</v>
-      </c>
-      <c r="M5" s="178">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>41781</v>
+      </c>
+      <c r="I5" s="188">
+        <v>0.99995705709407501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
         <v>98</v>
       </c>
@@ -8232,7 +8039,7 @@
       </c>
       <c r="E6" s="39">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>8.8999999999999995E-4</v>
       </c>
       <c r="F6" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -8240,27 +8047,17 @@
       </c>
       <c r="G6" s="38">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H6" s="37">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41787</v>
-      </c>
-      <c r="I6" s="190">
-        <v>0.99992667088127629</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L6" s="177" t="s">
-        <v>175</v>
-      </c>
-      <c r="M6" s="178">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>41788</v>
+      </c>
+      <c r="I6" s="188">
+        <v>0.99993975317993988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
         <v>USD_YCONRH_RateHelpersSelected#0001</v>
@@ -8274,7 +8071,7 @@
       </c>
       <c r="E7" s="39">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>8.8999999999999995E-4</v>
       </c>
       <c r="F7" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -8282,27 +8079,17 @@
       </c>
       <c r="G7" s="38">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H7" s="37">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
         <v>41799</v>
       </c>
-      <c r="I7" s="190">
-        <v>0.99989667555557626</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L7" s="177" t="s">
-        <v>176</v>
-      </c>
-      <c r="M7" s="178">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I7" s="188">
+        <v>0.99991256252499505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D8" s="40" t="str">
         <v>USD_YCONRH_OIS2M</v>
       </c>
@@ -8316,33 +8103,23 @@
       </c>
       <c r="G8" s="38">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H8" s="37">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41827</v>
-      </c>
-      <c r="I8" s="190">
-        <v>0.99982330568710609</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="L8" s="177" t="s">
-        <v>177</v>
-      </c>
-      <c r="M8" s="178">
-        <v>1.01E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>41828</v>
+      </c>
+      <c r="I8" s="188">
+        <v>0.99983580342625455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D9" s="40" t="str">
         <v>USD_YCONRH_OIS3M</v>
       </c>
       <c r="E9" s="39">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>9.2999999999999995E-4</v>
+        <v>9.3999999999999997E-4</v>
       </c>
       <c r="F9" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -8350,33 +8127,23 @@
       </c>
       <c r="G9" s="38">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H9" s="37">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41858</v>
-      </c>
-      <c r="I9" s="190">
-        <v>0.99974156178693296</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="L9" s="177" t="s">
-        <v>178</v>
-      </c>
-      <c r="M9" s="178">
-        <v>1.0399999999999999E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>41859</v>
+      </c>
+      <c r="I9" s="188">
+        <v>0.9997515041906615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D10" s="40" t="str">
         <v>USD_YCONRH_OIS4M</v>
       </c>
       <c r="E10" s="39">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>9.5E-4</v>
+        <v>9.6000000000000002E-4</v>
       </c>
       <c r="F10" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -8384,33 +8151,23 @@
       </c>
       <c r="G10" s="38">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H10" s="37">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
         <v>41890</v>
       </c>
-      <c r="I10" s="190">
-        <v>0.99965205866310236</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="L10" s="177" t="s">
-        <v>179</v>
-      </c>
-      <c r="M10" s="178">
-        <v>1.07E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I10" s="188">
+        <v>0.9996637769996719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D11" s="40" t="str">
         <v>USD_YCONRH_OIS5M</v>
       </c>
       <c r="E11" s="39">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>9.7000000000000005E-4</v>
+        <v>9.8999999999999999E-4</v>
       </c>
       <c r="F11" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -8418,33 +8175,23 @@
       </c>
       <c r="G11" s="38">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H11" s="37">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41919</v>
-      </c>
-      <c r="I11" s="190">
-        <v>0.99956709549643075</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="L11" s="177" t="s">
-        <v>180</v>
-      </c>
-      <c r="M11" s="178">
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>41920</v>
+      </c>
+      <c r="I11" s="188">
+        <v>0.99957109717961146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D12" s="40" t="str">
         <v>USD_YCONRH_OIS6M</v>
       </c>
       <c r="E12" s="39">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>1E-3</v>
+        <v>1.01E-3</v>
       </c>
       <c r="F12" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -8452,33 +8199,23 @@
       </c>
       <c r="G12" s="38">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H12" s="37">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41950</v>
-      </c>
-      <c r="I12" s="190">
-        <v>0.99946832766384208</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="L12" s="177" t="s">
-        <v>181</v>
-      </c>
-      <c r="M12" s="178">
-        <v>1.1199999999999999E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>41953</v>
+      </c>
+      <c r="I12" s="188">
+        <v>0.99947010989973384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D13" s="40" t="str">
         <v>USD_YCONRH_OIS7M</v>
       </c>
       <c r="E13" s="39">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>1.0299999999999999E-3</v>
+        <v>1.0399999999999999E-3</v>
       </c>
       <c r="F13" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -8486,33 +8223,23 @@
       </c>
       <c r="G13" s="38">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H13" s="37">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
         <v>41981</v>
       </c>
-      <c r="I13" s="190">
-        <v>0.9993644191129466</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="L13" s="177" t="s">
-        <v>182</v>
-      </c>
-      <c r="M13" s="178">
-        <v>1.15E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I13" s="188">
+        <v>0.99937383160774251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D14" s="40" t="str">
         <v>USD_YCONRH_OIS8M</v>
       </c>
       <c r="E14" s="39">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>1.06E-3</v>
+        <v>1.08E-3</v>
       </c>
       <c r="F14" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -8520,33 +8247,23 @@
       </c>
       <c r="G14" s="38">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H14" s="37">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42011</v>
-      </c>
-      <c r="I14" s="190">
-        <v>0.99925831318705183</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="L14" s="177" t="s">
-        <v>183</v>
-      </c>
-      <c r="M14" s="178">
-        <v>1.1800000000000001E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>42012</v>
+      </c>
+      <c r="I14" s="188">
+        <v>0.99925721266743928</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D15" s="40" t="str">
         <v>USD_YCONRH_OIS9M</v>
       </c>
       <c r="E15" s="39">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1299999999999999E-3</v>
       </c>
       <c r="F15" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -8554,33 +8271,23 @@
       </c>
       <c r="G15" s="38">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H15" s="37">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
         <v>42044</v>
       </c>
-      <c r="I15" s="190">
-        <v>0.99913046121176319</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="L15" s="177" t="s">
-        <v>184</v>
-      </c>
-      <c r="M15" s="178">
-        <v>1.23E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I15" s="188">
+        <v>0.99912295706100074</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D16" s="40" t="str">
         <v>USD_YCONRH_OIS10M</v>
       </c>
       <c r="E16" s="39">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.15E-3</v>
+        <v>1.1799999999999998E-3</v>
       </c>
       <c r="F16" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -8588,33 +8295,23 @@
       </c>
       <c r="G16" s="38">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H16" s="37">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
         <v>42072</v>
       </c>
-      <c r="I16" s="190">
-        <v>0.99900264194880983</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="L16" s="177" t="s">
-        <v>185</v>
-      </c>
-      <c r="M16" s="178">
-        <v>1.2700000000000001E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I16" s="188">
+        <v>0.99899295126552634</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D17" s="40" t="str">
         <v>USD_YCONRH_OIS11M</v>
       </c>
       <c r="E17" s="39">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.2099999999999999E-3</v>
+        <v>1.25E-3</v>
       </c>
       <c r="F17" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -8622,33 +8319,23 @@
       </c>
       <c r="G17" s="38">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H17" s="37">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42101</v>
-      </c>
-      <c r="I17" s="190">
-        <v>0.9988544846275822</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="L17" s="177" t="s">
-        <v>186</v>
-      </c>
-      <c r="M17" s="178">
-        <v>1.32E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
+        <v>42102</v>
+      </c>
+      <c r="I17" s="188">
+        <v>0.99882983340558729</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D18" s="40" t="str">
         <v>USD_YCONRH_OIS1Y</v>
       </c>
       <c r="E18" s="39">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.2900000000000001E-3</v>
+        <v>1.34E-3</v>
       </c>
       <c r="F18" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -8656,33 +8343,23 @@
       </c>
       <c r="G18" s="38">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H18" s="37">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42131</v>
-      </c>
-      <c r="I18" s="190">
-        <v>0.99867298598839116</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="L18" s="177" t="s">
-        <v>187</v>
-      </c>
-      <c r="M18" s="178">
-        <v>1.3699999999999999E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
+        <v>42132</v>
+      </c>
+      <c r="I18" s="188">
+        <v>0.99863491023376327</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D19" s="40" t="str">
         <v>USD_YCONRH_OIS13M</v>
       </c>
       <c r="E19" s="39">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.4000000000000002E-3</v>
+        <v>1.4500000000000001E-3</v>
       </c>
       <c r="F19" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -8690,33 +8367,23 @@
       </c>
       <c r="G19" s="38">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H19" s="37">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
         <v>42163</v>
       </c>
-      <c r="I19" s="190">
-        <v>0.99843735622737473</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="L19" s="177" t="s">
-        <v>188</v>
-      </c>
-      <c r="M19" s="178">
-        <v>1.42E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I19" s="188">
+        <v>0.9983988735086885</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D20" s="40" t="str">
         <v>USD_YCONRH_OIS14M</v>
       </c>
       <c r="E20" s="39">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.5100000000000003E-3</v>
+        <v>1.5799999999999998E-3</v>
       </c>
       <c r="F20" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -8724,33 +8391,23 @@
       </c>
       <c r="G20" s="38">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H20" s="37">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>42192</v>
-      </c>
-      <c r="I20" s="190">
-        <v>0.99819482719330499</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="L20" s="177" t="s">
-        <v>189</v>
-      </c>
-      <c r="M20" s="178">
-        <v>1.49E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.2">
+        <v>42193</v>
+      </c>
+      <c r="I20" s="188">
+        <v>0.99812468891257378</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D21" s="40" t="str">
         <v>USD_YCONRH_OIS15M</v>
       </c>
       <c r="E21" s="39">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.6499999999999998E-3</v>
+        <v>1.7499999999999998E-3</v>
       </c>
       <c r="F21" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -8758,33 +8415,23 @@
       </c>
       <c r="G21" s="38">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H21" s="37">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>42223</v>
-      </c>
-      <c r="I21" s="190">
-        <v>0.99788769437071201</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="L21" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="M21" s="178">
-        <v>1.5499999999999999E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.2">
+        <v>42226</v>
+      </c>
+      <c r="I21" s="188">
+        <v>0.99776386059658317</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D22" s="40" t="str">
         <v>USD_YCONRH_OIS16M</v>
       </c>
       <c r="E22" s="39">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.83E-3</v>
+        <v>1.92E-3</v>
       </c>
       <c r="F22" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -8792,33 +8439,23 @@
       </c>
       <c r="G22" s="38">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H22" s="37">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
         <v>42255</v>
       </c>
-      <c r="I22" s="190">
-        <v>0.99749745663173206</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="L22" s="177" t="s">
-        <v>191</v>
-      </c>
-      <c r="M22" s="178">
-        <v>1.6299999999999999E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I22" s="188">
+        <v>0.99739336737782813</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D23" s="40" t="str">
         <v>USD_YCONRH_OIS17M</v>
       </c>
       <c r="E23" s="39">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2E-3</v>
+        <v>2.1200000000000004E-3</v>
       </c>
       <c r="F23" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -8826,33 +8463,23 @@
       </c>
       <c r="G23" s="38">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H23" s="37">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>42284</v>
-      </c>
-      <c r="I23" s="190">
-        <v>0.99710653958441386</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="L23" s="177" t="s">
-        <v>192</v>
-      </c>
-      <c r="M23" s="178">
-        <v>1.6999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.2">
+        <v>42285</v>
+      </c>
+      <c r="I23" s="188">
+        <v>0.99694690729544644</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D24" s="40" t="str">
         <v>USD_YCONRH_OIS18M</v>
       </c>
       <c r="E24" s="39">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.1999999999999997E-3</v>
+        <v>2.3499999999999997E-3</v>
       </c>
       <c r="F24" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -8860,33 +8487,23 @@
       </c>
       <c r="G24" s="38">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H24" s="37">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
         <v>42317</v>
       </c>
-      <c r="I24" s="190">
-        <v>0.9966187481438451</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="L24" s="177" t="s">
-        <v>193</v>
-      </c>
-      <c r="M24" s="178">
-        <v>1.7899999999999999E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I24" s="188">
+        <v>0.9964089781146156</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D25" s="40" t="str">
         <v>USD_YCONRH_OIS19M</v>
       </c>
       <c r="E25" s="39">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.4299999999999999E-3</v>
+        <v>2.5700000000000002E-3</v>
       </c>
       <c r="F25" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -8894,33 +8511,23 @@
       </c>
       <c r="G25" s="38">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H25" s="37">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>42345</v>
-      </c>
-      <c r="I25" s="190">
-        <v>0.996079849120032</v>
-      </c>
-      <c r="J25" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="L25" s="177" t="s">
-        <v>194</v>
-      </c>
-      <c r="M25" s="178">
-        <v>1.89E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.2">
+        <v>42346</v>
+      </c>
+      <c r="I25" s="188">
+        <v>0.9958681194246779</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D26" s="40" t="str">
         <v>USD_YCONRH_OIS20M</v>
       </c>
       <c r="E26" s="39">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.66E-3</v>
+        <v>2.8300000000000005E-3</v>
       </c>
       <c r="F26" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -8928,33 +8535,23 @@
       </c>
       <c r="G26" s="38">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H26" s="37">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>42376</v>
-      </c>
-      <c r="I26" s="190">
-        <v>0.99548369945068149</v>
-      </c>
-      <c r="J26" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="L26" s="177" t="s">
-        <v>195</v>
-      </c>
-      <c r="M26" s="178">
-        <v>1.98E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.2">
+        <v>42377</v>
+      </c>
+      <c r="I26" s="188">
+        <v>0.99520953210871255</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D27" s="40" t="str">
         <v>USD_YCONRH_OIS21M</v>
       </c>
       <c r="E27" s="39">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.9400000000000003E-3</v>
+        <v>3.1199999999999999E-3</v>
       </c>
       <c r="F27" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -8962,33 +8559,23 @@
       </c>
       <c r="G27" s="38">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H27" s="37">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
         <v>42408</v>
       </c>
-      <c r="I27" s="190">
-        <v>0.99475199450201934</v>
-      </c>
-      <c r="J27" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="L27" s="177" t="s">
-        <v>196</v>
-      </c>
-      <c r="M27" s="178">
-        <v>2.0899999999999998E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I27" s="188">
+        <v>0.99445391784788584</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D28" s="40" t="str">
         <v>USD_YCONRH_OIS22M</v>
       </c>
       <c r="E28" s="39">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>3.1900000000000001E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="F28" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -8996,33 +8583,23 @@
       </c>
       <c r="G28" s="38">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H28" s="37">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>42436</v>
-      </c>
-      <c r="I28" s="190">
-        <v>0.99406256130836945</v>
-      </c>
-      <c r="J28" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="L28" s="177" t="s">
-        <v>197</v>
-      </c>
-      <c r="M28" s="178">
-        <v>2.2000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.2">
+        <v>42437</v>
+      </c>
+      <c r="I28" s="188">
+        <v>0.99368678028886315</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D29" s="40" t="str">
         <v>USD_YCONRH_OIS23M</v>
       </c>
       <c r="E29" s="39">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>3.4799999999999996E-3</v>
+        <v>3.7099999999999998E-3</v>
       </c>
       <c r="F29" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -9030,33 +8607,23 @@
       </c>
       <c r="G29" s="38">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H29" s="37">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>42467</v>
-      </c>
-      <c r="I29" s="190">
-        <v>0.99322950640893859</v>
-      </c>
-      <c r="J29" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="L29" s="177" t="s">
-        <v>198</v>
-      </c>
-      <c r="M29" s="178">
-        <v>2.33E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.2">
+        <v>42468</v>
+      </c>
+      <c r="I29" s="188">
+        <v>0.99279754679202459</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D30" s="40" t="str">
         <v>USD_YCONRH_OIS2Y</v>
       </c>
       <c r="E30" s="39">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>3.7799999999999999E-3</v>
+        <v>4.0400000000000002E-3</v>
       </c>
       <c r="F30" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -9064,33 +8631,23 @@
       </c>
       <c r="G30" s="38">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H30" s="37">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
         <v>42499</v>
       </c>
-      <c r="I30" s="190">
-        <v>0.99231743823119301</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="L30" s="177" t="s">
-        <v>199</v>
-      </c>
-      <c r="M30" s="178">
-        <v>2.47E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I30" s="188">
+        <v>0.99181629664835103</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D31" s="40" t="str">
         <v>USD_YCONRH_OIS3Y</v>
       </c>
       <c r="E31" s="39">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>7.9899999999999988E-3</v>
+        <v>8.3299999999999989E-3</v>
       </c>
       <c r="F31" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -9098,33 +8655,23 @@
       </c>
       <c r="G31" s="38">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H31" s="37">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
         <v>42863</v>
       </c>
-      <c r="I31" s="190">
-        <v>0.9759000574101041</v>
-      </c>
-      <c r="J31" s="1">
-        <f t="shared" si="0"/>
-        <v>364</v>
-      </c>
-      <c r="L31" s="177" t="s">
-        <v>200</v>
-      </c>
-      <c r="M31" s="178">
-        <v>2.9499999999999999E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I31" s="188">
+        <v>0.97492367613996134</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D32" s="40" t="str">
         <v>USD_YCONRH_OIS4Y</v>
       </c>
       <c r="E32" s="39">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>1.1960000000000002E-2</v>
+        <v>1.2269999999999998E-2</v>
       </c>
       <c r="F32" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -9132,33 +8679,23 @@
       </c>
       <c r="G32" s="38">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H32" s="37">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
         <v>43228</v>
       </c>
-      <c r="I32" s="190">
-        <v>0.95238709229188634</v>
-      </c>
-      <c r="J32" s="1">
-        <f t="shared" si="0"/>
-        <v>365</v>
-      </c>
-      <c r="L32" s="177" t="s">
-        <v>201</v>
-      </c>
-      <c r="M32" s="178">
-        <v>3.5400000000000002E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I32" s="188">
+        <v>0.95123305192576624</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D33" s="40" t="str">
         <v>USD_YCONRH_OIS5Y</v>
       </c>
       <c r="E33" s="39">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>1.541E-2</v>
+        <v>1.5579999999999998E-2</v>
       </c>
       <c r="F33" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -9166,33 +8703,23 @@
       </c>
       <c r="G33" s="38">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H33" s="37">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>43592</v>
-      </c>
-      <c r="I33" s="190">
-        <v>0.92425754696415952</v>
-      </c>
-      <c r="J33" s="1">
-        <f t="shared" si="0"/>
-        <v>364</v>
-      </c>
-      <c r="L33" s="177" t="s">
-        <v>202</v>
-      </c>
-      <c r="M33" s="178">
-        <v>4.2300000000000003E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.2">
+        <v>43593</v>
+      </c>
+      <c r="I33" s="188">
+        <v>0.92349191258569907</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D34" s="40" t="str">
         <v>USD_YCONRH_OIS6Y</v>
       </c>
       <c r="E34" s="39">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>1.8170000000000002E-2</v>
+        <v>1.8260000000000002E-2</v>
       </c>
       <c r="F34" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -9200,33 +8727,23 @@
       </c>
       <c r="G34" s="38">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H34" s="37">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>43958</v>
-      </c>
-      <c r="I34" s="190">
-        <v>0.8941774743048474</v>
-      </c>
-      <c r="J34" s="1">
-        <f t="shared" si="0"/>
-        <v>366</v>
-      </c>
-      <c r="L34" s="177" t="s">
-        <v>203</v>
-      </c>
-      <c r="M34" s="178">
-        <v>4.9800000000000001E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.2">
+        <v>43959</v>
+      </c>
+      <c r="I34" s="188">
+        <v>0.89374106932016273</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D35" s="40" t="str">
         <v>USD_YCONRH_OIS7Y</v>
       </c>
       <c r="E35" s="39">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>2.0409999999999998E-2</v>
+        <v>2.0389999999999998E-2</v>
       </c>
       <c r="F35" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -9234,33 +8751,23 @@
       </c>
       <c r="G35" s="38">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H35" s="37">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>44323</v>
-      </c>
-      <c r="I35" s="190">
-        <v>0.86327017036000353</v>
-      </c>
-      <c r="J35" s="1">
-        <f t="shared" si="0"/>
-        <v>365</v>
-      </c>
-      <c r="L35" s="177" t="s">
-        <v>204</v>
-      </c>
-      <c r="M35" s="178">
-        <v>8.3800000000000003E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.2">
+        <v>44326</v>
+      </c>
+      <c r="I35" s="188">
+        <v>0.86340006442194894</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D36" s="40" t="str">
         <v>USD_YCONRH_OIS8Y</v>
       </c>
       <c r="E36" s="39">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>2.215E-2</v>
+        <v>2.2099999999999998E-2</v>
       </c>
       <c r="F36" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -9268,33 +8775,23 @@
       </c>
       <c r="G36" s="38">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H36" s="37">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
         <v>44690</v>
       </c>
-      <c r="I36" s="190">
-        <v>0.83280998248738836</v>
-      </c>
-      <c r="J36" s="1">
-        <f t="shared" si="0"/>
-        <v>367</v>
-      </c>
-      <c r="L36" s="177" t="s">
-        <v>205</v>
-      </c>
-      <c r="M36" s="178">
-        <v>1.1860000000000001E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I36" s="188">
+        <v>0.83332377619586473</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D37" s="40" t="str">
         <v>USD_YCONRH_OIS9Y</v>
       </c>
       <c r="E37" s="39">
         <f>_xll.qlRateHelperRate($D37)</f>
-        <v>2.368E-2</v>
+        <v>2.351E-2</v>
       </c>
       <c r="F37" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
@@ -9302,33 +8799,23 @@
       </c>
       <c r="G37" s="38">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H37" s="37">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
         <v>45054</v>
       </c>
-      <c r="I37" s="190">
-        <v>0.80205906662058801</v>
-      </c>
-      <c r="J37" s="1">
-        <f t="shared" si="0"/>
-        <v>364</v>
-      </c>
-      <c r="L37" s="177" t="s">
-        <v>206</v>
-      </c>
-      <c r="M37" s="178">
-        <v>1.507E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I37" s="188">
+        <v>0.80358794630316277</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D38" s="40" t="str">
         <v>USD_YCONRH_OIS10Y</v>
       </c>
       <c r="E38" s="39">
         <f>_xll.qlRateHelperRate($D38)</f>
-        <v>2.4929999999999997E-2</v>
+        <v>2.4690000000000004E-2</v>
       </c>
       <c r="F38" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
@@ -9336,29 +8823,23 @@
       </c>
       <c r="G38" s="38">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H38" s="37">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>45419</v>
-      </c>
-      <c r="I38" s="190">
-        <v>0.77209574120638758</v>
-      </c>
-      <c r="L38" s="177" t="s">
-        <v>207</v>
-      </c>
-      <c r="M38" s="178">
-        <v>1.787E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.2">
+        <v>45420</v>
+      </c>
+      <c r="I38" s="188">
+        <v>0.77429422067614051</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D39" s="40" t="str">
         <v>USD_YCONRH_OIS12Y</v>
       </c>
       <c r="E39" s="39">
         <f>_xll.qlRateHelperRate($D39)</f>
-        <v>2.6859999999999998E-2</v>
+        <v>2.6600000000000002E-2</v>
       </c>
       <c r="F39" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
@@ -9366,29 +8847,23 @@
       </c>
       <c r="G39" s="38">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H39" s="37">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>46149</v>
-      </c>
-      <c r="I39" s="190">
-        <v>0.7147538089222033</v>
-      </c>
-      <c r="L39" s="177" t="s">
-        <v>208</v>
-      </c>
-      <c r="M39" s="178">
-        <v>2.019E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.2">
+        <v>46150</v>
+      </c>
+      <c r="I39" s="188">
+        <v>0.71737992961971608</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D40" s="40" t="str">
         <v>USD_YCONRH_OIS15Y</v>
       </c>
       <c r="E40" s="39">
         <f>_xll.qlRateHelperRate($D40)</f>
-        <v>2.886E-2</v>
+        <v>2.8609999999999997E-2</v>
       </c>
       <c r="F40" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
@@ -9396,29 +8871,23 @@
       </c>
       <c r="G40" s="38">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H40" s="37">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
         <v>47246</v>
       </c>
-      <c r="I40" s="190">
-        <v>0.63537506066750526</v>
-      </c>
-      <c r="L40" s="177" t="s">
-        <v>209</v>
-      </c>
-      <c r="M40" s="178">
-        <v>2.2179999999999998E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I40" s="188">
+        <v>0.63820118797805325</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D41" s="40" t="str">
         <v>USD_YCONRH_OIS20Y</v>
       </c>
       <c r="E41" s="39">
         <f>_xll.qlRateHelperRate($D41)</f>
-        <v>3.056E-2</v>
+        <v>3.0259999999999999E-2</v>
       </c>
       <c r="F41" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
@@ -9426,29 +8895,23 @@
       </c>
       <c r="G41" s="38">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H41" s="37">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
         <v>49072</v>
       </c>
-      <c r="I41" s="190">
-        <v>0.5259156349257329</v>
-      </c>
-      <c r="L41" s="177" t="s">
-        <v>210</v>
-      </c>
-      <c r="M41" s="178">
-        <v>2.385E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I41" s="188">
+        <v>0.52969503233041004</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D42" s="40" t="str">
         <v>USD_YCONRH_OIS25Y</v>
       </c>
       <c r="E42" s="39">
         <f>_xll.qlRateHelperRate($D42)</f>
-        <v>3.1329999999999997E-2</v>
+        <v>3.1029999999999999E-2</v>
       </c>
       <c r="F42" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
@@ -9456,29 +8919,23 @@
       </c>
       <c r="G42" s="38">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H42" s="37">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
         <v>50899</v>
       </c>
-      <c r="I42" s="190">
-        <v>0.4389071953124794</v>
-      </c>
-      <c r="L42" s="177" t="s">
-        <v>211</v>
-      </c>
-      <c r="M42" s="178">
-        <v>2.666E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I42" s="188">
+        <v>0.44277295847761167</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D43" s="40" t="str">
         <v>USD_YCONRH_OIS35Y</v>
       </c>
       <c r="E43" s="39">
         <f>_xll.qlRateHelperRate($D43)</f>
-        <v>3.1719999999999998E-2</v>
+        <v>3.141E-2</v>
       </c>
       <c r="F43" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
@@ -9486,29 +8943,23 @@
       </c>
       <c r="G43" s="38">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H43" s="37">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>54550</v>
-      </c>
-      <c r="I43" s="190">
-        <v>0.31416549117725623</v>
-      </c>
-      <c r="L43" s="177" t="s">
-        <v>212</v>
-      </c>
-      <c r="M43" s="178">
-        <v>2.928E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.2">
+        <v>54553</v>
+      </c>
+      <c r="I43" s="188">
+        <v>0.31799838678974746</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D44" s="40" t="str">
         <v>USD_YCONRH_OIS40Y</v>
       </c>
       <c r="E44" s="39">
         <f>_xll.qlRateHelperRate($D44)</f>
-        <v>3.1739999999999997E-2</v>
+        <v>3.1440000000000003E-2</v>
       </c>
       <c r="F44" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
@@ -9516,29 +8967,23 @@
       </c>
       <c r="G44" s="38">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H44" s="37">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>56376</v>
-      </c>
-      <c r="I44" s="190">
-        <v>0.26776167758521707</v>
-      </c>
-      <c r="L44" s="177" t="s">
-        <v>213</v>
-      </c>
-      <c r="M44" s="178">
-        <v>3.1359999999999999E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.2">
+        <v>56377</v>
+      </c>
+      <c r="I44" s="188">
+        <v>0.27128278309358933</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D45" s="40" t="str">
         <v>USD_YCONRH_OIS45Y</v>
       </c>
       <c r="E45" s="39">
         <f>_xll.qlRateHelperRate($D45)</f>
-        <v>3.1649999999999998E-2</v>
+        <v>3.134E-2</v>
       </c>
       <c r="F45" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
@@ -9546,29 +8991,23 @@
       </c>
       <c r="G45" s="38">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H45" s="37">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>58202</v>
-      </c>
-      <c r="I45" s="190">
-        <v>0.23053541348972773</v>
-      </c>
-      <c r="L45" s="177" t="s">
-        <v>214</v>
-      </c>
-      <c r="M45" s="178">
-        <v>3.2349999999999997E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.2">
+        <v>58203</v>
+      </c>
+      <c r="I45" s="188">
+        <v>0.23411646629284413</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D46" s="40" t="str">
         <v>USD_YCONRH_OIS50Y</v>
       </c>
       <c r="E46" s="39">
         <f>_xll.qlRateHelperRate($D46)</f>
-        <v>3.1550000000000002E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F46" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
@@ -9576,23 +9015,17 @@
       </c>
       <c r="G46" s="38">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H46" s="37">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>60029</v>
-      </c>
-      <c r="I46" s="190">
-        <v>0.19913176651883227</v>
-      </c>
-      <c r="L46" s="177" t="s">
-        <v>215</v>
-      </c>
-      <c r="M46" s="178">
-        <v>3.2910000000000002E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.2">
+        <v>60030</v>
+      </c>
+      <c r="I46" s="188">
+        <v>0.20227181710883627</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D47" s="40" t="e">
         <v>#N/A</v>
       </c>
@@ -9612,17 +9045,11 @@
         <f>_xll.qlRateHelperLatestDate($D47)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I47" s="190" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L47" s="177" t="s">
-        <v>216</v>
-      </c>
-      <c r="M47" s="178">
-        <v>3.3029999999999997E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I47" s="188" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D48" s="40" t="e">
         <v>#N/A</v>
       </c>
@@ -9642,17 +9069,11 @@
         <f>_xll.qlRateHelperLatestDate($D48)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I48" s="190" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L48" s="177" t="s">
-        <v>217</v>
-      </c>
-      <c r="M48" s="178">
-        <v>3.3020000000000001E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I48" s="188" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D49" s="40" t="e">
         <v>#N/A</v>
       </c>
@@ -9672,17 +9093,11 @@
         <f>_xll.qlRateHelperLatestDate($D49)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I49" s="190" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L49" s="177" t="s">
-        <v>218</v>
-      </c>
-      <c r="M49" s="178">
-        <v>3.2930000000000001E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I49" s="188" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D50" s="40" t="e">
         <v>#N/A</v>
       </c>
@@ -9702,17 +9117,11 @@
         <f>_xll.qlRateHelperLatestDate($D50)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I50" s="190" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L50" s="177" t="s">
-        <v>219</v>
-      </c>
-      <c r="M50" s="178">
-        <v>3.2919999999999998E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I50" s="188" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D51" s="40" t="e">
         <v>#N/A</v>
       </c>
@@ -9732,11 +9141,11 @@
         <f>_xll.qlRateHelperLatestDate($D51)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I51" s="190" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I51" s="188" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D52" s="40" t="e">
         <v>#N/A</v>
       </c>
@@ -9756,11 +9165,11 @@
         <f>_xll.qlRateHelperLatestDate($D52)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I52" s="190" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I52" s="188" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D53" s="40" t="e">
         <v>#N/A</v>
       </c>
@@ -9780,11 +9189,11 @@
         <f>_xll.qlRateHelperLatestDate($D53)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I53" s="190" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I53" s="188" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D54" s="40" t="e">
         <v>#N/A</v>
       </c>
@@ -9804,11 +9213,11 @@
         <f>_xll.qlRateHelperLatestDate($D54)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I54" s="190" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I54" s="188" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D55" s="40" t="e">
         <v>#N/A</v>
       </c>
@@ -9828,11 +9237,11 @@
         <f>_xll.qlRateHelperLatestDate($D55)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I55" s="190" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I55" s="188" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D56" s="40" t="e">
         <v>#N/A</v>
       </c>
@@ -9852,11 +9261,11 @@
         <f>_xll.qlRateHelperLatestDate($D56)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I56" s="190" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I56" s="188" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D57" s="40" t="e">
         <v>#N/A</v>
       </c>
@@ -9876,11 +9285,11 @@
         <f>_xll.qlRateHelperLatestDate($D57)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I57" s="190" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I57" s="188" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D58" s="40" t="e">
         <v>#N/A</v>
       </c>
@@ -9900,11 +9309,11 @@
         <f>_xll.qlRateHelperLatestDate($D58)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I58" s="190" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I58" s="188" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D59" s="40" t="e">
         <v>#N/A</v>
       </c>
@@ -9924,11 +9333,11 @@
         <f>_xll.qlRateHelperLatestDate($D59)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I59" s="190" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I59" s="188" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D60" s="40" t="e">
         <v>#N/A</v>
       </c>
@@ -9948,11 +9357,11 @@
         <f>_xll.qlRateHelperLatestDate($D60)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I60" s="190" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I60" s="188" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D61" s="40" t="e">
         <v>#N/A</v>
       </c>
@@ -9972,11 +9381,11 @@
         <f>_xll.qlRateHelperLatestDate($D61)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I61" s="190" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I61" s="188" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D62" s="40" t="e">
         <v>#N/A</v>
       </c>
@@ -9996,11 +9405,11 @@
         <f>_xll.qlRateHelperLatestDate($D62)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I62" s="190" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I62" s="188" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D63" s="40" t="e">
         <v>#N/A</v>
       </c>
@@ -10020,11 +9429,11 @@
         <f>_xll.qlRateHelperLatestDate($D63)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I63" s="190" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I63" s="188" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D64" s="40" t="e">
         <v>#N/A</v>
       </c>
@@ -10044,7 +9453,7 @@
         <f>_xll.qlRateHelperLatestDate($D64)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I64" s="190" t="e">
+      <c r="I64" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10068,7 +9477,7 @@
         <f>_xll.qlRateHelperLatestDate($D65)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I65" s="190" t="e">
+      <c r="I65" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10092,7 +9501,7 @@
         <f>_xll.qlRateHelperLatestDate($D66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I66" s="190" t="e">
+      <c r="I66" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10116,7 +9525,7 @@
         <f>_xll.qlRateHelperLatestDate($D67)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I67" s="190" t="e">
+      <c r="I67" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10140,7 +9549,7 @@
         <f>_xll.qlRateHelperLatestDate($D68)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I68" s="190" t="e">
+      <c r="I68" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10164,7 +9573,7 @@
         <f>_xll.qlRateHelperLatestDate($D69)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I69" s="190" t="e">
+      <c r="I69" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10188,7 +9597,7 @@
         <f>_xll.qlRateHelperLatestDate($D70)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I70" s="190" t="e">
+      <c r="I70" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10212,7 +9621,7 @@
         <f>_xll.qlRateHelperLatestDate($D71)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I71" s="190" t="e">
+      <c r="I71" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10236,7 +9645,7 @@
         <f>_xll.qlRateHelperLatestDate($D72)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I72" s="190" t="e">
+      <c r="I72" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10260,7 +9669,7 @@
         <f>_xll.qlRateHelperLatestDate($D73)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I73" s="190" t="e">
+      <c r="I73" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10284,7 +9693,7 @@
         <f>_xll.qlRateHelperLatestDate($D74)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I74" s="190" t="e">
+      <c r="I74" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10308,7 +9717,7 @@
         <f>_xll.qlRateHelperLatestDate($D75)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I75" s="190" t="e">
+      <c r="I75" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10332,7 +9741,7 @@
         <f>_xll.qlRateHelperLatestDate($D76)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I76" s="190" t="e">
+      <c r="I76" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10356,7 +9765,7 @@
         <f>_xll.qlRateHelperLatestDate($D77)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I77" s="190" t="e">
+      <c r="I77" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10380,7 +9789,7 @@
         <f>_xll.qlRateHelperLatestDate($D78)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I78" s="190" t="e">
+      <c r="I78" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10404,7 +9813,7 @@
         <f>_xll.qlRateHelperLatestDate($D79)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I79" s="190" t="e">
+      <c r="I79" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10428,7 +9837,7 @@
         <f>_xll.qlRateHelperLatestDate($D80)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I80" s="190" t="e">
+      <c r="I80" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10452,7 +9861,7 @@
         <f>_xll.qlRateHelperLatestDate($D81)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I81" s="190" t="e">
+      <c r="I81" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10476,7 +9885,7 @@
         <f>_xll.qlRateHelperLatestDate($D82)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I82" s="190" t="e">
+      <c r="I82" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10500,7 +9909,7 @@
         <f>_xll.qlRateHelperLatestDate($D83)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I83" s="190" t="e">
+      <c r="I83" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10524,7 +9933,7 @@
         <f>_xll.qlRateHelperLatestDate($D84)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I84" s="190" t="e">
+      <c r="I84" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10548,7 +9957,7 @@
         <f>_xll.qlRateHelperLatestDate($D85)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I85" s="190" t="e">
+      <c r="I85" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10572,7 +9981,7 @@
         <f>_xll.qlRateHelperLatestDate($D86)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I86" s="190" t="e">
+      <c r="I86" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10596,7 +10005,7 @@
         <f>_xll.qlRateHelperLatestDate($D87)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I87" s="190" t="e">
+      <c r="I87" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10620,7 +10029,7 @@
         <f>_xll.qlRateHelperLatestDate($D88)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I88" s="190" t="e">
+      <c r="I88" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10644,7 +10053,7 @@
         <f>_xll.qlRateHelperLatestDate($D89)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I89" s="190" t="e">
+      <c r="I89" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10668,7 +10077,7 @@
         <f>_xll.qlRateHelperLatestDate($D90)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I90" s="190" t="e">
+      <c r="I90" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10692,7 +10101,7 @@
         <f>_xll.qlRateHelperLatestDate($D91)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I91" s="190" t="e">
+      <c r="I91" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10716,7 +10125,7 @@
         <f>_xll.qlRateHelperLatestDate($D92)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I92" s="190" t="e">
+      <c r="I92" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10740,7 +10149,7 @@
         <f>_xll.qlRateHelperLatestDate($D93)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I93" s="190" t="e">
+      <c r="I93" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10764,7 +10173,7 @@
         <f>_xll.qlRateHelperLatestDate($D94)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I94" s="190" t="e">
+      <c r="I94" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10788,7 +10197,7 @@
         <f>_xll.qlRateHelperLatestDate($D95)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I95" s="190" t="e">
+      <c r="I95" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10812,7 +10221,7 @@
         <f>_xll.qlRateHelperLatestDate($D96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I96" s="190" t="e">
+      <c r="I96" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10836,7 +10245,7 @@
         <f>_xll.qlRateHelperLatestDate($D97)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I97" s="190" t="e">
+      <c r="I97" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10860,7 +10269,7 @@
         <f>_xll.qlRateHelperLatestDate($D98)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I98" s="190" t="e">
+      <c r="I98" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10884,7 +10293,7 @@
         <f>_xll.qlRateHelperLatestDate($D99)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I99" s="190" t="e">
+      <c r="I99" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10908,7 +10317,7 @@
         <f>_xll.qlRateHelperLatestDate($D100)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I100" s="190" t="e">
+      <c r="I100" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10932,7 +10341,7 @@
         <f>_xll.qlRateHelperLatestDate($D101)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I101" s="190" t="e">
+      <c r="I101" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10956,7 +10365,7 @@
         <f>_xll.qlRateHelperLatestDate($D102)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I102" s="190" t="e">
+      <c r="I102" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -10980,7 +10389,7 @@
         <f>_xll.qlRateHelperLatestDate($D103)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I103" s="190" t="e">
+      <c r="I103" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11004,7 +10413,7 @@
         <f>_xll.qlRateHelperLatestDate($D104)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I104" s="190" t="e">
+      <c r="I104" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11028,7 +10437,7 @@
         <f>_xll.qlRateHelperLatestDate($D105)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I105" s="190" t="e">
+      <c r="I105" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11052,7 +10461,7 @@
         <f>_xll.qlRateHelperLatestDate($D106)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I106" s="190" t="e">
+      <c r="I106" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11076,7 +10485,7 @@
         <f>_xll.qlRateHelperLatestDate($D107)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I107" s="190" t="e">
+      <c r="I107" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11100,7 +10509,7 @@
         <f>_xll.qlRateHelperLatestDate($D108)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I108" s="190" t="e">
+      <c r="I108" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11124,7 +10533,7 @@
         <f>_xll.qlRateHelperLatestDate($D109)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I109" s="190" t="e">
+      <c r="I109" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11148,7 +10557,7 @@
         <f>_xll.qlRateHelperLatestDate($D110)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I110" s="190" t="e">
+      <c r="I110" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11172,7 +10581,7 @@
         <f>_xll.qlRateHelperLatestDate($D111)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I111" s="190" t="e">
+      <c r="I111" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11196,7 +10605,7 @@
         <f>_xll.qlRateHelperLatestDate($D112)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I112" s="190" t="e">
+      <c r="I112" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11220,7 +10629,7 @@
         <f>_xll.qlRateHelperLatestDate($D113)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I113" s="190" t="e">
+      <c r="I113" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11244,7 +10653,7 @@
         <f>_xll.qlRateHelperLatestDate($D114)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I114" s="190" t="e">
+      <c r="I114" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11268,7 +10677,7 @@
         <f>_xll.qlRateHelperLatestDate($D115)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I115" s="190" t="e">
+      <c r="I115" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11292,7 +10701,7 @@
         <f>_xll.qlRateHelperLatestDate($D116)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I116" s="190" t="e">
+      <c r="I116" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11316,7 +10725,7 @@
         <f>_xll.qlRateHelperLatestDate($D117)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I117" s="190" t="e">
+      <c r="I117" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11340,7 +10749,7 @@
         <f>_xll.qlRateHelperLatestDate($D118)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I118" s="190" t="e">
+      <c r="I118" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11364,7 +10773,7 @@
         <f>_xll.qlRateHelperLatestDate($D119)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I119" s="190" t="e">
+      <c r="I119" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11388,7 +10797,7 @@
         <f>_xll.qlRateHelperLatestDate($D120)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I120" s="190" t="e">
+      <c r="I120" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11412,7 +10821,7 @@
         <f>_xll.qlRateHelperLatestDate($D121)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I121" s="190" t="e">
+      <c r="I121" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11436,7 +10845,7 @@
         <f>_xll.qlRateHelperLatestDate($D122)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I122" s="190" t="e">
+      <c r="I122" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11460,7 +10869,7 @@
         <f>_xll.qlRateHelperLatestDate($D123)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I123" s="190" t="e">
+      <c r="I123" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11484,7 +10893,7 @@
         <f>_xll.qlRateHelperLatestDate($D124)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I124" s="190" t="e">
+      <c r="I124" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11508,7 +10917,7 @@
         <f>_xll.qlRateHelperLatestDate($D125)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I125" s="190" t="e">
+      <c r="I125" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11532,7 +10941,7 @@
         <f>_xll.qlRateHelperLatestDate($D126)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I126" s="190" t="e">
+      <c r="I126" s="188" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -11620,7 +11029,7 @@
         <v>131</v>
       </c>
       <c r="C3" s="105" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="D3" s="104" t="str">
         <f>Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
@@ -11632,7 +11041,7 @@
       </c>
       <c r="F3" s="103" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OND#0000</v>
+        <v>USD_YCONRH_OND#0001</v>
       </c>
       <c r="G3" s="102" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -11736,7 +11145,7 @@
         <v>152</v>
       </c>
       <c r="E3" s="144" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="F3" s="144" t="str">
         <f>Currency&amp;C3&amp;D3&amp;"_Quote"</f>
@@ -11748,7 +11157,7 @@
       </c>
       <c r="H3" s="144" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_TND#0000</v>
+        <v>USD_YCONRH_TND#0001</v>
       </c>
       <c r="I3" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -11768,7 +11177,7 @@
         <v>152</v>
       </c>
       <c r="E4" s="141" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="F4" s="141" t="str">
         <f>Currency&amp;C4&amp;D4&amp;"_Quote"</f>
@@ -11780,7 +11189,7 @@
       </c>
       <c r="H4" s="141" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_SND#0000</v>
+        <v>USD_YCONRH_SND#0001</v>
       </c>
       <c r="I4" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -11938,7 +11347,7 @@
       </c>
       <c r="L4" s="170" t="str">
         <f>_xll.qlOvernightIndex(K4,"usd-no-fix",0,"USD",Calendar,"act/360",,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS_LiborON#0000</v>
+        <v>USD_YCONRH_OIS_LiborON#0001</v>
       </c>
       <c r="M4" s="169" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -11997,7 +11406,7 @@
       </c>
       <c r="L6" s="162" t="str">
         <f>_xll.qlOISRateHelper(K6,2,C6,J6,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OISSW#0000</v>
+        <v>USD_YCONRH_OISSW#0001</v>
       </c>
       <c r="M6" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -12006,11 +11415,11 @@
       <c r="N6" s="159"/>
       <c r="P6" s="161">
         <f>_xll.qlRateHelperEarliestDate($L6)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q6" s="161">
         <f>_xll.qlRateHelperLatestDate($L6)</f>
-        <v>41773</v>
+        <v>41774</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -12049,7 +11458,7 @@
       </c>
       <c r="L7" s="162" t="str">
         <f>_xll.qlOISRateHelper(K7,2,C7,J7,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2W#0000</v>
+        <v>USD_YCONRH_OIS2W#0001</v>
       </c>
       <c r="M7" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -12058,11 +11467,11 @@
       <c r="N7" s="159"/>
       <c r="P7" s="161">
         <f>_xll.qlRateHelperEarliestDate(L7)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q7" s="161">
         <f>_xll.qlRateHelperLatestDate($L7)</f>
-        <v>41780</v>
+        <v>41781</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -12101,7 +11510,7 @@
       </c>
       <c r="L8" s="162" t="str">
         <f>_xll.qlOISRateHelper(K8,2,C8,J8,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3W#0000</v>
+        <v>USD_YCONRH_OIS3W#0001</v>
       </c>
       <c r="M8" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -12110,11 +11519,11 @@
       <c r="N8" s="159"/>
       <c r="P8" s="161">
         <f>_xll.qlRateHelperEarliestDate(L8)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q8" s="161">
         <f>_xll.qlRateHelperLatestDate($L8)</f>
-        <v>41787</v>
+        <v>41788</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -12153,7 +11562,7 @@
       </c>
       <c r="L9" s="162" t="str">
         <f>_xll.qlOISRateHelper(K9,2,C9,J9,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS1M#0000</v>
+        <v>USD_YCONRH_OIS1M#0001</v>
       </c>
       <c r="M9" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -12162,7 +11571,7 @@
       <c r="N9" s="159"/>
       <c r="P9" s="161">
         <f>_xll.qlRateHelperEarliestDate(L9)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q9" s="161">
         <f>_xll.qlRateHelperLatestDate($L9)</f>
@@ -12205,7 +11614,7 @@
       </c>
       <c r="L10" s="162" t="str">
         <f>_xll.qlOISRateHelper(K10,2,C10,J10,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2M#0000</v>
+        <v>USD_YCONRH_OIS2M#0001</v>
       </c>
       <c r="M10" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -12214,11 +11623,11 @@
       <c r="N10" s="159"/>
       <c r="P10" s="161">
         <f>_xll.qlRateHelperEarliestDate(L10)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q10" s="161">
         <f>_xll.qlRateHelperLatestDate($L10)</f>
-        <v>41827</v>
+        <v>41828</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -12257,7 +11666,7 @@
       </c>
       <c r="L11" s="162" t="str">
         <f>_xll.qlOISRateHelper(K11,2,C11,J11,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3M#0000</v>
+        <v>USD_YCONRH_OIS3M#0001</v>
       </c>
       <c r="M11" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -12266,11 +11675,11 @@
       <c r="N11" s="159"/>
       <c r="P11" s="161">
         <f>_xll.qlRateHelperEarliestDate(L11)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q11" s="161">
         <f>_xll.qlRateHelperLatestDate($L11)</f>
-        <v>41858</v>
+        <v>41859</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -12309,7 +11718,7 @@
       </c>
       <c r="L12" s="162" t="str">
         <f>_xll.qlOISRateHelper(K12,2,C12,J12,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS4M#0000</v>
+        <v>USD_YCONRH_OIS4M#0001</v>
       </c>
       <c r="M12" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -12318,7 +11727,7 @@
       <c r="N12" s="159"/>
       <c r="P12" s="161">
         <f>_xll.qlRateHelperEarliestDate(L12)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q12" s="161">
         <f>_xll.qlRateHelperLatestDate($L12)</f>
@@ -12361,7 +11770,7 @@
       </c>
       <c r="L13" s="162" t="str">
         <f>_xll.qlOISRateHelper(K13,2,C13,J13,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS5M#0000</v>
+        <v>USD_YCONRH_OIS5M#0001</v>
       </c>
       <c r="M13" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -12370,11 +11779,11 @@
       <c r="N13" s="159"/>
       <c r="P13" s="161">
         <f>_xll.qlRateHelperEarliestDate(L13)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q13" s="161">
         <f>_xll.qlRateHelperLatestDate($L13)</f>
-        <v>41919</v>
+        <v>41920</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -12413,7 +11822,7 @@
       </c>
       <c r="L14" s="162" t="str">
         <f>_xll.qlOISRateHelper(K14,2,C14,J14,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS6M#0000</v>
+        <v>USD_YCONRH_OIS6M#0001</v>
       </c>
       <c r="M14" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -12422,11 +11831,11 @@
       <c r="N14" s="159"/>
       <c r="P14" s="161">
         <f>_xll.qlRateHelperEarliestDate(L14)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q14" s="161">
         <f>_xll.qlRateHelperLatestDate($L14)</f>
-        <v>41950</v>
+        <v>41953</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -12465,7 +11874,7 @@
       </c>
       <c r="L15" s="162" t="str">
         <f>_xll.qlOISRateHelper(K15,2,C15,J15,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS7M#0000</v>
+        <v>USD_YCONRH_OIS7M#0001</v>
       </c>
       <c r="M15" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -12474,7 +11883,7 @@
       <c r="N15" s="159"/>
       <c r="P15" s="161">
         <f>_xll.qlRateHelperEarliestDate(L15)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q15" s="161">
         <f>_xll.qlRateHelperLatestDate($L15)</f>
@@ -12517,7 +11926,7 @@
       </c>
       <c r="L16" s="162" t="str">
         <f>_xll.qlOISRateHelper(K16,2,C16,J16,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS8M#0000</v>
+        <v>USD_YCONRH_OIS8M#0001</v>
       </c>
       <c r="M16" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -12526,11 +11935,11 @@
       <c r="N16" s="159"/>
       <c r="P16" s="161">
         <f>_xll.qlRateHelperEarliestDate(L16)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q16" s="161">
         <f>_xll.qlRateHelperLatestDate($L16)</f>
-        <v>42011</v>
+        <v>42012</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -12569,7 +11978,7 @@
       </c>
       <c r="L17" s="162" t="str">
         <f>_xll.qlOISRateHelper(K17,2,C17,J17,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS9M#0000</v>
+        <v>USD_YCONRH_OIS9M#0001</v>
       </c>
       <c r="M17" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -12578,7 +11987,7 @@
       <c r="N17" s="159"/>
       <c r="P17" s="161">
         <f>_xll.qlRateHelperEarliestDate(L17)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q17" s="161">
         <f>_xll.qlRateHelperLatestDate($L17)</f>
@@ -12621,7 +12030,7 @@
       </c>
       <c r="L18" s="162" t="str">
         <f>_xll.qlOISRateHelper(K18,2,C18,J18,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS10M#0000</v>
+        <v>USD_YCONRH_OIS10M#0001</v>
       </c>
       <c r="M18" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -12630,7 +12039,7 @@
       <c r="N18" s="159"/>
       <c r="P18" s="161">
         <f>_xll.qlRateHelperEarliestDate(L18)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q18" s="161">
         <f>_xll.qlRateHelperLatestDate($L18)</f>
@@ -12673,7 +12082,7 @@
       </c>
       <c r="L19" s="162" t="str">
         <f>_xll.qlOISRateHelper(K19,2,C19,J19,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS11M#0000</v>
+        <v>USD_YCONRH_OIS11M#0001</v>
       </c>
       <c r="M19" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -12682,11 +12091,11 @@
       <c r="N19" s="159"/>
       <c r="P19" s="161">
         <f>_xll.qlRateHelperEarliestDate(L19)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q19" s="161">
         <f>_xll.qlRateHelperLatestDate($L19)</f>
-        <v>42101</v>
+        <v>42102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -12725,7 +12134,7 @@
       </c>
       <c r="L20" s="162" t="str">
         <f>_xll.qlOISRateHelper(K20,2,C20,J20,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS1Y#0000</v>
+        <v>USD_YCONRH_OIS1Y#0001</v>
       </c>
       <c r="M20" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -12734,11 +12143,11 @@
       <c r="N20" s="159"/>
       <c r="P20" s="161">
         <f>_xll.qlRateHelperEarliestDate(L20)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q20" s="161">
         <f>_xll.qlRateHelperLatestDate($L20)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -12777,7 +12186,7 @@
       </c>
       <c r="L21" s="162" t="str">
         <f>_xll.qlOISRateHelper(K21,2,C21,J21,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS13M#0000</v>
+        <v>USD_YCONRH_OIS13M#0001</v>
       </c>
       <c r="M21" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -12786,7 +12195,7 @@
       <c r="N21" s="159"/>
       <c r="P21" s="161">
         <f>_xll.qlRateHelperEarliestDate(L21)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q21" s="161">
         <f>_xll.qlRateHelperLatestDate($L21)</f>
@@ -12829,7 +12238,7 @@
       </c>
       <c r="L22" s="162" t="str">
         <f>_xll.qlOISRateHelper(K22,2,C22,J22,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS14M#0000</v>
+        <v>USD_YCONRH_OIS14M#0001</v>
       </c>
       <c r="M22" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -12838,11 +12247,11 @@
       <c r="N22" s="159"/>
       <c r="P22" s="161">
         <f>_xll.qlRateHelperEarliestDate(L22)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q22" s="161">
         <f>_xll.qlRateHelperLatestDate($L22)</f>
-        <v>42192</v>
+        <v>42193</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -12881,7 +12290,7 @@
       </c>
       <c r="L23" s="162" t="str">
         <f>_xll.qlOISRateHelper(K23,2,C23,J23,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS15M#0000</v>
+        <v>USD_YCONRH_OIS15M#0001</v>
       </c>
       <c r="M23" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -12890,11 +12299,11 @@
       <c r="N23" s="159"/>
       <c r="P23" s="161">
         <f>_xll.qlRateHelperEarliestDate(L23)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q23" s="161">
         <f>_xll.qlRateHelperLatestDate($L23)</f>
-        <v>42223</v>
+        <v>42226</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -12933,7 +12342,7 @@
       </c>
       <c r="L24" s="162" t="str">
         <f>_xll.qlOISRateHelper(K24,2,C24,J24,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS16M#0000</v>
+        <v>USD_YCONRH_OIS16M#0001</v>
       </c>
       <c r="M24" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -12942,7 +12351,7 @@
       <c r="N24" s="159"/>
       <c r="P24" s="161">
         <f>_xll.qlRateHelperEarliestDate(L24)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q24" s="161">
         <f>_xll.qlRateHelperLatestDate($L24)</f>
@@ -12985,7 +12394,7 @@
       </c>
       <c r="L25" s="162" t="str">
         <f>_xll.qlOISRateHelper(K25,2,C25,J25,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS17M#0000</v>
+        <v>USD_YCONRH_OIS17M#0001</v>
       </c>
       <c r="M25" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -12994,11 +12403,11 @@
       <c r="N25" s="159"/>
       <c r="P25" s="161">
         <f>_xll.qlRateHelperEarliestDate(L25)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q25" s="161">
         <f>_xll.qlRateHelperLatestDate($L25)</f>
-        <v>42284</v>
+        <v>42285</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -13037,7 +12446,7 @@
       </c>
       <c r="L26" s="162" t="str">
         <f>_xll.qlOISRateHelper(K26,2,C26,J26,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS18M#0000</v>
+        <v>USD_YCONRH_OIS18M#0001</v>
       </c>
       <c r="M26" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -13046,7 +12455,7 @@
       <c r="N26" s="159"/>
       <c r="P26" s="161">
         <f>_xll.qlRateHelperEarliestDate(L26)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q26" s="161">
         <f>_xll.qlRateHelperLatestDate($L26)</f>
@@ -13089,7 +12498,7 @@
       </c>
       <c r="L27" s="162" t="str">
         <f>_xll.qlOISRateHelper(K27,2,C27,J27,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS19M#0000</v>
+        <v>USD_YCONRH_OIS19M#0001</v>
       </c>
       <c r="M27" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -13098,11 +12507,11 @@
       <c r="N27" s="159"/>
       <c r="P27" s="161">
         <f>_xll.qlRateHelperEarliestDate(L27)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q27" s="161">
         <f>_xll.qlRateHelperLatestDate($L27)</f>
-        <v>42345</v>
+        <v>42346</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -13141,7 +12550,7 @@
       </c>
       <c r="L28" s="162" t="str">
         <f>_xll.qlOISRateHelper(K28,2,C28,J28,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS20M#0000</v>
+        <v>USD_YCONRH_OIS20M#0001</v>
       </c>
       <c r="M28" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -13150,11 +12559,11 @@
       <c r="N28" s="159"/>
       <c r="P28" s="161">
         <f>_xll.qlRateHelperEarliestDate(L28)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q28" s="161">
         <f>_xll.qlRateHelperLatestDate($L28)</f>
-        <v>42376</v>
+        <v>42377</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -13193,7 +12602,7 @@
       </c>
       <c r="L29" s="162" t="str">
         <f>_xll.qlOISRateHelper(K29,2,C29,J29,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS21M#0000</v>
+        <v>USD_YCONRH_OIS21M#0001</v>
       </c>
       <c r="M29" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -13202,7 +12611,7 @@
       <c r="N29" s="159"/>
       <c r="P29" s="161">
         <f>_xll.qlRateHelperEarliestDate(L29)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q29" s="161">
         <f>_xll.qlRateHelperLatestDate($L29)</f>
@@ -13245,7 +12654,7 @@
       </c>
       <c r="L30" s="162" t="str">
         <f>_xll.qlOISRateHelper(K30,2,C30,J30,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS22M#0000</v>
+        <v>USD_YCONRH_OIS22M#0001</v>
       </c>
       <c r="M30" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -13254,11 +12663,11 @@
       <c r="N30" s="159"/>
       <c r="P30" s="161">
         <f>_xll.qlRateHelperEarliestDate(L30)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q30" s="161">
         <f>_xll.qlRateHelperLatestDate($L30)</f>
-        <v>42436</v>
+        <v>42437</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -13297,7 +12706,7 @@
       </c>
       <c r="L31" s="162" t="str">
         <f>_xll.qlOISRateHelper(K31,2,C31,J31,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS23M#0000</v>
+        <v>USD_YCONRH_OIS23M#0001</v>
       </c>
       <c r="M31" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -13306,11 +12715,11 @@
       <c r="N31" s="159"/>
       <c r="P31" s="161">
         <f>_xll.qlRateHelperEarliestDate(L31)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q31" s="161">
         <f>_xll.qlRateHelperLatestDate($L31)</f>
-        <v>42467</v>
+        <v>42468</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -13349,7 +12758,7 @@
       </c>
       <c r="L32" s="162" t="str">
         <f>_xll.qlOISRateHelper(K32,2,C32,J32,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2Y#0000</v>
+        <v>USD_YCONRH_OIS2Y#0001</v>
       </c>
       <c r="M32" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -13358,7 +12767,7 @@
       <c r="N32" s="159"/>
       <c r="P32" s="161">
         <f>_xll.qlRateHelperEarliestDate(L32)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q32" s="161">
         <f>_xll.qlRateHelperLatestDate($L32)</f>
@@ -13401,7 +12810,7 @@
       </c>
       <c r="L33" s="162" t="str">
         <f>_xll.qlOISRateHelper(K33,2,C33,J33,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS27M#0000</v>
+        <v>USD_YCONRH_OIS27M#0001</v>
       </c>
       <c r="M33" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -13410,7 +12819,7 @@
       <c r="N33" s="159"/>
       <c r="P33" s="161">
         <f>_xll.qlRateHelperEarliestDate(L33)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q33" s="161">
         <f>_xll.qlRateHelperLatestDate($L33)</f>
@@ -13453,7 +12862,7 @@
       </c>
       <c r="L34" s="162" t="str">
         <f>_xll.qlOISRateHelper(K34,2,C34,J34,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS30M#0000</v>
+        <v>USD_YCONRH_OIS30M#0001</v>
       </c>
       <c r="M34" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -13462,11 +12871,11 @@
       <c r="N34" s="159"/>
       <c r="P34" s="161">
         <f>_xll.qlRateHelperEarliestDate(L34)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q34" s="161">
         <f>_xll.qlRateHelperLatestDate($L34)</f>
-        <v>42681</v>
+        <v>42682</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -13505,7 +12914,7 @@
       </c>
       <c r="L35" s="162" t="str">
         <f>_xll.qlOISRateHelper(K35,2,C35,J35,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS33M#0000</v>
+        <v>USD_YCONRH_OIS33M#0001</v>
       </c>
       <c r="M35" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -13514,11 +12923,11 @@
       <c r="N35" s="159"/>
       <c r="P35" s="161">
         <f>_xll.qlRateHelperEarliestDate(L35)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q35" s="161">
         <f>_xll.qlRateHelperLatestDate($L35)</f>
-        <v>42773</v>
+        <v>42774</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -13557,7 +12966,7 @@
       </c>
       <c r="L36" s="162" t="str">
         <f>_xll.qlOISRateHelper(K36,2,C36,J36,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3Y#0000</v>
+        <v>USD_YCONRH_OIS3Y#0001</v>
       </c>
       <c r="M36" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -13566,7 +12975,7 @@
       <c r="N36" s="159"/>
       <c r="P36" s="161">
         <f>_xll.qlRateHelperEarliestDate(L36)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q36" s="161">
         <f>_xll.qlRateHelperLatestDate($L36)</f>
@@ -13609,7 +13018,7 @@
       </c>
       <c r="L37" s="162" t="str">
         <f>_xll.qlOISRateHelper(K37,2,C37,J37,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS39M#0000</v>
+        <v>USD_YCONRH_OIS39M#0001</v>
       </c>
       <c r="M37" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -13618,11 +13027,11 @@
       <c r="N37" s="159"/>
       <c r="P37" s="161">
         <f>_xll.qlRateHelperEarliestDate(L37)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q37" s="161">
         <f>_xll.qlRateHelperLatestDate($L37)</f>
-        <v>42954</v>
+        <v>42955</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -13661,7 +13070,7 @@
       </c>
       <c r="L38" s="162" t="str">
         <f>_xll.qlOISRateHelper(K38,2,C38,J38,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS42M#0000</v>
+        <v>USD_YCONRH_OIS42M#0001</v>
       </c>
       <c r="M38" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -13707,7 +13116,7 @@
       </c>
       <c r="L39" s="162" t="str">
         <f>_xll.qlOISRateHelper(K39,2,C39,J39,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS45M#0000</v>
+        <v>USD_YCONRH_OIS45M#0001</v>
       </c>
       <c r="M39" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -13753,7 +13162,7 @@
       </c>
       <c r="L40" s="162" t="str">
         <f>_xll.qlOISRateHelper(K40,2,C40,J40,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS4Y#0000</v>
+        <v>USD_YCONRH_OIS4Y#0001</v>
       </c>
       <c r="M40" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -13799,7 +13208,7 @@
       </c>
       <c r="L41" s="162" t="str">
         <f>_xll.qlOISRateHelper(K41,2,C41,J41,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS51M#0000</v>
+        <v>USD_YCONRH_OIS51M#0001</v>
       </c>
       <c r="M41" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -13845,7 +13254,7 @@
       </c>
       <c r="L42" s="162" t="str">
         <f>_xll.qlOISRateHelper(K42,2,C42,J42,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS54M#0000</v>
+        <v>USD_YCONRH_OIS54M#0001</v>
       </c>
       <c r="M42" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -13891,7 +13300,7 @@
       </c>
       <c r="L43" s="162" t="str">
         <f>_xll.qlOISRateHelper(K43,2,C43,J43,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS57M#0000</v>
+        <v>USD_YCONRH_OIS57M#0001</v>
       </c>
       <c r="M43" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L43)</f>
@@ -13937,7 +13346,7 @@
       </c>
       <c r="L44" s="162" t="str">
         <f>_xll.qlOISRateHelper(K44,2,C44,J44,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS5Y#0000</v>
+        <v>USD_YCONRH_OIS5Y#0001</v>
       </c>
       <c r="M44" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -13983,7 +13392,7 @@
       </c>
       <c r="L45" s="162" t="str">
         <f>_xll.qlOISRateHelper(K45,2,C45,J45,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS6Y#0000</v>
+        <v>USD_YCONRH_OIS6Y#0001</v>
       </c>
       <c r="M45" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -14029,7 +13438,7 @@
       </c>
       <c r="L46" s="162" t="str">
         <f>_xll.qlOISRateHelper(K46,2,C46,J46,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS7Y#0000</v>
+        <v>USD_YCONRH_OIS7Y#0001</v>
       </c>
       <c r="M46" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -14075,7 +13484,7 @@
       </c>
       <c r="L47" s="162" t="str">
         <f>_xll.qlOISRateHelper(K47,2,C47,J47,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS8Y#0000</v>
+        <v>USD_YCONRH_OIS8Y#0001</v>
       </c>
       <c r="M47" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -14121,7 +13530,7 @@
       </c>
       <c r="L48" s="162" t="str">
         <f>_xll.qlOISRateHelper(K48,2,C48,J48,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS9Y#0000</v>
+        <v>USD_YCONRH_OIS9Y#0001</v>
       </c>
       <c r="M48" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -14167,7 +13576,7 @@
       </c>
       <c r="L49" s="162" t="str">
         <f>_xll.qlOISRateHelper(K49,2,C49,J49,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS10Y#0000</v>
+        <v>USD_YCONRH_OIS10Y#0001</v>
       </c>
       <c r="M49" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -14213,7 +13622,7 @@
       </c>
       <c r="L50" s="162" t="str">
         <f>_xll.qlOISRateHelper(K50,2,C50,J50,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS12Y#0000</v>
+        <v>USD_YCONRH_OIS12Y#0001</v>
       </c>
       <c r="M50" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -14259,7 +13668,7 @@
       </c>
       <c r="L51" s="162" t="str">
         <f>_xll.qlOISRateHelper(K51,2,C51,J51,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS15Y#0000</v>
+        <v>USD_YCONRH_OIS15Y#0001</v>
       </c>
       <c r="M51" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L51)</f>
@@ -14305,7 +13714,7 @@
       </c>
       <c r="L52" s="162" t="str">
         <f>_xll.qlOISRateHelper(K52,2,C52,J52,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS20Y#0000</v>
+        <v>USD_YCONRH_OIS20Y#0001</v>
       </c>
       <c r="M52" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L52)</f>
@@ -14351,7 +13760,7 @@
       </c>
       <c r="L53" s="162" t="str">
         <f>_xll.qlOISRateHelper(K53,2,C53,J53,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS25Y#0000</v>
+        <v>USD_YCONRH_OIS25Y#0001</v>
       </c>
       <c r="M53" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L53)</f>
@@ -14397,7 +13806,7 @@
       </c>
       <c r="L54" s="162" t="str">
         <f>_xll.qlOISRateHelper(K54,2,C54,J54,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS27Y#0000</v>
+        <v>USD_YCONRH_OIS27Y#0001</v>
       </c>
       <c r="M54" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L54)</f>
@@ -14443,7 +13852,7 @@
       </c>
       <c r="L55" s="162" t="str">
         <f>_xll.qlOISRateHelper(K55,2,C55,J55,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS30Y#0000</v>
+        <v>USD_YCONRH_OIS30Y#0001</v>
       </c>
       <c r="M55" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L55)</f>
@@ -14489,7 +13898,7 @@
       </c>
       <c r="L56" s="162" t="str">
         <f>_xll.qlOISRateHelper(K56,2,C56,J56,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS35Y#0000</v>
+        <v>USD_YCONRH_OIS35Y#0001</v>
       </c>
       <c r="M56" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L56)</f>
@@ -14535,7 +13944,7 @@
       </c>
       <c r="L57" s="162" t="str">
         <f>_xll.qlOISRateHelper(K57,2,C57,J57,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS40Y#0000</v>
+        <v>USD_YCONRH_OIS40Y#0001</v>
       </c>
       <c r="M57" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L57)</f>
@@ -14581,7 +13990,7 @@
       </c>
       <c r="L58" s="162" t="str">
         <f>_xll.qlOISRateHelper(K58,2,C58,J58,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS45Y#0000</v>
+        <v>USD_YCONRH_OIS45Y#0001</v>
       </c>
       <c r="M58" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L58)</f>
@@ -14627,7 +14036,7 @@
       </c>
       <c r="L59" s="162" t="str">
         <f>_xll.qlOISRateHelper(K59,2,C59,J59,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS50Y#0000</v>
+        <v>USD_YCONRH_OIS50Y#0001</v>
       </c>
       <c r="M59" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(L59)</f>
@@ -14636,11 +14045,11 @@
       <c r="N59" s="159"/>
       <c r="P59" s="161">
         <f>_xll.qlRateHelperEarliestDate(L59)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="Q59" s="161">
         <f>_xll.qlRateHelperLatestDate($L59)</f>
-        <v>60029</v>
+        <v>60030</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">

--- a/QuantLibXL/Data2/XLS/USD_YCONBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YCONBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="-15" windowWidth="4800" windowHeight="11310" tabRatio="821" activeTab="2"/>
+    <workbookView xWindow="9585" yWindow="-15" windowWidth="4800" windowHeight="11310" tabRatio="821"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -1839,21 +1839,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -1870,6 +1855,21 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2185,7 +2185,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2211,20 +2211,20 @@
       </c>
     </row>
     <row r="2" spans="2:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="196" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="198"/>
-      <c r="K2" s="195" t="s">
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="193"/>
+      <c r="K2" s="190" t="s">
         <v>150</v>
       </c>
-      <c r="L2" s="200"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="197"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="54"/>
@@ -2232,7 +2232,7 @@
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
       <c r="F3" s="52"/>
-      <c r="G3" s="198"/>
+      <c r="G3" s="193"/>
       <c r="K3" s="128"/>
       <c r="L3" s="131"/>
       <c r="M3" s="131"/>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="E4" s="52"/>
       <c r="F4" s="52"/>
-      <c r="G4" s="198"/>
+      <c r="G4" s="193"/>
       <c r="H4" s="175" t="s">
         <v>136</v>
       </c>
@@ -2270,7 +2270,7 @@
       <c r="D5" s="55"/>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
-      <c r="G5" s="198"/>
+      <c r="G5" s="193"/>
       <c r="H5" s="177" t="s">
         <v>134</v>
       </c>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="E6" s="52"/>
       <c r="F6" s="52"/>
-      <c r="G6" s="198"/>
+      <c r="G6" s="193"/>
       <c r="H6" s="177" t="s">
         <v>130</v>
       </c>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
-      <c r="G7" s="198"/>
+      <c r="G7" s="193"/>
       <c r="H7" s="177" t="s">
         <v>128</v>
       </c>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="E8" s="52"/>
       <c r="F8" s="52"/>
-      <c r="G8" s="198"/>
+      <c r="G8" s="193"/>
       <c r="H8" s="179" t="s">
         <v>125</v>
       </c>
@@ -2361,13 +2361,13 @@
       </c>
       <c r="E9" s="52"/>
       <c r="F9" s="52"/>
-      <c r="G9" s="198"/>
-      <c r="K9" s="201" t="s">
+      <c r="G9" s="193"/>
+      <c r="K9" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="L9" s="196"/>
-      <c r="M9" s="196"/>
-      <c r="N9" s="197"/>
+      <c r="L9" s="191"/>
+      <c r="M9" s="191"/>
+      <c r="N9" s="192"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="54"/>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="E10" s="52"/>
       <c r="F10" s="52"/>
-      <c r="G10" s="198"/>
+      <c r="G10" s="193"/>
       <c r="K10" s="120"/>
       <c r="L10" s="122"/>
       <c r="M10" s="122"/>
@@ -2390,12 +2390,10 @@
       <c r="C11" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="79">
-        <v>41766.449305555558</v>
-      </c>
+      <c r="D11" s="79"/>
       <c r="E11" s="52"/>
       <c r="F11" s="52"/>
-      <c r="G11" s="198"/>
+      <c r="G11" s="193"/>
       <c r="K11" s="120"/>
       <c r="L11" s="119" t="s">
         <v>145</v>
@@ -2415,7 +2413,7 @@
       </c>
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
-      <c r="G12" s="198"/>
+      <c r="G12" s="193"/>
       <c r="K12" s="120"/>
       <c r="L12" s="119" t="s">
         <v>143</v>
@@ -2431,14 +2429,14 @@
       <c r="D13" s="59"/>
       <c r="E13" s="52"/>
       <c r="F13" s="52"/>
-      <c r="G13" s="198"/>
+      <c r="G13" s="193"/>
       <c r="K13" s="120"/>
       <c r="L13" s="119" t="s">
         <v>169</v>
       </c>
       <c r="M13" s="121" t="str">
-        <f>PROPER(Currency)&amp;"YC"</f>
-        <v>UsdYC</v>
+        <f>PROPER(Currency)&amp;"ON"</f>
+        <v>UsdON</v>
       </c>
       <c r="N13" s="117"/>
     </row>
@@ -2449,20 +2447,20 @@
       </c>
       <c r="D14" s="76" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYCON#0000</v>
+        <v>_USDYCON#0004</v>
       </c>
       <c r="E14" s="52" t="s">
         <v>173</v>
       </c>
       <c r="F14" s="52"/>
-      <c r="G14" s="198"/>
+      <c r="G14" s="193"/>
       <c r="K14" s="120"/>
       <c r="L14" s="119" t="s">
         <v>168</v>
       </c>
       <c r="M14" s="121" t="str">
-        <f>PROPER(Currency)&amp;"YCSTD"</f>
-        <v>UsdYCSTD</v>
+        <f>PROPER(Currency)&amp;"STD"</f>
+        <v>UsdSTD</v>
       </c>
       <c r="N14" s="117"/>
     </row>
@@ -2479,7 +2477,7 @@
         <v>115</v>
       </c>
       <c r="F15" s="52"/>
-      <c r="G15" s="198"/>
+      <c r="G15" s="193"/>
       <c r="K15" s="116"/>
       <c r="L15" s="115"/>
       <c r="M15" s="115"/>
@@ -2498,7 +2496,7 @@
         <v>172</v>
       </c>
       <c r="F16" s="52"/>
-      <c r="G16" s="198"/>
+      <c r="G16" s="193"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="54"/>
@@ -2510,7 +2508,7 @@
       </c>
       <c r="E17" s="52"/>
       <c r="F17" s="52"/>
-      <c r="G17" s="198"/>
+      <c r="G17" s="193"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="54"/>
@@ -2526,7 +2524,7 @@
         <v>JoinHolidays(London stock exchange, US settlement)</v>
       </c>
       <c r="F18" s="52"/>
-      <c r="G18" s="198"/>
+      <c r="G18" s="193"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="54"/>
@@ -2536,7 +2534,7 @@
       <c r="D19" s="71"/>
       <c r="E19" s="52"/>
       <c r="F19" s="52"/>
-      <c r="G19" s="198"/>
+      <c r="G19" s="193"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="54"/>
@@ -2546,7 +2544,7 @@
       <c r="D20" s="70"/>
       <c r="E20" s="69"/>
       <c r="F20" s="52"/>
-      <c r="G20" s="198"/>
+      <c r="G20" s="193"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="54"/>
@@ -2562,7 +2560,7 @@
         <v>42369</v>
       </c>
       <c r="F21" s="52"/>
-      <c r="G21" s="198"/>
+      <c r="G21" s="193"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="54"/>
@@ -2578,7 +2576,7 @@
         <v>#N/A</v>
       </c>
       <c r="F22" s="52"/>
-      <c r="G22" s="198"/>
+      <c r="G22" s="193"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="54"/>
@@ -2588,7 +2586,7 @@
       <c r="D23" s="64"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
-      <c r="G23" s="198"/>
+      <c r="G23" s="193"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="54"/>
@@ -2600,7 +2598,7 @@
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
-      <c r="G24" s="198"/>
+      <c r="G24" s="193"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="54"/>
@@ -2612,7 +2610,7 @@
       </c>
       <c r="E25" s="52"/>
       <c r="F25" s="52"/>
-      <c r="G25" s="198"/>
+      <c r="G25" s="193"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="54"/>
@@ -2620,13 +2618,13 @@
       <c r="D26" s="59"/>
       <c r="E26" s="52"/>
       <c r="F26" s="52"/>
-      <c r="G26" s="198"/>
+      <c r="G26" s="193"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="54"/>
       <c r="C27" s="58">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41766</v>
+        <v>41768</v>
       </c>
       <c r="D27" s="57">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2634,21 +2632,21 @@
       </c>
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
-      <c r="G27" s="198"/>
+      <c r="G27" s="193"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="54"/>
       <c r="C28" s="56">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>60031</v>
+        <v>60035</v>
       </c>
       <c r="D28" s="55">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.20317080860273595</v>
+        <v>0.20316819626589766</v>
       </c>
       <c r="E28" s="52"/>
       <c r="F28" s="52"/>
-      <c r="G28" s="198"/>
+      <c r="G28" s="193"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="54"/>
@@ -2661,7 +2659,7 @@
       </c>
       <c r="E29" s="52"/>
       <c r="F29" s="52"/>
-      <c r="G29" s="198"/>
+      <c r="G29" s="193"/>
     </row>
     <row r="30" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="54"/>
@@ -2675,7 +2673,7 @@
       </c>
       <c r="E30" s="52"/>
       <c r="F30" s="52"/>
-      <c r="G30" s="198"/>
+      <c r="G30" s="193"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="184"/>
@@ -2689,7 +2687,7 @@
       </c>
       <c r="E31" s="52"/>
       <c r="F31" s="52"/>
-      <c r="G31" s="198"/>
+      <c r="G31" s="193"/>
     </row>
     <row r="32" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="184"/>
@@ -2698,7 +2696,7 @@
       <c r="D32" s="187"/>
       <c r="E32" s="52"/>
       <c r="F32" s="52"/>
-      <c r="G32" s="198"/>
+      <c r="G32" s="193"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="188"/>
@@ -2706,7 +2704,7 @@
       <c r="D33" s="188"/>
       <c r="E33" s="188"/>
       <c r="F33" s="188"/>
-      <c r="G33" s="199"/>
+      <c r="G33" s="194"/>
     </row>
   </sheetData>
   <dataValidations count="7">
@@ -2767,11 +2765,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="197" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="192"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
       <c r="E1" s="32" t="s">
         <v>96</v>
       </c>
@@ -2805,7 +2803,7 @@
       </c>
       <c r="E2" s="14" t="str">
         <f>ON_Deposits!F3</f>
-        <v>USD_YCONRH_OND#0000</v>
+        <v>USD_YCONRH_OND#0001</v>
       </c>
       <c r="F2" s="13">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
@@ -2823,11 +2821,11 @@
       </c>
       <c r="K2" s="12">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41766</v>
+        <v>41768</v>
       </c>
       <c r="L2" s="11">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41767</v>
+        <v>41771</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2838,7 +2836,7 @@
       </c>
       <c r="E3" s="14" t="str">
         <f>ON_FRAs!H3</f>
-        <v>USD_YCONRH_TND#0000</v>
+        <v>USD_YCONRH_TND#0001</v>
       </c>
       <c r="F3" s="13">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
@@ -2856,11 +2854,11 @@
       </c>
       <c r="K3" s="12">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41767</v>
+        <v>41771</v>
       </c>
       <c r="L3" s="11">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2871,7 +2869,7 @@
       </c>
       <c r="E4" s="14" t="str">
         <f>ON_FRAs!H4</f>
-        <v>USD_YCONRH_SND#0000</v>
+        <v>USD_YCONRH_SND#0001</v>
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
@@ -2889,11 +2887,11 @@
       </c>
       <c r="K4" s="12">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L4" s="11">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41771</v>
+        <v>41773</v>
       </c>
     </row>
     <row r="5" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4089,7 +4087,7 @@
       </c>
       <c r="E35" s="21" t="str">
         <f>ON_Swaps!L6</f>
-        <v>USD_YCONRH_OISSW#0000</v>
+        <v>USD_YCONRH_OISSW#0001</v>
       </c>
       <c r="F35" s="20">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
@@ -4111,11 +4109,11 @@
       </c>
       <c r="K35" s="18">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L35" s="17">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>41775</v>
+        <v>41779</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
@@ -4129,7 +4127,7 @@
       </c>
       <c r="E36" s="14" t="str">
         <f>ON_Swaps!L7</f>
-        <v>USD_YCONRH_OIS2W#0000</v>
+        <v>USD_YCONRH_OIS2W#0001</v>
       </c>
       <c r="F36" s="13">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -4151,11 +4149,11 @@
       </c>
       <c r="K36" s="12">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L36" s="11">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>41782</v>
+        <v>41786</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
@@ -4169,7 +4167,7 @@
       </c>
       <c r="E37" s="14" t="str">
         <f>ON_Swaps!L8</f>
-        <v>USD_YCONRH_OIS3W#0000</v>
+        <v>USD_YCONRH_OIS3W#0001</v>
       </c>
       <c r="F37" s="13">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -4191,11 +4189,11 @@
       </c>
       <c r="K37" s="12">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L37" s="11">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>41789</v>
+        <v>41793</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
@@ -4209,7 +4207,7 @@
       </c>
       <c r="E38" s="14" t="str">
         <f>ON_Swaps!L9</f>
-        <v>USD_YCONRH_OIS1M#0000</v>
+        <v>USD_YCONRH_OIS1M#0001</v>
       </c>
       <c r="F38" s="13">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4231,11 +4229,11 @@
       </c>
       <c r="K38" s="12">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L38" s="11">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>41799</v>
+        <v>41803</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
@@ -4249,7 +4247,7 @@
       </c>
       <c r="E39" s="14" t="str">
         <f>ON_Swaps!L10</f>
-        <v>USD_YCONRH_OIS2M#0000</v>
+        <v>USD_YCONRH_OIS2M#0001</v>
       </c>
       <c r="F39" s="13">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4271,11 +4269,11 @@
       </c>
       <c r="K39" s="12">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L39" s="11">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>41829</v>
+        <v>41834</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
@@ -4289,7 +4287,7 @@
       </c>
       <c r="E40" s="14" t="str">
         <f>ON_Swaps!L11</f>
-        <v>USD_YCONRH_OIS3M#0000</v>
+        <v>USD_YCONRH_OIS3M#0001</v>
       </c>
       <c r="F40" s="13">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4311,11 +4309,11 @@
       </c>
       <c r="K40" s="12">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L40" s="11">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
-        <v>41862</v>
+        <v>41864</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
@@ -4329,7 +4327,7 @@
       </c>
       <c r="E41" s="14" t="str">
         <f>ON_Swaps!L12</f>
-        <v>USD_YCONRH_OIS4M#0000</v>
+        <v>USD_YCONRH_OIS4M#0001</v>
       </c>
       <c r="F41" s="13">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4351,11 +4349,11 @@
       </c>
       <c r="K41" s="12">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L41" s="11">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
-        <v>41891</v>
+        <v>41897</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
@@ -4369,7 +4367,7 @@
       </c>
       <c r="E42" s="14" t="str">
         <f>ON_Swaps!L13</f>
-        <v>USD_YCONRH_OIS5M#0000</v>
+        <v>USD_YCONRH_OIS5M#0001</v>
       </c>
       <c r="F42" s="13">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4391,11 +4389,11 @@
       </c>
       <c r="K42" s="12">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L42" s="11">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
-        <v>41921</v>
+        <v>41926</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
@@ -4409,7 +4407,7 @@
       </c>
       <c r="E43" s="14" t="str">
         <f>ON_Swaps!L14</f>
-        <v>USD_YCONRH_OIS6M#0000</v>
+        <v>USD_YCONRH_OIS6M#0001</v>
       </c>
       <c r="F43" s="13">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4431,11 +4429,11 @@
       </c>
       <c r="K43" s="12">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L43" s="11">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
-        <v>41953</v>
+        <v>41956</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
@@ -4449,7 +4447,7 @@
       </c>
       <c r="E44" s="14" t="str">
         <f>ON_Swaps!L15</f>
-        <v>USD_YCONRH_OIS7M#0000</v>
+        <v>USD_YCONRH_OIS7M#0001</v>
       </c>
       <c r="F44" s="13">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4471,11 +4469,11 @@
       </c>
       <c r="K44" s="12">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L44" s="11">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
-        <v>41982</v>
+        <v>41988</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
@@ -4489,7 +4487,7 @@
       </c>
       <c r="E45" s="14" t="str">
         <f>ON_Swaps!L16</f>
-        <v>USD_YCONRH_OIS8M#0000</v>
+        <v>USD_YCONRH_OIS8M#0001</v>
       </c>
       <c r="F45" s="13">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4511,11 +4509,11 @@
       </c>
       <c r="K45" s="12">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L45" s="11">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
-        <v>42013</v>
+        <v>42017</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
@@ -4529,7 +4527,7 @@
       </c>
       <c r="E46" s="14" t="str">
         <f>ON_Swaps!L17</f>
-        <v>USD_YCONRH_OIS9M#0000</v>
+        <v>USD_YCONRH_OIS9M#0001</v>
       </c>
       <c r="F46" s="13">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4551,11 +4549,11 @@
       </c>
       <c r="K46" s="12">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L46" s="11">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
-        <v>42044</v>
+        <v>42048</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
@@ -4569,7 +4567,7 @@
       </c>
       <c r="E47" s="14" t="str">
         <f>ON_Swaps!L18</f>
-        <v>USD_YCONRH_OIS10M#0000</v>
+        <v>USD_YCONRH_OIS10M#0001</v>
       </c>
       <c r="F47" s="13">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -4591,11 +4589,11 @@
       </c>
       <c r="K47" s="12">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L47" s="11">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
-        <v>42072</v>
+        <v>42076</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
@@ -4609,7 +4607,7 @@
       </c>
       <c r="E48" s="14" t="str">
         <f>ON_Swaps!L19</f>
-        <v>USD_YCONRH_OIS11M#0000</v>
+        <v>USD_YCONRH_OIS11M#0001</v>
       </c>
       <c r="F48" s="13">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
@@ -4631,11 +4629,11 @@
       </c>
       <c r="K48" s="12">
         <f>_xll.qlRateHelperEarliestDate($E48,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L48" s="11">
         <f>_xll.qlRateHelperLatestDate($E48,Trigger)</f>
-        <v>42103</v>
+        <v>42107</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
@@ -4649,7 +4647,7 @@
       </c>
       <c r="E49" s="14" t="str">
         <f>ON_Swaps!L20</f>
-        <v>USD_YCONRH_OIS1Y#0000</v>
+        <v>USD_YCONRH_OIS1Y#0001</v>
       </c>
       <c r="F49" s="13">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -4671,11 +4669,11 @@
       </c>
       <c r="K49" s="12">
         <f>_xll.qlRateHelperEarliestDate($E49,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L49" s="11">
         <f>_xll.qlRateHelperLatestDate($E49,Trigger)</f>
-        <v>42135</v>
+        <v>42137</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
@@ -4692,7 +4690,7 @@
       </c>
       <c r="E50" s="14" t="str">
         <f>ON_Swaps!L21</f>
-        <v>USD_YCONRH_OIS13M#0000</v>
+        <v>USD_YCONRH_OIS13M#0001</v>
       </c>
       <c r="F50" s="13">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
@@ -4714,11 +4712,11 @@
       </c>
       <c r="K50" s="12">
         <f>_xll.qlRateHelperEarliestDate($E50,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L50" s="11">
         <f>_xll.qlRateHelperLatestDate($E50,Trigger)</f>
-        <v>42164</v>
+        <v>42170</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
@@ -4735,7 +4733,7 @@
       </c>
       <c r="E51" s="14" t="str">
         <f>ON_Swaps!L22</f>
-        <v>USD_YCONRH_OIS14M#0000</v>
+        <v>USD_YCONRH_OIS14M#0001</v>
       </c>
       <c r="F51" s="13">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
@@ -4757,11 +4755,11 @@
       </c>
       <c r="K51" s="12">
         <f>_xll.qlRateHelperEarliestDate($E51,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L51" s="11">
         <f>_xll.qlRateHelperLatestDate($E51,Trigger)</f>
-        <v>42194</v>
+        <v>42198</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
@@ -4778,7 +4776,7 @@
       </c>
       <c r="E52" s="14" t="str">
         <f>ON_Swaps!L23</f>
-        <v>USD_YCONRH_OIS15M#0000</v>
+        <v>USD_YCONRH_OIS15M#0001</v>
       </c>
       <c r="F52" s="13">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
@@ -4800,11 +4798,11 @@
       </c>
       <c r="K52" s="12">
         <f>_xll.qlRateHelperEarliestDate($E52,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L52" s="11">
         <f>_xll.qlRateHelperLatestDate($E52,Trigger)</f>
-        <v>42226</v>
+        <v>42229</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
@@ -4821,7 +4819,7 @@
       </c>
       <c r="E53" s="14" t="str">
         <f>ON_Swaps!L24</f>
-        <v>USD_YCONRH_OIS16M#0000</v>
+        <v>USD_YCONRH_OIS16M#0001</v>
       </c>
       <c r="F53" s="13">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
@@ -4843,11 +4841,11 @@
       </c>
       <c r="K53" s="12">
         <f>_xll.qlRateHelperEarliestDate($E53,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L53" s="11">
         <f>_xll.qlRateHelperLatestDate($E53,Trigger)</f>
-        <v>42256</v>
+        <v>42261</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
@@ -4864,7 +4862,7 @@
       </c>
       <c r="E54" s="14" t="str">
         <f>ON_Swaps!L25</f>
-        <v>USD_YCONRH_OIS17M#0000</v>
+        <v>USD_YCONRH_OIS17M#0001</v>
       </c>
       <c r="F54" s="13">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
@@ -4886,11 +4884,11 @@
       </c>
       <c r="K54" s="12">
         <f>_xll.qlRateHelperEarliestDate($E54,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L54" s="11">
         <f>_xll.qlRateHelperLatestDate($E54,Trigger)</f>
-        <v>42286</v>
+        <v>42290</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
@@ -4907,7 +4905,7 @@
       </c>
       <c r="E55" s="14" t="str">
         <f>ON_Swaps!L26</f>
-        <v>USD_YCONRH_OIS18M#0000</v>
+        <v>USD_YCONRH_OIS18M#0001</v>
       </c>
       <c r="F55" s="13">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
@@ -4929,11 +4927,11 @@
       </c>
       <c r="K55" s="12">
         <f>_xll.qlRateHelperEarliestDate($E55,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L55" s="11">
         <f>_xll.qlRateHelperLatestDate($E55,Trigger)</f>
-        <v>42317</v>
+        <v>42321</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
@@ -4950,7 +4948,7 @@
       </c>
       <c r="E56" s="14" t="str">
         <f>ON_Swaps!L27</f>
-        <v>USD_YCONRH_OIS19M#0000</v>
+        <v>USD_YCONRH_OIS19M#0001</v>
       </c>
       <c r="F56" s="13">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
@@ -4972,11 +4970,11 @@
       </c>
       <c r="K56" s="12">
         <f>_xll.qlRateHelperEarliestDate($E56,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L56" s="11">
         <f>_xll.qlRateHelperLatestDate($E56,Trigger)</f>
-        <v>42347</v>
+        <v>42352</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
@@ -4993,7 +4991,7 @@
       </c>
       <c r="E57" s="14" t="str">
         <f>ON_Swaps!L28</f>
-        <v>USD_YCONRH_OIS20M#0000</v>
+        <v>USD_YCONRH_OIS20M#0001</v>
       </c>
       <c r="F57" s="13">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
@@ -5015,11 +5013,11 @@
       </c>
       <c r="K57" s="12">
         <f>_xll.qlRateHelperEarliestDate($E57,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L57" s="11">
         <f>_xll.qlRateHelperLatestDate($E57,Trigger)</f>
-        <v>42380</v>
+        <v>42382</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
@@ -5036,7 +5034,7 @@
       </c>
       <c r="E58" s="14" t="str">
         <f>ON_Swaps!L29</f>
-        <v>USD_YCONRH_OIS21M#0000</v>
+        <v>USD_YCONRH_OIS21M#0001</v>
       </c>
       <c r="F58" s="13">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
@@ -5058,11 +5056,11 @@
       </c>
       <c r="K58" s="12">
         <f>_xll.qlRateHelperEarliestDate($E58,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L58" s="11">
         <f>_xll.qlRateHelperLatestDate($E58,Trigger)</f>
-        <v>42409</v>
+        <v>42416</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
@@ -5079,7 +5077,7 @@
       </c>
       <c r="E59" s="14" t="str">
         <f>ON_Swaps!L30</f>
-        <v>USD_YCONRH_OIS22M#0000</v>
+        <v>USD_YCONRH_OIS22M#0001</v>
       </c>
       <c r="F59" s="13">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
@@ -5101,11 +5099,11 @@
       </c>
       <c r="K59" s="12">
         <f>_xll.qlRateHelperEarliestDate($E59,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L59" s="11">
         <f>_xll.qlRateHelperLatestDate($E59,Trigger)</f>
-        <v>42438</v>
+        <v>42443</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
@@ -5122,7 +5120,7 @@
       </c>
       <c r="E60" s="14" t="str">
         <f>ON_Swaps!L31</f>
-        <v>USD_YCONRH_OIS23M#0000</v>
+        <v>USD_YCONRH_OIS23M#0001</v>
       </c>
       <c r="F60" s="13">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
@@ -5144,11 +5142,11 @@
       </c>
       <c r="K60" s="12">
         <f>_xll.qlRateHelperEarliestDate($E60,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L60" s="11">
         <f>_xll.qlRateHelperLatestDate($E60,Trigger)</f>
-        <v>42471</v>
+        <v>42473</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
@@ -5165,7 +5163,7 @@
       </c>
       <c r="E61" s="14" t="str">
         <f>ON_Swaps!L32</f>
-        <v>USD_YCONRH_OIS2Y#0000</v>
+        <v>USD_YCONRH_OIS2Y#0001</v>
       </c>
       <c r="F61" s="13">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
@@ -5187,11 +5185,11 @@
       </c>
       <c r="K61" s="12">
         <f>_xll.qlRateHelperEarliestDate($E61,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L61" s="11">
         <f>_xll.qlRateHelperLatestDate($E61,Trigger)</f>
-        <v>42499</v>
+        <v>42503</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.2">
@@ -5208,7 +5206,7 @@
       </c>
       <c r="E62" s="14" t="str">
         <f>ON_Swaps!L33</f>
-        <v>USD_YCONRH_OIS27M#0000</v>
+        <v>USD_YCONRH_OIS27M#0001</v>
       </c>
       <c r="F62" s="13">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
@@ -5229,11 +5227,11 @@
       </c>
       <c r="K62" s="12">
         <f>_xll.qlRateHelperEarliestDate($E62,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L62" s="11">
         <f>_xll.qlRateHelperLatestDate($E62,Trigger)</f>
-        <v>42591</v>
+        <v>42597</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
@@ -5250,7 +5248,7 @@
       </c>
       <c r="E63" s="14" t="str">
         <f>ON_Swaps!L34</f>
-        <v>USD_YCONRH_OIS30M#0000</v>
+        <v>USD_YCONRH_OIS30M#0001</v>
       </c>
       <c r="F63" s="13">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
@@ -5271,11 +5269,11 @@
       </c>
       <c r="K63" s="12">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L63" s="11">
         <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>42683</v>
+        <v>42688</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
@@ -5292,7 +5290,7 @@
       </c>
       <c r="E64" s="14" t="str">
         <f>ON_Swaps!L35</f>
-        <v>USD_YCONRH_OIS33M#0000</v>
+        <v>USD_YCONRH_OIS33M#0001</v>
       </c>
       <c r="F64" s="13">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
@@ -5313,11 +5311,11 @@
       </c>
       <c r="K64" s="12">
         <f>_xll.qlRateHelperEarliestDate($E64,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L64" s="11">
         <f>_xll.qlRateHelperLatestDate($E64,Trigger)</f>
-        <v>42775</v>
+        <v>42779</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
@@ -5334,7 +5332,7 @@
       </c>
       <c r="E65" s="14" t="str">
         <f>ON_Swaps!L36</f>
-        <v>USD_YCONRH_OIS3Y#0000</v>
+        <v>USD_YCONRH_OIS3Y#0001</v>
       </c>
       <c r="F65" s="13">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
@@ -5355,11 +5353,11 @@
       </c>
       <c r="K65" s="12">
         <f>_xll.qlRateHelperEarliestDate($E65,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L65" s="11">
         <f>_xll.qlRateHelperLatestDate($E65,Trigger)</f>
-        <v>42864</v>
+        <v>42870</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
@@ -5376,7 +5374,7 @@
       </c>
       <c r="E66" s="14" t="str">
         <f>ON_Swaps!L37</f>
-        <v>USD_YCONRH_OIS39M#0000</v>
+        <v>USD_YCONRH_OIS39M#0001</v>
       </c>
       <c r="F66" s="13">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
@@ -5397,11 +5395,11 @@
       </c>
       <c r="K66" s="12">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L66" s="11">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>42956</v>
+        <v>42961</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
@@ -5418,7 +5416,7 @@
       </c>
       <c r="E67" s="14" t="str">
         <f>ON_Swaps!L38</f>
-        <v>USD_YCONRH_OIS42M#0000</v>
+        <v>USD_YCONRH_OIS42M#0001</v>
       </c>
       <c r="F67" s="13">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
@@ -5439,11 +5437,11 @@
       </c>
       <c r="K67" s="12">
         <f>_xll.qlRateHelperEarliestDate($E67,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L67" s="11">
         <f>_xll.qlRateHelperLatestDate($E67,Trigger)</f>
-        <v>43048</v>
+        <v>43052</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
@@ -5460,7 +5458,7 @@
       </c>
       <c r="E68" s="14" t="str">
         <f>ON_Swaps!L39</f>
-        <v>USD_YCONRH_OIS45M#0000</v>
+        <v>USD_YCONRH_OIS45M#0001</v>
       </c>
       <c r="F68" s="13">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
@@ -5481,11 +5479,11 @@
       </c>
       <c r="K68" s="12">
         <f>_xll.qlRateHelperEarliestDate($E68,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L68" s="11">
         <f>_xll.qlRateHelperLatestDate($E68,Trigger)</f>
-        <v>43140</v>
+        <v>43144</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
@@ -5502,7 +5500,7 @@
       </c>
       <c r="E69" s="14" t="str">
         <f>ON_Swaps!L40</f>
-        <v>USD_YCONRH_OIS4Y#0000</v>
+        <v>USD_YCONRH_OIS4Y#0001</v>
       </c>
       <c r="F69" s="13">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
@@ -5523,11 +5521,11 @@
       </c>
       <c r="K69" s="12">
         <f>_xll.qlRateHelperEarliestDate($E69,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L69" s="11">
         <f>_xll.qlRateHelperLatestDate($E69,Trigger)</f>
-        <v>43229</v>
+        <v>43234</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
@@ -5544,7 +5542,7 @@
       </c>
       <c r="E70" s="14" t="str">
         <f>ON_Swaps!L41</f>
-        <v>USD_YCONRH_OIS51M#0000</v>
+        <v>USD_YCONRH_OIS51M#0001</v>
       </c>
       <c r="F70" s="13">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
@@ -5565,11 +5563,11 @@
       </c>
       <c r="K70" s="12">
         <f>_xll.qlRateHelperEarliestDate($E70,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L70" s="11">
         <f>_xll.qlRateHelperLatestDate($E70,Trigger)</f>
-        <v>43321</v>
+        <v>43325</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
@@ -5586,7 +5584,7 @@
       </c>
       <c r="E71" s="14" t="str">
         <f>ON_Swaps!L42</f>
-        <v>USD_YCONRH_OIS54M#0000</v>
+        <v>USD_YCONRH_OIS54M#0001</v>
       </c>
       <c r="F71" s="13">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
@@ -5607,11 +5605,11 @@
       </c>
       <c r="K71" s="12">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L71" s="11">
         <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>43413</v>
+        <v>43417</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
@@ -5628,7 +5626,7 @@
       </c>
       <c r="E72" s="14" t="str">
         <f>ON_Swaps!L43</f>
-        <v>USD_YCONRH_OIS57M#0000</v>
+        <v>USD_YCONRH_OIS57M#0001</v>
       </c>
       <c r="F72" s="13">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
@@ -5649,11 +5647,11 @@
       </c>
       <c r="K72" s="12">
         <f>_xll.qlRateHelperEarliestDate($E72,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L72" s="11">
         <f>_xll.qlRateHelperLatestDate($E72,Trigger)</f>
-        <v>43507</v>
+        <v>43509</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
@@ -5670,7 +5668,7 @@
       </c>
       <c r="E73" s="14" t="str">
         <f>ON_Swaps!L44</f>
-        <v>USD_YCONRH_OIS5Y#0000</v>
+        <v>USD_YCONRH_OIS5Y#0001</v>
       </c>
       <c r="F73" s="13">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
@@ -5692,11 +5690,11 @@
       </c>
       <c r="K73" s="12">
         <f>_xll.qlRateHelperEarliestDate($E73,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L73" s="11">
         <f>_xll.qlRateHelperLatestDate($E73,Trigger)</f>
-        <v>43594</v>
+        <v>43598</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
@@ -5713,7 +5711,7 @@
       </c>
       <c r="E74" s="14" t="str">
         <f>ON_Swaps!L45</f>
-        <v>USD_YCONRH_OIS6Y#0000</v>
+        <v>USD_YCONRH_OIS6Y#0001</v>
       </c>
       <c r="F74" s="13">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
@@ -5735,11 +5733,11 @@
       </c>
       <c r="K74" s="12">
         <f>_xll.qlRateHelperEarliestDate($E74,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L74" s="11">
         <f>_xll.qlRateHelperLatestDate($E74,Trigger)</f>
-        <v>43962</v>
+        <v>43964</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
@@ -5756,7 +5754,7 @@
       </c>
       <c r="E75" s="14" t="str">
         <f>ON_Swaps!L46</f>
-        <v>USD_YCONRH_OIS7Y#0000</v>
+        <v>USD_YCONRH_OIS7Y#0001</v>
       </c>
       <c r="F75" s="13">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
@@ -5778,11 +5776,11 @@
       </c>
       <c r="K75" s="12">
         <f>_xll.qlRateHelperEarliestDate($E75,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L75" s="11">
         <f>_xll.qlRateHelperLatestDate($E75,Trigger)</f>
-        <v>44326</v>
+        <v>44329</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
@@ -5799,7 +5797,7 @@
       </c>
       <c r="E76" s="14" t="str">
         <f>ON_Swaps!L47</f>
-        <v>USD_YCONRH_OIS8Y#0000</v>
+        <v>USD_YCONRH_OIS8Y#0001</v>
       </c>
       <c r="F76" s="13">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
@@ -5821,11 +5819,11 @@
       </c>
       <c r="K76" s="12">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L76" s="11">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>44690</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
@@ -5842,7 +5840,7 @@
       </c>
       <c r="E77" s="14" t="str">
         <f>ON_Swaps!L48</f>
-        <v>USD_YCONRH_OIS9Y#0000</v>
+        <v>USD_YCONRH_OIS9Y#0001</v>
       </c>
       <c r="F77" s="13">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
@@ -5864,11 +5862,11 @@
       </c>
       <c r="K77" s="12">
         <f>_xll.qlRateHelperEarliestDate($E77,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L77" s="11">
         <f>_xll.qlRateHelperLatestDate($E77,Trigger)</f>
-        <v>45055</v>
+        <v>45061</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
@@ -5885,7 +5883,7 @@
       </c>
       <c r="E78" s="14" t="str">
         <f>ON_Swaps!L49</f>
-        <v>USD_YCONRH_OIS10Y#0000</v>
+        <v>USD_YCONRH_OIS10Y#0001</v>
       </c>
       <c r="F78" s="13">
         <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
@@ -5907,11 +5905,11 @@
       </c>
       <c r="K78" s="12">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L78" s="11">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>45421</v>
+        <v>45425</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
@@ -5928,7 +5926,7 @@
       </c>
       <c r="E79" s="14" t="str">
         <f>ON_Swaps!L50</f>
-        <v>USD_YCONRH_OIS12Y#0000</v>
+        <v>USD_YCONRH_OIS12Y#0001</v>
       </c>
       <c r="F79" s="13">
         <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
@@ -5950,11 +5948,11 @@
       </c>
       <c r="K79" s="12">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L79" s="11">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>46153</v>
+        <v>46155</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
@@ -5971,7 +5969,7 @@
       </c>
       <c r="E80" s="14" t="str">
         <f>ON_Swaps!L51</f>
-        <v>USD_YCONRH_OIS15Y#0000</v>
+        <v>USD_YCONRH_OIS15Y#0001</v>
       </c>
       <c r="F80" s="13">
         <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
@@ -5993,11 +5991,11 @@
       </c>
       <c r="K80" s="12">
         <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L80" s="11">
         <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
-        <v>47247</v>
+        <v>47252</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
@@ -6011,7 +6009,7 @@
       </c>
       <c r="E81" s="14" t="str">
         <f>ON_Swaps!L52</f>
-        <v>USD_YCONRH_OIS20Y#0000</v>
+        <v>USD_YCONRH_OIS20Y#0001</v>
       </c>
       <c r="F81" s="13">
         <f>_xll.qlRateHelperQuoteValue($E81,Trigger)</f>
@@ -6033,11 +6031,11 @@
       </c>
       <c r="K81" s="12">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L81" s="11">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>49073</v>
+        <v>49079</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
@@ -6051,7 +6049,7 @@
       </c>
       <c r="E82" s="14" t="str">
         <f>ON_Swaps!L53</f>
-        <v>USD_YCONRH_OIS25Y#0000</v>
+        <v>USD_YCONRH_OIS25Y#0001</v>
       </c>
       <c r="F82" s="13">
         <f>_xll.qlRateHelperQuoteValue($E82,Trigger)</f>
@@ -6072,11 +6070,11 @@
       </c>
       <c r="K82" s="12">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L82" s="11">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>50899</v>
+        <v>50903</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
@@ -6090,7 +6088,7 @@
       </c>
       <c r="E83" s="14" t="str">
         <f>ON_Swaps!L54</f>
-        <v>USD_YCONRH_OIS27Y#0000</v>
+        <v>USD_YCONRH_OIS27Y#0001</v>
       </c>
       <c r="F83" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
@@ -6112,11 +6110,11 @@
       </c>
       <c r="K83" s="12">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L83" s="11">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>51630</v>
+        <v>51634</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
@@ -6133,7 +6131,7 @@
       </c>
       <c r="E84" s="14" t="str">
         <f>ON_Swaps!L55</f>
-        <v>USD_YCONRH_OIS30Y#0000</v>
+        <v>USD_YCONRH_OIS30Y#0001</v>
       </c>
       <c r="F84" s="13">
         <f>_xll.qlRateHelperQuoteValue($E84,Trigger)</f>
@@ -6154,11 +6152,11 @@
       </c>
       <c r="K84" s="12">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L84" s="11">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>52726</v>
+        <v>52730</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
@@ -6175,7 +6173,7 @@
       </c>
       <c r="E85" s="14" t="str">
         <f>ON_Swaps!L56</f>
-        <v>USD_YCONRH_OIS35Y#0000</v>
+        <v>USD_YCONRH_OIS35Y#0001</v>
       </c>
       <c r="F85" s="13">
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
@@ -6197,11 +6195,11 @@
       </c>
       <c r="K85" s="12">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L85" s="11">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>54553</v>
+        <v>54556</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
@@ -6218,7 +6216,7 @@
       </c>
       <c r="E86" s="14" t="str">
         <f>ON_Swaps!L57</f>
-        <v>USD_YCONRH_OIS40Y#0000</v>
+        <v>USD_YCONRH_OIS40Y#0001</v>
       </c>
       <c r="F86" s="13">
         <f>_xll.qlRateHelperQuoteValue($E86,Trigger)</f>
@@ -6240,11 +6238,11 @@
       </c>
       <c r="K86" s="12">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L86" s="11">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>56380</v>
+        <v>56382</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
@@ -6261,7 +6259,7 @@
       </c>
       <c r="E87" s="14" t="str">
         <f>ON_Swaps!L58</f>
-        <v>USD_YCONRH_OIS45Y#0000</v>
+        <v>USD_YCONRH_OIS45Y#0001</v>
       </c>
       <c r="F87" s="13">
         <f>_xll.qlRateHelperQuoteValue($E87,Trigger)</f>
@@ -6283,11 +6281,11 @@
       </c>
       <c r="K87" s="12">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L87" s="11">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>58204</v>
+        <v>58208</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
@@ -6304,7 +6302,7 @@
       </c>
       <c r="E88" s="8" t="str">
         <f>ON_Swaps!L59</f>
-        <v>USD_YCONRH_OIS50Y#0000</v>
+        <v>USD_YCONRH_OIS50Y#0001</v>
       </c>
       <c r="F88" s="7">
         <f>_xll.qlRateHelperQuoteValue($E88,Trigger)</f>
@@ -6326,11 +6324,11 @@
       </c>
       <c r="K88" s="4">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="L88" s="3">
         <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>60031</v>
+        <v>60035</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
@@ -7940,7 +7938,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -7957,10 +7955,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="200" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="194"/>
+      <c r="B1" s="201"/>
       <c r="D1" s="51" t="s">
         <v>105</v>
       </c>
@@ -8000,14 +7998,14 @@
       </c>
       <c r="G2" s="38">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41766</v>
+        <v>41768</v>
       </c>
       <c r="H2" s="37">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41767</v>
+        <v>41771</v>
       </c>
       <c r="I2" s="189">
-        <v>0.99999583335069442</v>
+        <v>0.99998750015624804</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -8030,14 +8028,14 @@
       </c>
       <c r="G3" s="38">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41767</v>
+        <v>41771</v>
       </c>
       <c r="H3" s="37">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="I3" s="189">
-        <v>0.99999166671874984</v>
+        <v>0.99998333355907243</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -8060,14 +8058,14 @@
       </c>
       <c r="G4" s="38">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H4" s="37">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41775</v>
+        <v>41779</v>
       </c>
       <c r="I4" s="189">
-        <v>0.99997513935186333</v>
+        <v>0.99996680632991219</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -8090,14 +8088,14 @@
       </c>
       <c r="G5" s="38">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H5" s="37">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41782</v>
+        <v>41786</v>
       </c>
       <c r="I5" s="189">
-        <v>0.99995861253143292</v>
+        <v>0.99995027964695959</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -8121,20 +8119,20 @@
       </c>
       <c r="G6" s="38">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H6" s="37">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41789</v>
+        <v>41793</v>
       </c>
       <c r="I6" s="189">
-        <v>0.9999420862570213</v>
+        <v>0.99993375351061375</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_RateHelpersSelected#0000</v>
+        <v>USD_YCONRH_RateHelpersSelected#0001</v>
       </c>
       <c r="B7" s="41" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -8153,14 +8151,14 @@
       </c>
       <c r="G7" s="38">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H7" s="37">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41799</v>
+        <v>41803</v>
       </c>
       <c r="I7" s="189">
-        <v>0.99991847824131386</v>
+        <v>0.99991014569169623</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -8177,14 +8175,14 @@
       </c>
       <c r="G8" s="38">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H8" s="37">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41829</v>
+        <v>41834</v>
       </c>
       <c r="I8" s="189">
-        <v>0.99983919124191856</v>
+        <v>0.99982836016321486</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -8201,14 +8199,14 @@
       </c>
       <c r="G9" s="38">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H9" s="37">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41862</v>
+        <v>41864</v>
       </c>
       <c r="I9" s="189">
-        <v>0.99974889436246084</v>
+        <v>0.99974572732441214</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -8225,14 +8223,14 @@
       </c>
       <c r="G10" s="38">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H10" s="37">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41891</v>
+        <v>41897</v>
       </c>
       <c r="I10" s="189">
-        <v>0.99966719140933813</v>
+        <v>0.99965358671606364</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -8249,14 +8247,14 @@
       </c>
       <c r="G11" s="38">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H11" s="37">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41921</v>
+        <v>41926</v>
       </c>
       <c r="I11" s="189">
-        <v>0.99957534358814548</v>
+        <v>0.99956429399448998</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -8273,14 +8271,14 @@
       </c>
       <c r="G12" s="38">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H12" s="37">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41953</v>
+        <v>41956</v>
       </c>
       <c r="I12" s="189">
-        <v>0.9994729125140186</v>
+        <v>0.99946738628388632</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -8297,14 +8295,14 @@
       </c>
       <c r="G13" s="38">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H13" s="37">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>41982</v>
+        <v>41988</v>
       </c>
       <c r="I13" s="189">
-        <v>0.99937976869481737</v>
+        <v>0.99936572554068814</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -8321,14 +8319,14 @@
       </c>
       <c r="G14" s="38">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H14" s="37">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42013</v>
+        <v>42017</v>
       </c>
       <c r="I14" s="189">
-        <v>0.99926400821943118</v>
+        <v>0.99925568112349872</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -8345,14 +8343,14 @@
       </c>
       <c r="G15" s="38">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H15" s="37">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42044</v>
+        <v>42048</v>
       </c>
       <c r="I15" s="189">
-        <v>0.99913374387734044</v>
+        <v>0.99912541786693065</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -8369,14 +8367,14 @@
       </c>
       <c r="G16" s="38">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H16" s="37">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42072</v>
+        <v>42076</v>
       </c>
       <c r="I16" s="189">
-        <v>0.99900465012442696</v>
+        <v>0.99899632518978487</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.2">
@@ -8393,14 +8391,14 @@
       </c>
       <c r="G17" s="38">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H17" s="37">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42103</v>
+        <v>42107</v>
       </c>
       <c r="I17" s="189">
-        <v>0.9988298334055874</v>
+        <v>0.99882150992773311</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.2">
@@ -8417,14 +8415,14 @@
       </c>
       <c r="G18" s="38">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H18" s="37">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42135</v>
+        <v>42137</v>
       </c>
       <c r="I18" s="189">
-        <v>0.99863765276127991</v>
+        <v>0.99863669970942281</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.2">
@@ -8441,14 +8439,14 @@
       </c>
       <c r="G19" s="38">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H19" s="37">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42164</v>
+        <v>42170</v>
       </c>
       <c r="I19" s="189">
-        <v>0.99840985110173497</v>
+        <v>0.99839353603067815</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.2">
@@ -8465,14 +8463,14 @@
       </c>
       <c r="G20" s="38">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H20" s="37">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>42194</v>
+        <v>42198</v>
       </c>
       <c r="I20" s="189">
-        <v>0.99813649335074117</v>
+        <v>0.99812816829406981</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.2">
@@ -8489,14 +8487,14 @@
       </c>
       <c r="G21" s="38">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H21" s="37">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>42226</v>
+        <v>42229</v>
       </c>
       <c r="I21" s="189">
-        <v>0.9977686953375875</v>
+        <v>0.99776522413400293</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.2">
@@ -8513,14 +8511,14 @@
       </c>
       <c r="G22" s="38">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H22" s="37">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>42256</v>
+        <v>42261</v>
       </c>
       <c r="I22" s="189">
-        <v>0.99739334877866659</v>
+        <v>0.99737972032859401</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.2">
@@ -8537,14 +8535,14 @@
       </c>
       <c r="G23" s="38">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H23" s="37">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>42286</v>
+        <v>42290</v>
       </c>
       <c r="I23" s="189">
-        <v>0.99694688151024013</v>
+        <v>0.99693857779427109</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.2">
@@ -8561,14 +8559,14 @@
       </c>
       <c r="G24" s="38">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H24" s="37">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>42317</v>
+        <v>42321</v>
       </c>
       <c r="I24" s="189">
-        <v>0.99641543914390029</v>
+        <v>0.99640714722674861</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.2">
@@ -8585,14 +8583,14 @@
       </c>
       <c r="G25" s="38">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H25" s="37">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>42347</v>
+        <v>42352</v>
       </c>
       <c r="I25" s="189">
-        <v>0.99586807280626177</v>
+        <v>0.99585269588331493</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.2">
@@ -8609,14 +8607,14 @@
       </c>
       <c r="G26" s="38">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H26" s="37">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>42380</v>
+        <v>42382</v>
       </c>
       <c r="I26" s="189">
-        <v>0.99519385363277624</v>
+        <v>0.99520120984293536</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.2">
@@ -8633,14 +8631,14 @@
       </c>
       <c r="G27" s="38">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H27" s="37">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>42409</v>
+        <v>42416</v>
       </c>
       <c r="I27" s="189">
-        <v>0.99447154438662333</v>
+        <v>0.99443759465301906</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.2">
@@ -8657,14 +8655,14 @@
       </c>
       <c r="G28" s="38">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H28" s="37">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>42438</v>
+        <v>42443</v>
       </c>
       <c r="I28" s="189">
-        <v>0.99370516893734184</v>
+        <v>0.99368762511069053</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.2">
@@ -8681,14 +8679,14 @@
       </c>
       <c r="G29" s="38">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H29" s="37">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>42471</v>
+        <v>42473</v>
       </c>
       <c r="I29" s="189">
-        <v>0.99277702450614635</v>
+        <v>0.99278923567979604</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.2">
@@ -8705,14 +8703,14 @@
       </c>
       <c r="G30" s="38">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H30" s="37">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>42499</v>
+        <v>42503</v>
       </c>
       <c r="I30" s="189">
-        <v>0.99182721808314089</v>
+        <v>0.99181907512951839</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.2">
@@ -8729,14 +8727,14 @@
       </c>
       <c r="G31" s="38">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H31" s="37">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>42864</v>
+        <v>42870</v>
       </c>
       <c r="I31" s="189">
-        <v>0.97495347846522074</v>
+        <v>0.97490091830428804</v>
       </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.2">
@@ -8753,14 +8751,14 @@
       </c>
       <c r="G32" s="38">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H32" s="37">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>43229</v>
+        <v>43234</v>
       </c>
       <c r="I32" s="189">
-        <v>0.95123262760570237</v>
+        <v>0.95119199552453104</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.2">
@@ -8777,14 +8775,14 @@
       </c>
       <c r="G33" s="38">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H33" s="37">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>43594</v>
+        <v>43598</v>
       </c>
       <c r="I33" s="189">
-        <v>0.92368474201151674</v>
+        <v>0.92367551945168336</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.2">
@@ -8801,14 +8799,14 @@
       </c>
       <c r="G34" s="38">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H34" s="37">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="I34" s="189">
-        <v>0.8938766362009869</v>
+        <v>0.89395626541138662</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.2">
@@ -8825,14 +8823,14 @@
       </c>
       <c r="G35" s="38">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H35" s="37">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="I35" s="189">
-        <v>0.86369972994754463</v>
+        <v>0.86373998868450252</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.2">
@@ -8849,14 +8847,14 @@
       </c>
       <c r="G36" s="38">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H36" s="37">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>44690</v>
+        <v>44694</v>
       </c>
       <c r="I36" s="189">
-        <v>0.83350496479973235</v>
+        <v>0.83349838021394218</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.2">
@@ -8873,14 +8871,14 @@
       </c>
       <c r="G37" s="38">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H37" s="37">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>45055</v>
+        <v>45061</v>
       </c>
       <c r="I37" s="189">
-        <v>0.80381307927986489</v>
+        <v>0.80370435509570637</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.2">
@@ -8897,14 +8895,14 @@
       </c>
       <c r="G38" s="38">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H38" s="37">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>45421</v>
+        <v>45425</v>
       </c>
       <c r="I38" s="189">
-        <v>0.77462482677134648</v>
+        <v>0.77461736664038361</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
@@ -8921,14 +8919,14 @@
       </c>
       <c r="G39" s="38">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H39" s="37">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>46153</v>
+        <v>46155</v>
       </c>
       <c r="I39" s="189">
-        <v>0.71743929853817057</v>
+        <v>0.71753663720989758</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.2">
@@ -8945,14 +8943,14 @@
       </c>
       <c r="G40" s="38">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H40" s="37">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>47247</v>
+        <v>47252</v>
       </c>
       <c r="I40" s="189">
-        <v>0.6385033847573387</v>
+        <v>0.6384512970162739</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.2">
@@ -8969,14 +8967,14 @@
       </c>
       <c r="G41" s="38">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H41" s="37">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>49073</v>
+        <v>49079</v>
       </c>
       <c r="I41" s="189">
-        <v>0.53002888736552278</v>
+        <v>0.52993646259720251</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.2">
@@ -8993,14 +8991,14 @@
       </c>
       <c r="G42" s="38">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H42" s="37">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>50899</v>
+        <v>50903</v>
       </c>
       <c r="I42" s="189">
-        <v>0.44332486328291115</v>
+        <v>0.44331831416751843</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.2">
@@ -9017,14 +9015,14 @@
       </c>
       <c r="G43" s="38">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H43" s="37">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>54553</v>
+        <v>54556</v>
       </c>
       <c r="I43" s="189">
-        <v>0.31889829626404298</v>
+        <v>0.31892104342031019</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.2">
@@ -9041,14 +9039,14 @@
       </c>
       <c r="G44" s="38">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H44" s="37">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>56380</v>
+        <v>56382</v>
       </c>
       <c r="I44" s="189">
-        <v>0.272272609091814</v>
+        <v>0.27231512843594996</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.2">
@@ -9065,14 +9063,14 @@
       </c>
       <c r="G45" s="38">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H45" s="37">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>58204</v>
+        <v>58208</v>
       </c>
       <c r="I45" s="189">
-        <v>0.23508316673879917</v>
+        <v>0.23508009478397687</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.2">
@@ -9089,14 +9087,14 @@
       </c>
       <c r="G46" s="38">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="H46" s="37">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>60031</v>
+        <v>60035</v>
       </c>
       <c r="I46" s="189">
-        <v>0.20317080860273595</v>
+        <v>0.20316819626589766</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.2">
@@ -11115,7 +11113,7 @@
       </c>
       <c r="F3" s="98" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OND#0000</v>
+        <v>USD_YCONRH_OND#0001</v>
       </c>
       <c r="G3" s="97" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -11231,7 +11229,7 @@
       </c>
       <c r="H3" s="139" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_TND#0000</v>
+        <v>USD_YCONRH_TND#0001</v>
       </c>
       <c r="I3" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -11263,7 +11261,7 @@
       </c>
       <c r="H4" s="136" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_SND#0000</v>
+        <v>USD_YCONRH_SND#0001</v>
       </c>
       <c r="I4" s="135" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -11421,7 +11419,7 @@
       </c>
       <c r="L4" s="165" t="str">
         <f>_xll.qlOvernightIndex(K4,"usd-no-fix",0,"USD",Calendar,"act/360",,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS_LiborON#0000</v>
+        <v>USD_YCONRH_OIS_LiborON#0001</v>
       </c>
       <c r="M4" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -11480,7 +11478,7 @@
       </c>
       <c r="L6" s="157" t="str">
         <f>_xll.qlOISRateHelper(K6,2,C6,J6,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OISSW#0000</v>
+        <v>USD_YCONRH_OISSW#0001</v>
       </c>
       <c r="M6" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -11489,11 +11487,11 @@
       <c r="N6" s="154"/>
       <c r="P6" s="156">
         <f>_xll.qlRateHelperEarliestDate($L6)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q6" s="156">
         <f>_xll.qlRateHelperLatestDate($L6)</f>
-        <v>41775</v>
+        <v>41779</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -11532,7 +11530,7 @@
       </c>
       <c r="L7" s="157" t="str">
         <f>_xll.qlOISRateHelper(K7,2,C7,J7,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2W#0000</v>
+        <v>USD_YCONRH_OIS2W#0001</v>
       </c>
       <c r="M7" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -11541,11 +11539,11 @@
       <c r="N7" s="154"/>
       <c r="P7" s="156">
         <f>_xll.qlRateHelperEarliestDate(L7)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q7" s="156">
         <f>_xll.qlRateHelperLatestDate($L7)</f>
-        <v>41782</v>
+        <v>41786</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -11584,7 +11582,7 @@
       </c>
       <c r="L8" s="157" t="str">
         <f>_xll.qlOISRateHelper(K8,2,C8,J8,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3W#0000</v>
+        <v>USD_YCONRH_OIS3W#0001</v>
       </c>
       <c r="M8" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -11593,11 +11591,11 @@
       <c r="N8" s="154"/>
       <c r="P8" s="156">
         <f>_xll.qlRateHelperEarliestDate(L8)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q8" s="156">
         <f>_xll.qlRateHelperLatestDate($L8)</f>
-        <v>41789</v>
+        <v>41793</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -11636,7 +11634,7 @@
       </c>
       <c r="L9" s="157" t="str">
         <f>_xll.qlOISRateHelper(K9,2,C9,J9,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS1M#0000</v>
+        <v>USD_YCONRH_OIS1M#0001</v>
       </c>
       <c r="M9" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -11645,11 +11643,11 @@
       <c r="N9" s="154"/>
       <c r="P9" s="156">
         <f>_xll.qlRateHelperEarliestDate(L9)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q9" s="156">
         <f>_xll.qlRateHelperLatestDate($L9)</f>
-        <v>41799</v>
+        <v>41803</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -11688,7 +11686,7 @@
       </c>
       <c r="L10" s="157" t="str">
         <f>_xll.qlOISRateHelper(K10,2,C10,J10,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2M#0000</v>
+        <v>USD_YCONRH_OIS2M#0001</v>
       </c>
       <c r="M10" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -11697,11 +11695,11 @@
       <c r="N10" s="154"/>
       <c r="P10" s="156">
         <f>_xll.qlRateHelperEarliestDate(L10)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q10" s="156">
         <f>_xll.qlRateHelperLatestDate($L10)</f>
-        <v>41829</v>
+        <v>41834</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -11740,7 +11738,7 @@
       </c>
       <c r="L11" s="157" t="str">
         <f>_xll.qlOISRateHelper(K11,2,C11,J11,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3M#0000</v>
+        <v>USD_YCONRH_OIS3M#0001</v>
       </c>
       <c r="M11" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -11749,11 +11747,11 @@
       <c r="N11" s="154"/>
       <c r="P11" s="156">
         <f>_xll.qlRateHelperEarliestDate(L11)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q11" s="156">
         <f>_xll.qlRateHelperLatestDate($L11)</f>
-        <v>41862</v>
+        <v>41864</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -11792,7 +11790,7 @@
       </c>
       <c r="L12" s="157" t="str">
         <f>_xll.qlOISRateHelper(K12,2,C12,J12,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS4M#0000</v>
+        <v>USD_YCONRH_OIS4M#0001</v>
       </c>
       <c r="M12" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -11801,11 +11799,11 @@
       <c r="N12" s="154"/>
       <c r="P12" s="156">
         <f>_xll.qlRateHelperEarliestDate(L12)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q12" s="156">
         <f>_xll.qlRateHelperLatestDate($L12)</f>
-        <v>41891</v>
+        <v>41897</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -11844,7 +11842,7 @@
       </c>
       <c r="L13" s="157" t="str">
         <f>_xll.qlOISRateHelper(K13,2,C13,J13,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS5M#0000</v>
+        <v>USD_YCONRH_OIS5M#0001</v>
       </c>
       <c r="M13" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -11853,11 +11851,11 @@
       <c r="N13" s="154"/>
       <c r="P13" s="156">
         <f>_xll.qlRateHelperEarliestDate(L13)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q13" s="156">
         <f>_xll.qlRateHelperLatestDate($L13)</f>
-        <v>41921</v>
+        <v>41926</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -11896,7 +11894,7 @@
       </c>
       <c r="L14" s="157" t="str">
         <f>_xll.qlOISRateHelper(K14,2,C14,J14,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS6M#0000</v>
+        <v>USD_YCONRH_OIS6M#0001</v>
       </c>
       <c r="M14" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -11905,11 +11903,11 @@
       <c r="N14" s="154"/>
       <c r="P14" s="156">
         <f>_xll.qlRateHelperEarliestDate(L14)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q14" s="156">
         <f>_xll.qlRateHelperLatestDate($L14)</f>
-        <v>41953</v>
+        <v>41956</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -11948,7 +11946,7 @@
       </c>
       <c r="L15" s="157" t="str">
         <f>_xll.qlOISRateHelper(K15,2,C15,J15,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS7M#0000</v>
+        <v>USD_YCONRH_OIS7M#0001</v>
       </c>
       <c r="M15" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -11957,11 +11955,11 @@
       <c r="N15" s="154"/>
       <c r="P15" s="156">
         <f>_xll.qlRateHelperEarliestDate(L15)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q15" s="156">
         <f>_xll.qlRateHelperLatestDate($L15)</f>
-        <v>41982</v>
+        <v>41988</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -12000,7 +11998,7 @@
       </c>
       <c r="L16" s="157" t="str">
         <f>_xll.qlOISRateHelper(K16,2,C16,J16,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS8M#0000</v>
+        <v>USD_YCONRH_OIS8M#0001</v>
       </c>
       <c r="M16" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -12009,11 +12007,11 @@
       <c r="N16" s="154"/>
       <c r="P16" s="156">
         <f>_xll.qlRateHelperEarliestDate(L16)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q16" s="156">
         <f>_xll.qlRateHelperLatestDate($L16)</f>
-        <v>42013</v>
+        <v>42017</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -12052,7 +12050,7 @@
       </c>
       <c r="L17" s="157" t="str">
         <f>_xll.qlOISRateHelper(K17,2,C17,J17,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS9M#0000</v>
+        <v>USD_YCONRH_OIS9M#0001</v>
       </c>
       <c r="M17" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -12061,11 +12059,11 @@
       <c r="N17" s="154"/>
       <c r="P17" s="156">
         <f>_xll.qlRateHelperEarliestDate(L17)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q17" s="156">
         <f>_xll.qlRateHelperLatestDate($L17)</f>
-        <v>42044</v>
+        <v>42048</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -12104,7 +12102,7 @@
       </c>
       <c r="L18" s="157" t="str">
         <f>_xll.qlOISRateHelper(K18,2,C18,J18,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS10M#0000</v>
+        <v>USD_YCONRH_OIS10M#0001</v>
       </c>
       <c r="M18" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -12113,11 +12111,11 @@
       <c r="N18" s="154"/>
       <c r="P18" s="156">
         <f>_xll.qlRateHelperEarliestDate(L18)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q18" s="156">
         <f>_xll.qlRateHelperLatestDate($L18)</f>
-        <v>42072</v>
+        <v>42076</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -12156,7 +12154,7 @@
       </c>
       <c r="L19" s="157" t="str">
         <f>_xll.qlOISRateHelper(K19,2,C19,J19,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS11M#0000</v>
+        <v>USD_YCONRH_OIS11M#0001</v>
       </c>
       <c r="M19" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -12165,11 +12163,11 @@
       <c r="N19" s="154"/>
       <c r="P19" s="156">
         <f>_xll.qlRateHelperEarliestDate(L19)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q19" s="156">
         <f>_xll.qlRateHelperLatestDate($L19)</f>
-        <v>42103</v>
+        <v>42107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -12208,7 +12206,7 @@
       </c>
       <c r="L20" s="157" t="str">
         <f>_xll.qlOISRateHelper(K20,2,C20,J20,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS1Y#0000</v>
+        <v>USD_YCONRH_OIS1Y#0001</v>
       </c>
       <c r="M20" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -12217,11 +12215,11 @@
       <c r="N20" s="154"/>
       <c r="P20" s="156">
         <f>_xll.qlRateHelperEarliestDate(L20)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q20" s="156">
         <f>_xll.qlRateHelperLatestDate($L20)</f>
-        <v>42135</v>
+        <v>42137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -12260,7 +12258,7 @@
       </c>
       <c r="L21" s="157" t="str">
         <f>_xll.qlOISRateHelper(K21,2,C21,J21,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS13M#0000</v>
+        <v>USD_YCONRH_OIS13M#0001</v>
       </c>
       <c r="M21" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -12269,11 +12267,11 @@
       <c r="N21" s="154"/>
       <c r="P21" s="156">
         <f>_xll.qlRateHelperEarliestDate(L21)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q21" s="156">
         <f>_xll.qlRateHelperLatestDate($L21)</f>
-        <v>42164</v>
+        <v>42170</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -12312,7 +12310,7 @@
       </c>
       <c r="L22" s="157" t="str">
         <f>_xll.qlOISRateHelper(K22,2,C22,J22,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS14M#0000</v>
+        <v>USD_YCONRH_OIS14M#0001</v>
       </c>
       <c r="M22" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -12321,11 +12319,11 @@
       <c r="N22" s="154"/>
       <c r="P22" s="156">
         <f>_xll.qlRateHelperEarliestDate(L22)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q22" s="156">
         <f>_xll.qlRateHelperLatestDate($L22)</f>
-        <v>42194</v>
+        <v>42198</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -12364,7 +12362,7 @@
       </c>
       <c r="L23" s="157" t="str">
         <f>_xll.qlOISRateHelper(K23,2,C23,J23,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS15M#0000</v>
+        <v>USD_YCONRH_OIS15M#0001</v>
       </c>
       <c r="M23" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -12373,11 +12371,11 @@
       <c r="N23" s="154"/>
       <c r="P23" s="156">
         <f>_xll.qlRateHelperEarliestDate(L23)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q23" s="156">
         <f>_xll.qlRateHelperLatestDate($L23)</f>
-        <v>42226</v>
+        <v>42229</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -12416,7 +12414,7 @@
       </c>
       <c r="L24" s="157" t="str">
         <f>_xll.qlOISRateHelper(K24,2,C24,J24,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS16M#0000</v>
+        <v>USD_YCONRH_OIS16M#0001</v>
       </c>
       <c r="M24" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -12425,11 +12423,11 @@
       <c r="N24" s="154"/>
       <c r="P24" s="156">
         <f>_xll.qlRateHelperEarliestDate(L24)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q24" s="156">
         <f>_xll.qlRateHelperLatestDate($L24)</f>
-        <v>42256</v>
+        <v>42261</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -12468,7 +12466,7 @@
       </c>
       <c r="L25" s="157" t="str">
         <f>_xll.qlOISRateHelper(K25,2,C25,J25,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS17M#0000</v>
+        <v>USD_YCONRH_OIS17M#0001</v>
       </c>
       <c r="M25" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -12477,11 +12475,11 @@
       <c r="N25" s="154"/>
       <c r="P25" s="156">
         <f>_xll.qlRateHelperEarliestDate(L25)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q25" s="156">
         <f>_xll.qlRateHelperLatestDate($L25)</f>
-        <v>42286</v>
+        <v>42290</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -12520,7 +12518,7 @@
       </c>
       <c r="L26" s="157" t="str">
         <f>_xll.qlOISRateHelper(K26,2,C26,J26,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS18M#0000</v>
+        <v>USD_YCONRH_OIS18M#0001</v>
       </c>
       <c r="M26" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -12529,11 +12527,11 @@
       <c r="N26" s="154"/>
       <c r="P26" s="156">
         <f>_xll.qlRateHelperEarliestDate(L26)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q26" s="156">
         <f>_xll.qlRateHelperLatestDate($L26)</f>
-        <v>42317</v>
+        <v>42321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -12572,7 +12570,7 @@
       </c>
       <c r="L27" s="157" t="str">
         <f>_xll.qlOISRateHelper(K27,2,C27,J27,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS19M#0000</v>
+        <v>USD_YCONRH_OIS19M#0001</v>
       </c>
       <c r="M27" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -12581,11 +12579,11 @@
       <c r="N27" s="154"/>
       <c r="P27" s="156">
         <f>_xll.qlRateHelperEarliestDate(L27)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q27" s="156">
         <f>_xll.qlRateHelperLatestDate($L27)</f>
-        <v>42347</v>
+        <v>42352</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -12624,7 +12622,7 @@
       </c>
       <c r="L28" s="157" t="str">
         <f>_xll.qlOISRateHelper(K28,2,C28,J28,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS20M#0000</v>
+        <v>USD_YCONRH_OIS20M#0001</v>
       </c>
       <c r="M28" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -12633,11 +12631,11 @@
       <c r="N28" s="154"/>
       <c r="P28" s="156">
         <f>_xll.qlRateHelperEarliestDate(L28)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q28" s="156">
         <f>_xll.qlRateHelperLatestDate($L28)</f>
-        <v>42380</v>
+        <v>42382</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -12676,7 +12674,7 @@
       </c>
       <c r="L29" s="157" t="str">
         <f>_xll.qlOISRateHelper(K29,2,C29,J29,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS21M#0000</v>
+        <v>USD_YCONRH_OIS21M#0001</v>
       </c>
       <c r="M29" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -12685,11 +12683,11 @@
       <c r="N29" s="154"/>
       <c r="P29" s="156">
         <f>_xll.qlRateHelperEarliestDate(L29)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q29" s="156">
         <f>_xll.qlRateHelperLatestDate($L29)</f>
-        <v>42409</v>
+        <v>42416</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -12728,7 +12726,7 @@
       </c>
       <c r="L30" s="157" t="str">
         <f>_xll.qlOISRateHelper(K30,2,C30,J30,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS22M#0000</v>
+        <v>USD_YCONRH_OIS22M#0001</v>
       </c>
       <c r="M30" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -12737,11 +12735,11 @@
       <c r="N30" s="154"/>
       <c r="P30" s="156">
         <f>_xll.qlRateHelperEarliestDate(L30)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q30" s="156">
         <f>_xll.qlRateHelperLatestDate($L30)</f>
-        <v>42438</v>
+        <v>42443</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -12780,7 +12778,7 @@
       </c>
       <c r="L31" s="157" t="str">
         <f>_xll.qlOISRateHelper(K31,2,C31,J31,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS23M#0000</v>
+        <v>USD_YCONRH_OIS23M#0001</v>
       </c>
       <c r="M31" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -12789,11 +12787,11 @@
       <c r="N31" s="154"/>
       <c r="P31" s="156">
         <f>_xll.qlRateHelperEarliestDate(L31)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q31" s="156">
         <f>_xll.qlRateHelperLatestDate($L31)</f>
-        <v>42471</v>
+        <v>42473</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -12832,7 +12830,7 @@
       </c>
       <c r="L32" s="157" t="str">
         <f>_xll.qlOISRateHelper(K32,2,C32,J32,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2Y#0000</v>
+        <v>USD_YCONRH_OIS2Y#0001</v>
       </c>
       <c r="M32" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -12841,11 +12839,11 @@
       <c r="N32" s="154"/>
       <c r="P32" s="156">
         <f>_xll.qlRateHelperEarliestDate(L32)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q32" s="156">
         <f>_xll.qlRateHelperLatestDate($L32)</f>
-        <v>42499</v>
+        <v>42503</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -12884,7 +12882,7 @@
       </c>
       <c r="L33" s="157" t="str">
         <f>_xll.qlOISRateHelper(K33,2,C33,J33,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS27M#0000</v>
+        <v>USD_YCONRH_OIS27M#0001</v>
       </c>
       <c r="M33" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -12893,11 +12891,11 @@
       <c r="N33" s="154"/>
       <c r="P33" s="156">
         <f>_xll.qlRateHelperEarliestDate(L33)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q33" s="156">
         <f>_xll.qlRateHelperLatestDate($L33)</f>
-        <v>42591</v>
+        <v>42597</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -12936,7 +12934,7 @@
       </c>
       <c r="L34" s="157" t="str">
         <f>_xll.qlOISRateHelper(K34,2,C34,J34,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS30M#0000</v>
+        <v>USD_YCONRH_OIS30M#0001</v>
       </c>
       <c r="M34" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -12945,11 +12943,11 @@
       <c r="N34" s="154"/>
       <c r="P34" s="156">
         <f>_xll.qlRateHelperEarliestDate(L34)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q34" s="156">
         <f>_xll.qlRateHelperLatestDate($L34)</f>
-        <v>42683</v>
+        <v>42688</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -12988,7 +12986,7 @@
       </c>
       <c r="L35" s="157" t="str">
         <f>_xll.qlOISRateHelper(K35,2,C35,J35,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS33M#0000</v>
+        <v>USD_YCONRH_OIS33M#0001</v>
       </c>
       <c r="M35" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -12997,11 +12995,11 @@
       <c r="N35" s="154"/>
       <c r="P35" s="156">
         <f>_xll.qlRateHelperEarliestDate(L35)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q35" s="156">
         <f>_xll.qlRateHelperLatestDate($L35)</f>
-        <v>42775</v>
+        <v>42779</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -13040,7 +13038,7 @@
       </c>
       <c r="L36" s="157" t="str">
         <f>_xll.qlOISRateHelper(K36,2,C36,J36,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3Y#0000</v>
+        <v>USD_YCONRH_OIS3Y#0001</v>
       </c>
       <c r="M36" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -13049,11 +13047,11 @@
       <c r="N36" s="154"/>
       <c r="P36" s="156">
         <f>_xll.qlRateHelperEarliestDate(L36)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q36" s="156">
         <f>_xll.qlRateHelperLatestDate($L36)</f>
-        <v>42864</v>
+        <v>42870</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -13092,7 +13090,7 @@
       </c>
       <c r="L37" s="157" t="str">
         <f>_xll.qlOISRateHelper(K37,2,C37,J37,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS39M#0000</v>
+        <v>USD_YCONRH_OIS39M#0001</v>
       </c>
       <c r="M37" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -13101,11 +13099,11 @@
       <c r="N37" s="154"/>
       <c r="P37" s="156">
         <f>_xll.qlRateHelperEarliestDate(L37)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q37" s="156">
         <f>_xll.qlRateHelperLatestDate($L37)</f>
-        <v>42956</v>
+        <v>42961</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -13144,7 +13142,7 @@
       </c>
       <c r="L38" s="157" t="str">
         <f>_xll.qlOISRateHelper(K38,2,C38,J38,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS42M#0000</v>
+        <v>USD_YCONRH_OIS42M#0001</v>
       </c>
       <c r="M38" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -13190,7 +13188,7 @@
       </c>
       <c r="L39" s="157" t="str">
         <f>_xll.qlOISRateHelper(K39,2,C39,J39,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS45M#0000</v>
+        <v>USD_YCONRH_OIS45M#0001</v>
       </c>
       <c r="M39" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -13236,7 +13234,7 @@
       </c>
       <c r="L40" s="157" t="str">
         <f>_xll.qlOISRateHelper(K40,2,C40,J40,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS4Y#0000</v>
+        <v>USD_YCONRH_OIS4Y#0001</v>
       </c>
       <c r="M40" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -13282,7 +13280,7 @@
       </c>
       <c r="L41" s="157" t="str">
         <f>_xll.qlOISRateHelper(K41,2,C41,J41,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS51M#0000</v>
+        <v>USD_YCONRH_OIS51M#0001</v>
       </c>
       <c r="M41" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -13328,7 +13326,7 @@
       </c>
       <c r="L42" s="157" t="str">
         <f>_xll.qlOISRateHelper(K42,2,C42,J42,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS54M#0000</v>
+        <v>USD_YCONRH_OIS54M#0001</v>
       </c>
       <c r="M42" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -13374,7 +13372,7 @@
       </c>
       <c r="L43" s="157" t="str">
         <f>_xll.qlOISRateHelper(K43,2,C43,J43,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS57M#0000</v>
+        <v>USD_YCONRH_OIS57M#0001</v>
       </c>
       <c r="M43" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L43)</f>
@@ -13420,7 +13418,7 @@
       </c>
       <c r="L44" s="157" t="str">
         <f>_xll.qlOISRateHelper(K44,2,C44,J44,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS5Y#0000</v>
+        <v>USD_YCONRH_OIS5Y#0001</v>
       </c>
       <c r="M44" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -13466,7 +13464,7 @@
       </c>
       <c r="L45" s="157" t="str">
         <f>_xll.qlOISRateHelper(K45,2,C45,J45,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS6Y#0000</v>
+        <v>USD_YCONRH_OIS6Y#0001</v>
       </c>
       <c r="M45" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -13512,7 +13510,7 @@
       </c>
       <c r="L46" s="157" t="str">
         <f>_xll.qlOISRateHelper(K46,2,C46,J46,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS7Y#0000</v>
+        <v>USD_YCONRH_OIS7Y#0001</v>
       </c>
       <c r="M46" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -13558,7 +13556,7 @@
       </c>
       <c r="L47" s="157" t="str">
         <f>_xll.qlOISRateHelper(K47,2,C47,J47,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS8Y#0000</v>
+        <v>USD_YCONRH_OIS8Y#0001</v>
       </c>
       <c r="M47" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -13604,7 +13602,7 @@
       </c>
       <c r="L48" s="157" t="str">
         <f>_xll.qlOISRateHelper(K48,2,C48,J48,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS9Y#0000</v>
+        <v>USD_YCONRH_OIS9Y#0001</v>
       </c>
       <c r="M48" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -13650,7 +13648,7 @@
       </c>
       <c r="L49" s="157" t="str">
         <f>_xll.qlOISRateHelper(K49,2,C49,J49,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS10Y#0000</v>
+        <v>USD_YCONRH_OIS10Y#0001</v>
       </c>
       <c r="M49" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -13696,7 +13694,7 @@
       </c>
       <c r="L50" s="157" t="str">
         <f>_xll.qlOISRateHelper(K50,2,C50,J50,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS12Y#0000</v>
+        <v>USD_YCONRH_OIS12Y#0001</v>
       </c>
       <c r="M50" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -13742,7 +13740,7 @@
       </c>
       <c r="L51" s="157" t="str">
         <f>_xll.qlOISRateHelper(K51,2,C51,J51,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS15Y#0000</v>
+        <v>USD_YCONRH_OIS15Y#0001</v>
       </c>
       <c r="M51" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L51)</f>
@@ -13788,7 +13786,7 @@
       </c>
       <c r="L52" s="157" t="str">
         <f>_xll.qlOISRateHelper(K52,2,C52,J52,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS20Y#0000</v>
+        <v>USD_YCONRH_OIS20Y#0001</v>
       </c>
       <c r="M52" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L52)</f>
@@ -13834,7 +13832,7 @@
       </c>
       <c r="L53" s="157" t="str">
         <f>_xll.qlOISRateHelper(K53,2,C53,J53,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS25Y#0000</v>
+        <v>USD_YCONRH_OIS25Y#0001</v>
       </c>
       <c r="M53" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L53)</f>
@@ -13880,7 +13878,7 @@
       </c>
       <c r="L54" s="157" t="str">
         <f>_xll.qlOISRateHelper(K54,2,C54,J54,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS27Y#0000</v>
+        <v>USD_YCONRH_OIS27Y#0001</v>
       </c>
       <c r="M54" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L54)</f>
@@ -13926,7 +13924,7 @@
       </c>
       <c r="L55" s="157" t="str">
         <f>_xll.qlOISRateHelper(K55,2,C55,J55,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS30Y#0000</v>
+        <v>USD_YCONRH_OIS30Y#0001</v>
       </c>
       <c r="M55" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L55)</f>
@@ -13972,7 +13970,7 @@
       </c>
       <c r="L56" s="157" t="str">
         <f>_xll.qlOISRateHelper(K56,2,C56,J56,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS35Y#0000</v>
+        <v>USD_YCONRH_OIS35Y#0001</v>
       </c>
       <c r="M56" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L56)</f>
@@ -14018,7 +14016,7 @@
       </c>
       <c r="L57" s="157" t="str">
         <f>_xll.qlOISRateHelper(K57,2,C57,J57,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS40Y#0000</v>
+        <v>USD_YCONRH_OIS40Y#0001</v>
       </c>
       <c r="M57" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L57)</f>
@@ -14064,7 +14062,7 @@
       </c>
       <c r="L58" s="157" t="str">
         <f>_xll.qlOISRateHelper(K58,2,C58,J58,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS45Y#0000</v>
+        <v>USD_YCONRH_OIS45Y#0001</v>
       </c>
       <c r="M58" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L58)</f>
@@ -14110,7 +14108,7 @@
       </c>
       <c r="L59" s="157" t="str">
         <f>_xll.qlOISRateHelper(K59,2,C59,J59,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS50Y#0000</v>
+        <v>USD_YCONRH_OIS50Y#0001</v>
       </c>
       <c r="M59" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L59)</f>
@@ -14119,11 +14117,11 @@
       <c r="N59" s="154"/>
       <c r="P59" s="156">
         <f>_xll.qlRateHelperEarliestDate(L59)</f>
-        <v>41768</v>
+        <v>41772</v>
       </c>
       <c r="Q59" s="156">
         <f>_xll.qlRateHelperLatestDate($L59)</f>
-        <v>60031</v>
+        <v>60035</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -14148,7 +14146,7 @@
       <c r="A61" s="87"/>
       <c r="B61" s="163">
         <f>_xll.qlECBdate(E61,,Trigger)</f>
-        <v>41402</v>
+        <v>41437</v>
       </c>
       <c r="C61" s="161"/>
       <c r="D61" s="162" t="s">
@@ -14156,7 +14154,7 @@
       </c>
       <c r="E61" s="161" t="str">
         <f>_xll.qlECBNextCode(_xll.qlSettingsEvaluationDate(Trigger)-365)</f>
-        <v>MAY13</v>
+        <v>JUN13</v>
       </c>
       <c r="F61" s="160" t="s">
         <v>164</v>
@@ -14173,11 +14171,11 @@
       </c>
       <c r="J61" s="158" t="str">
         <f t="shared" ref="J61:J95" si="9">Currency&amp;$D61&amp;$E61&amp;QuoteSuffix</f>
-        <v>USDECBOISMAY13_Quote</v>
+        <v>USDECBOISJUN13_Quote</v>
       </c>
       <c r="K61" s="158" t="str">
         <f t="shared" ref="K61:K95" si="10">$K$2&amp;"_"&amp;$D61&amp;$E61</f>
-        <v>USD_YCONRH_ECBOISMAY13</v>
+        <v>USD_YCONRH_ECBOISJUN13</v>
       </c>
       <c r="L61" s="157" t="e">
         <f>_xll.qlDatedOISRateHelper(K61,B61,B62,J61,$L$4,,Permanent,,ObjectOverwrite)</f>
@@ -14185,7 +14183,7 @@
       </c>
       <c r="M61" s="88" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L61)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISMAY13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISJUN13_Quote'</v>
       </c>
       <c r="N61" s="154"/>
       <c r="P61" s="156" t="e">
@@ -14201,7 +14199,7 @@
       <c r="A62" s="87"/>
       <c r="B62" s="163">
         <f>_xll.qlECBdate(E62,,Trigger)</f>
-        <v>41437</v>
+        <v>41465</v>
       </c>
       <c r="C62" s="161"/>
       <c r="D62" s="162" t="s">
@@ -14209,7 +14207,7 @@
       </c>
       <c r="E62" s="161" t="str">
         <f>_xll.qlECBNextCode(B61)</f>
-        <v>JUN13</v>
+        <v>JUL13</v>
       </c>
       <c r="F62" s="160" t="s">
         <v>164</v>
@@ -14226,11 +14224,11 @@
       </c>
       <c r="J62" s="158" t="str">
         <f t="shared" si="9"/>
-        <v>USDECBOISJUN13_Quote</v>
+        <v>USDECBOISJUL13_Quote</v>
       </c>
       <c r="K62" s="158" t="str">
         <f t="shared" si="10"/>
-        <v>USD_YCONRH_ECBOISJUN13</v>
+        <v>USD_YCONRH_ECBOISJUL13</v>
       </c>
       <c r="L62" s="157" t="e">
         <f>_xll.qlDatedOISRateHelper(K62,B62,B63,J62,$L$4,,Permanent,,ObjectOverwrite)</f>
@@ -14238,7 +14236,7 @@
       </c>
       <c r="M62" s="88" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L62)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISJUN13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISJUL13_Quote'</v>
       </c>
       <c r="N62" s="154"/>
       <c r="P62" s="156" t="e">
@@ -14254,7 +14252,7 @@
       <c r="A63" s="87"/>
       <c r="B63" s="163">
         <f>_xll.qlECBdate(E63,,Trigger)</f>
-        <v>41465</v>
+        <v>41493</v>
       </c>
       <c r="C63" s="161"/>
       <c r="D63" s="162" t="s">
@@ -14262,7 +14260,7 @@
       </c>
       <c r="E63" s="161" t="str">
         <f>_xll.qlECBNextCode(B62)</f>
-        <v>JUL13</v>
+        <v>AUG13</v>
       </c>
       <c r="F63" s="160" t="s">
         <v>164</v>
@@ -14279,11 +14277,11 @@
       </c>
       <c r="J63" s="158" t="str">
         <f t="shared" si="9"/>
-        <v>USDECBOISJUL13_Quote</v>
+        <v>USDECBOISAUG13_Quote</v>
       </c>
       <c r="K63" s="158" t="str">
         <f t="shared" si="10"/>
-        <v>USD_YCONRH_ECBOISJUL13</v>
+        <v>USD_YCONRH_ECBOISAUG13</v>
       </c>
       <c r="L63" s="157" t="e">
         <f>_xll.qlDatedOISRateHelper(K63,B63,B64,J63,$L$4,,Permanent,,ObjectOverwrite)</f>
@@ -14291,7 +14289,7 @@
       </c>
       <c r="M63" s="88" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISJUL13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISAUG13_Quote'</v>
       </c>
       <c r="N63" s="154"/>
       <c r="P63" s="156" t="e">
@@ -14307,7 +14305,7 @@
       <c r="A64" s="87"/>
       <c r="B64" s="163">
         <f>_xll.qlECBdate(E64,,Trigger)</f>
-        <v>41493</v>
+        <v>41528</v>
       </c>
       <c r="C64" s="161"/>
       <c r="D64" s="162" t="s">
@@ -14315,7 +14313,7 @@
       </c>
       <c r="E64" s="161" t="str">
         <f>_xll.qlECBNextCode(B63)</f>
-        <v>AUG13</v>
+        <v>SEP13</v>
       </c>
       <c r="F64" s="160" t="s">
         <v>164</v>
@@ -14332,11 +14330,11 @@
       </c>
       <c r="J64" s="158" t="str">
         <f t="shared" si="9"/>
-        <v>USDECBOISAUG13_Quote</v>
+        <v>USDECBOISSEP13_Quote</v>
       </c>
       <c r="K64" s="158" t="str">
         <f t="shared" si="10"/>
-        <v>USD_YCONRH_ECBOISAUG13</v>
+        <v>USD_YCONRH_ECBOISSEP13</v>
       </c>
       <c r="L64" s="157" t="e">
         <f>_xll.qlDatedOISRateHelper(K64,B64,B65,J64,$L$4,,Permanent,,ObjectOverwrite)</f>
@@ -14344,7 +14342,7 @@
       </c>
       <c r="M64" s="88" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISAUG13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISSEP13_Quote'</v>
       </c>
       <c r="N64" s="154"/>
       <c r="P64" s="156" t="e">
@@ -14360,7 +14358,7 @@
       <c r="A65" s="87"/>
       <c r="B65" s="163">
         <f>_xll.qlECBdate(E65,,Trigger)</f>
-        <v>41528</v>
+        <v>41556</v>
       </c>
       <c r="C65" s="161"/>
       <c r="D65" s="162" t="s">
@@ -14368,7 +14366,7 @@
       </c>
       <c r="E65" s="161" t="str">
         <f>_xll.qlECBNextCode(B64)</f>
-        <v>SEP13</v>
+        <v>OCT13</v>
       </c>
       <c r="F65" s="160" t="s">
         <v>164</v>
@@ -14385,11 +14383,11 @@
       </c>
       <c r="J65" s="158" t="str">
         <f t="shared" si="9"/>
-        <v>USDECBOISSEP13_Quote</v>
+        <v>USDECBOISOCT13_Quote</v>
       </c>
       <c r="K65" s="158" t="str">
         <f t="shared" si="10"/>
-        <v>USD_YCONRH_ECBOISSEP13</v>
+        <v>USD_YCONRH_ECBOISOCT13</v>
       </c>
       <c r="L65" s="157" t="e">
         <f>_xll.qlDatedOISRateHelper(K65,B65,B66,J65,$L$4,,Permanent,,ObjectOverwrite)</f>
@@ -14397,7 +14395,7 @@
       </c>
       <c r="M65" s="88" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L65)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISSEP13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISOCT13_Quote'</v>
       </c>
       <c r="N65" s="154"/>
       <c r="P65" s="156" t="e">
@@ -14413,7 +14411,7 @@
       <c r="A66" s="87"/>
       <c r="B66" s="163">
         <f>_xll.qlECBdate(E66,,Trigger)</f>
-        <v>41556</v>
+        <v>41591</v>
       </c>
       <c r="C66" s="161"/>
       <c r="D66" s="162" t="s">
@@ -14421,7 +14419,7 @@
       </c>
       <c r="E66" s="161" t="str">
         <f>_xll.qlECBNextCode(B65)</f>
-        <v>OCT13</v>
+        <v>NOV13</v>
       </c>
       <c r="F66" s="160" t="s">
         <v>164</v>
@@ -14438,11 +14436,11 @@
       </c>
       <c r="J66" s="158" t="str">
         <f t="shared" si="9"/>
-        <v>USDECBOISOCT13_Quote</v>
+        <v>USDECBOISNOV13_Quote</v>
       </c>
       <c r="K66" s="158" t="str">
         <f t="shared" si="10"/>
-        <v>USD_YCONRH_ECBOISOCT13</v>
+        <v>USD_YCONRH_ECBOISNOV13</v>
       </c>
       <c r="L66" s="157" t="e">
         <f>_xll.qlDatedOISRateHelper(K66,B66,B67,J66,$L$4,,Permanent,,ObjectOverwrite)</f>
@@ -14450,7 +14448,7 @@
       </c>
       <c r="M66" s="88" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L66)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISOCT13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISNOV13_Quote'</v>
       </c>
       <c r="N66" s="154"/>
       <c r="P66" s="156" t="e">
@@ -14466,7 +14464,7 @@
       <c r="A67" s="87"/>
       <c r="B67" s="163">
         <f>_xll.qlECBdate(E67,,Trigger)</f>
-        <v>41591</v>
+        <v>41619</v>
       </c>
       <c r="C67" s="161"/>
       <c r="D67" s="162" t="s">
@@ -14474,7 +14472,7 @@
       </c>
       <c r="E67" s="161" t="str">
         <f>_xll.qlECBNextCode(B66)</f>
-        <v>NOV13</v>
+        <v>DEC13</v>
       </c>
       <c r="F67" s="160" t="s">
         <v>164</v>
@@ -14491,11 +14489,11 @@
       </c>
       <c r="J67" s="158" t="str">
         <f t="shared" si="9"/>
-        <v>USDECBOISNOV13_Quote</v>
+        <v>USDECBOISDEC13_Quote</v>
       </c>
       <c r="K67" s="158" t="str">
         <f t="shared" si="10"/>
-        <v>USD_YCONRH_ECBOISNOV13</v>
+        <v>USD_YCONRH_ECBOISDEC13</v>
       </c>
       <c r="L67" s="157" t="e">
         <f>_xll.qlDatedOISRateHelper(K67,B67,B68,J67,$L$4,,Permanent,,ObjectOverwrite)</f>
@@ -14503,7 +14501,7 @@
       </c>
       <c r="M67" s="88" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L67)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'USDECBOISNOV13_Quote'</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'EndDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
       <c r="N67" s="154"/>
       <c r="P67" s="156" t="e">
@@ -14517,17 +14515,17 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="87"/>
-      <c r="B68" s="163">
+      <c r="B68" s="163" t="e">
         <f>_xll.qlECBdate(E68,,Trigger)</f>
-        <v>41619</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C68" s="161"/>
       <c r="D68" s="162" t="s">
         <v>165</v>
       </c>
-      <c r="E68" s="161" t="str">
+      <c r="E68" s="161" t="e">
         <f>_xll.qlECBNextCode(B67)</f>
-        <v>DEC13</v>
+        <v>#NUM!</v>
       </c>
       <c r="F68" s="160" t="s">
         <v>164</v>
@@ -14542,21 +14540,21 @@
       <c r="I68" s="159">
         <v>0</v>
       </c>
-      <c r="J68" s="158" t="str">
+      <c r="J68" s="158" t="e">
         <f t="shared" si="9"/>
-        <v>USDECBOISDEC13_Quote</v>
-      </c>
-      <c r="K68" s="158" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="K68" s="158" t="e">
         <f t="shared" si="10"/>
-        <v>USD_YCONRH_ECBOISDEC13</v>
+        <v>#NUM!</v>
       </c>
       <c r="L68" s="157" t="e">
         <f>_xll.qlDatedOISRateHelper(K68,B68,B69,J68,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M68" s="88" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L68)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'EndDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
+        <v/>
       </c>
       <c r="N68" s="154"/>
       <c r="P68" s="156" t="e">

--- a/QuantLibXL/Data2/XLS/USD_YCONBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YCONBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="-15" windowWidth="4800" windowHeight="11310" tabRatio="821"/>
+    <workbookView xWindow="9585" yWindow="-15" windowWidth="4800" windowHeight="11310" tabRatio="821" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -2185,7 +2185,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2409,7 +2409,7 @@
         <v>120</v>
       </c>
       <c r="D12" s="77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="D14" s="76" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYCON#0004</v>
+        <v>_USDYCON#0002</v>
       </c>
       <c r="E14" s="52" t="s">
         <v>173</v>
@@ -2624,7 +2624,7 @@
       <c r="B27" s="54"/>
       <c r="C27" s="58">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41768</v>
+        <v>41795</v>
       </c>
       <c r="D27" s="57">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2638,11 +2638,11 @@
       <c r="B28" s="54"/>
       <c r="C28" s="56">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>60035</v>
+        <v>60062</v>
       </c>
       <c r="D28" s="55">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.20316819626589766</v>
+        <v>0.19257186603818371</v>
       </c>
       <c r="E28" s="52"/>
       <c r="F28" s="52"/>
@@ -2803,11 +2803,11 @@
       </c>
       <c r="E2" s="14" t="str">
         <f>ON_Deposits!F3</f>
-        <v>USD_YCONRH_OND#0001</v>
+        <v>USD_YCONRH_OND#0002</v>
       </c>
       <c r="F2" s="13">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>1.5000000000000002E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="172" t="b">
@@ -2821,11 +2821,11 @@
       </c>
       <c r="K2" s="12">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41768</v>
+        <v>41795</v>
       </c>
       <c r="L2" s="11">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41771</v>
+        <v>41796</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2836,11 +2836,11 @@
       </c>
       <c r="E3" s="14" t="str">
         <f>ON_FRAs!H3</f>
-        <v>USD_YCONRH_TND#0001</v>
+        <v>USD_YCONRH_TND#0002</v>
       </c>
       <c r="F3" s="13">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
-        <v>1.5000000000000002E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="172" t="b">
@@ -2854,11 +2854,11 @@
       </c>
       <c r="K3" s="12">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41771</v>
+        <v>41796</v>
       </c>
       <c r="L3" s="11">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2869,11 +2869,11 @@
       </c>
       <c r="E4" s="14" t="str">
         <f>ON_FRAs!H4</f>
-        <v>USD_YCONRH_SND#0001</v>
+        <v>USD_YCONRH_SND#0002</v>
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>1.5000000000000002E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="6" t="b">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="K4" s="12">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L4" s="11">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41773</v>
+        <v>41800</v>
       </c>
     </row>
     <row r="5" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E35" s="21" t="str">
         <f>ON_Swaps!L6</f>
-        <v>USD_YCONRH_OISSW#0001</v>
+        <v>USD_YCONRH_OISSW#0002</v>
       </c>
       <c r="F35" s="20">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
-        <v>8.5000000000000006E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="G35" s="20" t="e">
         <f>_xll.qlSwapRateHelperSpread($E35,Trigger)</f>
@@ -4109,11 +4109,11 @@
       </c>
       <c r="K35" s="18">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L35" s="17">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>41779</v>
+        <v>41806</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
@@ -4127,11 +4127,11 @@
       </c>
       <c r="E36" s="14" t="str">
         <f>ON_Swaps!L7</f>
-        <v>USD_YCONRH_OIS2W#0001</v>
+        <v>USD_YCONRH_OIS2W#0002</v>
       </c>
       <c r="F36" s="13">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
-        <v>8.5000000000000006E-4</v>
+        <v>9.2000000000000003E-4</v>
       </c>
       <c r="G36" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E36,Trigger)</f>
@@ -4149,11 +4149,11 @@
       </c>
       <c r="K36" s="12">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L36" s="11">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>41786</v>
+        <v>41813</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
@@ -4167,11 +4167,11 @@
       </c>
       <c r="E37" s="14" t="str">
         <f>ON_Swaps!L8</f>
-        <v>USD_YCONRH_OIS3W#0001</v>
+        <v>USD_YCONRH_OIS3W#0002</v>
       </c>
       <c r="F37" s="13">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
-        <v>8.5000000000000006E-4</v>
+        <v>9.2999999999999995E-4</v>
       </c>
       <c r="G37" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E37,Trigger)</f>
@@ -4189,11 +4189,11 @@
       </c>
       <c r="K37" s="12">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L37" s="11">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>41793</v>
+        <v>41820</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
@@ -4207,11 +4207,11 @@
       </c>
       <c r="E38" s="14" t="str">
         <f>ON_Swaps!L9</f>
-        <v>USD_YCONRH_OIS1M#0001</v>
+        <v>USD_YCONRH_OIS1M#0002</v>
       </c>
       <c r="F38" s="13">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>8.5000000000000006E-4</v>
+        <v>9.3999999999999997E-4</v>
       </c>
       <c r="G38" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E38,Trigger)</f>
@@ -4229,11 +4229,11 @@
       </c>
       <c r="K38" s="12">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L38" s="11">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>41803</v>
+        <v>41829</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
@@ -4247,11 +4247,11 @@
       </c>
       <c r="E39" s="14" t="str">
         <f>ON_Swaps!L10</f>
-        <v>USD_YCONRH_OIS2M#0001</v>
+        <v>USD_YCONRH_OIS2M#0002</v>
       </c>
       <c r="F39" s="13">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>9.5E-4</v>
       </c>
       <c r="G39" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E39,Trigger)</f>
@@ -4269,11 +4269,11 @@
       </c>
       <c r="K39" s="12">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L39" s="11">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>41834</v>
+        <v>41862</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
@@ -4287,11 +4287,11 @@
       </c>
       <c r="E40" s="14" t="str">
         <f>ON_Swaps!L11</f>
-        <v>USD_YCONRH_OIS3M#0001</v>
+        <v>USD_YCONRH_OIS3M#0002</v>
       </c>
       <c r="F40" s="13">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
-        <v>9.2999999999999995E-4</v>
+        <v>9.7000000000000005E-4</v>
       </c>
       <c r="G40" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E40,Trigger)</f>
@@ -4309,11 +4309,11 @@
       </c>
       <c r="K40" s="12">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L40" s="11">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
-        <v>41864</v>
+        <v>41891</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E41" s="14" t="str">
         <f>ON_Swaps!L12</f>
-        <v>USD_YCONRH_OIS4M#0001</v>
+        <v>USD_YCONRH_OIS4M#0002</v>
       </c>
       <c r="F41" s="13">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>9.5E-4</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="G41" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E41,Trigger)</f>
@@ -4349,11 +4349,11 @@
       </c>
       <c r="K41" s="12">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L41" s="11">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
-        <v>41897</v>
+        <v>41921</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
@@ -4367,11 +4367,11 @@
       </c>
       <c r="E42" s="14" t="str">
         <f>ON_Swaps!L13</f>
-        <v>USD_YCONRH_OIS5M#0001</v>
+        <v>USD_YCONRH_OIS5M#0002</v>
       </c>
       <c r="F42" s="13">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>9.7999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="G42" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E42,Trigger)</f>
@@ -4389,11 +4389,11 @@
       </c>
       <c r="K42" s="12">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L42" s="11">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
-        <v>41926</v>
+        <v>41953</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
@@ -4407,11 +4407,11 @@
       </c>
       <c r="E43" s="14" t="str">
         <f>ON_Swaps!L14</f>
-        <v>USD_YCONRH_OIS6M#0001</v>
+        <v>USD_YCONRH_OIS6M#0002</v>
       </c>
       <c r="F43" s="13">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
-        <v>1.01E-3</v>
+        <v>1.0200000000000001E-3</v>
       </c>
       <c r="G43" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E43,Trigger)</f>
@@ -4429,11 +4429,11 @@
       </c>
       <c r="K43" s="12">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L43" s="11">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
-        <v>41956</v>
+        <v>41982</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
@@ -4447,11 +4447,11 @@
       </c>
       <c r="E44" s="14" t="str">
         <f>ON_Swaps!L15</f>
-        <v>USD_YCONRH_OIS7M#0001</v>
+        <v>USD_YCONRH_OIS7M#0002</v>
       </c>
       <c r="F44" s="13">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>1.0299999999999999E-3</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="G44" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E44,Trigger)</f>
@@ -4469,11 +4469,11 @@
       </c>
       <c r="K44" s="12">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L44" s="11">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
-        <v>41988</v>
+        <v>42013</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
@@ -4487,11 +4487,11 @@
       </c>
       <c r="E45" s="14" t="str">
         <f>ON_Swaps!L16</f>
-        <v>USD_YCONRH_OIS8M#0001</v>
+        <v>USD_YCONRH_OIS8M#0002</v>
       </c>
       <c r="F45" s="13">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>1.07E-3</v>
+        <v>1.08E-3</v>
       </c>
       <c r="G45" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E45,Trigger)</f>
@@ -4509,11 +4509,11 @@
       </c>
       <c r="K45" s="12">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L45" s="11">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
-        <v>42017</v>
+        <v>42044</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="E46" s="14" t="str">
         <f>ON_Swaps!L17</f>
-        <v>USD_YCONRH_OIS9M#0001</v>
+        <v>USD_YCONRH_OIS9M#0002</v>
       </c>
       <c r="F46" s="13">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4549,11 +4549,11 @@
       </c>
       <c r="K46" s="12">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L46" s="11">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
-        <v>42048</v>
+        <v>42072</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E47" s="14" t="str">
         <f>ON_Swaps!L18</f>
-        <v>USD_YCONRH_OIS10M#0001</v>
+        <v>USD_YCONRH_OIS10M#0002</v>
       </c>
       <c r="F47" s="13">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -4589,11 +4589,11 @@
       </c>
       <c r="K47" s="12">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L47" s="11">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
-        <v>42076</v>
+        <v>42103</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
@@ -4607,11 +4607,11 @@
       </c>
       <c r="E48" s="14" t="str">
         <f>ON_Swaps!L19</f>
-        <v>USD_YCONRH_OIS11M#0001</v>
+        <v>USD_YCONRH_OIS11M#0002</v>
       </c>
       <c r="F48" s="13">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>1.25E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="G48" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E48,Trigger)</f>
@@ -4629,11 +4629,11 @@
       </c>
       <c r="K48" s="12">
         <f>_xll.qlRateHelperEarliestDate($E48,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L48" s="11">
         <f>_xll.qlRateHelperLatestDate($E48,Trigger)</f>
-        <v>42107</v>
+        <v>42135</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
@@ -4647,11 +4647,11 @@
       </c>
       <c r="E49" s="14" t="str">
         <f>ON_Swaps!L20</f>
-        <v>USD_YCONRH_OIS1Y#0001</v>
+        <v>USD_YCONRH_OIS1Y#0002</v>
       </c>
       <c r="F49" s="13">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
-        <v>1.33E-3</v>
+        <v>1.32E-3</v>
       </c>
       <c r="G49" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E49,Trigger)</f>
@@ -4669,11 +4669,11 @@
       </c>
       <c r="K49" s="12">
         <f>_xll.qlRateHelperEarliestDate($E49,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L49" s="11">
         <f>_xll.qlRateHelperLatestDate($E49,Trigger)</f>
-        <v>42137</v>
+        <v>42164</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
@@ -4690,11 +4690,11 @@
       </c>
       <c r="E50" s="14" t="str">
         <f>ON_Swaps!L21</f>
-        <v>USD_YCONRH_OIS13M#0001</v>
+        <v>USD_YCONRH_OIS13M#0002</v>
       </c>
       <c r="F50" s="13">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>1.4400000000000001E-3</v>
+        <v>1.4300000000000001E-3</v>
       </c>
       <c r="G50" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E50,Trigger)</f>
@@ -4712,11 +4712,11 @@
       </c>
       <c r="K50" s="12">
         <f>_xll.qlRateHelperEarliestDate($E50,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L50" s="11">
         <f>_xll.qlRateHelperLatestDate($E50,Trigger)</f>
-        <v>42170</v>
+        <v>42194</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
@@ -4733,11 +4733,11 @@
       </c>
       <c r="E51" s="14" t="str">
         <f>ON_Swaps!L22</f>
-        <v>USD_YCONRH_OIS14M#0001</v>
+        <v>USD_YCONRH_OIS14M#0002</v>
       </c>
       <c r="F51" s="13">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>1.5699999999999998E-3</v>
+        <v>1.56E-3</v>
       </c>
       <c r="G51" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E51,Trigger)</f>
@@ -4755,11 +4755,11 @@
       </c>
       <c r="K51" s="12">
         <f>_xll.qlRateHelperEarliestDate($E51,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L51" s="11">
         <f>_xll.qlRateHelperLatestDate($E51,Trigger)</f>
-        <v>42198</v>
+        <v>42226</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
@@ -4776,11 +4776,11 @@
       </c>
       <c r="E52" s="14" t="str">
         <f>ON_Swaps!L23</f>
-        <v>USD_YCONRH_OIS15M#0001</v>
+        <v>USD_YCONRH_OIS15M#0002</v>
       </c>
       <c r="F52" s="13">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>1.7499999999999998E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="G52" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E52,Trigger)</f>
@@ -4798,11 +4798,11 @@
       </c>
       <c r="K52" s="12">
         <f>_xll.qlRateHelperEarliestDate($E52,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L52" s="11">
         <f>_xll.qlRateHelperLatestDate($E52,Trigger)</f>
-        <v>42229</v>
+        <v>42256</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
@@ -4819,11 +4819,11 @@
       </c>
       <c r="E53" s="14" t="str">
         <f>ON_Swaps!L24</f>
-        <v>USD_YCONRH_OIS16M#0001</v>
+        <v>USD_YCONRH_OIS16M#0002</v>
       </c>
       <c r="F53" s="13">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>1.92E-3</v>
+        <v>1.8699999999999999E-3</v>
       </c>
       <c r="G53" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E53,Trigger)</f>
@@ -4841,11 +4841,11 @@
       </c>
       <c r="K53" s="12">
         <f>_xll.qlRateHelperEarliestDate($E53,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L53" s="11">
         <f>_xll.qlRateHelperLatestDate($E53,Trigger)</f>
-        <v>42261</v>
+        <v>42286</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
@@ -4862,11 +4862,11 @@
       </c>
       <c r="E54" s="14" t="str">
         <f>ON_Swaps!L25</f>
-        <v>USD_YCONRH_OIS17M#0001</v>
+        <v>USD_YCONRH_OIS17M#0002</v>
       </c>
       <c r="F54" s="13">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>2.1200000000000004E-3</v>
+        <v>2.0500000000000002E-3</v>
       </c>
       <c r="G54" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E54,Trigger)</f>
@@ -4884,11 +4884,11 @@
       </c>
       <c r="K54" s="12">
         <f>_xll.qlRateHelperEarliestDate($E54,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L54" s="11">
         <f>_xll.qlRateHelperLatestDate($E54,Trigger)</f>
-        <v>42290</v>
+        <v>42317</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
@@ -4905,11 +4905,11 @@
       </c>
       <c r="E55" s="14" t="str">
         <f>ON_Swaps!L26</f>
-        <v>USD_YCONRH_OIS18M#0001</v>
+        <v>USD_YCONRH_OIS18M#0002</v>
       </c>
       <c r="F55" s="13">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>2.3499999999999997E-3</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="G55" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E55,Trigger)</f>
@@ -4927,11 +4927,11 @@
       </c>
       <c r="K55" s="12">
         <f>_xll.qlRateHelperEarliestDate($E55,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L55" s="11">
         <f>_xll.qlRateHelperLatestDate($E55,Trigger)</f>
-        <v>42321</v>
+        <v>42347</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
@@ -4948,11 +4948,11 @@
       </c>
       <c r="E56" s="14" t="str">
         <f>ON_Swaps!L27</f>
-        <v>USD_YCONRH_OIS19M#0001</v>
+        <v>USD_YCONRH_OIS19M#0002</v>
       </c>
       <c r="F56" s="13">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>2.5700000000000002E-3</v>
+        <v>2.48E-3</v>
       </c>
       <c r="G56" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E56,Trigger)</f>
@@ -4970,11 +4970,11 @@
       </c>
       <c r="K56" s="12">
         <f>_xll.qlRateHelperEarliestDate($E56,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L56" s="11">
         <f>_xll.qlRateHelperLatestDate($E56,Trigger)</f>
-        <v>42352</v>
+        <v>42380</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
@@ -4991,11 +4991,11 @@
       </c>
       <c r="E57" s="14" t="str">
         <f>ON_Swaps!L28</f>
-        <v>USD_YCONRH_OIS20M#0001</v>
+        <v>USD_YCONRH_OIS20M#0002</v>
       </c>
       <c r="F57" s="13">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>2.8300000000000005E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="G57" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E57,Trigger)</f>
@@ -5013,11 +5013,11 @@
       </c>
       <c r="K57" s="12">
         <f>_xll.qlRateHelperEarliestDate($E57,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L57" s="11">
         <f>_xll.qlRateHelperLatestDate($E57,Trigger)</f>
-        <v>42382</v>
+        <v>42409</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
@@ -5034,11 +5034,11 @@
       </c>
       <c r="E58" s="14" t="str">
         <f>ON_Swaps!L29</f>
-        <v>USD_YCONRH_OIS21M#0001</v>
+        <v>USD_YCONRH_OIS21M#0002</v>
       </c>
       <c r="F58" s="13">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>3.1099999999999999E-3</v>
+        <v>2.9300000000000003E-3</v>
       </c>
       <c r="G58" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E58,Trigger)</f>
@@ -5056,11 +5056,11 @@
       </c>
       <c r="K58" s="12">
         <f>_xll.qlRateHelperEarliestDate($E58,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L58" s="11">
         <f>_xll.qlRateHelperLatestDate($E58,Trigger)</f>
-        <v>42416</v>
+        <v>42438</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
@@ -5077,11 +5077,11 @@
       </c>
       <c r="E59" s="14" t="str">
         <f>ON_Swaps!L30</f>
-        <v>USD_YCONRH_OIS22M#0001</v>
+        <v>USD_YCONRH_OIS22M#0002</v>
       </c>
       <c r="F59" s="13">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>3.3899999999999998E-3</v>
+        <v>3.2100000000000002E-3</v>
       </c>
       <c r="G59" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E59,Trigger)</f>
@@ -5099,11 +5099,11 @@
       </c>
       <c r="K59" s="12">
         <f>_xll.qlRateHelperEarliestDate($E59,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L59" s="11">
         <f>_xll.qlRateHelperLatestDate($E59,Trigger)</f>
-        <v>42443</v>
+        <v>42471</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
@@ -5120,11 +5120,11 @@
       </c>
       <c r="E60" s="14" t="str">
         <f>ON_Swaps!L31</f>
-        <v>USD_YCONRH_OIS23M#0001</v>
+        <v>USD_YCONRH_OIS23M#0002</v>
       </c>
       <c r="F60" s="13">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>3.7099999999999998E-3</v>
+        <v>3.4599999999999995E-3</v>
       </c>
       <c r="G60" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E60,Trigger)</f>
@@ -5142,11 +5142,11 @@
       </c>
       <c r="K60" s="12">
         <f>_xll.qlRateHelperEarliestDate($E60,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L60" s="11">
         <f>_xll.qlRateHelperLatestDate($E60,Trigger)</f>
-        <v>42473</v>
+        <v>42499</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
@@ -5163,11 +5163,11 @@
       </c>
       <c r="E61" s="14" t="str">
         <f>ON_Swaps!L32</f>
-        <v>USD_YCONRH_OIS2Y#0001</v>
+        <v>USD_YCONRH_OIS2Y#0002</v>
       </c>
       <c r="F61" s="13">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>4.0400000000000002E-3</v>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="G61" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E61,Trigger)</f>
@@ -5185,11 +5185,11 @@
       </c>
       <c r="K61" s="12">
         <f>_xll.qlRateHelperEarliestDate($E61,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L61" s="11">
         <f>_xll.qlRateHelperLatestDate($E61,Trigger)</f>
-        <v>42503</v>
+        <v>42530</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.2">
@@ -5206,11 +5206,11 @@
       </c>
       <c r="E62" s="14" t="str">
         <f>ON_Swaps!L33</f>
-        <v>USD_YCONRH_OIS27M#0001</v>
+        <v>USD_YCONRH_OIS27M#0002</v>
       </c>
       <c r="F62" s="13">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
-        <v>5.0699999999999999E-3</v>
+        <v>4.6800000000000001E-3</v>
       </c>
       <c r="G62" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E62,Trigger)</f>
@@ -5227,11 +5227,11 @@
       </c>
       <c r="K62" s="12">
         <f>_xll.qlRateHelperEarliestDate($E62,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L62" s="11">
         <f>_xll.qlRateHelperLatestDate($E62,Trigger)</f>
-        <v>42597</v>
+        <v>42622</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
@@ -5248,11 +5248,11 @@
       </c>
       <c r="E63" s="14" t="str">
         <f>ON_Swaps!L34</f>
-        <v>USD_YCONRH_OIS30M#0001</v>
+        <v>USD_YCONRH_OIS30M#0002</v>
       </c>
       <c r="F63" s="13">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>6.1500000000000001E-3</v>
+        <v>5.6499999999999996E-3</v>
       </c>
       <c r="G63" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E63,Trigger)</f>
@@ -5269,11 +5269,11 @@
       </c>
       <c r="K63" s="12">
         <f>_xll.qlRateHelperEarliestDate($E63,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L63" s="11">
         <f>_xll.qlRateHelperLatestDate($E63,Trigger)</f>
-        <v>42688</v>
+        <v>42713</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
@@ -5290,11 +5290,11 @@
       </c>
       <c r="E64" s="14" t="str">
         <f>ON_Swaps!L35</f>
-        <v>USD_YCONRH_OIS33M#0001</v>
+        <v>USD_YCONRH_OIS33M#0002</v>
       </c>
       <c r="F64" s="13">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
-        <v>7.26E-3</v>
+        <v>6.6500000000000005E-3</v>
       </c>
       <c r="G64" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E64,Trigger)</f>
@@ -5311,11 +5311,11 @@
       </c>
       <c r="K64" s="12">
         <f>_xll.qlRateHelperEarliestDate($E64,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L64" s="11">
         <f>_xll.qlRateHelperLatestDate($E64,Trigger)</f>
-        <v>42779</v>
+        <v>42803</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
@@ -5332,11 +5332,11 @@
       </c>
       <c r="E65" s="14" t="str">
         <f>ON_Swaps!L36</f>
-        <v>USD_YCONRH_OIS3Y#0001</v>
+        <v>USD_YCONRH_OIS3Y#0002</v>
       </c>
       <c r="F65" s="13">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>8.320000000000001E-3</v>
+        <v>7.6800000000000002E-3</v>
       </c>
       <c r="G65" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E65,Trigger)</f>
@@ -5353,11 +5353,11 @@
       </c>
       <c r="K65" s="12">
         <f>_xll.qlRateHelperEarliestDate($E65,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L65" s="11">
         <f>_xll.qlRateHelperLatestDate($E65,Trigger)</f>
-        <v>42870</v>
+        <v>42895</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
@@ -5374,11 +5374,11 @@
       </c>
       <c r="E66" s="14" t="str">
         <f>ON_Swaps!L37</f>
-        <v>USD_YCONRH_OIS39M#0001</v>
+        <v>USD_YCONRH_OIS39M#0002</v>
       </c>
       <c r="F66" s="13">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
-        <v>9.3699999999999999E-3</v>
+        <v>8.7299999999999999E-3</v>
       </c>
       <c r="G66" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E66,Trigger)</f>
@@ -5395,11 +5395,11 @@
       </c>
       <c r="K66" s="12">
         <f>_xll.qlRateHelperEarliestDate($E66,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L66" s="11">
         <f>_xll.qlRateHelperLatestDate($E66,Trigger)</f>
-        <v>42961</v>
+        <v>42989</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
@@ -5416,11 +5416,11 @@
       </c>
       <c r="E67" s="14" t="str">
         <f>ON_Swaps!L38</f>
-        <v>USD_YCONRH_OIS42M#0001</v>
+        <v>USD_YCONRH_OIS42M#0002</v>
       </c>
       <c r="F67" s="13">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
-        <v>1.0369999999999999E-2</v>
+        <v>9.7199999999999995E-3</v>
       </c>
       <c r="G67" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E67,Trigger)</f>
@@ -5437,11 +5437,11 @@
       </c>
       <c r="K67" s="12">
         <f>_xll.qlRateHelperEarliestDate($E67,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L67" s="11">
         <f>_xll.qlRateHelperLatestDate($E67,Trigger)</f>
-        <v>43052</v>
+        <v>43080</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
@@ -5458,11 +5458,11 @@
       </c>
       <c r="E68" s="14" t="str">
         <f>ON_Swaps!L39</f>
-        <v>USD_YCONRH_OIS45M#0001</v>
+        <v>USD_YCONRH_OIS45M#0002</v>
       </c>
       <c r="F68" s="13">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
-        <v>1.1360000000000002E-2</v>
+        <v>1.0659999999999998E-2</v>
       </c>
       <c r="G68" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E68,Trigger)</f>
@@ -5479,11 +5479,11 @@
       </c>
       <c r="K68" s="12">
         <f>_xll.qlRateHelperEarliestDate($E68,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L68" s="11">
         <f>_xll.qlRateHelperLatestDate($E68,Trigger)</f>
-        <v>43144</v>
+        <v>43168</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
@@ -5500,11 +5500,11 @@
       </c>
       <c r="E69" s="14" t="str">
         <f>ON_Swaps!L40</f>
-        <v>USD_YCONRH_OIS4Y#0001</v>
+        <v>USD_YCONRH_OIS4Y#0002</v>
       </c>
       <c r="F69" s="13">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
-        <v>1.2269999999999998E-2</v>
+        <v>1.1659999999999998E-2</v>
       </c>
       <c r="G69" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E69,Trigger)</f>
@@ -5521,11 +5521,11 @@
       </c>
       <c r="K69" s="12">
         <f>_xll.qlRateHelperEarliestDate($E69,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L69" s="11">
         <f>_xll.qlRateHelperLatestDate($E69,Trigger)</f>
-        <v>43234</v>
+        <v>43262</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="E70" s="14" t="str">
         <f>ON_Swaps!L41</f>
-        <v>USD_YCONRH_OIS51M#0001</v>
+        <v>USD_YCONRH_OIS51M#0002</v>
       </c>
       <c r="F70" s="13">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
-        <v>1.3170000000000001E-2</v>
+        <v>1.2540000000000001E-2</v>
       </c>
       <c r="G70" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E70,Trigger)</f>
@@ -5563,11 +5563,11 @@
       </c>
       <c r="K70" s="12">
         <f>_xll.qlRateHelperEarliestDate($E70,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L70" s="11">
         <f>_xll.qlRateHelperLatestDate($E70,Trigger)</f>
-        <v>43325</v>
+        <v>43353</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
@@ -5584,11 +5584,11 @@
       </c>
       <c r="E71" s="14" t="str">
         <f>ON_Swaps!L42</f>
-        <v>USD_YCONRH_OIS54M#0001</v>
+        <v>USD_YCONRH_OIS54M#0002</v>
       </c>
       <c r="F71" s="13">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
-        <v>1.3980000000000001E-2</v>
+        <v>1.3439999999999999E-2</v>
       </c>
       <c r="G71" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E71,Trigger)</f>
@@ -5605,11 +5605,11 @@
       </c>
       <c r="K71" s="12">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L71" s="11">
         <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>43417</v>
+        <v>43444</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
@@ -5626,11 +5626,11 @@
       </c>
       <c r="E72" s="14" t="str">
         <f>ON_Swaps!L43</f>
-        <v>USD_YCONRH_OIS57M#0001</v>
+        <v>USD_YCONRH_OIS57M#0002</v>
       </c>
       <c r="F72" s="13">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
-        <v>1.4849999999999999E-2</v>
+        <v>1.427E-2</v>
       </c>
       <c r="G72" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E72,Trigger)</f>
@@ -5647,11 +5647,11 @@
       </c>
       <c r="K72" s="12">
         <f>_xll.qlRateHelperEarliestDate($E72,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L72" s="11">
         <f>_xll.qlRateHelperLatestDate($E72,Trigger)</f>
-        <v>43509</v>
+        <v>43535</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
@@ -5668,11 +5668,11 @@
       </c>
       <c r="E73" s="14" t="str">
         <f>ON_Swaps!L44</f>
-        <v>USD_YCONRH_OIS5Y#0001</v>
+        <v>USD_YCONRH_OIS5Y#0002</v>
       </c>
       <c r="F73" s="13">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
-        <v>1.5539999999999998E-2</v>
+        <v>1.508E-2</v>
       </c>
       <c r="G73" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E73,Trigger)</f>
@@ -5690,11 +5690,11 @@
       </c>
       <c r="K73" s="12">
         <f>_xll.qlRateHelperEarliestDate($E73,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L73" s="11">
         <f>_xll.qlRateHelperLatestDate($E73,Trigger)</f>
-        <v>43598</v>
+        <v>43626</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
@@ -5711,11 +5711,11 @@
       </c>
       <c r="E74" s="14" t="str">
         <f>ON_Swaps!L45</f>
-        <v>USD_YCONRH_OIS6Y#0001</v>
+        <v>USD_YCONRH_OIS6Y#0002</v>
       </c>
       <c r="F74" s="13">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
-        <v>1.822E-2</v>
+        <v>1.7890000000000003E-2</v>
       </c>
       <c r="G74" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E74,Trigger)</f>
@@ -5733,11 +5733,11 @@
       </c>
       <c r="K74" s="12">
         <f>_xll.qlRateHelperEarliestDate($E74,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L74" s="11">
         <f>_xll.qlRateHelperLatestDate($E74,Trigger)</f>
-        <v>43964</v>
+        <v>43991</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
@@ -5754,11 +5754,11 @@
       </c>
       <c r="E75" s="14" t="str">
         <f>ON_Swaps!L46</f>
-        <v>USD_YCONRH_OIS7Y#0001</v>
+        <v>USD_YCONRH_OIS7Y#0002</v>
       </c>
       <c r="F75" s="13">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
-        <v>2.035E-2</v>
+        <v>2.0180000000000003E-2</v>
       </c>
       <c r="G75" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E75,Trigger)</f>
@@ -5776,11 +5776,11 @@
       </c>
       <c r="K75" s="12">
         <f>_xll.qlRateHelperEarliestDate($E75,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L75" s="11">
         <f>_xll.qlRateHelperLatestDate($E75,Trigger)</f>
-        <v>44329</v>
+        <v>44356</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
@@ -5797,11 +5797,11 @@
       </c>
       <c r="E76" s="14" t="str">
         <f>ON_Swaps!L47</f>
-        <v>USD_YCONRH_OIS8Y#0001</v>
+        <v>USD_YCONRH_OIS8Y#0002</v>
       </c>
       <c r="F76" s="13">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
-        <v>2.2080000000000002E-2</v>
+        <v>2.2019999999999998E-2</v>
       </c>
       <c r="G76" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E76,Trigger)</f>
@@ -5819,11 +5819,11 @@
       </c>
       <c r="K76" s="12">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L76" s="11">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>44694</v>
+        <v>44721</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
@@ -5840,11 +5840,11 @@
       </c>
       <c r="E77" s="14" t="str">
         <f>ON_Swaps!L48</f>
-        <v>USD_YCONRH_OIS9Y#0001</v>
+        <v>USD_YCONRH_OIS9Y#0002</v>
       </c>
       <c r="F77" s="13">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
-        <v>2.3479999999999997E-2</v>
+        <v>2.3540000000000002E-2</v>
       </c>
       <c r="G77" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E77,Trigger)</f>
@@ -5862,11 +5862,11 @@
       </c>
       <c r="K77" s="12">
         <f>_xll.qlRateHelperEarliestDate($E77,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L77" s="11">
         <f>_xll.qlRateHelperLatestDate($E77,Trigger)</f>
-        <v>45061</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
@@ -5883,11 +5883,11 @@
       </c>
       <c r="E78" s="14" t="str">
         <f>ON_Swaps!L49</f>
-        <v>USD_YCONRH_OIS10Y#0001</v>
+        <v>USD_YCONRH_OIS10Y#0002</v>
       </c>
       <c r="F78" s="13">
         <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
-        <v>2.4649999999999998E-2</v>
+        <v>2.487E-2</v>
       </c>
       <c r="G78" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E78,Trigger)</f>
@@ -5905,11 +5905,11 @@
       </c>
       <c r="K78" s="12">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L78" s="11">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>45425</v>
+        <v>45453</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
@@ -5926,11 +5926,11 @@
       </c>
       <c r="E79" s="14" t="str">
         <f>ON_Swaps!L50</f>
-        <v>USD_YCONRH_OIS12Y#0001</v>
+        <v>USD_YCONRH_OIS12Y#0002</v>
       </c>
       <c r="F79" s="13">
         <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
-        <v>2.6579999999999999E-2</v>
+        <v>2.6929999999999999E-2</v>
       </c>
       <c r="G79" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E79,Trigger)</f>
@@ -5948,11 +5948,11 @@
       </c>
       <c r="K79" s="12">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L79" s="11">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>46155</v>
+        <v>46182</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
@@ -5969,11 +5969,11 @@
       </c>
       <c r="E80" s="14" t="str">
         <f>ON_Swaps!L51</f>
-        <v>USD_YCONRH_OIS15Y#0001</v>
+        <v>USD_YCONRH_OIS15Y#0002</v>
       </c>
       <c r="F80" s="13">
         <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
-        <v>2.8580000000000001E-2</v>
+        <v>2.903E-2</v>
       </c>
       <c r="G80" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E80,Trigger)</f>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="K80" s="12">
         <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L80" s="11">
         <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
-        <v>47252</v>
+        <v>47280</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
@@ -6009,11 +6009,11 @@
       </c>
       <c r="E81" s="14" t="str">
         <f>ON_Swaps!L52</f>
-        <v>USD_YCONRH_OIS20Y#0001</v>
+        <v>USD_YCONRH_OIS20Y#0002</v>
       </c>
       <c r="F81" s="13">
         <f>_xll.qlRateHelperQuoteValue($E81,Trigger)</f>
-        <v>3.023E-2</v>
+        <v>3.0880000000000001E-2</v>
       </c>
       <c r="G81" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E81,Trigger)</f>
@@ -6031,11 +6031,11 @@
       </c>
       <c r="K81" s="12">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L81" s="11">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>49079</v>
+        <v>49104</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
@@ -6049,11 +6049,11 @@
       </c>
       <c r="E82" s="14" t="str">
         <f>ON_Swaps!L53</f>
-        <v>USD_YCONRH_OIS25Y#0001</v>
+        <v>USD_YCONRH_OIS25Y#0002</v>
       </c>
       <c r="F82" s="13">
         <f>_xll.qlRateHelperQuoteValue($E82,Trigger)</f>
-        <v>3.0990000000000004E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="G82" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E82,Trigger)</f>
@@ -6070,11 +6070,11 @@
       </c>
       <c r="K82" s="12">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L82" s="11">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>50903</v>
+        <v>50930</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="E83" s="14" t="str">
         <f>ON_Swaps!L54</f>
-        <v>USD_YCONRH_OIS27Y#0001</v>
+        <v>USD_YCONRH_OIS27Y#0002</v>
       </c>
       <c r="F83" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
@@ -6110,11 +6110,11 @@
       </c>
       <c r="K83" s="12">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L83" s="11">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>51634</v>
+        <v>51662</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
@@ -6131,11 +6131,11 @@
       </c>
       <c r="E84" s="14" t="str">
         <f>ON_Swaps!L55</f>
-        <v>USD_YCONRH_OIS30Y#0001</v>
+        <v>USD_YCONRH_OIS30Y#0002</v>
       </c>
       <c r="F84" s="13">
         <f>_xll.qlRateHelperQuoteValue($E84,Trigger)</f>
-        <v>3.1289999999999998E-2</v>
+        <v>3.2080000000000004E-2</v>
       </c>
       <c r="G84" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E84,Trigger)</f>
@@ -6152,11 +6152,11 @@
       </c>
       <c r="K84" s="12">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L84" s="11">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>52730</v>
+        <v>52757</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
@@ -6173,11 +6173,11 @@
       </c>
       <c r="E85" s="14" t="str">
         <f>ON_Swaps!L56</f>
-        <v>USD_YCONRH_OIS35Y#0001</v>
+        <v>USD_YCONRH_OIS35Y#0002</v>
       </c>
       <c r="F85" s="13">
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
-        <v>3.1349999999999996E-2</v>
+        <v>3.227E-2</v>
       </c>
       <c r="G85" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E85,Trigger)</f>
@@ -6195,11 +6195,11 @@
       </c>
       <c r="K85" s="12">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L85" s="11">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>54556</v>
+        <v>54583</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
@@ -6216,11 +6216,11 @@
       </c>
       <c r="E86" s="14" t="str">
         <f>ON_Swaps!L57</f>
-        <v>USD_YCONRH_OIS40Y#0001</v>
+        <v>USD_YCONRH_OIS40Y#0002</v>
       </c>
       <c r="F86" s="13">
         <f>_xll.qlRateHelperQuoteValue($E86,Trigger)</f>
-        <v>3.1370000000000002E-2</v>
+        <v>3.227E-2</v>
       </c>
       <c r="G86" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E86,Trigger)</f>
@@ -6238,11 +6238,11 @@
       </c>
       <c r="K86" s="12">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L86" s="11">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>56382</v>
+        <v>56409</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
@@ -6259,11 +6259,11 @@
       </c>
       <c r="E87" s="14" t="str">
         <f>ON_Swaps!L58</f>
-        <v>USD_YCONRH_OIS45Y#0001</v>
+        <v>USD_YCONRH_OIS45Y#0002</v>
       </c>
       <c r="F87" s="13">
         <f>_xll.qlRateHelperQuoteValue($E87,Trigger)</f>
-        <v>3.1269999999999999E-2</v>
+        <v>3.218E-2</v>
       </c>
       <c r="G87" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E87,Trigger)</f>
@@ -6281,11 +6281,11 @@
       </c>
       <c r="K87" s="12">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L87" s="11">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>58208</v>
+        <v>58235</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
@@ -6302,11 +6302,11 @@
       </c>
       <c r="E88" s="8" t="str">
         <f>ON_Swaps!L59</f>
-        <v>USD_YCONRH_OIS50Y#0001</v>
+        <v>USD_YCONRH_OIS50Y#0002</v>
       </c>
       <c r="F88" s="7">
         <f>_xll.qlRateHelperQuoteValue($E88,Trigger)</f>
-        <v>3.1179999999999999E-2</v>
+        <v>3.209E-2</v>
       </c>
       <c r="G88" s="7" t="e">
         <f>_xll.qlSwapRateHelperSpread($E88,Trigger)</f>
@@ -6324,11 +6324,11 @@
       </c>
       <c r="K88" s="4">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="L88" s="3">
         <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>60035</v>
+        <v>60062</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
@@ -7938,7 +7938,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -7990,7 +7990,7 @@
       </c>
       <c r="E2" s="39">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>1.5000000000000002E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="F2" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -7998,14 +7998,14 @@
       </c>
       <c r="G2" s="38">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41768</v>
+        <v>41795</v>
       </c>
       <c r="H2" s="37">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41771</v>
+        <v>41796</v>
       </c>
       <c r="I2" s="189">
-        <v>0.99998750015624804</v>
+        <v>0.99999611112623454</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -8020,7 +8020,7 @@
       </c>
       <c r="E3" s="39">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>1.5000000000000002E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="F3" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -8028,14 +8028,14 @@
       </c>
       <c r="G3" s="38">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41771</v>
+        <v>41796</v>
       </c>
       <c r="H3" s="37">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="I3" s="189">
-        <v>0.99998333355907243</v>
+        <v>0.99998444464092162</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -8050,7 +8050,7 @@
       </c>
       <c r="E4" s="39">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>8.5000000000000006E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="F4" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -8058,14 +8058,14 @@
       </c>
       <c r="G4" s="38">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H4" s="37">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41779</v>
+        <v>41806</v>
       </c>
       <c r="I4" s="189">
-        <v>0.99996680632991219</v>
+        <v>0.99996694521938034</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -8080,7 +8080,7 @@
       </c>
       <c r="E5" s="39">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>8.5000000000000006E-4</v>
+        <v>9.2000000000000003E-4</v>
       </c>
       <c r="F5" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -8088,14 +8088,14 @@
       </c>
       <c r="G5" s="38">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H5" s="37">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41786</v>
+        <v>41813</v>
       </c>
       <c r="I5" s="189">
-        <v>0.99995027964695959</v>
+        <v>0.99994866869981114</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="E6" s="39">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>8.5000000000000006E-4</v>
+        <v>9.2999999999999995E-4</v>
       </c>
       <c r="F6" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -8119,20 +8119,20 @@
       </c>
       <c r="G6" s="38">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H6" s="37">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41793</v>
+        <v>41820</v>
       </c>
       <c r="I6" s="189">
-        <v>0.99993375351061375</v>
+        <v>0.99993019842770003</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_RateHelpersSelected#0001</v>
+        <v>USD_YCONRH_RateHelpersSelected#0002</v>
       </c>
       <c r="B7" s="41" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -8143,7 +8143,7 @@
       </c>
       <c r="E7" s="39">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>8.5000000000000006E-4</v>
+        <v>9.3999999999999997E-4</v>
       </c>
       <c r="F7" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -8151,14 +8151,14 @@
       </c>
       <c r="G7" s="38">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H7" s="37">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41803</v>
+        <v>41829</v>
       </c>
       <c r="I7" s="189">
-        <v>0.99991014569169623</v>
+        <v>0.9999061186616538</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="E8" s="39">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>9.5E-4</v>
       </c>
       <c r="F8" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -8175,14 +8175,14 @@
       </c>
       <c r="G8" s="38">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H8" s="37">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41834</v>
+        <v>41862</v>
       </c>
       <c r="I8" s="189">
-        <v>0.99982836016321486</v>
+        <v>0.99981822486103833</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="E9" s="39">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>9.2999999999999995E-4</v>
+        <v>9.7000000000000005E-4</v>
       </c>
       <c r="F9" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -8199,14 +8199,14 @@
       </c>
       <c r="G9" s="38">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H9" s="37">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41864</v>
+        <v>41891</v>
       </c>
       <c r="I9" s="189">
-        <v>0.99974572732441214</v>
+        <v>0.99973662104070027</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -8215,7 +8215,7 @@
       </c>
       <c r="E10" s="39">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>9.5E-4</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="F10" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -8223,14 +8223,14 @@
       </c>
       <c r="G10" s="38">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H10" s="37">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41897</v>
+        <v>41921</v>
       </c>
       <c r="I10" s="189">
-        <v>0.99965358671606364</v>
+        <v>0.99965244895535199</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -8239,7 +8239,7 @@
       </c>
       <c r="E11" s="39">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>9.7999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F11" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -8247,14 +8247,14 @@
       </c>
       <c r="G11" s="38">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H11" s="37">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41926</v>
+        <v>41953</v>
       </c>
       <c r="I11" s="189">
-        <v>0.99956429399448998</v>
+        <v>0.99955685643023651</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="E12" s="39">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>1.01E-3</v>
+        <v>1.0200000000000001E-3</v>
       </c>
       <c r="F12" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -8271,14 +8271,14 @@
       </c>
       <c r="G12" s="38">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H12" s="37">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41956</v>
+        <v>41982</v>
       </c>
       <c r="I12" s="189">
-        <v>0.99946738628388632</v>
+        <v>0.99946622140512298</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -8287,7 +8287,7 @@
       </c>
       <c r="E13" s="39">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>1.0299999999999999E-3</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="F13" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -8295,14 +8295,14 @@
       </c>
       <c r="G13" s="38">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H13" s="37">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>41988</v>
+        <v>42013</v>
       </c>
       <c r="I13" s="189">
-        <v>0.99936572554068814</v>
+        <v>0.9993606770183493</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="E14" s="39">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>1.07E-3</v>
+        <v>1.08E-3</v>
       </c>
       <c r="F14" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -8319,14 +8319,14 @@
       </c>
       <c r="G14" s="38">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H14" s="37">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42017</v>
+        <v>42044</v>
       </c>
       <c r="I14" s="189">
-        <v>0.99925568112349872</v>
+        <v>0.9992499958939397</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -8343,14 +8343,14 @@
       </c>
       <c r="G15" s="38">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H15" s="37">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42048</v>
+        <v>42072</v>
       </c>
       <c r="I15" s="189">
-        <v>0.99912541786693065</v>
+        <v>0.99913584526301158</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -8367,14 +8367,14 @@
       </c>
       <c r="G16" s="38">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H16" s="37">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42076</v>
+        <v>42103</v>
       </c>
       <c r="I16" s="189">
-        <v>0.99899632518978487</v>
+        <v>0.99899743517496875</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.2">
@@ -8383,7 +8383,7 @@
       </c>
       <c r="E17" s="39">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.25E-3</v>
+        <v>1.24E-3</v>
       </c>
       <c r="F17" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -8391,14 +8391,14 @@
       </c>
       <c r="G17" s="38">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H17" s="37">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42107</v>
+        <v>42135</v>
       </c>
       <c r="I17" s="189">
-        <v>0.99882150992773311</v>
+        <v>0.99882846716159357</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.2">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="E18" s="39">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.33E-3</v>
+        <v>1.32E-3</v>
       </c>
       <c r="F18" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -8415,14 +8415,14 @@
       </c>
       <c r="G18" s="38">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H18" s="37">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42137</v>
+        <v>42164</v>
       </c>
       <c r="I18" s="189">
-        <v>0.99863669970942281</v>
+        <v>0.99864792084019727</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.2">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="E19" s="39">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.4400000000000001E-3</v>
+        <v>1.4300000000000001E-3</v>
       </c>
       <c r="F19" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -8439,14 +8439,14 @@
       </c>
       <c r="G19" s="38">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H19" s="37">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42170</v>
+        <v>42194</v>
       </c>
       <c r="I19" s="189">
-        <v>0.99839353603067815</v>
+        <v>0.99841756576351048</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.2">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="E20" s="39">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.5699999999999998E-3</v>
+        <v>1.56E-3</v>
       </c>
       <c r="F20" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -8463,14 +8463,14 @@
       </c>
       <c r="G20" s="38">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H20" s="37">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>42198</v>
+        <v>42226</v>
       </c>
       <c r="I20" s="189">
-        <v>0.99812816829406981</v>
+        <v>0.99813675043917471</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.2">
@@ -8479,7 +8479,7 @@
       </c>
       <c r="E21" s="39">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.7499999999999998E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F21" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -8487,14 +8487,14 @@
       </c>
       <c r="G21" s="38">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H21" s="37">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>42229</v>
+        <v>42256</v>
       </c>
       <c r="I21" s="189">
-        <v>0.99776522413400293</v>
+        <v>0.99782966243512672</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.2">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="E22" s="39">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.92E-3</v>
+        <v>1.8699999999999999E-3</v>
       </c>
       <c r="F22" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -8511,14 +8511,14 @@
       </c>
       <c r="G22" s="38">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H22" s="37">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>42261</v>
+        <v>42286</v>
       </c>
       <c r="I22" s="189">
-        <v>0.99737972032859401</v>
+        <v>0.99745892403731229</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.2">
@@ -8527,7 +8527,7 @@
       </c>
       <c r="E23" s="39">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.1200000000000004E-3</v>
+        <v>2.0500000000000002E-3</v>
       </c>
       <c r="F23" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -8535,14 +8535,14 @@
       </c>
       <c r="G23" s="38">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H23" s="37">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>42290</v>
+        <v>42317</v>
       </c>
       <c r="I23" s="189">
-        <v>0.99693857779427109</v>
+        <v>0.99704011148054794</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.2">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="E24" s="39">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.3499999999999997E-3</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="F24" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -8559,14 +8559,14 @@
       </c>
       <c r="G24" s="38">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H24" s="37">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>42321</v>
+        <v>42347</v>
       </c>
       <c r="I24" s="189">
-        <v>0.99640714722674861</v>
+        <v>0.99656645618724082</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.2">
@@ -8575,7 +8575,7 @@
       </c>
       <c r="E25" s="39">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.5700000000000002E-3</v>
+        <v>2.48E-3</v>
       </c>
       <c r="F25" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -8583,14 +8583,14 @@
       </c>
       <c r="G25" s="38">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H25" s="37">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>42352</v>
+        <v>42380</v>
       </c>
       <c r="I25" s="189">
-        <v>0.99585269588331493</v>
+        <v>0.99599136477362615</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.2">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="E26" s="39">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.8300000000000005E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="F26" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -8607,14 +8607,14 @@
       </c>
       <c r="G26" s="38">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H26" s="37">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>42382</v>
+        <v>42409</v>
       </c>
       <c r="I26" s="189">
-        <v>0.99520120984293536</v>
+        <v>0.99542155884324746</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.2">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="E27" s="39">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>3.1099999999999999E-3</v>
+        <v>2.9300000000000003E-3</v>
       </c>
       <c r="F27" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -8631,14 +8631,14 @@
       </c>
       <c r="G27" s="38">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H27" s="37">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>42416</v>
+        <v>42438</v>
       </c>
       <c r="I27" s="189">
-        <v>0.99443759465301906</v>
+        <v>0.99479930908463898</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.2">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E28" s="39">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>3.3899999999999998E-3</v>
+        <v>3.2100000000000002E-3</v>
       </c>
       <c r="F28" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -8655,14 +8655,14 @@
       </c>
       <c r="G28" s="38">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H28" s="37">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>42443</v>
+        <v>42471</v>
       </c>
       <c r="I28" s="189">
-        <v>0.99368762511069053</v>
+        <v>0.9940132333699746</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.2">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="E29" s="39">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>3.7099999999999998E-3</v>
+        <v>3.4599999999999995E-3</v>
       </c>
       <c r="F29" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -8679,14 +8679,14 @@
       </c>
       <c r="G29" s="38">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H29" s="37">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>42473</v>
+        <v>42499</v>
       </c>
       <c r="I29" s="189">
-        <v>0.99278923567979604</v>
+        <v>0.9932830367876736</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.2">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E30" s="39">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>4.0400000000000002E-3</v>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="F30" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -8703,14 +8703,14 @@
       </c>
       <c r="G30" s="38">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H30" s="37">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>42503</v>
+        <v>42530</v>
       </c>
       <c r="I30" s="189">
-        <v>0.99181907512951839</v>
+        <v>0.99240396192040892</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.2">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="E31" s="39">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>8.320000000000001E-3</v>
+        <v>7.6800000000000002E-3</v>
       </c>
       <c r="F31" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -8727,14 +8727,14 @@
       </c>
       <c r="G31" s="38">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H31" s="37">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>42870</v>
+        <v>42895</v>
       </c>
       <c r="I31" s="189">
-        <v>0.97490091830428804</v>
+        <v>0.97685318588852055</v>
       </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.2">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E32" s="39">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>1.2269999999999998E-2</v>
+        <v>1.1659999999999998E-2</v>
       </c>
       <c r="F32" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -8751,14 +8751,14 @@
       </c>
       <c r="G32" s="38">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H32" s="37">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>43234</v>
+        <v>43262</v>
       </c>
       <c r="I32" s="189">
-        <v>0.95119199552453104</v>
+        <v>0.95353152853152634</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.2">
@@ -8767,7 +8767,7 @@
       </c>
       <c r="E33" s="39">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>1.5539999999999998E-2</v>
+        <v>1.508E-2</v>
       </c>
       <c r="F33" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -8775,14 +8775,14 @@
       </c>
       <c r="G33" s="38">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H33" s="37">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>43598</v>
+        <v>43626</v>
       </c>
       <c r="I33" s="189">
-        <v>0.92367551945168336</v>
+        <v>0.92579036221347377</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.2">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="E34" s="39">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>1.822E-2</v>
+        <v>1.7890000000000003E-2</v>
       </c>
       <c r="F34" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -8799,14 +8799,14 @@
       </c>
       <c r="G34" s="38">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H34" s="37">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>43964</v>
+        <v>43991</v>
       </c>
       <c r="I34" s="189">
-        <v>0.89395626541138662</v>
+        <v>0.89571811418508585</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.2">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="E35" s="39">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>2.035E-2</v>
+        <v>2.0180000000000003E-2</v>
       </c>
       <c r="F35" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -8823,14 +8823,14 @@
       </c>
       <c r="G35" s="38">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H35" s="37">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>44329</v>
+        <v>44356</v>
       </c>
       <c r="I35" s="189">
-        <v>0.86373998868450252</v>
+        <v>0.86467996535151692</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.2">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="E36" s="39">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>2.2080000000000002E-2</v>
+        <v>2.2019999999999998E-2</v>
       </c>
       <c r="F36" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -8847,14 +8847,14 @@
       </c>
       <c r="G36" s="38">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H36" s="37">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>44694</v>
+        <v>44721</v>
       </c>
       <c r="I36" s="189">
-        <v>0.83349838021394218</v>
+        <v>0.83372928500820909</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.2">
@@ -8863,7 +8863,7 @@
       </c>
       <c r="E37" s="39">
         <f>_xll.qlRateHelperRate($D37)</f>
-        <v>2.3479999999999997E-2</v>
+        <v>2.3540000000000002E-2</v>
       </c>
       <c r="F37" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
@@ -8871,14 +8871,14 @@
       </c>
       <c r="G37" s="38">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H37" s="37">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>45061</v>
+        <v>45086</v>
       </c>
       <c r="I37" s="189">
-        <v>0.80370435509570637</v>
+        <v>0.8030857938504804</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.2">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="E38" s="39">
         <f>_xll.qlRateHelperRate($D38)</f>
-        <v>2.4649999999999998E-2</v>
+        <v>2.487E-2</v>
       </c>
       <c r="F38" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
@@ -8895,14 +8895,14 @@
       </c>
       <c r="G38" s="38">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H38" s="37">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>45425</v>
+        <v>45453</v>
       </c>
       <c r="I38" s="189">
-        <v>0.77461736664038361</v>
+        <v>0.77237854004519302</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="E39" s="39">
         <f>_xll.qlRateHelperRate($D39)</f>
-        <v>2.6579999999999999E-2</v>
+        <v>2.6929999999999999E-2</v>
       </c>
       <c r="F39" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
@@ -8919,14 +8919,14 @@
       </c>
       <c r="G39" s="38">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H39" s="37">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>46155</v>
+        <v>46182</v>
       </c>
       <c r="I39" s="189">
-        <v>0.71753663720989758</v>
+        <v>0.71381348424370294</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.2">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="E40" s="39">
         <f>_xll.qlRateHelperRate($D40)</f>
-        <v>2.8580000000000001E-2</v>
+        <v>2.903E-2</v>
       </c>
       <c r="F40" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
@@ -8943,14 +8943,14 @@
       </c>
       <c r="G40" s="38">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H40" s="37">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>47252</v>
+        <v>47280</v>
       </c>
       <c r="I40" s="189">
-        <v>0.6384512970162739</v>
+        <v>0.63312295577422395</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.2">
@@ -8959,7 +8959,7 @@
       </c>
       <c r="E41" s="39">
         <f>_xll.qlRateHelperRate($D41)</f>
-        <v>3.023E-2</v>
+        <v>3.0880000000000001E-2</v>
       </c>
       <c r="F41" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
@@ -8967,14 +8967,14 @@
       </c>
       <c r="G41" s="38">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H41" s="37">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>49079</v>
+        <v>49104</v>
       </c>
       <c r="I41" s="189">
-        <v>0.52993646259720251</v>
+        <v>0.52150391127606377</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.2">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="E42" s="39">
         <f>_xll.qlRateHelperRate($D42)</f>
-        <v>3.0990000000000004E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="F42" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
@@ -8991,14 +8991,14 @@
       </c>
       <c r="G42" s="38">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H42" s="37">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>50903</v>
+        <v>50930</v>
       </c>
       <c r="I42" s="189">
-        <v>0.44331831416751843</v>
+        <v>0.43367713522489598</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.2">
@@ -9007,7 +9007,7 @@
       </c>
       <c r="E43" s="39">
         <f>_xll.qlRateHelperRate($D43)</f>
-        <v>3.1349999999999996E-2</v>
+        <v>3.227E-2</v>
       </c>
       <c r="F43" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
@@ -9015,14 +9015,14 @@
       </c>
       <c r="G43" s="38">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H43" s="37">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>54556</v>
+        <v>54583</v>
       </c>
       <c r="I43" s="189">
-        <v>0.31892104342031019</v>
+        <v>0.30597777881767063</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.2">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="E44" s="39">
         <f>_xll.qlRateHelperRate($D44)</f>
-        <v>3.1370000000000002E-2</v>
+        <v>3.227E-2</v>
       </c>
       <c r="F44" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
@@ -9039,14 +9039,14 @@
       </c>
       <c r="G44" s="38">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H44" s="37">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>56382</v>
+        <v>56409</v>
       </c>
       <c r="I44" s="189">
-        <v>0.27231512843594996</v>
+        <v>0.26049565619468856</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.2">
@@ -9055,7 +9055,7 @@
       </c>
       <c r="E45" s="39">
         <f>_xll.qlRateHelperRate($D45)</f>
-        <v>3.1269999999999999E-2</v>
+        <v>3.218E-2</v>
       </c>
       <c r="F45" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
@@ -9063,14 +9063,14 @@
       </c>
       <c r="G45" s="38">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H45" s="37">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>58208</v>
+        <v>58235</v>
       </c>
       <c r="I45" s="189">
-        <v>0.23508009478397687</v>
+        <v>0.2237303166547423</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.2">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="E46" s="39">
         <f>_xll.qlRateHelperRate($D46)</f>
-        <v>3.1179999999999999E-2</v>
+        <v>3.209E-2</v>
       </c>
       <c r="F46" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
@@ -9087,14 +9087,14 @@
       </c>
       <c r="G46" s="38">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="H46" s="37">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>60035</v>
+        <v>60062</v>
       </c>
       <c r="I46" s="189">
-        <v>0.20316819626589766</v>
+        <v>0.19257186603818371</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.2">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="F3" s="98" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OND#0001</v>
+        <v>USD_YCONRH_OND#0002</v>
       </c>
       <c r="G3" s="97" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -11229,7 +11229,7 @@
       </c>
       <c r="H3" s="139" t="str">
         <f>_xll.qlFraRateHelper(G3,F3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_TND#0001</v>
+        <v>USD_YCONRH_TND#0002</v>
       </c>
       <c r="I3" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -11261,7 +11261,7 @@
       </c>
       <c r="H4" s="136" t="str">
         <f>_xll.qlFraRateHelper(G4,F4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_SND#0001</v>
+        <v>USD_YCONRH_SND#0002</v>
       </c>
       <c r="I4" s="135" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -11419,7 +11419,7 @@
       </c>
       <c r="L4" s="165" t="str">
         <f>_xll.qlOvernightIndex(K4,"usd-no-fix",0,"USD",Calendar,"act/360",,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS_LiborON#0001</v>
+        <v>USD_YCONRH_OIS_LiborON#0002</v>
       </c>
       <c r="M4" s="164" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -11478,7 +11478,7 @@
       </c>
       <c r="L6" s="157" t="str">
         <f>_xll.qlOISRateHelper(K6,2,C6,J6,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OISSW#0001</v>
+        <v>USD_YCONRH_OISSW#0002</v>
       </c>
       <c r="M6" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -11487,11 +11487,11 @@
       <c r="N6" s="154"/>
       <c r="P6" s="156">
         <f>_xll.qlRateHelperEarliestDate($L6)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q6" s="156">
         <f>_xll.qlRateHelperLatestDate($L6)</f>
-        <v>41779</v>
+        <v>41806</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -11530,7 +11530,7 @@
       </c>
       <c r="L7" s="157" t="str">
         <f>_xll.qlOISRateHelper(K7,2,C7,J7,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2W#0001</v>
+        <v>USD_YCONRH_OIS2W#0002</v>
       </c>
       <c r="M7" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -11539,11 +11539,11 @@
       <c r="N7" s="154"/>
       <c r="P7" s="156">
         <f>_xll.qlRateHelperEarliestDate(L7)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q7" s="156">
         <f>_xll.qlRateHelperLatestDate($L7)</f>
-        <v>41786</v>
+        <v>41813</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -11582,7 +11582,7 @@
       </c>
       <c r="L8" s="157" t="str">
         <f>_xll.qlOISRateHelper(K8,2,C8,J8,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3W#0001</v>
+        <v>USD_YCONRH_OIS3W#0002</v>
       </c>
       <c r="M8" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -11591,11 +11591,11 @@
       <c r="N8" s="154"/>
       <c r="P8" s="156">
         <f>_xll.qlRateHelperEarliestDate(L8)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q8" s="156">
         <f>_xll.qlRateHelperLatestDate($L8)</f>
-        <v>41793</v>
+        <v>41820</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -11634,7 +11634,7 @@
       </c>
       <c r="L9" s="157" t="str">
         <f>_xll.qlOISRateHelper(K9,2,C9,J9,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS1M#0001</v>
+        <v>USD_YCONRH_OIS1M#0002</v>
       </c>
       <c r="M9" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -11643,11 +11643,11 @@
       <c r="N9" s="154"/>
       <c r="P9" s="156">
         <f>_xll.qlRateHelperEarliestDate(L9)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q9" s="156">
         <f>_xll.qlRateHelperLatestDate($L9)</f>
-        <v>41803</v>
+        <v>41829</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -11686,7 +11686,7 @@
       </c>
       <c r="L10" s="157" t="str">
         <f>_xll.qlOISRateHelper(K10,2,C10,J10,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2M#0001</v>
+        <v>USD_YCONRH_OIS2M#0002</v>
       </c>
       <c r="M10" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -11695,11 +11695,11 @@
       <c r="N10" s="154"/>
       <c r="P10" s="156">
         <f>_xll.qlRateHelperEarliestDate(L10)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q10" s="156">
         <f>_xll.qlRateHelperLatestDate($L10)</f>
-        <v>41834</v>
+        <v>41862</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -11738,7 +11738,7 @@
       </c>
       <c r="L11" s="157" t="str">
         <f>_xll.qlOISRateHelper(K11,2,C11,J11,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3M#0001</v>
+        <v>USD_YCONRH_OIS3M#0002</v>
       </c>
       <c r="M11" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -11747,11 +11747,11 @@
       <c r="N11" s="154"/>
       <c r="P11" s="156">
         <f>_xll.qlRateHelperEarliestDate(L11)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q11" s="156">
         <f>_xll.qlRateHelperLatestDate($L11)</f>
-        <v>41864</v>
+        <v>41891</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -11790,7 +11790,7 @@
       </c>
       <c r="L12" s="157" t="str">
         <f>_xll.qlOISRateHelper(K12,2,C12,J12,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS4M#0001</v>
+        <v>USD_YCONRH_OIS4M#0002</v>
       </c>
       <c r="M12" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -11799,11 +11799,11 @@
       <c r="N12" s="154"/>
       <c r="P12" s="156">
         <f>_xll.qlRateHelperEarliestDate(L12)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q12" s="156">
         <f>_xll.qlRateHelperLatestDate($L12)</f>
-        <v>41897</v>
+        <v>41921</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -11842,7 +11842,7 @@
       </c>
       <c r="L13" s="157" t="str">
         <f>_xll.qlOISRateHelper(K13,2,C13,J13,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS5M#0001</v>
+        <v>USD_YCONRH_OIS5M#0002</v>
       </c>
       <c r="M13" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -11851,11 +11851,11 @@
       <c r="N13" s="154"/>
       <c r="P13" s="156">
         <f>_xll.qlRateHelperEarliestDate(L13)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q13" s="156">
         <f>_xll.qlRateHelperLatestDate($L13)</f>
-        <v>41926</v>
+        <v>41953</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -11894,7 +11894,7 @@
       </c>
       <c r="L14" s="157" t="str">
         <f>_xll.qlOISRateHelper(K14,2,C14,J14,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS6M#0001</v>
+        <v>USD_YCONRH_OIS6M#0002</v>
       </c>
       <c r="M14" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -11903,11 +11903,11 @@
       <c r="N14" s="154"/>
       <c r="P14" s="156">
         <f>_xll.qlRateHelperEarliestDate(L14)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q14" s="156">
         <f>_xll.qlRateHelperLatestDate($L14)</f>
-        <v>41956</v>
+        <v>41982</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -11946,7 +11946,7 @@
       </c>
       <c r="L15" s="157" t="str">
         <f>_xll.qlOISRateHelper(K15,2,C15,J15,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS7M#0001</v>
+        <v>USD_YCONRH_OIS7M#0002</v>
       </c>
       <c r="M15" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -11955,11 +11955,11 @@
       <c r="N15" s="154"/>
       <c r="P15" s="156">
         <f>_xll.qlRateHelperEarliestDate(L15)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q15" s="156">
         <f>_xll.qlRateHelperLatestDate($L15)</f>
-        <v>41988</v>
+        <v>42013</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -11998,7 +11998,7 @@
       </c>
       <c r="L16" s="157" t="str">
         <f>_xll.qlOISRateHelper(K16,2,C16,J16,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS8M#0001</v>
+        <v>USD_YCONRH_OIS8M#0002</v>
       </c>
       <c r="M16" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -12007,11 +12007,11 @@
       <c r="N16" s="154"/>
       <c r="P16" s="156">
         <f>_xll.qlRateHelperEarliestDate(L16)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q16" s="156">
         <f>_xll.qlRateHelperLatestDate($L16)</f>
-        <v>42017</v>
+        <v>42044</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -12050,7 +12050,7 @@
       </c>
       <c r="L17" s="157" t="str">
         <f>_xll.qlOISRateHelper(K17,2,C17,J17,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS9M#0001</v>
+        <v>USD_YCONRH_OIS9M#0002</v>
       </c>
       <c r="M17" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -12059,11 +12059,11 @@
       <c r="N17" s="154"/>
       <c r="P17" s="156">
         <f>_xll.qlRateHelperEarliestDate(L17)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q17" s="156">
         <f>_xll.qlRateHelperLatestDate($L17)</f>
-        <v>42048</v>
+        <v>42072</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -12102,7 +12102,7 @@
       </c>
       <c r="L18" s="157" t="str">
         <f>_xll.qlOISRateHelper(K18,2,C18,J18,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS10M#0001</v>
+        <v>USD_YCONRH_OIS10M#0002</v>
       </c>
       <c r="M18" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -12111,11 +12111,11 @@
       <c r="N18" s="154"/>
       <c r="P18" s="156">
         <f>_xll.qlRateHelperEarliestDate(L18)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q18" s="156">
         <f>_xll.qlRateHelperLatestDate($L18)</f>
-        <v>42076</v>
+        <v>42103</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -12154,7 +12154,7 @@
       </c>
       <c r="L19" s="157" t="str">
         <f>_xll.qlOISRateHelper(K19,2,C19,J19,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS11M#0001</v>
+        <v>USD_YCONRH_OIS11M#0002</v>
       </c>
       <c r="M19" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -12163,11 +12163,11 @@
       <c r="N19" s="154"/>
       <c r="P19" s="156">
         <f>_xll.qlRateHelperEarliestDate(L19)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q19" s="156">
         <f>_xll.qlRateHelperLatestDate($L19)</f>
-        <v>42107</v>
+        <v>42135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -12206,7 +12206,7 @@
       </c>
       <c r="L20" s="157" t="str">
         <f>_xll.qlOISRateHelper(K20,2,C20,J20,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS1Y#0001</v>
+        <v>USD_YCONRH_OIS1Y#0002</v>
       </c>
       <c r="M20" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -12215,11 +12215,11 @@
       <c r="N20" s="154"/>
       <c r="P20" s="156">
         <f>_xll.qlRateHelperEarliestDate(L20)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q20" s="156">
         <f>_xll.qlRateHelperLatestDate($L20)</f>
-        <v>42137</v>
+        <v>42164</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -12258,7 +12258,7 @@
       </c>
       <c r="L21" s="157" t="str">
         <f>_xll.qlOISRateHelper(K21,2,C21,J21,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS13M#0001</v>
+        <v>USD_YCONRH_OIS13M#0002</v>
       </c>
       <c r="M21" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -12267,11 +12267,11 @@
       <c r="N21" s="154"/>
       <c r="P21" s="156">
         <f>_xll.qlRateHelperEarliestDate(L21)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q21" s="156">
         <f>_xll.qlRateHelperLatestDate($L21)</f>
-        <v>42170</v>
+        <v>42194</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -12310,7 +12310,7 @@
       </c>
       <c r="L22" s="157" t="str">
         <f>_xll.qlOISRateHelper(K22,2,C22,J22,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS14M#0001</v>
+        <v>USD_YCONRH_OIS14M#0002</v>
       </c>
       <c r="M22" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -12319,11 +12319,11 @@
       <c r="N22" s="154"/>
       <c r="P22" s="156">
         <f>_xll.qlRateHelperEarliestDate(L22)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q22" s="156">
         <f>_xll.qlRateHelperLatestDate($L22)</f>
-        <v>42198</v>
+        <v>42226</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -12362,7 +12362,7 @@
       </c>
       <c r="L23" s="157" t="str">
         <f>_xll.qlOISRateHelper(K23,2,C23,J23,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS15M#0001</v>
+        <v>USD_YCONRH_OIS15M#0002</v>
       </c>
       <c r="M23" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -12371,11 +12371,11 @@
       <c r="N23" s="154"/>
       <c r="P23" s="156">
         <f>_xll.qlRateHelperEarliestDate(L23)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q23" s="156">
         <f>_xll.qlRateHelperLatestDate($L23)</f>
-        <v>42229</v>
+        <v>42256</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -12414,7 +12414,7 @@
       </c>
       <c r="L24" s="157" t="str">
         <f>_xll.qlOISRateHelper(K24,2,C24,J24,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS16M#0001</v>
+        <v>USD_YCONRH_OIS16M#0002</v>
       </c>
       <c r="M24" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -12423,11 +12423,11 @@
       <c r="N24" s="154"/>
       <c r="P24" s="156">
         <f>_xll.qlRateHelperEarliestDate(L24)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q24" s="156">
         <f>_xll.qlRateHelperLatestDate($L24)</f>
-        <v>42261</v>
+        <v>42286</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -12466,7 +12466,7 @@
       </c>
       <c r="L25" s="157" t="str">
         <f>_xll.qlOISRateHelper(K25,2,C25,J25,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS17M#0001</v>
+        <v>USD_YCONRH_OIS17M#0002</v>
       </c>
       <c r="M25" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -12475,11 +12475,11 @@
       <c r="N25" s="154"/>
       <c r="P25" s="156">
         <f>_xll.qlRateHelperEarliestDate(L25)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q25" s="156">
         <f>_xll.qlRateHelperLatestDate($L25)</f>
-        <v>42290</v>
+        <v>42317</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -12518,7 +12518,7 @@
       </c>
       <c r="L26" s="157" t="str">
         <f>_xll.qlOISRateHelper(K26,2,C26,J26,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS18M#0001</v>
+        <v>USD_YCONRH_OIS18M#0002</v>
       </c>
       <c r="M26" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -12527,11 +12527,11 @@
       <c r="N26" s="154"/>
       <c r="P26" s="156">
         <f>_xll.qlRateHelperEarliestDate(L26)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q26" s="156">
         <f>_xll.qlRateHelperLatestDate($L26)</f>
-        <v>42321</v>
+        <v>42347</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -12570,7 +12570,7 @@
       </c>
       <c r="L27" s="157" t="str">
         <f>_xll.qlOISRateHelper(K27,2,C27,J27,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS19M#0001</v>
+        <v>USD_YCONRH_OIS19M#0002</v>
       </c>
       <c r="M27" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -12579,11 +12579,11 @@
       <c r="N27" s="154"/>
       <c r="P27" s="156">
         <f>_xll.qlRateHelperEarliestDate(L27)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q27" s="156">
         <f>_xll.qlRateHelperLatestDate($L27)</f>
-        <v>42352</v>
+        <v>42380</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="L28" s="157" t="str">
         <f>_xll.qlOISRateHelper(K28,2,C28,J28,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS20M#0001</v>
+        <v>USD_YCONRH_OIS20M#0002</v>
       </c>
       <c r="M28" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -12631,11 +12631,11 @@
       <c r="N28" s="154"/>
       <c r="P28" s="156">
         <f>_xll.qlRateHelperEarliestDate(L28)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q28" s="156">
         <f>_xll.qlRateHelperLatestDate($L28)</f>
-        <v>42382</v>
+        <v>42409</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -12674,7 +12674,7 @@
       </c>
       <c r="L29" s="157" t="str">
         <f>_xll.qlOISRateHelper(K29,2,C29,J29,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS21M#0001</v>
+        <v>USD_YCONRH_OIS21M#0002</v>
       </c>
       <c r="M29" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -12683,11 +12683,11 @@
       <c r="N29" s="154"/>
       <c r="P29" s="156">
         <f>_xll.qlRateHelperEarliestDate(L29)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q29" s="156">
         <f>_xll.qlRateHelperLatestDate($L29)</f>
-        <v>42416</v>
+        <v>42438</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -12726,7 +12726,7 @@
       </c>
       <c r="L30" s="157" t="str">
         <f>_xll.qlOISRateHelper(K30,2,C30,J30,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS22M#0001</v>
+        <v>USD_YCONRH_OIS22M#0002</v>
       </c>
       <c r="M30" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -12735,11 +12735,11 @@
       <c r="N30" s="154"/>
       <c r="P30" s="156">
         <f>_xll.qlRateHelperEarliestDate(L30)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q30" s="156">
         <f>_xll.qlRateHelperLatestDate($L30)</f>
-        <v>42443</v>
+        <v>42471</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -12778,7 +12778,7 @@
       </c>
       <c r="L31" s="157" t="str">
         <f>_xll.qlOISRateHelper(K31,2,C31,J31,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS23M#0001</v>
+        <v>USD_YCONRH_OIS23M#0002</v>
       </c>
       <c r="M31" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -12787,11 +12787,11 @@
       <c r="N31" s="154"/>
       <c r="P31" s="156">
         <f>_xll.qlRateHelperEarliestDate(L31)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q31" s="156">
         <f>_xll.qlRateHelperLatestDate($L31)</f>
-        <v>42473</v>
+        <v>42499</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -12830,7 +12830,7 @@
       </c>
       <c r="L32" s="157" t="str">
         <f>_xll.qlOISRateHelper(K32,2,C32,J32,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS2Y#0001</v>
+        <v>USD_YCONRH_OIS2Y#0002</v>
       </c>
       <c r="M32" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -12839,11 +12839,11 @@
       <c r="N32" s="154"/>
       <c r="P32" s="156">
         <f>_xll.qlRateHelperEarliestDate(L32)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q32" s="156">
         <f>_xll.qlRateHelperLatestDate($L32)</f>
-        <v>42503</v>
+        <v>42530</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -12882,7 +12882,7 @@
       </c>
       <c r="L33" s="157" t="str">
         <f>_xll.qlOISRateHelper(K33,2,C33,J33,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS27M#0001</v>
+        <v>USD_YCONRH_OIS27M#0002</v>
       </c>
       <c r="M33" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -12891,11 +12891,11 @@
       <c r="N33" s="154"/>
       <c r="P33" s="156">
         <f>_xll.qlRateHelperEarliestDate(L33)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q33" s="156">
         <f>_xll.qlRateHelperLatestDate($L33)</f>
-        <v>42597</v>
+        <v>42622</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -12934,7 +12934,7 @@
       </c>
       <c r="L34" s="157" t="str">
         <f>_xll.qlOISRateHelper(K34,2,C34,J34,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS30M#0001</v>
+        <v>USD_YCONRH_OIS30M#0002</v>
       </c>
       <c r="M34" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -12943,11 +12943,11 @@
       <c r="N34" s="154"/>
       <c r="P34" s="156">
         <f>_xll.qlRateHelperEarliestDate(L34)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q34" s="156">
         <f>_xll.qlRateHelperLatestDate($L34)</f>
-        <v>42688</v>
+        <v>42713</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -12986,7 +12986,7 @@
       </c>
       <c r="L35" s="157" t="str">
         <f>_xll.qlOISRateHelper(K35,2,C35,J35,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS33M#0001</v>
+        <v>USD_YCONRH_OIS33M#0002</v>
       </c>
       <c r="M35" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -12995,11 +12995,11 @@
       <c r="N35" s="154"/>
       <c r="P35" s="156">
         <f>_xll.qlRateHelperEarliestDate(L35)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q35" s="156">
         <f>_xll.qlRateHelperLatestDate($L35)</f>
-        <v>42779</v>
+        <v>42803</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -13038,7 +13038,7 @@
       </c>
       <c r="L36" s="157" t="str">
         <f>_xll.qlOISRateHelper(K36,2,C36,J36,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS3Y#0001</v>
+        <v>USD_YCONRH_OIS3Y#0002</v>
       </c>
       <c r="M36" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -13047,11 +13047,11 @@
       <c r="N36" s="154"/>
       <c r="P36" s="156">
         <f>_xll.qlRateHelperEarliestDate(L36)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q36" s="156">
         <f>_xll.qlRateHelperLatestDate($L36)</f>
-        <v>42870</v>
+        <v>42895</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -13090,7 +13090,7 @@
       </c>
       <c r="L37" s="157" t="str">
         <f>_xll.qlOISRateHelper(K37,2,C37,J37,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS39M#0001</v>
+        <v>USD_YCONRH_OIS39M#0002</v>
       </c>
       <c r="M37" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -13099,11 +13099,11 @@
       <c r="N37" s="154"/>
       <c r="P37" s="156">
         <f>_xll.qlRateHelperEarliestDate(L37)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q37" s="156">
         <f>_xll.qlRateHelperLatestDate($L37)</f>
-        <v>42961</v>
+        <v>42989</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -13142,7 +13142,7 @@
       </c>
       <c r="L38" s="157" t="str">
         <f>_xll.qlOISRateHelper(K38,2,C38,J38,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS42M#0001</v>
+        <v>USD_YCONRH_OIS42M#0002</v>
       </c>
       <c r="M38" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -13188,7 +13188,7 @@
       </c>
       <c r="L39" s="157" t="str">
         <f>_xll.qlOISRateHelper(K39,2,C39,J39,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS45M#0001</v>
+        <v>USD_YCONRH_OIS45M#0002</v>
       </c>
       <c r="M39" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -13234,7 +13234,7 @@
       </c>
       <c r="L40" s="157" t="str">
         <f>_xll.qlOISRateHelper(K40,2,C40,J40,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS4Y#0001</v>
+        <v>USD_YCONRH_OIS4Y#0002</v>
       </c>
       <c r="M40" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -13280,7 +13280,7 @@
       </c>
       <c r="L41" s="157" t="str">
         <f>_xll.qlOISRateHelper(K41,2,C41,J41,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS51M#0001</v>
+        <v>USD_YCONRH_OIS51M#0002</v>
       </c>
       <c r="M41" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -13326,7 +13326,7 @@
       </c>
       <c r="L42" s="157" t="str">
         <f>_xll.qlOISRateHelper(K42,2,C42,J42,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS54M#0001</v>
+        <v>USD_YCONRH_OIS54M#0002</v>
       </c>
       <c r="M42" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -13372,7 +13372,7 @@
       </c>
       <c r="L43" s="157" t="str">
         <f>_xll.qlOISRateHelper(K43,2,C43,J43,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS57M#0001</v>
+        <v>USD_YCONRH_OIS57M#0002</v>
       </c>
       <c r="M43" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L43)</f>
@@ -13418,7 +13418,7 @@
       </c>
       <c r="L44" s="157" t="str">
         <f>_xll.qlOISRateHelper(K44,2,C44,J44,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS5Y#0001</v>
+        <v>USD_YCONRH_OIS5Y#0002</v>
       </c>
       <c r="M44" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -13464,7 +13464,7 @@
       </c>
       <c r="L45" s="157" t="str">
         <f>_xll.qlOISRateHelper(K45,2,C45,J45,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS6Y#0001</v>
+        <v>USD_YCONRH_OIS6Y#0002</v>
       </c>
       <c r="M45" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -13510,7 +13510,7 @@
       </c>
       <c r="L46" s="157" t="str">
         <f>_xll.qlOISRateHelper(K46,2,C46,J46,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS7Y#0001</v>
+        <v>USD_YCONRH_OIS7Y#0002</v>
       </c>
       <c r="M46" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -13556,7 +13556,7 @@
       </c>
       <c r="L47" s="157" t="str">
         <f>_xll.qlOISRateHelper(K47,2,C47,J47,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS8Y#0001</v>
+        <v>USD_YCONRH_OIS8Y#0002</v>
       </c>
       <c r="M47" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -13602,7 +13602,7 @@
       </c>
       <c r="L48" s="157" t="str">
         <f>_xll.qlOISRateHelper(K48,2,C48,J48,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS9Y#0001</v>
+        <v>USD_YCONRH_OIS9Y#0002</v>
       </c>
       <c r="M48" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -13648,7 +13648,7 @@
       </c>
       <c r="L49" s="157" t="str">
         <f>_xll.qlOISRateHelper(K49,2,C49,J49,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS10Y#0001</v>
+        <v>USD_YCONRH_OIS10Y#0002</v>
       </c>
       <c r="M49" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -13694,7 +13694,7 @@
       </c>
       <c r="L50" s="157" t="str">
         <f>_xll.qlOISRateHelper(K50,2,C50,J50,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS12Y#0001</v>
+        <v>USD_YCONRH_OIS12Y#0002</v>
       </c>
       <c r="M50" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="L51" s="157" t="str">
         <f>_xll.qlOISRateHelper(K51,2,C51,J51,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS15Y#0001</v>
+        <v>USD_YCONRH_OIS15Y#0002</v>
       </c>
       <c r="M51" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L51)</f>
@@ -13786,7 +13786,7 @@
       </c>
       <c r="L52" s="157" t="str">
         <f>_xll.qlOISRateHelper(K52,2,C52,J52,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS20Y#0001</v>
+        <v>USD_YCONRH_OIS20Y#0002</v>
       </c>
       <c r="M52" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L52)</f>
@@ -13832,7 +13832,7 @@
       </c>
       <c r="L53" s="157" t="str">
         <f>_xll.qlOISRateHelper(K53,2,C53,J53,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS25Y#0001</v>
+        <v>USD_YCONRH_OIS25Y#0002</v>
       </c>
       <c r="M53" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L53)</f>
@@ -13878,7 +13878,7 @@
       </c>
       <c r="L54" s="157" t="str">
         <f>_xll.qlOISRateHelper(K54,2,C54,J54,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS27Y#0001</v>
+        <v>USD_YCONRH_OIS27Y#0002</v>
       </c>
       <c r="M54" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L54)</f>
@@ -13924,7 +13924,7 @@
       </c>
       <c r="L55" s="157" t="str">
         <f>_xll.qlOISRateHelper(K55,2,C55,J55,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS30Y#0001</v>
+        <v>USD_YCONRH_OIS30Y#0002</v>
       </c>
       <c r="M55" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L55)</f>
@@ -13970,7 +13970,7 @@
       </c>
       <c r="L56" s="157" t="str">
         <f>_xll.qlOISRateHelper(K56,2,C56,J56,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS35Y#0001</v>
+        <v>USD_YCONRH_OIS35Y#0002</v>
       </c>
       <c r="M56" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L56)</f>
@@ -14016,7 +14016,7 @@
       </c>
       <c r="L57" s="157" t="str">
         <f>_xll.qlOISRateHelper(K57,2,C57,J57,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS40Y#0001</v>
+        <v>USD_YCONRH_OIS40Y#0002</v>
       </c>
       <c r="M57" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L57)</f>
@@ -14062,7 +14062,7 @@
       </c>
       <c r="L58" s="157" t="str">
         <f>_xll.qlOISRateHelper(K58,2,C58,J58,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS45Y#0001</v>
+        <v>USD_YCONRH_OIS45Y#0002</v>
       </c>
       <c r="M58" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L58)</f>
@@ -14108,7 +14108,7 @@
       </c>
       <c r="L59" s="157" t="str">
         <f>_xll.qlOISRateHelper(K59,2,C59,J59,$L$4,,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YCONRH_OIS50Y#0001</v>
+        <v>USD_YCONRH_OIS50Y#0002</v>
       </c>
       <c r="M59" s="88" t="str">
         <f>_xll.ohRangeRetrieveError(L59)</f>
@@ -14117,11 +14117,11 @@
       <c r="N59" s="154"/>
       <c r="P59" s="156">
         <f>_xll.qlRateHelperEarliestDate(L59)</f>
-        <v>41772</v>
+        <v>41799</v>
       </c>
       <c r="Q59" s="156">
         <f>_xll.qlRateHelperLatestDate($L59)</f>
-        <v>60035</v>
+        <v>60062</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
